--- a/TF_UI_APIs.xlsx
+++ b/TF_UI_APIs.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\W\tf-new-arch-artifacts\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDF256E5-A322-49D2-8C3C-F26507A10843}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="23256" windowHeight="13176" activeTab="4"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Type1" sheetId="2" r:id="rId1"/>
@@ -18,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="586" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="232">
   <si>
     <t>Tax Authority</t>
   </si>
@@ -739,12 +745,27 @@
   <si>
     <t>Notes</t>
   </si>
+  <si>
+    <t>/TaxCodeService/getAddressOverrides</t>
+  </si>
+  <si>
+    <t>/TaxCodeService/getAddressOverride</t>
+  </si>
+  <si>
+    <t>/TaxCodeService/getRedundantAddressOverrides</t>
+  </si>
+  <si>
+    <t>/TaxCodeService/saveAddressOverride</t>
+  </si>
+  <si>
+    <t>/TaxCodeService/deleteAddressOverride</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2085,93 +2106,93 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:P13" totalsRowShown="0" headerRowDxfId="40" dataDxfId="38" headerRowBorderDxfId="39" tableBorderDxfId="37" totalsRowBorderDxfId="36">
-  <autoFilter ref="A1:P13"/>
-  <sortState ref="A2:J13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:P13" totalsRowShown="0" headerRowDxfId="40" dataDxfId="38" headerRowBorderDxfId="39" tableBorderDxfId="37" totalsRowBorderDxfId="36">
+  <autoFilter ref="A1:P13" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J13">
     <sortCondition ref="A1:A13"/>
   </sortState>
   <tableColumns count="16">
-    <tableColumn id="1" name="Link Description"/>
-    <tableColumn id="2" name="Page Id" dataDxfId="35"/>
-    <tableColumn id="3" name="Autocomplete pageIds" dataDxfId="34"/>
-    <tableColumn id="4" name="Get Prod URL" dataDxfId="33"/>
-    <tableColumn id="11" name="Get URL Ready?"/>
-    <tableColumn id="5" name="Edit Entity"/>
-    <tableColumn id="16" name="Edit  URL Ready"/>
-    <tableColumn id="17" name="Get Usage URL"/>
-    <tableColumn id="18" name="Get Usage Ready"/>
-    <tableColumn id="9" name="Delete URL"/>
-    <tableColumn id="13" name="Delete Ready?"/>
-    <tableColumn id="8" name="Save/Update URL"/>
-    <tableColumn id="7" name="Save/Update Ready?"/>
-    <tableColumn id="10" name="View PDF?"/>
-    <tableColumn id="12" name="All APIs ready?"/>
-    <tableColumn id="6" name="Testing?" dataDxfId="32"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Link Description"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Page Id" dataDxfId="35"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Autocomplete pageIds" dataDxfId="34"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Get Prod URL" dataDxfId="33"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Get URL Ready?"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Edit Entity"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="Edit  URL Ready"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="Get Usage URL"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="Get Usage Ready"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Delete URL"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Delete Ready?"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Save/Update URL"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Save/Update Ready?"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="View PDF?"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="All APIs ready?"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Testing?" dataDxfId="32"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table5" displayName="Table5" ref="A1:H23" totalsRowShown="0" headerRowDxfId="31" dataDxfId="29" headerRowBorderDxfId="30" tableBorderDxfId="28" totalsRowBorderDxfId="27">
-  <autoFilter ref="A1:H23"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table5" displayName="Table5" ref="A1:H23" totalsRowShown="0" headerRowDxfId="31" dataDxfId="29" headerRowBorderDxfId="30" tableBorderDxfId="28" totalsRowBorderDxfId="27">
+  <autoFilter ref="A1:H23" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
   <tableColumns count="8">
-    <tableColumn id="1" name="Field Description" dataDxfId="26"/>
-    <tableColumn id="2" name="Prod URL" dataDxfId="25"/>
-    <tableColumn id="3" name="Is Autocomplete?" dataDxfId="24"/>
-    <tableColumn id="4" name="Dev Done?" dataDxfId="23"/>
-    <tableColumn id="5" name="In Sync With UI?" dataDxfId="22"/>
-    <tableColumn id="6" name="Screens" dataDxfId="21"/>
-    <tableColumn id="7" name="Dev By" dataDxfId="20"/>
-    <tableColumn id="9" name="Note" dataDxfId="19"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Field Description" dataDxfId="26"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Prod URL" dataDxfId="25"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Is Autocomplete?" dataDxfId="24"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Dev Done?" dataDxfId="23"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="In Sync With UI?" dataDxfId="22"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Screens" dataDxfId="21"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Dev By" dataDxfId="20"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="Note" dataDxfId="19"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:G35" totalsRowShown="0" headerRowDxfId="18" headerRowBorderDxfId="17" tableBorderDxfId="16">
-  <autoFilter ref="A1:G35"/>
-  <sortState ref="A2:G35">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table2" displayName="Table2" ref="A1:G35" totalsRowShown="0" headerRowDxfId="18" headerRowBorderDxfId="17" tableBorderDxfId="16">
+  <autoFilter ref="A1:G35" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G35">
     <sortCondition descending="1" ref="F1:F35"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="1" name="Link Description" dataDxfId="15"/>
-    <tableColumn id="3" name="Filter" dataDxfId="14"/>
-    <tableColumn id="4" name="Prod URL" dataDxfId="13"/>
-    <tableColumn id="6" name="Dev Done?" dataDxfId="12"/>
-    <tableColumn id="2" name="UI Sync/Ingt" dataDxfId="11"/>
-    <tableColumn id="7" name="Testing?" dataDxfId="10"/>
-    <tableColumn id="5" name="Dev By" dataDxfId="9"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Link Description" dataDxfId="15"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Filter" dataDxfId="14"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Prod URL" dataDxfId="13"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="Dev Done?" dataDxfId="12"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="UI Sync/Ingt" dataDxfId="11"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0200-000007000000}" name="Testing?" dataDxfId="10"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="Dev By" dataDxfId="9"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table14" displayName="Table14" ref="A1:Q14" totalsRowShown="0" headerRowDxfId="8" dataDxfId="6" headerRowBorderDxfId="7" tableBorderDxfId="5" totalsRowBorderDxfId="4">
-  <autoFilter ref="A1:Q14"/>
-  <sortState ref="A2:J13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table14" displayName="Table14" ref="A1:Q14" totalsRowShown="0" headerRowDxfId="8" dataDxfId="6" headerRowBorderDxfId="7" tableBorderDxfId="5" totalsRowBorderDxfId="4">
+  <autoFilter ref="A1:Q14" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J13">
     <sortCondition ref="A1:A13"/>
   </sortState>
   <tableColumns count="17">
-    <tableColumn id="1" name="Link Description"/>
-    <tableColumn id="2" name="Page Id" dataDxfId="3"/>
-    <tableColumn id="3" name="Autocomplete pageIds" dataDxfId="2"/>
-    <tableColumn id="14" name="Get Prod URL - parent grid"/>
-    <tableColumn id="4" name="Get Prod URL - child grid2" dataDxfId="1"/>
-    <tableColumn id="11" name="Get URL Ready?"/>
-    <tableColumn id="5" name="Edit Entity"/>
-    <tableColumn id="16" name="Edit  URL Ready"/>
-    <tableColumn id="17" name="Get Usage URL"/>
-    <tableColumn id="18" name="Get Usage Ready"/>
-    <tableColumn id="9" name="Delete URL"/>
-    <tableColumn id="13" name="Delete Ready?"/>
-    <tableColumn id="8" name="Save/Update URL"/>
-    <tableColumn id="7" name="Save/Update Ready?"/>
-    <tableColumn id="10" name="View PDF?"/>
-    <tableColumn id="12" name="All APIs ready?"/>
-    <tableColumn id="6" name="Testing?" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Link Description"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Page Id" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="Autocomplete pageIds" dataDxfId="2"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0300-00000E000000}" name="Get Prod URL - parent grid"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="Get Prod URL - child grid2" dataDxfId="1"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0300-00000B000000}" name="Get URL Ready?"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="Edit Entity"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0300-000010000000}" name="Edit  URL Ready"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0300-000011000000}" name="Get Usage URL"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0300-000012000000}" name="Get Usage Ready"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0300-000009000000}" name="Delete URL"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0300-00000D000000}" name="Delete Ready?"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0300-000008000000}" name="Save/Update URL"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0300-000007000000}" name="Save/Update Ready?"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0300-00000A000000}" name="View PDF?"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0300-00000C000000}" name="All APIs ready?"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0300-000006000000}" name="Testing?" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2220,7 +2241,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2253,9 +2274,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2288,6 +2326,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2463,34 +2518,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="47.6640625" customWidth="1"/>
-    <col min="5" max="5" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="47.7109375" customWidth="1"/>
+    <col min="5" max="5" width="16.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="42" customWidth="1"/>
-    <col min="7" max="7" width="16.5546875" customWidth="1"/>
-    <col min="8" max="8" width="52.44140625" customWidth="1"/>
-    <col min="9" max="9" width="16.5546875" customWidth="1"/>
-    <col min="10" max="10" width="45.6640625" customWidth="1"/>
-    <col min="11" max="11" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="42.5546875" customWidth="1"/>
-    <col min="13" max="13" width="21.109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.5703125" customWidth="1"/>
+    <col min="8" max="8" width="52.42578125" customWidth="1"/>
+    <col min="9" max="9" width="16.5703125" customWidth="1"/>
+    <col min="10" max="10" width="45.7109375" customWidth="1"/>
+    <col min="11" max="11" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="42.5703125" customWidth="1"/>
+    <col min="13" max="13" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>34</v>
       </c>
@@ -2540,15 +2595,45 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>55</v>
       </c>
       <c r="B2" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="3" spans="1:16">
+      <c r="D2" t="s">
+        <v>227</v>
+      </c>
+      <c r="E2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F2" t="s">
+        <v>228</v>
+      </c>
+      <c r="G2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H2" t="s">
+        <v>229</v>
+      </c>
+      <c r="I2" t="s">
+        <v>66</v>
+      </c>
+      <c r="J2" t="s">
+        <v>231</v>
+      </c>
+      <c r="K2" t="s">
+        <v>66</v>
+      </c>
+      <c r="L2" t="s">
+        <v>230</v>
+      </c>
+      <c r="M2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="40" t="s">
         <v>12</v>
       </c>
@@ -2596,7 +2681,7 @@
       </c>
       <c r="P3" s="40"/>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="40" t="s">
         <v>7</v>
       </c>
@@ -2644,7 +2729,7 @@
       </c>
       <c r="P4" s="40"/>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="40" t="s">
         <v>52</v>
       </c>
@@ -2692,7 +2777,7 @@
       </c>
       <c r="P5" s="40"/>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="40" t="s">
         <v>53</v>
       </c>
@@ -2740,7 +2825,7 @@
       </c>
       <c r="P6" s="40"/>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>54</v>
       </c>
@@ -2787,7 +2872,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="40" t="s">
         <v>4</v>
       </c>
@@ -2835,7 +2920,7 @@
       </c>
       <c r="P8" s="40"/>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="40" t="s">
         <v>5</v>
       </c>
@@ -2883,7 +2968,7 @@
       </c>
       <c r="P9" s="40"/>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="40" t="s">
         <v>56</v>
       </c>
@@ -2931,7 +3016,7 @@
       </c>
       <c r="P10" s="40"/>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>195</v>
       </c>
@@ -2978,7 +3063,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>201</v>
       </c>
@@ -3030,26 +3115,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="47.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="30.33203125" customWidth="1"/>
-    <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="24.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="47.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.28515625" customWidth="1"/>
+    <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>95</v>
       </c>
@@ -3075,7 +3160,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="86.4">
+    <row r="2" spans="1:8" ht="105" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
         <v>80</v>
       </c>
@@ -3099,7 +3184,7 @@
       </c>
       <c r="H2" s="20"/>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
         <v>89</v>
       </c>
@@ -3121,7 +3206,7 @@
       </c>
       <c r="H3" s="21"/>
     </row>
-    <row r="4" spans="1:8" ht="115.2">
+    <row r="4" spans="1:8" ht="135" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
         <v>83</v>
       </c>
@@ -3145,7 +3230,7 @@
       </c>
       <c r="H4" s="21"/>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="17" t="s">
         <v>85</v>
       </c>
@@ -3165,7 +3250,7 @@
       <c r="G5" s="21"/>
       <c r="H5" s="21"/>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="17" t="s">
         <v>85</v>
       </c>
@@ -3189,7 +3274,7 @@
       </c>
       <c r="H6" s="21"/>
     </row>
-    <row r="7" spans="1:8" ht="43.2">
+    <row r="7" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A7" s="17" t="s">
         <v>99</v>
       </c>
@@ -3215,7 +3300,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="22" t="s">
         <v>87</v>
       </c>
@@ -3239,7 +3324,7 @@
       </c>
       <c r="H8" s="21"/>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="26" t="s">
         <v>83</v>
       </c>
@@ -3261,7 +3346,7 @@
       <c r="G9" s="27"/>
       <c r="H9" s="21"/>
     </row>
-    <row r="10" spans="1:8" ht="28.8">
+    <row r="10" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="22" t="s">
         <v>99</v>
       </c>
@@ -3285,7 +3370,7 @@
       </c>
       <c r="H10" s="27"/>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="26" t="s">
         <v>105</v>
       </c>
@@ -3309,7 +3394,7 @@
       </c>
       <c r="H11" s="27"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="26" t="s">
         <v>99</v>
       </c>
@@ -3329,7 +3414,7 @@
       <c r="G12" s="27"/>
       <c r="H12" s="27"/>
     </row>
-    <row r="13" spans="1:8" ht="28.8">
+    <row r="13" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="26" t="s">
         <v>110</v>
       </c>
@@ -3351,7 +3436,7 @@
       <c r="G13" s="27"/>
       <c r="H13" s="27"/>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="26" t="s">
         <v>113</v>
       </c>
@@ -3373,7 +3458,7 @@
       <c r="G14" s="27"/>
       <c r="H14" s="27"/>
     </row>
-    <row r="15" spans="1:8" ht="43.2">
+    <row r="15" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="22" t="s">
         <v>124</v>
       </c>
@@ -3395,7 +3480,7 @@
       <c r="G15" s="27"/>
       <c r="H15" s="27"/>
     </row>
-    <row r="16" spans="1:8" ht="28.8">
+    <row r="16" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="26" t="s">
         <v>123</v>
       </c>
@@ -3417,7 +3502,7 @@
       <c r="G16" s="27"/>
       <c r="H16" s="27"/>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="26" t="s">
         <v>120</v>
       </c>
@@ -3439,7 +3524,7 @@
       <c r="G17" s="27"/>
       <c r="H17" s="27"/>
     </row>
-    <row r="18" spans="1:8" ht="100.8">
+    <row r="18" spans="1:8" ht="135" x14ac:dyDescent="0.25">
       <c r="A18" s="26" t="s">
         <v>80</v>
       </c>
@@ -3461,7 +3546,7 @@
       <c r="G18" s="27"/>
       <c r="H18" s="27"/>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="26" t="s">
         <v>85</v>
       </c>
@@ -3485,7 +3570,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="22" t="s">
         <v>85</v>
       </c>
@@ -3507,7 +3592,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="26" t="s">
         <v>131</v>
       </c>
@@ -3527,7 +3612,7 @@
       <c r="G21" s="27"/>
       <c r="H21" s="27"/>
     </row>
-    <row r="22" spans="1:8" ht="43.2">
+    <row r="22" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A22" s="26" t="s">
         <v>83</v>
       </c>
@@ -3549,7 +3634,7 @@
       <c r="G22" s="27"/>
       <c r="H22" s="27"/>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="26" t="s">
         <v>80</v>
       </c>
@@ -3581,25 +3666,25 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G35"/>
   <sheetViews>
     <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="39.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="83.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="39.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="83.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>34</v>
       </c>
@@ -3622,7 +3707,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>12</v>
       </c>
@@ -3643,7 +3728,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>30</v>
       </c>
@@ -3664,7 +3749,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>26</v>
       </c>
@@ -3685,7 +3770,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>17</v>
       </c>
@@ -3706,7 +3791,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>32</v>
       </c>
@@ -3727,7 +3812,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="35" t="s">
         <v>20</v>
       </c>
@@ -3748,7 +3833,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="35" t="s">
         <v>21</v>
       </c>
@@ -3769,7 +3854,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>29</v>
       </c>
@@ -3790,7 +3875,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>33</v>
       </c>
@@ -3811,7 +3896,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>31</v>
       </c>
@@ -3832,7 +3917,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>28</v>
       </c>
@@ -3853,7 +3938,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>27</v>
       </c>
@@ -3874,7 +3959,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>25</v>
       </c>
@@ -3895,7 +3980,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>2</v>
       </c>
@@ -3916,7 +4001,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>19</v>
       </c>
@@ -3937,7 +4022,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="16" t="s">
         <v>0</v>
       </c>
@@ -3958,7 +4043,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>24</v>
       </c>
@@ -3979,7 +4064,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>11</v>
       </c>
@@ -4000,7 +4085,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>10</v>
       </c>
@@ -4021,7 +4106,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>9</v>
       </c>
@@ -4042,7 +4127,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>13</v>
       </c>
@@ -4063,7 +4148,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>18</v>
       </c>
@@ -4084,7 +4169,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="33" t="s">
         <v>1</v>
       </c>
@@ -4105,7 +4190,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>6</v>
       </c>
@@ -4126,7 +4211,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>5</v>
       </c>
@@ -4147,7 +4232,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>3</v>
       </c>
@@ -4168,7 +4253,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="29" t="s">
         <v>8</v>
       </c>
@@ -4189,7 +4274,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>7</v>
       </c>
@@ -4210,7 +4295,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>15</v>
       </c>
@@ -4231,7 +4316,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>16</v>
       </c>
@@ -4252,7 +4337,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>14</v>
       </c>
@@ -4273,7 +4358,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>22</v>
       </c>
@@ -4294,7 +4379,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="29" t="s">
         <v>23</v>
       </c>
@@ -4315,7 +4400,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
         <v>4</v>
       </c>
@@ -4338,8 +4423,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A24" location="'UDQ Filters'!G3" display="Custom Taxes"/>
-    <hyperlink ref="A17" location="'UDQ Filters'!G2" display="Tax Authority"/>
+    <hyperlink ref="A24" location="'UDQ Filters'!G3" display="Custom Taxes" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="A17" location="'UDQ Filters'!G2" display="Tax Authority" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4350,35 +4435,35 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:Q14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.33203125" customWidth="1"/>
-    <col min="3" max="3" width="12.33203125" customWidth="1"/>
-    <col min="4" max="4" width="35.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="48.5546875" customWidth="1"/>
-    <col min="6" max="6" width="16.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="32.6640625" customWidth="1"/>
-    <col min="8" max="8" width="16.5546875" customWidth="1"/>
-    <col min="9" max="9" width="36.33203125" customWidth="1"/>
-    <col min="10" max="10" width="16.5546875" customWidth="1"/>
-    <col min="11" max="11" width="40.5546875" customWidth="1"/>
-    <col min="12" max="12" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="38.88671875" customWidth="1"/>
-    <col min="14" max="14" width="21.109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" customWidth="1"/>
+    <col min="4" max="4" width="35.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="48.5703125" customWidth="1"/>
+    <col min="6" max="6" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="32.7109375" customWidth="1"/>
+    <col min="8" max="8" width="16.5703125" customWidth="1"/>
+    <col min="9" max="9" width="36.28515625" customWidth="1"/>
+    <col min="10" max="10" width="16.5703125" customWidth="1"/>
+    <col min="11" max="11" width="40.5703125" customWidth="1"/>
+    <col min="12" max="12" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="38.85546875" customWidth="1"/>
+    <col min="14" max="14" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>34</v>
       </c>
@@ -4431,7 +4516,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>185</v>
       </c>
@@ -4475,7 +4560,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>186</v>
       </c>
@@ -4519,57 +4604,57 @@
         <v>66</v>
       </c>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="10" spans="1:17">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="11" spans="1:17">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="12" spans="1:17">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="13" spans="1:17">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="14" spans="1:17">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>215</v>
       </c>
@@ -4600,25 +4685,25 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A2:H410"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="19.88671875" customWidth="1"/>
-    <col min="3" max="3" width="17.33203125" customWidth="1"/>
-    <col min="4" max="4" width="18.21875" customWidth="1"/>
-    <col min="5" max="5" width="22.88671875" customWidth="1"/>
-    <col min="6" max="6" width="26.5546875" customWidth="1"/>
-    <col min="7" max="7" width="23.88671875" customWidth="1"/>
-    <col min="8" max="10" width="17.109375" customWidth="1"/>
+    <col min="2" max="2" width="19.85546875" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" customWidth="1"/>
+    <col min="5" max="5" width="22.85546875" customWidth="1"/>
+    <col min="6" max="6" width="26.5703125" customWidth="1"/>
+    <col min="7" max="7" width="23.85546875" customWidth="1"/>
+    <col min="8" max="10" width="17.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B2" s="43" t="s">
         <v>220</v>
       </c>
@@ -4641,7 +4726,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -4653,7 +4738,7 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -4665,7 +4750,7 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -4677,7 +4762,7 @@
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -4689,7 +4774,7 @@
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -4701,7 +4786,7 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -4713,7 +4798,7 @@
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -4725,7 +4810,7 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -4737,7 +4822,7 @@
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -4749,7 +4834,7 @@
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
@@ -4761,7 +4846,7 @@
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
@@ -4773,7 +4858,7 @@
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
@@ -4785,7 +4870,7 @@
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
@@ -4797,7 +4882,7 @@
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
@@ -4809,7 +4894,7 @@
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>15</v>
       </c>
@@ -4821,7 +4906,7 @@
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>16</v>
       </c>
@@ -4833,7 +4918,7 @@
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>17</v>
       </c>
@@ -4845,7 +4930,7 @@
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>18</v>
       </c>
@@ -4857,7 +4942,7 @@
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>19</v>
       </c>
@@ -4869,7 +4954,7 @@
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>20</v>
       </c>
@@ -4881,7 +4966,7 @@
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>21</v>
       </c>
@@ -4893,7 +4978,7 @@
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>22</v>
       </c>
@@ -4905,7 +4990,7 @@
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>23</v>
       </c>
@@ -4917,7 +5002,7 @@
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>24</v>
       </c>
@@ -4929,7 +5014,7 @@
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>25</v>
       </c>
@@ -4941,7 +5026,7 @@
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>26</v>
       </c>
@@ -4953,7 +5038,7 @@
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>27</v>
       </c>
@@ -4965,7 +5050,7 @@
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>28</v>
       </c>
@@ -4977,7 +5062,7 @@
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>29</v>
       </c>
@@ -4989,7 +5074,7 @@
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>30</v>
       </c>
@@ -5001,7 +5086,7 @@
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>31</v>
       </c>
@@ -5013,7 +5098,7 @@
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>32</v>
       </c>
@@ -5025,7 +5110,7 @@
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>33</v>
       </c>
@@ -5037,7 +5122,7 @@
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>34</v>
       </c>
@@ -5049,7 +5134,7 @@
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>35</v>
       </c>
@@ -5061,7 +5146,7 @@
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>36</v>
       </c>
@@ -5073,7 +5158,7 @@
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>37</v>
       </c>
@@ -5085,7 +5170,7 @@
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>38</v>
       </c>
@@ -5097,7 +5182,7 @@
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>39</v>
       </c>
@@ -5109,7 +5194,7 @@
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>40</v>
       </c>
@@ -5121,7 +5206,7 @@
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>41</v>
       </c>
@@ -5133,7 +5218,7 @@
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>42</v>
       </c>
@@ -5145,7 +5230,7 @@
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>43</v>
       </c>
@@ -5157,7 +5242,7 @@
       <c r="G45" s="1"/>
       <c r="H45" s="1"/>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>44</v>
       </c>
@@ -5169,7 +5254,7 @@
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
     </row>
-    <row r="47" spans="1:8">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>45</v>
       </c>
@@ -5181,7 +5266,7 @@
       <c r="G47" s="1"/>
       <c r="H47" s="1"/>
     </row>
-    <row r="48" spans="1:8">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>46</v>
       </c>
@@ -5193,7 +5278,7 @@
       <c r="G48" s="1"/>
       <c r="H48" s="1"/>
     </row>
-    <row r="49" spans="1:8">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>47</v>
       </c>
@@ -5205,7 +5290,7 @@
       <c r="G49" s="1"/>
       <c r="H49" s="1"/>
     </row>
-    <row r="50" spans="1:8">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>48</v>
       </c>
@@ -5217,7 +5302,7 @@
       <c r="G50" s="1"/>
       <c r="H50" s="1"/>
     </row>
-    <row r="51" spans="1:8">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>49</v>
       </c>
@@ -5229,7 +5314,7 @@
       <c r="G51" s="1"/>
       <c r="H51" s="1"/>
     </row>
-    <row r="52" spans="1:8">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>50</v>
       </c>
@@ -5241,7 +5326,7 @@
       <c r="G52" s="1"/>
       <c r="H52" s="1"/>
     </row>
-    <row r="53" spans="1:8">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>51</v>
       </c>
@@ -5253,7 +5338,7 @@
       <c r="G53" s="1"/>
       <c r="H53" s="1"/>
     </row>
-    <row r="54" spans="1:8">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>52</v>
       </c>
@@ -5265,7 +5350,7 @@
       <c r="G54" s="1"/>
       <c r="H54" s="1"/>
     </row>
-    <row r="55" spans="1:8">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>53</v>
       </c>
@@ -5277,7 +5362,7 @@
       <c r="G55" s="1"/>
       <c r="H55" s="1"/>
     </row>
-    <row r="56" spans="1:8">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>54</v>
       </c>
@@ -5289,7 +5374,7 @@
       <c r="G56" s="1"/>
       <c r="H56" s="1"/>
     </row>
-    <row r="57" spans="1:8">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>55</v>
       </c>
@@ -5301,7 +5386,7 @@
       <c r="G57" s="1"/>
       <c r="H57" s="1"/>
     </row>
-    <row r="58" spans="1:8">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>56</v>
       </c>
@@ -5313,7 +5398,7 @@
       <c r="G58" s="1"/>
       <c r="H58" s="1"/>
     </row>
-    <row r="59" spans="1:8">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>57</v>
       </c>
@@ -5325,7 +5410,7 @@
       <c r="G59" s="1"/>
       <c r="H59" s="1"/>
     </row>
-    <row r="60" spans="1:8">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>58</v>
       </c>
@@ -5337,7 +5422,7 @@
       <c r="G60" s="1"/>
       <c r="H60" s="1"/>
     </row>
-    <row r="61" spans="1:8">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>59</v>
       </c>
@@ -5349,7 +5434,7 @@
       <c r="G61" s="1"/>
       <c r="H61" s="1"/>
     </row>
-    <row r="62" spans="1:8">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>60</v>
       </c>
@@ -5361,7 +5446,7 @@
       <c r="G62" s="1"/>
       <c r="H62" s="1"/>
     </row>
-    <row r="63" spans="1:8">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>61</v>
       </c>
@@ -5373,7 +5458,7 @@
       <c r="G63" s="1"/>
       <c r="H63" s="1"/>
     </row>
-    <row r="64" spans="1:8">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>62</v>
       </c>
@@ -5385,7 +5470,7 @@
       <c r="G64" s="1"/>
       <c r="H64" s="1"/>
     </row>
-    <row r="65" spans="1:8">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>63</v>
       </c>
@@ -5397,7 +5482,7 @@
       <c r="G65" s="1"/>
       <c r="H65" s="1"/>
     </row>
-    <row r="66" spans="1:8">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>64</v>
       </c>
@@ -5409,7 +5494,7 @@
       <c r="G66" s="1"/>
       <c r="H66" s="1"/>
     </row>
-    <row r="67" spans="1:8">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>65</v>
       </c>
@@ -5421,7 +5506,7 @@
       <c r="G67" s="1"/>
       <c r="H67" s="1"/>
     </row>
-    <row r="68" spans="1:8">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>66</v>
       </c>
@@ -5433,7 +5518,7 @@
       <c r="G68" s="1"/>
       <c r="H68" s="1"/>
     </row>
-    <row r="69" spans="1:8">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>67</v>
       </c>
@@ -5445,7 +5530,7 @@
       <c r="G69" s="1"/>
       <c r="H69" s="1"/>
     </row>
-    <row r="70" spans="1:8">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>68</v>
       </c>
@@ -5457,7 +5542,7 @@
       <c r="G70" s="1"/>
       <c r="H70" s="1"/>
     </row>
-    <row r="71" spans="1:8">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>69</v>
       </c>
@@ -5469,7 +5554,7 @@
       <c r="G71" s="1"/>
       <c r="H71" s="1"/>
     </row>
-    <row r="72" spans="1:8">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>70</v>
       </c>
@@ -5481,7 +5566,7 @@
       <c r="G72" s="1"/>
       <c r="H72" s="1"/>
     </row>
-    <row r="73" spans="1:8">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>71</v>
       </c>
@@ -5493,7 +5578,7 @@
       <c r="G73" s="1"/>
       <c r="H73" s="1"/>
     </row>
-    <row r="74" spans="1:8">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>72</v>
       </c>
@@ -5505,7 +5590,7 @@
       <c r="G74" s="1"/>
       <c r="H74" s="1"/>
     </row>
-    <row r="75" spans="1:8">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>73</v>
       </c>
@@ -5517,7 +5602,7 @@
       <c r="G75" s="1"/>
       <c r="H75" s="1"/>
     </row>
-    <row r="76" spans="1:8">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>74</v>
       </c>
@@ -5529,7 +5614,7 @@
       <c r="G76" s="1"/>
       <c r="H76" s="1"/>
     </row>
-    <row r="77" spans="1:8">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>75</v>
       </c>
@@ -5541,7 +5626,7 @@
       <c r="G77" s="1"/>
       <c r="H77" s="1"/>
     </row>
-    <row r="78" spans="1:8">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>76</v>
       </c>
@@ -5553,7 +5638,7 @@
       <c r="G78" s="1"/>
       <c r="H78" s="1"/>
     </row>
-    <row r="79" spans="1:8">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>77</v>
       </c>
@@ -5565,7 +5650,7 @@
       <c r="G79" s="1"/>
       <c r="H79" s="1"/>
     </row>
-    <row r="80" spans="1:8">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>78</v>
       </c>
@@ -5577,7 +5662,7 @@
       <c r="G80" s="1"/>
       <c r="H80" s="1"/>
     </row>
-    <row r="81" spans="1:8">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>79</v>
       </c>
@@ -5589,7 +5674,7 @@
       <c r="G81" s="1"/>
       <c r="H81" s="1"/>
     </row>
-    <row r="82" spans="1:8">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>80</v>
       </c>
@@ -5601,7 +5686,7 @@
       <c r="G82" s="1"/>
       <c r="H82" s="1"/>
     </row>
-    <row r="83" spans="1:8">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>81</v>
       </c>
@@ -5613,7 +5698,7 @@
       <c r="G83" s="1"/>
       <c r="H83" s="1"/>
     </row>
-    <row r="84" spans="1:8">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>82</v>
       </c>
@@ -5625,7 +5710,7 @@
       <c r="G84" s="1"/>
       <c r="H84" s="1"/>
     </row>
-    <row r="85" spans="1:8">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>83</v>
       </c>
@@ -5637,7 +5722,7 @@
       <c r="G85" s="1"/>
       <c r="H85" s="1"/>
     </row>
-    <row r="86" spans="1:8">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>84</v>
       </c>
@@ -5649,7 +5734,7 @@
       <c r="G86" s="1"/>
       <c r="H86" s="1"/>
     </row>
-    <row r="87" spans="1:8">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>85</v>
       </c>
@@ -5661,7 +5746,7 @@
       <c r="G87" s="1"/>
       <c r="H87" s="1"/>
     </row>
-    <row r="88" spans="1:8">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>86</v>
       </c>
@@ -5673,7 +5758,7 @@
       <c r="G88" s="1"/>
       <c r="H88" s="1"/>
     </row>
-    <row r="89" spans="1:8">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>87</v>
       </c>
@@ -5685,7 +5770,7 @@
       <c r="G89" s="1"/>
       <c r="H89" s="1"/>
     </row>
-    <row r="90" spans="1:8">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>88</v>
       </c>
@@ -5697,7 +5782,7 @@
       <c r="G90" s="1"/>
       <c r="H90" s="1"/>
     </row>
-    <row r="91" spans="1:8">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>89</v>
       </c>
@@ -5709,7 +5794,7 @@
       <c r="G91" s="1"/>
       <c r="H91" s="1"/>
     </row>
-    <row r="92" spans="1:8">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>90</v>
       </c>
@@ -5721,7 +5806,7 @@
       <c r="G92" s="1"/>
       <c r="H92" s="1"/>
     </row>
-    <row r="93" spans="1:8">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>91</v>
       </c>
@@ -5733,7 +5818,7 @@
       <c r="G93" s="1"/>
       <c r="H93" s="1"/>
     </row>
-    <row r="94" spans="1:8">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>92</v>
       </c>
@@ -5745,7 +5830,7 @@
       <c r="G94" s="1"/>
       <c r="H94" s="1"/>
     </row>
-    <row r="95" spans="1:8">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>93</v>
       </c>
@@ -5757,7 +5842,7 @@
       <c r="G95" s="1"/>
       <c r="H95" s="1"/>
     </row>
-    <row r="96" spans="1:8">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>94</v>
       </c>
@@ -5769,7 +5854,7 @@
       <c r="G96" s="1"/>
       <c r="H96" s="1"/>
     </row>
-    <row r="97" spans="1:8">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>95</v>
       </c>
@@ -5781,7 +5866,7 @@
       <c r="G97" s="1"/>
       <c r="H97" s="1"/>
     </row>
-    <row r="98" spans="1:8">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>96</v>
       </c>
@@ -5793,7 +5878,7 @@
       <c r="G98" s="1"/>
       <c r="H98" s="1"/>
     </row>
-    <row r="99" spans="1:8">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>97</v>
       </c>
@@ -5805,7 +5890,7 @@
       <c r="G99" s="1"/>
       <c r="H99" s="1"/>
     </row>
-    <row r="100" spans="1:8">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>98</v>
       </c>
@@ -5817,7 +5902,7 @@
       <c r="G100" s="1"/>
       <c r="H100" s="1"/>
     </row>
-    <row r="101" spans="1:8">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>99</v>
       </c>
@@ -5829,7 +5914,7 @@
       <c r="G101" s="1"/>
       <c r="H101" s="1"/>
     </row>
-    <row r="102" spans="1:8">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>100</v>
       </c>
@@ -5841,7 +5926,7 @@
       <c r="G102" s="1"/>
       <c r="H102" s="1"/>
     </row>
-    <row r="103" spans="1:8">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>101</v>
       </c>
@@ -5853,7 +5938,7 @@
       <c r="G103" s="1"/>
       <c r="H103" s="1"/>
     </row>
-    <row r="104" spans="1:8">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>102</v>
       </c>
@@ -5865,7 +5950,7 @@
       <c r="G104" s="1"/>
       <c r="H104" s="1"/>
     </row>
-    <row r="105" spans="1:8">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>103</v>
       </c>
@@ -5877,7 +5962,7 @@
       <c r="G105" s="1"/>
       <c r="H105" s="1"/>
     </row>
-    <row r="106" spans="1:8">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>104</v>
       </c>
@@ -5889,7 +5974,7 @@
       <c r="G106" s="1"/>
       <c r="H106" s="1"/>
     </row>
-    <row r="107" spans="1:8">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>105</v>
       </c>
@@ -5901,7 +5986,7 @@
       <c r="G107" s="1"/>
       <c r="H107" s="1"/>
     </row>
-    <row r="108" spans="1:8">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>106</v>
       </c>
@@ -5913,7 +5998,7 @@
       <c r="G108" s="1"/>
       <c r="H108" s="1"/>
     </row>
-    <row r="109" spans="1:8">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>107</v>
       </c>
@@ -5925,7 +6010,7 @@
       <c r="G109" s="1"/>
       <c r="H109" s="1"/>
     </row>
-    <row r="110" spans="1:8">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>108</v>
       </c>
@@ -5937,7 +6022,7 @@
       <c r="G110" s="1"/>
       <c r="H110" s="1"/>
     </row>
-    <row r="111" spans="1:8">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>109</v>
       </c>
@@ -5949,7 +6034,7 @@
       <c r="G111" s="1"/>
       <c r="H111" s="1"/>
     </row>
-    <row r="112" spans="1:8">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>110</v>
       </c>
@@ -5961,7 +6046,7 @@
       <c r="G112" s="1"/>
       <c r="H112" s="1"/>
     </row>
-    <row r="113" spans="1:8">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>111</v>
       </c>
@@ -5973,7 +6058,7 @@
       <c r="G113" s="1"/>
       <c r="H113" s="1"/>
     </row>
-    <row r="114" spans="1:8">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>112</v>
       </c>
@@ -5985,7 +6070,7 @@
       <c r="G114" s="1"/>
       <c r="H114" s="1"/>
     </row>
-    <row r="115" spans="1:8">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>113</v>
       </c>
@@ -5997,7 +6082,7 @@
       <c r="G115" s="1"/>
       <c r="H115" s="1"/>
     </row>
-    <row r="116" spans="1:8">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>114</v>
       </c>
@@ -6009,7 +6094,7 @@
       <c r="G116" s="1"/>
       <c r="H116" s="1"/>
     </row>
-    <row r="117" spans="1:8">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>115</v>
       </c>
@@ -6021,7 +6106,7 @@
       <c r="G117" s="1"/>
       <c r="H117" s="1"/>
     </row>
-    <row r="118" spans="1:8">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>116</v>
       </c>
@@ -6033,7 +6118,7 @@
       <c r="G118" s="1"/>
       <c r="H118" s="1"/>
     </row>
-    <row r="119" spans="1:8">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>117</v>
       </c>
@@ -6045,7 +6130,7 @@
       <c r="G119" s="1"/>
       <c r="H119" s="1"/>
     </row>
-    <row r="120" spans="1:8">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>118</v>
       </c>
@@ -6057,7 +6142,7 @@
       <c r="G120" s="1"/>
       <c r="H120" s="1"/>
     </row>
-    <row r="121" spans="1:8">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>119</v>
       </c>
@@ -6069,7 +6154,7 @@
       <c r="G121" s="1"/>
       <c r="H121" s="1"/>
     </row>
-    <row r="122" spans="1:8">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>120</v>
       </c>
@@ -6081,7 +6166,7 @@
       <c r="G122" s="1"/>
       <c r="H122" s="1"/>
     </row>
-    <row r="123" spans="1:8">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>121</v>
       </c>
@@ -6093,7 +6178,7 @@
       <c r="G123" s="1"/>
       <c r="H123" s="1"/>
     </row>
-    <row r="124" spans="1:8">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>122</v>
       </c>
@@ -6105,7 +6190,7 @@
       <c r="G124" s="1"/>
       <c r="H124" s="1"/>
     </row>
-    <row r="125" spans="1:8">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>123</v>
       </c>
@@ -6117,7 +6202,7 @@
       <c r="G125" s="1"/>
       <c r="H125" s="1"/>
     </row>
-    <row r="126" spans="1:8">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>124</v>
       </c>
@@ -6129,7 +6214,7 @@
       <c r="G126" s="1"/>
       <c r="H126" s="1"/>
     </row>
-    <row r="127" spans="1:8">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>125</v>
       </c>
@@ -6141,7 +6226,7 @@
       <c r="G127" s="1"/>
       <c r="H127" s="1"/>
     </row>
-    <row r="128" spans="1:8">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>126</v>
       </c>
@@ -6153,7 +6238,7 @@
       <c r="G128" s="1"/>
       <c r="H128" s="1"/>
     </row>
-    <row r="129" spans="1:8">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>127</v>
       </c>
@@ -6165,7 +6250,7 @@
       <c r="G129" s="1"/>
       <c r="H129" s="1"/>
     </row>
-    <row r="130" spans="1:8">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>128</v>
       </c>
@@ -6177,7 +6262,7 @@
       <c r="G130" s="1"/>
       <c r="H130" s="1"/>
     </row>
-    <row r="131" spans="1:8">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>129</v>
       </c>
@@ -6189,7 +6274,7 @@
       <c r="G131" s="1"/>
       <c r="H131" s="1"/>
     </row>
-    <row r="132" spans="1:8">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>130</v>
       </c>
@@ -6201,7 +6286,7 @@
       <c r="G132" s="1"/>
       <c r="H132" s="1"/>
     </row>
-    <row r="133" spans="1:8">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>131</v>
       </c>
@@ -6213,7 +6298,7 @@
       <c r="G133" s="1"/>
       <c r="H133" s="1"/>
     </row>
-    <row r="134" spans="1:8">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>132</v>
       </c>
@@ -6225,7 +6310,7 @@
       <c r="G134" s="1"/>
       <c r="H134" s="1"/>
     </row>
-    <row r="135" spans="1:8">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>133</v>
       </c>
@@ -6237,7 +6322,7 @@
       <c r="G135" s="1"/>
       <c r="H135" s="1"/>
     </row>
-    <row r="136" spans="1:8">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>134</v>
       </c>
@@ -6249,7 +6334,7 @@
       <c r="G136" s="1"/>
       <c r="H136" s="1"/>
     </row>
-    <row r="137" spans="1:8">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>135</v>
       </c>
@@ -6261,7 +6346,7 @@
       <c r="G137" s="1"/>
       <c r="H137" s="1"/>
     </row>
-    <row r="138" spans="1:8">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>136</v>
       </c>
@@ -6273,7 +6358,7 @@
       <c r="G138" s="1"/>
       <c r="H138" s="1"/>
     </row>
-    <row r="139" spans="1:8">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>137</v>
       </c>
@@ -6285,7 +6370,7 @@
       <c r="G139" s="1"/>
       <c r="H139" s="1"/>
     </row>
-    <row r="140" spans="1:8">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>138</v>
       </c>
@@ -6297,7 +6382,7 @@
       <c r="G140" s="1"/>
       <c r="H140" s="1"/>
     </row>
-    <row r="141" spans="1:8">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>139</v>
       </c>
@@ -6309,7 +6394,7 @@
       <c r="G141" s="1"/>
       <c r="H141" s="1"/>
     </row>
-    <row r="142" spans="1:8">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>140</v>
       </c>
@@ -6321,7 +6406,7 @@
       <c r="G142" s="1"/>
       <c r="H142" s="1"/>
     </row>
-    <row r="143" spans="1:8">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>141</v>
       </c>
@@ -6333,7 +6418,7 @@
       <c r="G143" s="1"/>
       <c r="H143" s="1"/>
     </row>
-    <row r="144" spans="1:8">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>142</v>
       </c>
@@ -6345,7 +6430,7 @@
       <c r="G144" s="1"/>
       <c r="H144" s="1"/>
     </row>
-    <row r="145" spans="1:8">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>143</v>
       </c>
@@ -6357,7 +6442,7 @@
       <c r="G145" s="1"/>
       <c r="H145" s="1"/>
     </row>
-    <row r="146" spans="1:8">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>144</v>
       </c>
@@ -6369,7 +6454,7 @@
       <c r="G146" s="1"/>
       <c r="H146" s="1"/>
     </row>
-    <row r="147" spans="1:8">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>145</v>
       </c>
@@ -6381,7 +6466,7 @@
       <c r="G147" s="1"/>
       <c r="H147" s="1"/>
     </row>
-    <row r="148" spans="1:8">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>146</v>
       </c>
@@ -6393,7 +6478,7 @@
       <c r="G148" s="1"/>
       <c r="H148" s="1"/>
     </row>
-    <row r="149" spans="1:8">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>147</v>
       </c>
@@ -6405,7 +6490,7 @@
       <c r="G149" s="1"/>
       <c r="H149" s="1"/>
     </row>
-    <row r="150" spans="1:8">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>148</v>
       </c>
@@ -6417,7 +6502,7 @@
       <c r="G150" s="1"/>
       <c r="H150" s="1"/>
     </row>
-    <row r="151" spans="1:8">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>149</v>
       </c>
@@ -6429,7 +6514,7 @@
       <c r="G151" s="1"/>
       <c r="H151" s="1"/>
     </row>
-    <row r="152" spans="1:8">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>150</v>
       </c>
@@ -6441,7 +6526,7 @@
       <c r="G152" s="1"/>
       <c r="H152" s="1"/>
     </row>
-    <row r="153" spans="1:8">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>151</v>
       </c>
@@ -6453,7 +6538,7 @@
       <c r="G153" s="1"/>
       <c r="H153" s="1"/>
     </row>
-    <row r="154" spans="1:8">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>152</v>
       </c>
@@ -6465,7 +6550,7 @@
       <c r="G154" s="1"/>
       <c r="H154" s="1"/>
     </row>
-    <row r="155" spans="1:8">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>153</v>
       </c>
@@ -6477,7 +6562,7 @@
       <c r="G155" s="1"/>
       <c r="H155" s="1"/>
     </row>
-    <row r="156" spans="1:8">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>154</v>
       </c>
@@ -6489,7 +6574,7 @@
       <c r="G156" s="1"/>
       <c r="H156" s="1"/>
     </row>
-    <row r="157" spans="1:8">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>155</v>
       </c>
@@ -6501,7 +6586,7 @@
       <c r="G157" s="1"/>
       <c r="H157" s="1"/>
     </row>
-    <row r="158" spans="1:8">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>156</v>
       </c>
@@ -6513,7 +6598,7 @@
       <c r="G158" s="1"/>
       <c r="H158" s="1"/>
     </row>
-    <row r="159" spans="1:8">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>157</v>
       </c>
@@ -6525,7 +6610,7 @@
       <c r="G159" s="1"/>
       <c r="H159" s="1"/>
     </row>
-    <row r="160" spans="1:8">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>158</v>
       </c>
@@ -6537,7 +6622,7 @@
       <c r="G160" s="1"/>
       <c r="H160" s="1"/>
     </row>
-    <row r="161" spans="1:8">
+    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>159</v>
       </c>
@@ -6549,7 +6634,7 @@
       <c r="G161" s="1"/>
       <c r="H161" s="1"/>
     </row>
-    <row r="162" spans="1:8">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>160</v>
       </c>
@@ -6561,7 +6646,7 @@
       <c r="G162" s="1"/>
       <c r="H162" s="1"/>
     </row>
-    <row r="163" spans="1:8">
+    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>161</v>
       </c>
@@ -6573,7 +6658,7 @@
       <c r="G163" s="1"/>
       <c r="H163" s="1"/>
     </row>
-    <row r="164" spans="1:8">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>162</v>
       </c>
@@ -6585,7 +6670,7 @@
       <c r="G164" s="1"/>
       <c r="H164" s="1"/>
     </row>
-    <row r="165" spans="1:8">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>163</v>
       </c>
@@ -6597,7 +6682,7 @@
       <c r="G165" s="1"/>
       <c r="H165" s="1"/>
     </row>
-    <row r="166" spans="1:8">
+    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>164</v>
       </c>
@@ -6609,7 +6694,7 @@
       <c r="G166" s="1"/>
       <c r="H166" s="1"/>
     </row>
-    <row r="167" spans="1:8">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>165</v>
       </c>
@@ -6621,7 +6706,7 @@
       <c r="G167" s="1"/>
       <c r="H167" s="1"/>
     </row>
-    <row r="168" spans="1:8">
+    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>166</v>
       </c>
@@ -6633,7 +6718,7 @@
       <c r="G168" s="1"/>
       <c r="H168" s="1"/>
     </row>
-    <row r="169" spans="1:8">
+    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>167</v>
       </c>
@@ -6645,7 +6730,7 @@
       <c r="G169" s="1"/>
       <c r="H169" s="1"/>
     </row>
-    <row r="170" spans="1:8">
+    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>168</v>
       </c>
@@ -6657,7 +6742,7 @@
       <c r="G170" s="1"/>
       <c r="H170" s="1"/>
     </row>
-    <row r="171" spans="1:8">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>169</v>
       </c>
@@ -6669,7 +6754,7 @@
       <c r="G171" s="1"/>
       <c r="H171" s="1"/>
     </row>
-    <row r="172" spans="1:8">
+    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>170</v>
       </c>
@@ -6681,7 +6766,7 @@
       <c r="G172" s="1"/>
       <c r="H172" s="1"/>
     </row>
-    <row r="173" spans="1:8">
+    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>171</v>
       </c>
@@ -6693,7 +6778,7 @@
       <c r="G173" s="1"/>
       <c r="H173" s="1"/>
     </row>
-    <row r="174" spans="1:8">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>172</v>
       </c>
@@ -6705,7 +6790,7 @@
       <c r="G174" s="1"/>
       <c r="H174" s="1"/>
     </row>
-    <row r="175" spans="1:8">
+    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>173</v>
       </c>
@@ -6717,7 +6802,7 @@
       <c r="G175" s="1"/>
       <c r="H175" s="1"/>
     </row>
-    <row r="176" spans="1:8">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>174</v>
       </c>
@@ -6729,7 +6814,7 @@
       <c r="G176" s="1"/>
       <c r="H176" s="1"/>
     </row>
-    <row r="177" spans="1:8">
+    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>175</v>
       </c>
@@ -6741,7 +6826,7 @@
       <c r="G177" s="1"/>
       <c r="H177" s="1"/>
     </row>
-    <row r="178" spans="1:8">
+    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>176</v>
       </c>
@@ -6753,7 +6838,7 @@
       <c r="G178" s="1"/>
       <c r="H178" s="1"/>
     </row>
-    <row r="179" spans="1:8">
+    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>177</v>
       </c>
@@ -6765,7 +6850,7 @@
       <c r="G179" s="1"/>
       <c r="H179" s="1"/>
     </row>
-    <row r="180" spans="1:8">
+    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>178</v>
       </c>
@@ -6777,7 +6862,7 @@
       <c r="G180" s="1"/>
       <c r="H180" s="1"/>
     </row>
-    <row r="181" spans="1:8">
+    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>179</v>
       </c>
@@ -6789,7 +6874,7 @@
       <c r="G181" s="1"/>
       <c r="H181" s="1"/>
     </row>
-    <row r="182" spans="1:8">
+    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>180</v>
       </c>
@@ -6801,7 +6886,7 @@
       <c r="G182" s="1"/>
       <c r="H182" s="1"/>
     </row>
-    <row r="183" spans="1:8">
+    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>181</v>
       </c>
@@ -6813,7 +6898,7 @@
       <c r="G183" s="1"/>
       <c r="H183" s="1"/>
     </row>
-    <row r="184" spans="1:8">
+    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>182</v>
       </c>
@@ -6825,7 +6910,7 @@
       <c r="G184" s="1"/>
       <c r="H184" s="1"/>
     </row>
-    <row r="185" spans="1:8">
+    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>183</v>
       </c>
@@ -6837,7 +6922,7 @@
       <c r="G185" s="1"/>
       <c r="H185" s="1"/>
     </row>
-    <row r="186" spans="1:8">
+    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>184</v>
       </c>
@@ -6849,7 +6934,7 @@
       <c r="G186" s="1"/>
       <c r="H186" s="1"/>
     </row>
-    <row r="187" spans="1:8">
+    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>185</v>
       </c>
@@ -6861,7 +6946,7 @@
       <c r="G187" s="1"/>
       <c r="H187" s="1"/>
     </row>
-    <row r="188" spans="1:8">
+    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>186</v>
       </c>
@@ -6873,7 +6958,7 @@
       <c r="G188" s="1"/>
       <c r="H188" s="1"/>
     </row>
-    <row r="189" spans="1:8">
+    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>187</v>
       </c>
@@ -6885,7 +6970,7 @@
       <c r="G189" s="1"/>
       <c r="H189" s="1"/>
     </row>
-    <row r="190" spans="1:8">
+    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>188</v>
       </c>
@@ -6897,7 +6982,7 @@
       <c r="G190" s="1"/>
       <c r="H190" s="1"/>
     </row>
-    <row r="191" spans="1:8">
+    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>189</v>
       </c>
@@ -6909,7 +6994,7 @@
       <c r="G191" s="1"/>
       <c r="H191" s="1"/>
     </row>
-    <row r="192" spans="1:8">
+    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>190</v>
       </c>
@@ -6921,7 +7006,7 @@
       <c r="G192" s="1"/>
       <c r="H192" s="1"/>
     </row>
-    <row r="193" spans="1:8">
+    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>191</v>
       </c>
@@ -6933,7 +7018,7 @@
       <c r="G193" s="1"/>
       <c r="H193" s="1"/>
     </row>
-    <row r="194" spans="1:8">
+    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>192</v>
       </c>
@@ -6945,7 +7030,7 @@
       <c r="G194" s="1"/>
       <c r="H194" s="1"/>
     </row>
-    <row r="195" spans="1:8">
+    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>193</v>
       </c>
@@ -6957,7 +7042,7 @@
       <c r="G195" s="1"/>
       <c r="H195" s="1"/>
     </row>
-    <row r="196" spans="1:8">
+    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>194</v>
       </c>
@@ -6969,7 +7054,7 @@
       <c r="G196" s="1"/>
       <c r="H196" s="1"/>
     </row>
-    <row r="197" spans="1:8">
+    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>195</v>
       </c>
@@ -6981,7 +7066,7 @@
       <c r="G197" s="1"/>
       <c r="H197" s="1"/>
     </row>
-    <row r="198" spans="1:8">
+    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>196</v>
       </c>
@@ -6993,7 +7078,7 @@
       <c r="G198" s="1"/>
       <c r="H198" s="1"/>
     </row>
-    <row r="199" spans="1:8">
+    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>197</v>
       </c>
@@ -7005,7 +7090,7 @@
       <c r="G199" s="1"/>
       <c r="H199" s="1"/>
     </row>
-    <row r="200" spans="1:8">
+    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>198</v>
       </c>
@@ -7017,7 +7102,7 @@
       <c r="G200" s="1"/>
       <c r="H200" s="1"/>
     </row>
-    <row r="201" spans="1:8">
+    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>199</v>
       </c>
@@ -7029,7 +7114,7 @@
       <c r="G201" s="1"/>
       <c r="H201" s="1"/>
     </row>
-    <row r="202" spans="1:8">
+    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>200</v>
       </c>
@@ -7041,7 +7126,7 @@
       <c r="G202" s="1"/>
       <c r="H202" s="1"/>
     </row>
-    <row r="203" spans="1:8">
+    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>201</v>
       </c>
@@ -7053,7 +7138,7 @@
       <c r="G203" s="1"/>
       <c r="H203" s="1"/>
     </row>
-    <row r="204" spans="1:8">
+    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>202</v>
       </c>
@@ -7065,7 +7150,7 @@
       <c r="G204" s="1"/>
       <c r="H204" s="1"/>
     </row>
-    <row r="205" spans="1:8">
+    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>203</v>
       </c>
@@ -7077,7 +7162,7 @@
       <c r="G205" s="1"/>
       <c r="H205" s="1"/>
     </row>
-    <row r="206" spans="1:8">
+    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>204</v>
       </c>
@@ -7089,7 +7174,7 @@
       <c r="G206" s="1"/>
       <c r="H206" s="1"/>
     </row>
-    <row r="207" spans="1:8">
+    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>205</v>
       </c>
@@ -7101,7 +7186,7 @@
       <c r="G207" s="1"/>
       <c r="H207" s="1"/>
     </row>
-    <row r="208" spans="1:8">
+    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>206</v>
       </c>
@@ -7113,7 +7198,7 @@
       <c r="G208" s="1"/>
       <c r="H208" s="1"/>
     </row>
-    <row r="209" spans="1:8">
+    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>207</v>
       </c>
@@ -7125,7 +7210,7 @@
       <c r="G209" s="1"/>
       <c r="H209" s="1"/>
     </row>
-    <row r="210" spans="1:8">
+    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>208</v>
       </c>
@@ -7137,7 +7222,7 @@
       <c r="G210" s="1"/>
       <c r="H210" s="1"/>
     </row>
-    <row r="211" spans="1:8">
+    <row r="211" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>209</v>
       </c>
@@ -7149,7 +7234,7 @@
       <c r="G211" s="1"/>
       <c r="H211" s="1"/>
     </row>
-    <row r="212" spans="1:8">
+    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>210</v>
       </c>
@@ -7161,7 +7246,7 @@
       <c r="G212" s="1"/>
       <c r="H212" s="1"/>
     </row>
-    <row r="213" spans="1:8">
+    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>211</v>
       </c>
@@ -7173,7 +7258,7 @@
       <c r="G213" s="1"/>
       <c r="H213" s="1"/>
     </row>
-    <row r="214" spans="1:8">
+    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>212</v>
       </c>
@@ -7185,7 +7270,7 @@
       <c r="G214" s="1"/>
       <c r="H214" s="1"/>
     </row>
-    <row r="215" spans="1:8">
+    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>213</v>
       </c>
@@ -7197,7 +7282,7 @@
       <c r="G215" s="1"/>
       <c r="H215" s="1"/>
     </row>
-    <row r="216" spans="1:8">
+    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>214</v>
       </c>
@@ -7209,7 +7294,7 @@
       <c r="G216" s="1"/>
       <c r="H216" s="1"/>
     </row>
-    <row r="217" spans="1:8">
+    <row r="217" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>215</v>
       </c>
@@ -7221,7 +7306,7 @@
       <c r="G217" s="1"/>
       <c r="H217" s="1"/>
     </row>
-    <row r="218" spans="1:8">
+    <row r="218" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>216</v>
       </c>
@@ -7233,7 +7318,7 @@
       <c r="G218" s="1"/>
       <c r="H218" s="1"/>
     </row>
-    <row r="219" spans="1:8">
+    <row r="219" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>217</v>
       </c>
@@ -7245,7 +7330,7 @@
       <c r="G219" s="1"/>
       <c r="H219" s="1"/>
     </row>
-    <row r="220" spans="1:8">
+    <row r="220" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>218</v>
       </c>
@@ -7257,7 +7342,7 @@
       <c r="G220" s="1"/>
       <c r="H220" s="1"/>
     </row>
-    <row r="221" spans="1:8">
+    <row r="221" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>219</v>
       </c>
@@ -7269,7 +7354,7 @@
       <c r="G221" s="1"/>
       <c r="H221" s="1"/>
     </row>
-    <row r="222" spans="1:8">
+    <row r="222" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>220</v>
       </c>
@@ -7281,7 +7366,7 @@
       <c r="G222" s="1"/>
       <c r="H222" s="1"/>
     </row>
-    <row r="223" spans="1:8">
+    <row r="223" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>221</v>
       </c>
@@ -7293,7 +7378,7 @@
       <c r="G223" s="1"/>
       <c r="H223" s="1"/>
     </row>
-    <row r="224" spans="1:8">
+    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>222</v>
       </c>
@@ -7305,7 +7390,7 @@
       <c r="G224" s="1"/>
       <c r="H224" s="1"/>
     </row>
-    <row r="225" spans="1:8">
+    <row r="225" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>223</v>
       </c>
@@ -7317,7 +7402,7 @@
       <c r="G225" s="1"/>
       <c r="H225" s="1"/>
     </row>
-    <row r="226" spans="1:8">
+    <row r="226" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>224</v>
       </c>
@@ -7329,7 +7414,7 @@
       <c r="G226" s="1"/>
       <c r="H226" s="1"/>
     </row>
-    <row r="227" spans="1:8">
+    <row r="227" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>225</v>
       </c>
@@ -7341,7 +7426,7 @@
       <c r="G227" s="1"/>
       <c r="H227" s="1"/>
     </row>
-    <row r="228" spans="1:8">
+    <row r="228" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>226</v>
       </c>
@@ -7353,7 +7438,7 @@
       <c r="G228" s="1"/>
       <c r="H228" s="1"/>
     </row>
-    <row r="229" spans="1:8">
+    <row r="229" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>227</v>
       </c>
@@ -7365,7 +7450,7 @@
       <c r="G229" s="1"/>
       <c r="H229" s="1"/>
     </row>
-    <row r="230" spans="1:8">
+    <row r="230" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>228</v>
       </c>
@@ -7377,7 +7462,7 @@
       <c r="G230" s="1"/>
       <c r="H230" s="1"/>
     </row>
-    <row r="231" spans="1:8">
+    <row r="231" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>229</v>
       </c>
@@ -7389,7 +7474,7 @@
       <c r="G231" s="1"/>
       <c r="H231" s="1"/>
     </row>
-    <row r="232" spans="1:8">
+    <row r="232" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>230</v>
       </c>
@@ -7401,7 +7486,7 @@
       <c r="G232" s="1"/>
       <c r="H232" s="1"/>
     </row>
-    <row r="233" spans="1:8">
+    <row r="233" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>231</v>
       </c>
@@ -7413,7 +7498,7 @@
       <c r="G233" s="1"/>
       <c r="H233" s="1"/>
     </row>
-    <row r="234" spans="1:8">
+    <row r="234" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>232</v>
       </c>
@@ -7425,7 +7510,7 @@
       <c r="G234" s="1"/>
       <c r="H234" s="1"/>
     </row>
-    <row r="235" spans="1:8">
+    <row r="235" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>233</v>
       </c>
@@ -7437,7 +7522,7 @@
       <c r="G235" s="1"/>
       <c r="H235" s="1"/>
     </row>
-    <row r="236" spans="1:8">
+    <row r="236" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>234</v>
       </c>
@@ -7449,7 +7534,7 @@
       <c r="G236" s="1"/>
       <c r="H236" s="1"/>
     </row>
-    <row r="237" spans="1:8">
+    <row r="237" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>235</v>
       </c>
@@ -7461,7 +7546,7 @@
       <c r="G237" s="1"/>
       <c r="H237" s="1"/>
     </row>
-    <row r="238" spans="1:8">
+    <row r="238" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>236</v>
       </c>
@@ -7473,7 +7558,7 @@
       <c r="G238" s="1"/>
       <c r="H238" s="1"/>
     </row>
-    <row r="239" spans="1:8">
+    <row r="239" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>237</v>
       </c>
@@ -7485,7 +7570,7 @@
       <c r="G239" s="1"/>
       <c r="H239" s="1"/>
     </row>
-    <row r="240" spans="1:8">
+    <row r="240" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>238</v>
       </c>
@@ -7497,7 +7582,7 @@
       <c r="G240" s="1"/>
       <c r="H240" s="1"/>
     </row>
-    <row r="241" spans="1:8">
+    <row r="241" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>239</v>
       </c>
@@ -7509,7 +7594,7 @@
       <c r="G241" s="1"/>
       <c r="H241" s="1"/>
     </row>
-    <row r="242" spans="1:8">
+    <row r="242" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>240</v>
       </c>
@@ -7521,7 +7606,7 @@
       <c r="G242" s="1"/>
       <c r="H242" s="1"/>
     </row>
-    <row r="243" spans="1:8">
+    <row r="243" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>241</v>
       </c>
@@ -7533,7 +7618,7 @@
       <c r="G243" s="1"/>
       <c r="H243" s="1"/>
     </row>
-    <row r="244" spans="1:8">
+    <row r="244" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>242</v>
       </c>
@@ -7545,7 +7630,7 @@
       <c r="G244" s="1"/>
       <c r="H244" s="1"/>
     </row>
-    <row r="245" spans="1:8">
+    <row r="245" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>243</v>
       </c>
@@ -7557,7 +7642,7 @@
       <c r="G245" s="1"/>
       <c r="H245" s="1"/>
     </row>
-    <row r="246" spans="1:8">
+    <row r="246" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>244</v>
       </c>
@@ -7569,7 +7654,7 @@
       <c r="G246" s="1"/>
       <c r="H246" s="1"/>
     </row>
-    <row r="247" spans="1:8">
+    <row r="247" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>245</v>
       </c>
@@ -7581,7 +7666,7 @@
       <c r="G247" s="1"/>
       <c r="H247" s="1"/>
     </row>
-    <row r="248" spans="1:8">
+    <row r="248" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>246</v>
       </c>
@@ -7593,7 +7678,7 @@
       <c r="G248" s="1"/>
       <c r="H248" s="1"/>
     </row>
-    <row r="249" spans="1:8">
+    <row r="249" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>247</v>
       </c>
@@ -7605,7 +7690,7 @@
       <c r="G249" s="1"/>
       <c r="H249" s="1"/>
     </row>
-    <row r="250" spans="1:8">
+    <row r="250" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>248</v>
       </c>
@@ -7617,7 +7702,7 @@
       <c r="G250" s="1"/>
       <c r="H250" s="1"/>
     </row>
-    <row r="251" spans="1:8">
+    <row r="251" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>249</v>
       </c>
@@ -7629,7 +7714,7 @@
       <c r="G251" s="1"/>
       <c r="H251" s="1"/>
     </row>
-    <row r="252" spans="1:8">
+    <row r="252" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>250</v>
       </c>
@@ -7641,7 +7726,7 @@
       <c r="G252" s="1"/>
       <c r="H252" s="1"/>
     </row>
-    <row r="253" spans="1:8">
+    <row r="253" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>251</v>
       </c>
@@ -7653,7 +7738,7 @@
       <c r="G253" s="1"/>
       <c r="H253" s="1"/>
     </row>
-    <row r="254" spans="1:8">
+    <row r="254" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>252</v>
       </c>
@@ -7665,7 +7750,7 @@
       <c r="G254" s="1"/>
       <c r="H254" s="1"/>
     </row>
-    <row r="255" spans="1:8">
+    <row r="255" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>253</v>
       </c>
@@ -7677,7 +7762,7 @@
       <c r="G255" s="1"/>
       <c r="H255" s="1"/>
     </row>
-    <row r="256" spans="1:8">
+    <row r="256" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>254</v>
       </c>
@@ -7689,7 +7774,7 @@
       <c r="G256" s="1"/>
       <c r="H256" s="1"/>
     </row>
-    <row r="257" spans="1:8">
+    <row r="257" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>255</v>
       </c>
@@ -7701,7 +7786,7 @@
       <c r="G257" s="1"/>
       <c r="H257" s="1"/>
     </row>
-    <row r="258" spans="1:8">
+    <row r="258" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>256</v>
       </c>
@@ -7713,7 +7798,7 @@
       <c r="G258" s="1"/>
       <c r="H258" s="1"/>
     </row>
-    <row r="259" spans="1:8">
+    <row r="259" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>257</v>
       </c>
@@ -7725,7 +7810,7 @@
       <c r="G259" s="1"/>
       <c r="H259" s="1"/>
     </row>
-    <row r="260" spans="1:8">
+    <row r="260" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>258</v>
       </c>
@@ -7737,7 +7822,7 @@
       <c r="G260" s="1"/>
       <c r="H260" s="1"/>
     </row>
-    <row r="261" spans="1:8">
+    <row r="261" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>259</v>
       </c>
@@ -7749,7 +7834,7 @@
       <c r="G261" s="1"/>
       <c r="H261" s="1"/>
     </row>
-    <row r="262" spans="1:8">
+    <row r="262" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>260</v>
       </c>
@@ -7761,7 +7846,7 @@
       <c r="G262" s="1"/>
       <c r="H262" s="1"/>
     </row>
-    <row r="263" spans="1:8">
+    <row r="263" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>261</v>
       </c>
@@ -7773,7 +7858,7 @@
       <c r="G263" s="1"/>
       <c r="H263" s="1"/>
     </row>
-    <row r="264" spans="1:8">
+    <row r="264" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A264">
         <v>262</v>
       </c>
@@ -7785,7 +7870,7 @@
       <c r="G264" s="1"/>
       <c r="H264" s="1"/>
     </row>
-    <row r="265" spans="1:8">
+    <row r="265" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>263</v>
       </c>
@@ -7797,7 +7882,7 @@
       <c r="G265" s="1"/>
       <c r="H265" s="1"/>
     </row>
-    <row r="266" spans="1:8">
+    <row r="266" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>264</v>
       </c>
@@ -7809,7 +7894,7 @@
       <c r="G266" s="1"/>
       <c r="H266" s="1"/>
     </row>
-    <row r="267" spans="1:8">
+    <row r="267" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A267">
         <v>265</v>
       </c>
@@ -7821,7 +7906,7 @@
       <c r="G267" s="1"/>
       <c r="H267" s="1"/>
     </row>
-    <row r="268" spans="1:8">
+    <row r="268" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A268">
         <v>266</v>
       </c>
@@ -7833,7 +7918,7 @@
       <c r="G268" s="1"/>
       <c r="H268" s="1"/>
     </row>
-    <row r="269" spans="1:8">
+    <row r="269" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A269">
         <v>267</v>
       </c>
@@ -7845,7 +7930,7 @@
       <c r="G269" s="1"/>
       <c r="H269" s="1"/>
     </row>
-    <row r="270" spans="1:8">
+    <row r="270" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A270">
         <v>268</v>
       </c>
@@ -7857,7 +7942,7 @@
       <c r="G270" s="1"/>
       <c r="H270" s="1"/>
     </row>
-    <row r="271" spans="1:8">
+    <row r="271" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A271">
         <v>269</v>
       </c>
@@ -7869,7 +7954,7 @@
       <c r="G271" s="1"/>
       <c r="H271" s="1"/>
     </row>
-    <row r="272" spans="1:8">
+    <row r="272" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A272">
         <v>270</v>
       </c>
@@ -7881,7 +7966,7 @@
       <c r="G272" s="1"/>
       <c r="H272" s="1"/>
     </row>
-    <row r="273" spans="1:8">
+    <row r="273" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A273">
         <v>271</v>
       </c>
@@ -7893,7 +7978,7 @@
       <c r="G273" s="1"/>
       <c r="H273" s="1"/>
     </row>
-    <row r="274" spans="1:8">
+    <row r="274" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A274">
         <v>272</v>
       </c>
@@ -7905,7 +7990,7 @@
       <c r="G274" s="1"/>
       <c r="H274" s="1"/>
     </row>
-    <row r="275" spans="1:8">
+    <row r="275" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A275">
         <v>273</v>
       </c>
@@ -7917,7 +8002,7 @@
       <c r="G275" s="1"/>
       <c r="H275" s="1"/>
     </row>
-    <row r="276" spans="1:8">
+    <row r="276" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A276">
         <v>274</v>
       </c>
@@ -7929,7 +8014,7 @@
       <c r="G276" s="1"/>
       <c r="H276" s="1"/>
     </row>
-    <row r="277" spans="1:8">
+    <row r="277" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A277">
         <v>275</v>
       </c>
@@ -7941,7 +8026,7 @@
       <c r="G277" s="1"/>
       <c r="H277" s="1"/>
     </row>
-    <row r="278" spans="1:8">
+    <row r="278" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A278">
         <v>276</v>
       </c>
@@ -7953,7 +8038,7 @@
       <c r="G278" s="1"/>
       <c r="H278" s="1"/>
     </row>
-    <row r="279" spans="1:8">
+    <row r="279" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A279">
         <v>277</v>
       </c>
@@ -7965,7 +8050,7 @@
       <c r="G279" s="1"/>
       <c r="H279" s="1"/>
     </row>
-    <row r="280" spans="1:8">
+    <row r="280" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A280">
         <v>278</v>
       </c>
@@ -7977,7 +8062,7 @@
       <c r="G280" s="1"/>
       <c r="H280" s="1"/>
     </row>
-    <row r="281" spans="1:8">
+    <row r="281" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A281">
         <v>279</v>
       </c>
@@ -7989,7 +8074,7 @@
       <c r="G281" s="1"/>
       <c r="H281" s="1"/>
     </row>
-    <row r="282" spans="1:8">
+    <row r="282" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A282">
         <v>280</v>
       </c>
@@ -8001,7 +8086,7 @@
       <c r="G282" s="1"/>
       <c r="H282" s="1"/>
     </row>
-    <row r="283" spans="1:8">
+    <row r="283" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A283">
         <v>281</v>
       </c>
@@ -8013,7 +8098,7 @@
       <c r="G283" s="1"/>
       <c r="H283" s="1"/>
     </row>
-    <row r="284" spans="1:8">
+    <row r="284" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A284">
         <v>282</v>
       </c>
@@ -8025,7 +8110,7 @@
       <c r="G284" s="1"/>
       <c r="H284" s="1"/>
     </row>
-    <row r="285" spans="1:8">
+    <row r="285" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A285">
         <v>283</v>
       </c>
@@ -8037,7 +8122,7 @@
       <c r="G285" s="1"/>
       <c r="H285" s="1"/>
     </row>
-    <row r="286" spans="1:8">
+    <row r="286" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A286">
         <v>284</v>
       </c>
@@ -8049,7 +8134,7 @@
       <c r="G286" s="1"/>
       <c r="H286" s="1"/>
     </row>
-    <row r="287" spans="1:8">
+    <row r="287" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A287">
         <v>285</v>
       </c>
@@ -8061,7 +8146,7 @@
       <c r="G287" s="1"/>
       <c r="H287" s="1"/>
     </row>
-    <row r="288" spans="1:8">
+    <row r="288" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A288">
         <v>286</v>
       </c>
@@ -8073,7 +8158,7 @@
       <c r="G288" s="1"/>
       <c r="H288" s="1"/>
     </row>
-    <row r="289" spans="1:8">
+    <row r="289" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A289">
         <v>287</v>
       </c>
@@ -8085,7 +8170,7 @@
       <c r="G289" s="1"/>
       <c r="H289" s="1"/>
     </row>
-    <row r="290" spans="1:8">
+    <row r="290" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A290">
         <v>288</v>
       </c>
@@ -8097,7 +8182,7 @@
       <c r="G290" s="1"/>
       <c r="H290" s="1"/>
     </row>
-    <row r="291" spans="1:8">
+    <row r="291" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A291">
         <v>289</v>
       </c>
@@ -8109,7 +8194,7 @@
       <c r="G291" s="1"/>
       <c r="H291" s="1"/>
     </row>
-    <row r="292" spans="1:8">
+    <row r="292" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A292">
         <v>290</v>
       </c>
@@ -8121,7 +8206,7 @@
       <c r="G292" s="1"/>
       <c r="H292" s="1"/>
     </row>
-    <row r="293" spans="1:8">
+    <row r="293" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A293">
         <v>291</v>
       </c>
@@ -8133,7 +8218,7 @@
       <c r="G293" s="1"/>
       <c r="H293" s="1"/>
     </row>
-    <row r="294" spans="1:8">
+    <row r="294" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A294">
         <v>292</v>
       </c>
@@ -8145,7 +8230,7 @@
       <c r="G294" s="1"/>
       <c r="H294" s="1"/>
     </row>
-    <row r="295" spans="1:8">
+    <row r="295" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A295">
         <v>293</v>
       </c>
@@ -8157,7 +8242,7 @@
       <c r="G295" s="1"/>
       <c r="H295" s="1"/>
     </row>
-    <row r="296" spans="1:8">
+    <row r="296" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A296">
         <v>294</v>
       </c>
@@ -8169,7 +8254,7 @@
       <c r="G296" s="1"/>
       <c r="H296" s="1"/>
     </row>
-    <row r="297" spans="1:8">
+    <row r="297" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A297">
         <v>295</v>
       </c>
@@ -8181,7 +8266,7 @@
       <c r="G297" s="1"/>
       <c r="H297" s="1"/>
     </row>
-    <row r="298" spans="1:8">
+    <row r="298" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A298">
         <v>296</v>
       </c>
@@ -8193,7 +8278,7 @@
       <c r="G298" s="1"/>
       <c r="H298" s="1"/>
     </row>
-    <row r="299" spans="1:8">
+    <row r="299" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A299">
         <v>297</v>
       </c>
@@ -8205,7 +8290,7 @@
       <c r="G299" s="1"/>
       <c r="H299" s="1"/>
     </row>
-    <row r="300" spans="1:8">
+    <row r="300" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A300">
         <v>298</v>
       </c>
@@ -8217,7 +8302,7 @@
       <c r="G300" s="1"/>
       <c r="H300" s="1"/>
     </row>
-    <row r="301" spans="1:8">
+    <row r="301" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A301">
         <v>299</v>
       </c>
@@ -8229,7 +8314,7 @@
       <c r="G301" s="1"/>
       <c r="H301" s="1"/>
     </row>
-    <row r="302" spans="1:8">
+    <row r="302" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A302">
         <v>300</v>
       </c>
@@ -8241,7 +8326,7 @@
       <c r="G302" s="1"/>
       <c r="H302" s="1"/>
     </row>
-    <row r="303" spans="1:8">
+    <row r="303" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A303">
         <v>301</v>
       </c>
@@ -8253,7 +8338,7 @@
       <c r="G303" s="1"/>
       <c r="H303" s="1"/>
     </row>
-    <row r="304" spans="1:8">
+    <row r="304" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A304">
         <v>302</v>
       </c>
@@ -8265,7 +8350,7 @@
       <c r="G304" s="1"/>
       <c r="H304" s="1"/>
     </row>
-    <row r="305" spans="1:8">
+    <row r="305" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A305">
         <v>303</v>
       </c>
@@ -8277,7 +8362,7 @@
       <c r="G305" s="1"/>
       <c r="H305" s="1"/>
     </row>
-    <row r="306" spans="1:8">
+    <row r="306" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A306">
         <v>304</v>
       </c>
@@ -8289,7 +8374,7 @@
       <c r="G306" s="1"/>
       <c r="H306" s="1"/>
     </row>
-    <row r="307" spans="1:8">
+    <row r="307" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A307">
         <v>305</v>
       </c>
@@ -8301,7 +8386,7 @@
       <c r="G307" s="1"/>
       <c r="H307" s="1"/>
     </row>
-    <row r="308" spans="1:8">
+    <row r="308" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A308">
         <v>306</v>
       </c>
@@ -8313,7 +8398,7 @@
       <c r="G308" s="1"/>
       <c r="H308" s="1"/>
     </row>
-    <row r="309" spans="1:8">
+    <row r="309" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A309">
         <v>307</v>
       </c>
@@ -8325,7 +8410,7 @@
       <c r="G309" s="1"/>
       <c r="H309" s="1"/>
     </row>
-    <row r="310" spans="1:8">
+    <row r="310" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A310">
         <v>308</v>
       </c>
@@ -8337,7 +8422,7 @@
       <c r="G310" s="1"/>
       <c r="H310" s="1"/>
     </row>
-    <row r="311" spans="1:8">
+    <row r="311" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A311">
         <v>309</v>
       </c>
@@ -8349,7 +8434,7 @@
       <c r="G311" s="1"/>
       <c r="H311" s="1"/>
     </row>
-    <row r="312" spans="1:8">
+    <row r="312" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A312">
         <v>310</v>
       </c>
@@ -8361,7 +8446,7 @@
       <c r="G312" s="1"/>
       <c r="H312" s="1"/>
     </row>
-    <row r="313" spans="1:8">
+    <row r="313" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A313">
         <v>311</v>
       </c>
@@ -8373,7 +8458,7 @@
       <c r="G313" s="1"/>
       <c r="H313" s="1"/>
     </row>
-    <row r="314" spans="1:8">
+    <row r="314" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A314">
         <v>312</v>
       </c>
@@ -8385,7 +8470,7 @@
       <c r="G314" s="1"/>
       <c r="H314" s="1"/>
     </row>
-    <row r="315" spans="1:8">
+    <row r="315" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A315">
         <v>313</v>
       </c>
@@ -8397,7 +8482,7 @@
       <c r="G315" s="1"/>
       <c r="H315" s="1"/>
     </row>
-    <row r="316" spans="1:8">
+    <row r="316" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A316">
         <v>314</v>
       </c>
@@ -8409,7 +8494,7 @@
       <c r="G316" s="1"/>
       <c r="H316" s="1"/>
     </row>
-    <row r="317" spans="1:8">
+    <row r="317" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A317">
         <v>315</v>
       </c>
@@ -8421,7 +8506,7 @@
       <c r="G317" s="1"/>
       <c r="H317" s="1"/>
     </row>
-    <row r="318" spans="1:8">
+    <row r="318" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A318">
         <v>316</v>
       </c>
@@ -8433,7 +8518,7 @@
       <c r="G318" s="1"/>
       <c r="H318" s="1"/>
     </row>
-    <row r="319" spans="1:8">
+    <row r="319" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A319">
         <v>317</v>
       </c>
@@ -8445,7 +8530,7 @@
       <c r="G319" s="1"/>
       <c r="H319" s="1"/>
     </row>
-    <row r="320" spans="1:8">
+    <row r="320" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A320">
         <v>318</v>
       </c>
@@ -8457,7 +8542,7 @@
       <c r="G320" s="1"/>
       <c r="H320" s="1"/>
     </row>
-    <row r="321" spans="1:8">
+    <row r="321" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A321">
         <v>319</v>
       </c>
@@ -8469,7 +8554,7 @@
       <c r="G321" s="1"/>
       <c r="H321" s="1"/>
     </row>
-    <row r="322" spans="1:8">
+    <row r="322" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A322">
         <v>320</v>
       </c>
@@ -8481,7 +8566,7 @@
       <c r="G322" s="1"/>
       <c r="H322" s="1"/>
     </row>
-    <row r="323" spans="1:8">
+    <row r="323" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A323">
         <v>321</v>
       </c>
@@ -8493,7 +8578,7 @@
       <c r="G323" s="1"/>
       <c r="H323" s="1"/>
     </row>
-    <row r="324" spans="1:8">
+    <row r="324" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A324">
         <v>322</v>
       </c>
@@ -8505,7 +8590,7 @@
       <c r="G324" s="1"/>
       <c r="H324" s="1"/>
     </row>
-    <row r="325" spans="1:8">
+    <row r="325" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A325">
         <v>323</v>
       </c>
@@ -8517,7 +8602,7 @@
       <c r="G325" s="1"/>
       <c r="H325" s="1"/>
     </row>
-    <row r="326" spans="1:8">
+    <row r="326" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A326">
         <v>324</v>
       </c>
@@ -8529,7 +8614,7 @@
       <c r="G326" s="1"/>
       <c r="H326" s="1"/>
     </row>
-    <row r="327" spans="1:8">
+    <row r="327" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A327">
         <v>325</v>
       </c>
@@ -8541,7 +8626,7 @@
       <c r="G327" s="1"/>
       <c r="H327" s="1"/>
     </row>
-    <row r="328" spans="1:8">
+    <row r="328" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A328">
         <v>326</v>
       </c>
@@ -8553,7 +8638,7 @@
       <c r="G328" s="1"/>
       <c r="H328" s="1"/>
     </row>
-    <row r="329" spans="1:8">
+    <row r="329" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A329">
         <v>327</v>
       </c>
@@ -8565,7 +8650,7 @@
       <c r="G329" s="1"/>
       <c r="H329" s="1"/>
     </row>
-    <row r="330" spans="1:8">
+    <row r="330" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A330">
         <v>328</v>
       </c>
@@ -8577,7 +8662,7 @@
       <c r="G330" s="1"/>
       <c r="H330" s="1"/>
     </row>
-    <row r="331" spans="1:8">
+    <row r="331" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A331">
         <v>329</v>
       </c>
@@ -8589,7 +8674,7 @@
       <c r="G331" s="1"/>
       <c r="H331" s="1"/>
     </row>
-    <row r="332" spans="1:8">
+    <row r="332" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A332">
         <v>330</v>
       </c>
@@ -8601,7 +8686,7 @@
       <c r="G332" s="1"/>
       <c r="H332" s="1"/>
     </row>
-    <row r="333" spans="1:8">
+    <row r="333" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A333">
         <v>331</v>
       </c>
@@ -8613,7 +8698,7 @@
       <c r="G333" s="1"/>
       <c r="H333" s="1"/>
     </row>
-    <row r="334" spans="1:8">
+    <row r="334" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A334">
         <v>332</v>
       </c>
@@ -8625,7 +8710,7 @@
       <c r="G334" s="1"/>
       <c r="H334" s="1"/>
     </row>
-    <row r="335" spans="1:8">
+    <row r="335" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A335">
         <v>333</v>
       </c>
@@ -8637,7 +8722,7 @@
       <c r="G335" s="1"/>
       <c r="H335" s="1"/>
     </row>
-    <row r="336" spans="1:8">
+    <row r="336" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A336">
         <v>334</v>
       </c>
@@ -8649,7 +8734,7 @@
       <c r="G336" s="1"/>
       <c r="H336" s="1"/>
     </row>
-    <row r="337" spans="1:8">
+    <row r="337" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A337">
         <v>335</v>
       </c>
@@ -8661,7 +8746,7 @@
       <c r="G337" s="1"/>
       <c r="H337" s="1"/>
     </row>
-    <row r="338" spans="1:8">
+    <row r="338" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A338">
         <v>336</v>
       </c>
@@ -8673,7 +8758,7 @@
       <c r="G338" s="1"/>
       <c r="H338" s="1"/>
     </row>
-    <row r="339" spans="1:8">
+    <row r="339" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A339">
         <v>337</v>
       </c>
@@ -8685,7 +8770,7 @@
       <c r="G339" s="1"/>
       <c r="H339" s="1"/>
     </row>
-    <row r="340" spans="1:8">
+    <row r="340" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A340">
         <v>338</v>
       </c>
@@ -8697,7 +8782,7 @@
       <c r="G340" s="1"/>
       <c r="H340" s="1"/>
     </row>
-    <row r="341" spans="1:8">
+    <row r="341" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A341">
         <v>339</v>
       </c>
@@ -8709,7 +8794,7 @@
       <c r="G341" s="1"/>
       <c r="H341" s="1"/>
     </row>
-    <row r="342" spans="1:8">
+    <row r="342" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A342">
         <v>340</v>
       </c>
@@ -8721,7 +8806,7 @@
       <c r="G342" s="1"/>
       <c r="H342" s="1"/>
     </row>
-    <row r="343" spans="1:8">
+    <row r="343" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A343">
         <v>341</v>
       </c>
@@ -8733,7 +8818,7 @@
       <c r="G343" s="1"/>
       <c r="H343" s="1"/>
     </row>
-    <row r="344" spans="1:8">
+    <row r="344" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A344">
         <v>342</v>
       </c>
@@ -8745,7 +8830,7 @@
       <c r="G344" s="1"/>
       <c r="H344" s="1"/>
     </row>
-    <row r="345" spans="1:8">
+    <row r="345" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A345">
         <v>343</v>
       </c>
@@ -8757,7 +8842,7 @@
       <c r="G345" s="1"/>
       <c r="H345" s="1"/>
     </row>
-    <row r="346" spans="1:8">
+    <row r="346" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A346">
         <v>344</v>
       </c>
@@ -8769,7 +8854,7 @@
       <c r="G346" s="1"/>
       <c r="H346" s="1"/>
     </row>
-    <row r="347" spans="1:8">
+    <row r="347" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A347">
         <v>345</v>
       </c>
@@ -8781,7 +8866,7 @@
       <c r="G347" s="1"/>
       <c r="H347" s="1"/>
     </row>
-    <row r="348" spans="1:8">
+    <row r="348" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A348">
         <v>346</v>
       </c>
@@ -8793,7 +8878,7 @@
       <c r="G348" s="1"/>
       <c r="H348" s="1"/>
     </row>
-    <row r="349" spans="1:8">
+    <row r="349" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A349">
         <v>347</v>
       </c>
@@ -8805,7 +8890,7 @@
       <c r="G349" s="1"/>
       <c r="H349" s="1"/>
     </row>
-    <row r="350" spans="1:8">
+    <row r="350" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A350">
         <v>348</v>
       </c>
@@ -8817,7 +8902,7 @@
       <c r="G350" s="1"/>
       <c r="H350" s="1"/>
     </row>
-    <row r="351" spans="1:8">
+    <row r="351" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A351">
         <v>349</v>
       </c>
@@ -8829,7 +8914,7 @@
       <c r="G351" s="1"/>
       <c r="H351" s="1"/>
     </row>
-    <row r="352" spans="1:8">
+    <row r="352" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A352">
         <v>350</v>
       </c>
@@ -8841,7 +8926,7 @@
       <c r="G352" s="1"/>
       <c r="H352" s="1"/>
     </row>
-    <row r="353" spans="1:8">
+    <row r="353" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A353">
         <v>351</v>
       </c>
@@ -8853,7 +8938,7 @@
       <c r="G353" s="1"/>
       <c r="H353" s="1"/>
     </row>
-    <row r="354" spans="1:8">
+    <row r="354" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A354">
         <v>352</v>
       </c>
@@ -8865,7 +8950,7 @@
       <c r="G354" s="1"/>
       <c r="H354" s="1"/>
     </row>
-    <row r="355" spans="1:8">
+    <row r="355" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A355">
         <v>353</v>
       </c>
@@ -8877,7 +8962,7 @@
       <c r="G355" s="1"/>
       <c r="H355" s="1"/>
     </row>
-    <row r="356" spans="1:8">
+    <row r="356" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A356">
         <v>354</v>
       </c>
@@ -8889,7 +8974,7 @@
       <c r="G356" s="1"/>
       <c r="H356" s="1"/>
     </row>
-    <row r="357" spans="1:8">
+    <row r="357" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A357">
         <v>355</v>
       </c>
@@ -8901,7 +8986,7 @@
       <c r="G357" s="1"/>
       <c r="H357" s="1"/>
     </row>
-    <row r="358" spans="1:8">
+    <row r="358" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A358">
         <v>356</v>
       </c>
@@ -8913,7 +8998,7 @@
       <c r="G358" s="1"/>
       <c r="H358" s="1"/>
     </row>
-    <row r="359" spans="1:8">
+    <row r="359" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A359">
         <v>357</v>
       </c>
@@ -8925,7 +9010,7 @@
       <c r="G359" s="1"/>
       <c r="H359" s="1"/>
     </row>
-    <row r="360" spans="1:8">
+    <row r="360" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A360">
         <v>358</v>
       </c>
@@ -8937,7 +9022,7 @@
       <c r="G360" s="1"/>
       <c r="H360" s="1"/>
     </row>
-    <row r="361" spans="1:8">
+    <row r="361" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A361">
         <v>359</v>
       </c>
@@ -8949,7 +9034,7 @@
       <c r="G361" s="1"/>
       <c r="H361" s="1"/>
     </row>
-    <row r="362" spans="1:8">
+    <row r="362" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A362">
         <v>360</v>
       </c>
@@ -8961,7 +9046,7 @@
       <c r="G362" s="1"/>
       <c r="H362" s="1"/>
     </row>
-    <row r="363" spans="1:8">
+    <row r="363" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A363">
         <v>361</v>
       </c>
@@ -8973,7 +9058,7 @@
       <c r="G363" s="1"/>
       <c r="H363" s="1"/>
     </row>
-    <row r="364" spans="1:8">
+    <row r="364" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A364">
         <v>362</v>
       </c>
@@ -8985,7 +9070,7 @@
       <c r="G364" s="1"/>
       <c r="H364" s="1"/>
     </row>
-    <row r="365" spans="1:8">
+    <row r="365" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A365">
         <v>363</v>
       </c>
@@ -8997,7 +9082,7 @@
       <c r="G365" s="1"/>
       <c r="H365" s="1"/>
     </row>
-    <row r="366" spans="1:8">
+    <row r="366" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A366">
         <v>364</v>
       </c>
@@ -9009,7 +9094,7 @@
       <c r="G366" s="1"/>
       <c r="H366" s="1"/>
     </row>
-    <row r="367" spans="1:8">
+    <row r="367" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A367">
         <v>365</v>
       </c>
@@ -9021,7 +9106,7 @@
       <c r="G367" s="1"/>
       <c r="H367" s="1"/>
     </row>
-    <row r="368" spans="1:8">
+    <row r="368" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A368">
         <v>366</v>
       </c>
@@ -9033,7 +9118,7 @@
       <c r="G368" s="1"/>
       <c r="H368" s="1"/>
     </row>
-    <row r="369" spans="1:8">
+    <row r="369" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A369">
         <v>367</v>
       </c>
@@ -9045,7 +9130,7 @@
       <c r="G369" s="1"/>
       <c r="H369" s="1"/>
     </row>
-    <row r="370" spans="1:8">
+    <row r="370" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A370">
         <v>368</v>
       </c>
@@ -9057,7 +9142,7 @@
       <c r="G370" s="1"/>
       <c r="H370" s="1"/>
     </row>
-    <row r="371" spans="1:8">
+    <row r="371" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A371">
         <v>369</v>
       </c>
@@ -9069,7 +9154,7 @@
       <c r="G371" s="1"/>
       <c r="H371" s="1"/>
     </row>
-    <row r="372" spans="1:8">
+    <row r="372" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A372">
         <v>370</v>
       </c>
@@ -9081,7 +9166,7 @@
       <c r="G372" s="1"/>
       <c r="H372" s="1"/>
     </row>
-    <row r="373" spans="1:8">
+    <row r="373" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A373">
         <v>371</v>
       </c>
@@ -9093,7 +9178,7 @@
       <c r="G373" s="1"/>
       <c r="H373" s="1"/>
     </row>
-    <row r="374" spans="1:8">
+    <row r="374" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A374">
         <v>372</v>
       </c>
@@ -9105,7 +9190,7 @@
       <c r="G374" s="1"/>
       <c r="H374" s="1"/>
     </row>
-    <row r="375" spans="1:8">
+    <row r="375" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A375">
         <v>373</v>
       </c>
@@ -9117,7 +9202,7 @@
       <c r="G375" s="1"/>
       <c r="H375" s="1"/>
     </row>
-    <row r="376" spans="1:8">
+    <row r="376" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A376">
         <v>374</v>
       </c>
@@ -9129,7 +9214,7 @@
       <c r="G376" s="1"/>
       <c r="H376" s="1"/>
     </row>
-    <row r="377" spans="1:8">
+    <row r="377" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A377">
         <v>375</v>
       </c>
@@ -9141,7 +9226,7 @@
       <c r="G377" s="1"/>
       <c r="H377" s="1"/>
     </row>
-    <row r="378" spans="1:8">
+    <row r="378" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A378">
         <v>376</v>
       </c>
@@ -9153,7 +9238,7 @@
       <c r="G378" s="1"/>
       <c r="H378" s="1"/>
     </row>
-    <row r="379" spans="1:8">
+    <row r="379" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A379">
         <v>377</v>
       </c>
@@ -9165,7 +9250,7 @@
       <c r="G379" s="1"/>
       <c r="H379" s="1"/>
     </row>
-    <row r="380" spans="1:8">
+    <row r="380" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A380">
         <v>378</v>
       </c>
@@ -9177,7 +9262,7 @@
       <c r="G380" s="1"/>
       <c r="H380" s="1"/>
     </row>
-    <row r="381" spans="1:8">
+    <row r="381" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A381">
         <v>379</v>
       </c>
@@ -9189,7 +9274,7 @@
       <c r="G381" s="1"/>
       <c r="H381" s="1"/>
     </row>
-    <row r="382" spans="1:8">
+    <row r="382" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A382">
         <v>380</v>
       </c>
@@ -9201,7 +9286,7 @@
       <c r="G382" s="1"/>
       <c r="H382" s="1"/>
     </row>
-    <row r="383" spans="1:8">
+    <row r="383" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A383">
         <v>381</v>
       </c>
@@ -9213,7 +9298,7 @@
       <c r="G383" s="1"/>
       <c r="H383" s="1"/>
     </row>
-    <row r="384" spans="1:8">
+    <row r="384" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A384">
         <v>382</v>
       </c>
@@ -9225,7 +9310,7 @@
       <c r="G384" s="1"/>
       <c r="H384" s="1"/>
     </row>
-    <row r="385" spans="1:8">
+    <row r="385" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A385">
         <v>383</v>
       </c>
@@ -9237,7 +9322,7 @@
       <c r="G385" s="1"/>
       <c r="H385" s="1"/>
     </row>
-    <row r="386" spans="1:8">
+    <row r="386" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A386">
         <v>384</v>
       </c>
@@ -9249,7 +9334,7 @@
       <c r="G386" s="1"/>
       <c r="H386" s="1"/>
     </row>
-    <row r="387" spans="1:8">
+    <row r="387" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A387">
         <v>385</v>
       </c>
@@ -9261,7 +9346,7 @@
       <c r="G387" s="1"/>
       <c r="H387" s="1"/>
     </row>
-    <row r="388" spans="1:8">
+    <row r="388" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A388">
         <v>386</v>
       </c>
@@ -9273,7 +9358,7 @@
       <c r="G388" s="1"/>
       <c r="H388" s="1"/>
     </row>
-    <row r="389" spans="1:8">
+    <row r="389" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A389">
         <v>387</v>
       </c>
@@ -9285,7 +9370,7 @@
       <c r="G389" s="1"/>
       <c r="H389" s="1"/>
     </row>
-    <row r="390" spans="1:8">
+    <row r="390" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A390">
         <v>388</v>
       </c>
@@ -9297,7 +9382,7 @@
       <c r="G390" s="1"/>
       <c r="H390" s="1"/>
     </row>
-    <row r="391" spans="1:8">
+    <row r="391" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A391">
         <v>389</v>
       </c>
@@ -9309,7 +9394,7 @@
       <c r="G391" s="1"/>
       <c r="H391" s="1"/>
     </row>
-    <row r="392" spans="1:8">
+    <row r="392" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A392">
         <v>390</v>
       </c>
@@ -9321,7 +9406,7 @@
       <c r="G392" s="1"/>
       <c r="H392" s="1"/>
     </row>
-    <row r="393" spans="1:8">
+    <row r="393" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A393">
         <v>391</v>
       </c>
@@ -9333,7 +9418,7 @@
       <c r="G393" s="1"/>
       <c r="H393" s="1"/>
     </row>
-    <row r="394" spans="1:8">
+    <row r="394" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A394">
         <v>392</v>
       </c>
@@ -9345,7 +9430,7 @@
       <c r="G394" s="1"/>
       <c r="H394" s="1"/>
     </row>
-    <row r="395" spans="1:8">
+    <row r="395" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A395">
         <v>393</v>
       </c>
@@ -9357,7 +9442,7 @@
       <c r="G395" s="1"/>
       <c r="H395" s="1"/>
     </row>
-    <row r="396" spans="1:8">
+    <row r="396" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A396">
         <v>394</v>
       </c>
@@ -9369,7 +9454,7 @@
       <c r="G396" s="1"/>
       <c r="H396" s="1"/>
     </row>
-    <row r="397" spans="1:8">
+    <row r="397" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A397">
         <v>395</v>
       </c>
@@ -9381,7 +9466,7 @@
       <c r="G397" s="1"/>
       <c r="H397" s="1"/>
     </row>
-    <row r="398" spans="1:8">
+    <row r="398" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A398">
         <v>396</v>
       </c>
@@ -9393,7 +9478,7 @@
       <c r="G398" s="1"/>
       <c r="H398" s="1"/>
     </row>
-    <row r="399" spans="1:8">
+    <row r="399" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A399">
         <v>397</v>
       </c>
@@ -9405,7 +9490,7 @@
       <c r="G399" s="1"/>
       <c r="H399" s="1"/>
     </row>
-    <row r="400" spans="1:8">
+    <row r="400" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A400">
         <v>398</v>
       </c>
@@ -9417,7 +9502,7 @@
       <c r="G400" s="1"/>
       <c r="H400" s="1"/>
     </row>
-    <row r="401" spans="1:8">
+    <row r="401" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A401">
         <v>399</v>
       </c>
@@ -9429,7 +9514,7 @@
       <c r="G401" s="1"/>
       <c r="H401" s="1"/>
     </row>
-    <row r="402" spans="1:8">
+    <row r="402" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A402">
         <v>400</v>
       </c>
@@ -9441,7 +9526,7 @@
       <c r="G402" s="1"/>
       <c r="H402" s="1"/>
     </row>
-    <row r="403" spans="1:8">
+    <row r="403" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A403">
         <v>401</v>
       </c>
@@ -9453,7 +9538,7 @@
       <c r="G403" s="1"/>
       <c r="H403" s="1"/>
     </row>
-    <row r="404" spans="1:8">
+    <row r="404" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A404">
         <v>402</v>
       </c>
@@ -9465,7 +9550,7 @@
       <c r="G404" s="1"/>
       <c r="H404" s="1"/>
     </row>
-    <row r="405" spans="1:8">
+    <row r="405" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A405">
         <v>403</v>
       </c>
@@ -9477,7 +9562,7 @@
       <c r="G405" s="1"/>
       <c r="H405" s="1"/>
     </row>
-    <row r="406" spans="1:8">
+    <row r="406" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A406">
         <v>404</v>
       </c>
@@ -9489,7 +9574,7 @@
       <c r="G406" s="1"/>
       <c r="H406" s="1"/>
     </row>
-    <row r="407" spans="1:8">
+    <row r="407" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A407">
         <v>405</v>
       </c>
@@ -9501,7 +9586,7 @@
       <c r="G407" s="1"/>
       <c r="H407" s="1"/>
     </row>
-    <row r="408" spans="1:8">
+    <row r="408" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A408">
         <v>406</v>
       </c>
@@ -9513,7 +9598,7 @@
       <c r="G408" s="1"/>
       <c r="H408" s="1"/>
     </row>
-    <row r="409" spans="1:8">
+    <row r="409" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A409">
         <v>407</v>
       </c>
@@ -9525,7 +9610,7 @@
       <c r="G409" s="1"/>
       <c r="H409" s="1"/>
     </row>
-    <row r="410" spans="1:8">
+    <row r="410" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A410">
         <v>408</v>
       </c>

--- a/TF_UI_APIs.xlsx
+++ b/TF_UI_APIs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\W\tf-new-arch-artifacts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDF256E5-A322-49D2-8C3C-F26507A10843}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B5A0CA7-1EEB-445B-88AC-56EBD2FCB6C9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="234">
   <si>
     <t>Tax Authority</t>
   </si>
@@ -759,6 +759,12 @@
   </si>
   <si>
     <t>/TaxCodeService/deleteAddressOverride</t>
+  </si>
+  <si>
+    <t>PlaceCode,SchoolDistrict,Counties,AddOvrdState</t>
+  </si>
+  <si>
+    <t>/TaxCodeService/deleteRedundantAddressOverrides</t>
   </si>
 </sst>
 </file>
@@ -2519,17 +2525,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P12"/>
+  <dimension ref="A1:P16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.140625" customWidth="1"/>
     <col min="4" max="4" width="47.7109375" customWidth="1"/>
     <col min="5" max="5" width="16.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="42" customWidth="1"/>
@@ -2602,6 +2608,9 @@
       <c r="B2" t="s">
         <v>63</v>
       </c>
+      <c r="C2" t="s">
+        <v>232</v>
+      </c>
       <c r="D2" t="s">
         <v>227</v>
       </c>
@@ -2630,6 +2639,12 @@
         <v>230</v>
       </c>
       <c r="M2" t="s">
+        <v>66</v>
+      </c>
+      <c r="N2" t="s">
+        <v>71</v>
+      </c>
+      <c r="O2" t="s">
         <v>66</v>
       </c>
     </row>
@@ -3102,6 +3117,11 @@
       </c>
       <c r="M12" t="s">
         <v>66</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="H16" t="s">
+        <v>233</v>
       </c>
     </row>
   </sheetData>

--- a/TF_UI_APIs.xlsx
+++ b/TF_UI_APIs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\W\tf-new-arch-artifacts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B5A0CA7-1EEB-445B-88AC-56EBD2FCB6C9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE412749-E531-4071-8F3D-ABE9497BAD80}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Type1" sheetId="2" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="613" uniqueCount="241">
   <si>
     <t>Tax Authority</t>
   </si>
@@ -765,6 +765,27 @@
   </si>
   <si>
     <t>/TaxCodeService/deleteRedundantAddressOverrides</t>
+  </si>
+  <si>
+    <t>unemploymentOverrides</t>
+  </si>
+  <si>
+    <t>AuthorityCodeList,TaxTypes,FormulaUnemp</t>
+  </si>
+  <si>
+    <t>/TaxCodeService/getUnempOverrideList</t>
+  </si>
+  <si>
+    <t>/TaxCodeService/saveUnemploymentOverride</t>
+  </si>
+  <si>
+    <t>/TaxCodeService/deleteUnemploymentOverride</t>
+  </si>
+  <si>
+    <t>Extra APIs</t>
+  </si>
+  <si>
+    <t>Extra APIs Ready</t>
   </si>
 </sst>
 </file>
@@ -2190,8 +2211,8 @@
     <tableColumn id="11" xr3:uid="{00000000-0010-0000-0300-00000B000000}" name="Get URL Ready?"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="Edit Entity"/>
     <tableColumn id="16" xr3:uid="{00000000-0010-0000-0300-000010000000}" name="Edit  URL Ready"/>
-    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0300-000011000000}" name="Get Usage URL"/>
-    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0300-000012000000}" name="Get Usage Ready"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0300-000011000000}" name="Extra APIs"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0300-000012000000}" name="Extra APIs Ready"/>
     <tableColumn id="9" xr3:uid="{00000000-0010-0000-0300-000009000000}" name="Delete URL"/>
     <tableColumn id="13" xr3:uid="{00000000-0010-0000-0300-00000D000000}" name="Delete Ready?"/>
     <tableColumn id="8" xr3:uid="{00000000-0010-0000-0300-000008000000}" name="Save/Update URL"/>
@@ -2527,8 +2548,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4458,15 +4479,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:Q14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.28515625" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" customWidth="1"/>
+    <col min="2" max="2" width="23" customWidth="1"/>
+    <col min="3" max="3" width="35.7109375" customWidth="1"/>
     <col min="4" max="4" width="35.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="48.5703125" customWidth="1"/>
     <col min="6" max="6" width="16.5703125" bestFit="1" customWidth="1"/>
@@ -4474,9 +4495,9 @@
     <col min="8" max="8" width="16.5703125" customWidth="1"/>
     <col min="9" max="9" width="36.28515625" customWidth="1"/>
     <col min="10" max="10" width="16.5703125" customWidth="1"/>
-    <col min="11" max="11" width="40.5703125" customWidth="1"/>
+    <col min="11" max="11" width="46.7109375" customWidth="1"/>
     <col min="12" max="12" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="38.85546875" customWidth="1"/>
+    <col min="13" max="13" width="45.140625" customWidth="1"/>
     <col min="14" max="14" width="21.140625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="15.7109375" bestFit="1" customWidth="1"/>
@@ -4509,10 +4530,10 @@
         <v>144</v>
       </c>
       <c r="I1" s="10" t="s">
-        <v>145</v>
+        <v>239</v>
       </c>
       <c r="J1" s="10" t="s">
-        <v>146</v>
+        <v>240</v>
       </c>
       <c r="K1" s="10" t="s">
         <v>68</v>
@@ -4627,6 +4648,45 @@
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>187</v>
+      </c>
+      <c r="B4" t="s">
+        <v>234</v>
+      </c>
+      <c r="C4" t="s">
+        <v>235</v>
+      </c>
+      <c r="D4" t="s">
+        <v>111</v>
+      </c>
+      <c r="E4" t="s">
+        <v>236</v>
+      </c>
+      <c r="F4" t="s">
+        <v>66</v>
+      </c>
+      <c r="G4" t="s">
+        <v>71</v>
+      </c>
+      <c r="H4" t="s">
+        <v>71</v>
+      </c>
+      <c r="I4" t="s">
+        <v>71</v>
+      </c>
+      <c r="J4" t="s">
+        <v>71</v>
+      </c>
+      <c r="K4" t="s">
+        <v>238</v>
+      </c>
+      <c r="L4" t="s">
+        <v>66</v>
+      </c>
+      <c r="M4" t="s">
+        <v>237</v>
+      </c>
+      <c r="N4" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">

--- a/TF_UI_APIs.xlsx
+++ b/TF_UI_APIs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\W\tf-new-arch-artifacts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE412749-E531-4071-8F3D-ABE9497BAD80}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9C527DC-E1CB-4903-A86F-E923A34E70DA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="613" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="242">
   <si>
     <t>Tax Authority</t>
   </si>
@@ -786,6 +786,9 @@
   </si>
   <si>
     <t>Extra APIs Ready</t>
+  </si>
+  <si>
+    <t>payment Overrides</t>
   </si>
 </sst>
 </file>
@@ -2548,8 +2551,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P16"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4480,7 +4483,7 @@
   <dimension ref="A1:Q14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4692,6 +4695,12 @@
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>188</v>
+      </c>
+      <c r="B5" t="s">
+        <v>241</v>
+      </c>
+      <c r="D5" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">

--- a/TF_UI_APIs.xlsx
+++ b/TF_UI_APIs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\W\tf-new-arch-artifacts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9C527DC-E1CB-4903-A86F-E923A34E70DA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6C0929D-E61A-4C2A-96F1-33ACFE988C45}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Type1" sheetId="2" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="634" uniqueCount="250">
   <si>
     <t>Tax Authority</t>
   </si>
@@ -789,6 +789,30 @@
   </si>
   <si>
     <t>payment Overrides</t>
+  </si>
+  <si>
+    <t>AuthorityCode,TaxTypesPymtOvrd,Plans</t>
+  </si>
+  <si>
+    <t>/PaymentsService/getPaymentOverrideList</t>
+  </si>
+  <si>
+    <t>/PaymentsService/getPaymentOverride</t>
+  </si>
+  <si>
+    <t>/PaymentsService/deletePaymentOverride</t>
+  </si>
+  <si>
+    <t>/PaymentsService/savePaymentOverride</t>
+  </si>
+  <si>
+    <t>reciprocalOverrides</t>
+  </si>
+  <si>
+    <t>/TaxCodeService/getReciprocalOverrideList</t>
+  </si>
+  <si>
+    <t>/TaxCodeService/saveStateReciprocalOverride</t>
   </si>
 </sst>
 </file>
@@ -4482,8 +4506,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:Q14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4494,7 +4518,7 @@
     <col min="4" max="4" width="35.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="48.5703125" customWidth="1"/>
     <col min="6" max="6" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="32.7109375" customWidth="1"/>
+    <col min="7" max="7" width="36.42578125" customWidth="1"/>
     <col min="8" max="8" width="16.5703125" customWidth="1"/>
     <col min="9" max="9" width="36.28515625" customWidth="1"/>
     <col min="10" max="10" width="16.5703125" customWidth="1"/>
@@ -4699,13 +4723,70 @@
       <c r="B5" t="s">
         <v>241</v>
       </c>
+      <c r="C5" t="s">
+        <v>242</v>
+      </c>
       <c r="D5" t="s">
         <v>176</v>
+      </c>
+      <c r="E5" t="s">
+        <v>243</v>
+      </c>
+      <c r="F5" t="s">
+        <v>66</v>
+      </c>
+      <c r="G5" t="s">
+        <v>244</v>
+      </c>
+      <c r="H5" t="s">
+        <v>66</v>
+      </c>
+      <c r="I5" t="s">
+        <v>71</v>
+      </c>
+      <c r="J5" t="s">
+        <v>71</v>
+      </c>
+      <c r="K5" t="s">
+        <v>245</v>
+      </c>
+      <c r="L5" t="s">
+        <v>66</v>
+      </c>
+      <c r="M5" t="s">
+        <v>246</v>
+      </c>
+      <c r="N5" t="s">
+        <v>66</v>
+      </c>
+      <c r="O5" t="s">
+        <v>71</v>
+      </c>
+      <c r="P5" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>189</v>
+      </c>
+      <c r="B6" t="s">
+        <v>247</v>
+      </c>
+      <c r="D6" t="s">
+        <v>176</v>
+      </c>
+      <c r="E6" t="s">
+        <v>248</v>
+      </c>
+      <c r="F6" t="s">
+        <v>66</v>
+      </c>
+      <c r="M6" t="s">
+        <v>249</v>
+      </c>
+      <c r="N6" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">

--- a/TF_UI_APIs.xlsx
+++ b/TF_UI_APIs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\W\tf-new-arch-artifacts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6C0929D-E61A-4C2A-96F1-33ACFE988C45}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{876348D1-AFFB-4127-9A5A-FE1CD875E672}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="634" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="733" uniqueCount="252">
   <si>
     <t>Tax Authority</t>
   </si>
@@ -813,6 +813,12 @@
   </si>
   <si>
     <t>/TaxCodeService/saveStateReciprocalOverride</t>
+  </si>
+  <si>
+    <t>/TaxCodeService/saveLocalReciprocalOverride</t>
+  </si>
+  <si>
+    <t>/TaxCodeService/deleteReciprocalOverride</t>
   </si>
 </sst>
 </file>
@@ -4506,8 +4512,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:Q14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4520,7 +4526,7 @@
     <col min="6" max="6" width="16.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="36.42578125" customWidth="1"/>
     <col min="8" max="8" width="16.5703125" customWidth="1"/>
-    <col min="9" max="9" width="36.28515625" customWidth="1"/>
+    <col min="9" max="9" width="44.42578125" customWidth="1"/>
     <col min="10" max="10" width="16.5703125" customWidth="1"/>
     <col min="11" max="11" width="46.7109375" customWidth="1"/>
     <col min="12" max="12" width="15.140625" bestFit="1" customWidth="1"/>
@@ -4780,6 +4786,21 @@
         <v>248</v>
       </c>
       <c r="F6" t="s">
+        <v>66</v>
+      </c>
+      <c r="G6" t="s">
+        <v>71</v>
+      </c>
+      <c r="I6" t="s">
+        <v>250</v>
+      </c>
+      <c r="J6" t="s">
+        <v>66</v>
+      </c>
+      <c r="K6" t="s">
+        <v>251</v>
+      </c>
+      <c r="L6" t="s">
         <v>66</v>
       </c>
       <c r="M6" t="s">

--- a/TF_UI_APIs.xlsx
+++ b/TF_UI_APIs.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\W\tf-new-arch-artifacts\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{876348D1-AFFB-4127-9A5A-FE1CD875E672}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="23256" windowHeight="13176" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Type1" sheetId="2" r:id="rId1"/>
@@ -18,13 +12,14 @@
     <sheet name="UDQ" sheetId="1" r:id="rId3"/>
     <sheet name="Type 2" sheetId="4" r:id="rId4"/>
     <sheet name="API Spec-Test" sheetId="5" r:id="rId5"/>
+    <sheet name="Reporting Too" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="733" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="664" uniqueCount="259">
   <si>
     <t>Tax Authority</t>
   </si>
@@ -820,12 +815,33 @@
   <si>
     <t>/TaxCodeService/deleteReciprocalOverride</t>
   </si>
+  <si>
+    <t>PA Services Tax Report</t>
+  </si>
+  <si>
+    <t>paServicesTaxReport</t>
+  </si>
+  <si>
+    <t>Tax History Report</t>
+  </si>
+  <si>
+    <t>taxHistory</t>
+  </si>
+  <si>
+    <t>Message Viewer</t>
+  </si>
+  <si>
+    <t>messageViewer</t>
+  </si>
+  <si>
+    <t>maritalStatus</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1121,7 +1137,247 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="41">
+  <dxfs count="50">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="9" tint="0.79998168889431442"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="9" tint="0.79998168889431442"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="9" tint="0.79998168889431442"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="9" tint="0.79998168889431442"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="9" tint="0.79998168889431442"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -2166,93 +2422,122 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:P13" totalsRowShown="0" headerRowDxfId="40" dataDxfId="38" headerRowBorderDxfId="39" tableBorderDxfId="37" totalsRowBorderDxfId="36">
-  <autoFilter ref="A1:P13" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:P13" totalsRowShown="0" headerRowDxfId="49" dataDxfId="47" headerRowBorderDxfId="48" tableBorderDxfId="46" totalsRowBorderDxfId="45">
+  <autoFilter ref="A1:P13"/>
+  <sortState ref="A2:J13">
     <sortCondition ref="A1:A13"/>
   </sortState>
   <tableColumns count="16">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Link Description"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Page Id" dataDxfId="35"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Autocomplete pageIds" dataDxfId="34"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Get Prod URL" dataDxfId="33"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Get URL Ready?"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Edit Entity"/>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="Edit  URL Ready"/>
-    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="Get Usage URL"/>
-    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="Get Usage Ready"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Delete URL"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Delete Ready?"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Save/Update URL"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Save/Update Ready?"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="View PDF?"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="All APIs ready?"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Testing?" dataDxfId="32"/>
+    <tableColumn id="1" name="Link Description"/>
+    <tableColumn id="2" name="Page Id" dataDxfId="44"/>
+    <tableColumn id="3" name="Autocomplete pageIds" dataDxfId="43"/>
+    <tableColumn id="4" name="Get Prod URL" dataDxfId="42"/>
+    <tableColumn id="11" name="Get URL Ready?"/>
+    <tableColumn id="5" name="Edit Entity"/>
+    <tableColumn id="16" name="Edit  URL Ready"/>
+    <tableColumn id="17" name="Get Usage URL"/>
+    <tableColumn id="18" name="Get Usage Ready"/>
+    <tableColumn id="9" name="Delete URL"/>
+    <tableColumn id="13" name="Delete Ready?"/>
+    <tableColumn id="8" name="Save/Update URL"/>
+    <tableColumn id="7" name="Save/Update Ready?"/>
+    <tableColumn id="10" name="View PDF?"/>
+    <tableColumn id="12" name="All APIs ready?"/>
+    <tableColumn id="6" name="Testing?" dataDxfId="41"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table5" displayName="Table5" ref="A1:H23" totalsRowShown="0" headerRowDxfId="31" dataDxfId="29" headerRowBorderDxfId="30" tableBorderDxfId="28" totalsRowBorderDxfId="27">
-  <autoFilter ref="A1:H23" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table5" displayName="Table5" ref="A1:H23" totalsRowShown="0" headerRowDxfId="40" dataDxfId="38" headerRowBorderDxfId="39" tableBorderDxfId="37" totalsRowBorderDxfId="36">
+  <autoFilter ref="A1:H23"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Field Description" dataDxfId="26"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Prod URL" dataDxfId="25"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Is Autocomplete?" dataDxfId="24"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Dev Done?" dataDxfId="23"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="In Sync With UI?" dataDxfId="22"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Screens" dataDxfId="21"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Dev By" dataDxfId="20"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="Note" dataDxfId="19"/>
+    <tableColumn id="1" name="Field Description" dataDxfId="35"/>
+    <tableColumn id="2" name="Prod URL" dataDxfId="34"/>
+    <tableColumn id="3" name="Is Autocomplete?" dataDxfId="33"/>
+    <tableColumn id="4" name="Dev Done?" dataDxfId="32"/>
+    <tableColumn id="5" name="In Sync With UI?" dataDxfId="31"/>
+    <tableColumn id="6" name="Screens" dataDxfId="30"/>
+    <tableColumn id="7" name="Dev By" dataDxfId="29"/>
+    <tableColumn id="9" name="Note" dataDxfId="28"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table2" displayName="Table2" ref="A1:G35" totalsRowShown="0" headerRowDxfId="18" headerRowBorderDxfId="17" tableBorderDxfId="16">
-  <autoFilter ref="A1:G35" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G35">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:G35" totalsRowShown="0" headerRowDxfId="27" headerRowBorderDxfId="26" tableBorderDxfId="25">
+  <autoFilter ref="A1:G35"/>
+  <sortState ref="A2:G35">
     <sortCondition descending="1" ref="F1:F35"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Link Description" dataDxfId="15"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Filter" dataDxfId="14"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Prod URL" dataDxfId="13"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="Dev Done?" dataDxfId="12"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="UI Sync/Ingt" dataDxfId="11"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0200-000007000000}" name="Testing?" dataDxfId="10"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="Dev By" dataDxfId="9"/>
+    <tableColumn id="1" name="Link Description" dataDxfId="24"/>
+    <tableColumn id="3" name="Filter" dataDxfId="23"/>
+    <tableColumn id="4" name="Prod URL" dataDxfId="22"/>
+    <tableColumn id="6" name="Dev Done?" dataDxfId="21"/>
+    <tableColumn id="2" name="UI Sync/Ingt" dataDxfId="20"/>
+    <tableColumn id="7" name="Testing?" dataDxfId="19"/>
+    <tableColumn id="5" name="Dev By" dataDxfId="18"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table14" displayName="Table14" ref="A1:Q14" totalsRowShown="0" headerRowDxfId="8" dataDxfId="6" headerRowBorderDxfId="7" tableBorderDxfId="5" totalsRowBorderDxfId="4">
-  <autoFilter ref="A1:Q14" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table14" displayName="Table14" ref="A1:Q14" totalsRowShown="0" headerRowDxfId="17" dataDxfId="15" headerRowBorderDxfId="16" tableBorderDxfId="14" totalsRowBorderDxfId="13">
+  <autoFilter ref="A1:Q14"/>
+  <sortState ref="A2:J13">
     <sortCondition ref="A1:A13"/>
   </sortState>
   <tableColumns count="17">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Link Description"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Page Id" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="Autocomplete pageIds" dataDxfId="2"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0300-00000E000000}" name="Get Prod URL - parent grid"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="Get Prod URL - child grid2" dataDxfId="1"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0300-00000B000000}" name="Get URL Ready?"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="Edit Entity"/>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0300-000010000000}" name="Edit  URL Ready"/>
-    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0300-000011000000}" name="Extra APIs"/>
-    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0300-000012000000}" name="Extra APIs Ready"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0300-000009000000}" name="Delete URL"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0300-00000D000000}" name="Delete Ready?"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0300-000008000000}" name="Save/Update URL"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0300-000007000000}" name="Save/Update Ready?"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0300-00000A000000}" name="View PDF?"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0300-00000C000000}" name="All APIs ready?"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0300-000006000000}" name="Testing?" dataDxfId="0"/>
+    <tableColumn id="1" name="Link Description"/>
+    <tableColumn id="2" name="Page Id" dataDxfId="12"/>
+    <tableColumn id="3" name="Autocomplete pageIds" dataDxfId="11"/>
+    <tableColumn id="14" name="Get Prod URL - parent grid"/>
+    <tableColumn id="4" name="Get Prod URL - child grid2" dataDxfId="10"/>
+    <tableColumn id="11" name="Get URL Ready?"/>
+    <tableColumn id="5" name="Edit Entity"/>
+    <tableColumn id="16" name="Edit  URL Ready"/>
+    <tableColumn id="17" name="Extra APIs"/>
+    <tableColumn id="18" name="Extra APIs Ready"/>
+    <tableColumn id="9" name="Delete URL"/>
+    <tableColumn id="13" name="Delete Ready?"/>
+    <tableColumn id="8" name="Save/Update URL"/>
+    <tableColumn id="7" name="Save/Update Ready?"/>
+    <tableColumn id="10" name="View PDF?"/>
+    <tableColumn id="12" name="All APIs ready?"/>
+    <tableColumn id="6" name="Testing?" dataDxfId="9"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table145" displayName="Table145" ref="A1:Q5" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7" headerRowBorderDxfId="5" tableBorderDxfId="6" totalsRowBorderDxfId="4">
+  <autoFilter ref="A1:Q5"/>
+  <sortState ref="A2:J13">
+    <sortCondition ref="A1:A13"/>
+  </sortState>
+  <tableColumns count="17">
+    <tableColumn id="1" name="Link Description"/>
+    <tableColumn id="2" name="Page Id" dataDxfId="3"/>
+    <tableColumn id="3" name="Autocomplete pageIds" dataDxfId="2"/>
+    <tableColumn id="14" name="Get Prod URL - parent grid"/>
+    <tableColumn id="4" name="Get Prod URL - child grid2" dataDxfId="1"/>
+    <tableColumn id="11" name="Get URL Ready?"/>
+    <tableColumn id="5" name="Edit Entity"/>
+    <tableColumn id="16" name="Edit  URL Ready"/>
+    <tableColumn id="17" name="Extra APIs"/>
+    <tableColumn id="18" name="Extra APIs Ready"/>
+    <tableColumn id="9" name="Delete URL"/>
+    <tableColumn id="13" name="Delete Ready?"/>
+    <tableColumn id="8" name="Save/Update URL"/>
+    <tableColumn id="7" name="Save/Update Ready?"/>
+    <tableColumn id="10" name="View PDF?"/>
+    <tableColumn id="12" name="All APIs ready?"/>
+    <tableColumn id="6" name="Testing?" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2301,7 +2586,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2334,26 +2619,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2386,23 +2654,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2578,34 +2829,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="24.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.140625" customWidth="1"/>
-    <col min="4" max="4" width="47.7109375" customWidth="1"/>
-    <col min="5" max="5" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.109375" customWidth="1"/>
+    <col min="4" max="4" width="47.6640625" customWidth="1"/>
+    <col min="5" max="5" width="16.5546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="42" customWidth="1"/>
-    <col min="7" max="7" width="16.5703125" customWidth="1"/>
-    <col min="8" max="8" width="52.42578125" customWidth="1"/>
-    <col min="9" max="9" width="16.5703125" customWidth="1"/>
-    <col min="10" max="10" width="45.7109375" customWidth="1"/>
-    <col min="11" max="11" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="42.5703125" customWidth="1"/>
-    <col min="13" max="13" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.5546875" customWidth="1"/>
+    <col min="8" max="8" width="52.44140625" customWidth="1"/>
+    <col min="9" max="9" width="16.5546875" customWidth="1"/>
+    <col min="10" max="10" width="45.6640625" customWidth="1"/>
+    <col min="11" max="11" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="42.5546875" customWidth="1"/>
+    <col min="13" max="13" width="21.109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16">
       <c r="A1" s="9" t="s">
         <v>34</v>
       </c>
@@ -2655,7 +2906,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16">
       <c r="A2" t="s">
         <v>55</v>
       </c>
@@ -2702,7 +2953,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16">
       <c r="A3" s="40" t="s">
         <v>12</v>
       </c>
@@ -2750,7 +3001,7 @@
       </c>
       <c r="P3" s="40"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16">
       <c r="A4" s="40" t="s">
         <v>7</v>
       </c>
@@ -2798,7 +3049,7 @@
       </c>
       <c r="P4" s="40"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16">
       <c r="A5" s="40" t="s">
         <v>52</v>
       </c>
@@ -2846,7 +3097,7 @@
       </c>
       <c r="P5" s="40"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16">
       <c r="A6" s="40" t="s">
         <v>53</v>
       </c>
@@ -2894,7 +3145,7 @@
       </c>
       <c r="P6" s="40"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16">
       <c r="A7" t="s">
         <v>54</v>
       </c>
@@ -2941,7 +3192,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16">
       <c r="A8" s="40" t="s">
         <v>4</v>
       </c>
@@ -2989,7 +3240,7 @@
       </c>
       <c r="P8" s="40"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16">
       <c r="A9" s="40" t="s">
         <v>5</v>
       </c>
@@ -3037,7 +3288,7 @@
       </c>
       <c r="P9" s="40"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16">
       <c r="A10" s="40" t="s">
         <v>56</v>
       </c>
@@ -3085,7 +3336,7 @@
       </c>
       <c r="P10" s="40"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16">
       <c r="A11" t="s">
         <v>195</v>
       </c>
@@ -3132,7 +3383,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16">
       <c r="A12" t="s">
         <v>201</v>
       </c>
@@ -3173,7 +3424,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16">
       <c r="H16" t="s">
         <v>233</v>
       </c>
@@ -3189,26 +3440,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="47.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="30.28515625" customWidth="1"/>
-    <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="47.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.33203125" customWidth="1"/>
+    <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="15">
       <c r="A1" s="12" t="s">
         <v>95</v>
       </c>
@@ -3234,7 +3485,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="86.4">
       <c r="A2" s="17" t="s">
         <v>80</v>
       </c>
@@ -3258,7 +3509,7 @@
       </c>
       <c r="H2" s="20"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8">
       <c r="A3" s="17" t="s">
         <v>89</v>
       </c>
@@ -3280,7 +3531,7 @@
       </c>
       <c r="H3" s="21"/>
     </row>
-    <row r="4" spans="1:8" ht="135" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="115.2">
       <c r="A4" s="17" t="s">
         <v>83</v>
       </c>
@@ -3304,7 +3555,7 @@
       </c>
       <c r="H4" s="21"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="15">
       <c r="A5" s="17" t="s">
         <v>85</v>
       </c>
@@ -3324,7 +3575,7 @@
       <c r="G5" s="21"/>
       <c r="H5" s="21"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8">
       <c r="A6" s="17" t="s">
         <v>85</v>
       </c>
@@ -3348,7 +3599,7 @@
       </c>
       <c r="H6" s="21"/>
     </row>
-    <row r="7" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="43.2">
       <c r="A7" s="17" t="s">
         <v>99</v>
       </c>
@@ -3374,7 +3625,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8">
       <c r="A8" s="22" t="s">
         <v>87</v>
       </c>
@@ -3398,7 +3649,7 @@
       </c>
       <c r="H8" s="21"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8">
       <c r="A9" s="26" t="s">
         <v>83</v>
       </c>
@@ -3420,7 +3671,7 @@
       <c r="G9" s="27"/>
       <c r="H9" s="21"/>
     </row>
-    <row r="10" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="28.8">
       <c r="A10" s="22" t="s">
         <v>99</v>
       </c>
@@ -3444,7 +3695,7 @@
       </c>
       <c r="H10" s="27"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8">
       <c r="A11" s="26" t="s">
         <v>105</v>
       </c>
@@ -3468,7 +3719,7 @@
       </c>
       <c r="H11" s="27"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8">
       <c r="A12" s="26" t="s">
         <v>99</v>
       </c>
@@ -3488,7 +3739,7 @@
       <c r="G12" s="27"/>
       <c r="H12" s="27"/>
     </row>
-    <row r="13" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="28.8">
       <c r="A13" s="26" t="s">
         <v>110</v>
       </c>
@@ -3510,7 +3761,7 @@
       <c r="G13" s="27"/>
       <c r="H13" s="27"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8">
       <c r="A14" s="26" t="s">
         <v>113</v>
       </c>
@@ -3532,7 +3783,7 @@
       <c r="G14" s="27"/>
       <c r="H14" s="27"/>
     </row>
-    <row r="15" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="43.2">
       <c r="A15" s="22" t="s">
         <v>124</v>
       </c>
@@ -3554,7 +3805,7 @@
       <c r="G15" s="27"/>
       <c r="H15" s="27"/>
     </row>
-    <row r="16" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="28.8">
       <c r="A16" s="26" t="s">
         <v>123</v>
       </c>
@@ -3576,7 +3827,7 @@
       <c r="G16" s="27"/>
       <c r="H16" s="27"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8">
       <c r="A17" s="26" t="s">
         <v>120</v>
       </c>
@@ -3598,7 +3849,7 @@
       <c r="G17" s="27"/>
       <c r="H17" s="27"/>
     </row>
-    <row r="18" spans="1:8" ht="135" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" ht="100.8">
       <c r="A18" s="26" t="s">
         <v>80</v>
       </c>
@@ -3620,7 +3871,7 @@
       <c r="G18" s="27"/>
       <c r="H18" s="27"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8">
       <c r="A19" s="26" t="s">
         <v>85</v>
       </c>
@@ -3644,7 +3895,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8">
       <c r="A20" s="22" t="s">
         <v>85</v>
       </c>
@@ -3666,7 +3917,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8">
       <c r="A21" s="26" t="s">
         <v>131</v>
       </c>
@@ -3686,7 +3937,7 @@
       <c r="G21" s="27"/>
       <c r="H21" s="27"/>
     </row>
-    <row r="22" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" ht="43.2">
       <c r="A22" s="26" t="s">
         <v>83</v>
       </c>
@@ -3708,7 +3959,7 @@
       <c r="G22" s="27"/>
       <c r="H22" s="27"/>
     </row>
-    <row r="23" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8">
       <c r="A23" s="26" t="s">
         <v>80</v>
       </c>
@@ -3740,25 +3991,25 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G35"/>
   <sheetViews>
     <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="33.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="39.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="83.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="39.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="83.44140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>34</v>
       </c>
@@ -3781,7 +4032,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7">
       <c r="A2" s="29" t="s">
         <v>12</v>
       </c>
@@ -3802,7 +4053,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7">
       <c r="A3" s="3" t="s">
         <v>30</v>
       </c>
@@ -3823,7 +4074,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7">
       <c r="A4" s="3" t="s">
         <v>26</v>
       </c>
@@ -3844,7 +4095,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7">
       <c r="A5" s="3" t="s">
         <v>17</v>
       </c>
@@ -3865,7 +4116,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7">
       <c r="A6" s="3" t="s">
         <v>32</v>
       </c>
@@ -3886,7 +4137,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7">
       <c r="A7" s="35" t="s">
         <v>20</v>
       </c>
@@ -3907,7 +4158,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7">
       <c r="A8" s="35" t="s">
         <v>21</v>
       </c>
@@ -3928,7 +4179,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7">
       <c r="A9" s="3" t="s">
         <v>29</v>
       </c>
@@ -3949,7 +4200,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7">
       <c r="A10" s="3" t="s">
         <v>33</v>
       </c>
@@ -3970,7 +4221,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7">
       <c r="A11" s="3" t="s">
         <v>31</v>
       </c>
@@ -3991,7 +4242,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7">
       <c r="A12" s="3" t="s">
         <v>28</v>
       </c>
@@ -4012,7 +4263,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7">
       <c r="A13" s="3" t="s">
         <v>27</v>
       </c>
@@ -4033,7 +4284,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7">
       <c r="A14" s="3" t="s">
         <v>25</v>
       </c>
@@ -4054,7 +4305,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7">
       <c r="A15" s="3" t="s">
         <v>2</v>
       </c>
@@ -4075,7 +4326,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7">
       <c r="A16" s="3" t="s">
         <v>19</v>
       </c>
@@ -4096,7 +4347,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7">
       <c r="A17" s="16" t="s">
         <v>0</v>
       </c>
@@ -4117,7 +4368,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7">
       <c r="A18" s="3" t="s">
         <v>24</v>
       </c>
@@ -4138,7 +4389,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7">
       <c r="A19" s="3" t="s">
         <v>11</v>
       </c>
@@ -4159,7 +4410,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7">
       <c r="A20" s="3" t="s">
         <v>10</v>
       </c>
@@ -4180,7 +4431,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7">
       <c r="A21" s="3" t="s">
         <v>9</v>
       </c>
@@ -4201,7 +4452,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7">
       <c r="A22" s="3" t="s">
         <v>13</v>
       </c>
@@ -4222,7 +4473,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7">
       <c r="A23" s="3" t="s">
         <v>18</v>
       </c>
@@ -4243,7 +4494,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7">
       <c r="A24" s="33" t="s">
         <v>1</v>
       </c>
@@ -4264,7 +4515,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7">
       <c r="A25" s="3" t="s">
         <v>6</v>
       </c>
@@ -4285,7 +4536,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7">
       <c r="A26" s="3" t="s">
         <v>5</v>
       </c>
@@ -4306,7 +4557,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7">
       <c r="A27" s="3" t="s">
         <v>3</v>
       </c>
@@ -4327,7 +4578,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7">
       <c r="A28" s="29" t="s">
         <v>8</v>
       </c>
@@ -4348,7 +4599,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7">
       <c r="A29" s="3" t="s">
         <v>7</v>
       </c>
@@ -4369,7 +4620,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7">
       <c r="A30" s="3" t="s">
         <v>15</v>
       </c>
@@ -4390,7 +4641,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7">
       <c r="A31" s="3" t="s">
         <v>16</v>
       </c>
@@ -4411,7 +4662,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7">
       <c r="A32" s="3" t="s">
         <v>14</v>
       </c>
@@ -4432,7 +4683,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7">
       <c r="A33" s="3" t="s">
         <v>22</v>
       </c>
@@ -4453,7 +4704,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7">
       <c r="A34" s="29" t="s">
         <v>23</v>
       </c>
@@ -4474,7 +4725,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7">
       <c r="A35" s="5" t="s">
         <v>4</v>
       </c>
@@ -4497,8 +4748,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A24" location="'UDQ Filters'!G3" display="Custom Taxes" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
-    <hyperlink ref="A17" location="'UDQ Filters'!G2" display="Tax Authority" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
+    <hyperlink ref="A24" location="'UDQ Filters'!G3" display="Custom Taxes"/>
+    <hyperlink ref="A17" location="'UDQ Filters'!G2" display="Tax Authority"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4509,35 +4760,35 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+    <sheetView topLeftCell="H1" workbookViewId="0">
       <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23" customWidth="1"/>
-    <col min="3" max="3" width="35.7109375" customWidth="1"/>
-    <col min="4" max="4" width="35.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="48.5703125" customWidth="1"/>
-    <col min="6" max="6" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="36.42578125" customWidth="1"/>
-    <col min="8" max="8" width="16.5703125" customWidth="1"/>
-    <col min="9" max="9" width="44.42578125" customWidth="1"/>
-    <col min="10" max="10" width="16.5703125" customWidth="1"/>
-    <col min="11" max="11" width="46.7109375" customWidth="1"/>
-    <col min="12" max="12" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="45.140625" customWidth="1"/>
-    <col min="14" max="14" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.6640625" customWidth="1"/>
+    <col min="4" max="4" width="35.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="48.5546875" customWidth="1"/>
+    <col min="6" max="6" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="36.44140625" customWidth="1"/>
+    <col min="8" max="8" width="16.5546875" customWidth="1"/>
+    <col min="9" max="9" width="44.44140625" customWidth="1"/>
+    <col min="10" max="10" width="16.5546875" customWidth="1"/>
+    <col min="11" max="11" width="46.6640625" customWidth="1"/>
+    <col min="12" max="12" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="45.109375" customWidth="1"/>
+    <col min="14" max="14" width="21.109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17">
       <c r="A1" s="9" t="s">
         <v>34</v>
       </c>
@@ -4590,7 +4841,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17">
       <c r="A2" t="s">
         <v>185</v>
       </c>
@@ -4634,7 +4885,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17">
       <c r="A3" t="s">
         <v>186</v>
       </c>
@@ -4678,7 +4929,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17">
       <c r="A4" t="s">
         <v>187</v>
       </c>
@@ -4722,7 +4973,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17">
       <c r="A5" t="s">
         <v>188</v>
       </c>
@@ -4772,7 +5023,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17">
       <c r="A6" t="s">
         <v>189</v>
       </c>
@@ -4810,42 +5061,42 @@
         <v>66</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17">
       <c r="A7" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17">
       <c r="A8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17">
       <c r="A9" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17">
       <c r="A10" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17">
       <c r="A11" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17">
       <c r="A12" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17">
       <c r="A13" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17">
       <c r="A14" t="s">
         <v>215</v>
       </c>
@@ -4876,25 +5127,25 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:H410"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="19.85546875" customWidth="1"/>
-    <col min="3" max="3" width="17.28515625" customWidth="1"/>
-    <col min="4" max="4" width="18.28515625" customWidth="1"/>
-    <col min="5" max="5" width="22.85546875" customWidth="1"/>
-    <col min="6" max="6" width="26.5703125" customWidth="1"/>
-    <col min="7" max="7" width="23.85546875" customWidth="1"/>
-    <col min="8" max="10" width="17.140625" customWidth="1"/>
+    <col min="2" max="2" width="19.88671875" customWidth="1"/>
+    <col min="3" max="3" width="17.33203125" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" customWidth="1"/>
+    <col min="5" max="5" width="22.88671875" customWidth="1"/>
+    <col min="6" max="6" width="26.5546875" customWidth="1"/>
+    <col min="7" max="7" width="23.88671875" customWidth="1"/>
+    <col min="8" max="10" width="17.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="15">
       <c r="B2" s="43" t="s">
         <v>220</v>
       </c>
@@ -4917,7 +5168,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="15">
       <c r="A3">
         <v>1</v>
       </c>
@@ -4929,7 +5180,7 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="15">
       <c r="A4">
         <v>2</v>
       </c>
@@ -4941,7 +5192,7 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="15">
       <c r="A5">
         <v>3</v>
       </c>
@@ -4953,7 +5204,7 @@
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="15">
       <c r="A6">
         <v>4</v>
       </c>
@@ -4965,7 +5216,7 @@
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="15">
       <c r="A7">
         <v>5</v>
       </c>
@@ -4977,7 +5228,7 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="15">
       <c r="A8">
         <v>6</v>
       </c>
@@ -4989,7 +5240,7 @@
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="15">
       <c r="A9">
         <v>7</v>
       </c>
@@ -5001,7 +5252,7 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="15">
       <c r="A10">
         <v>8</v>
       </c>
@@ -5013,7 +5264,7 @@
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="15">
       <c r="A11">
         <v>9</v>
       </c>
@@ -5025,7 +5276,7 @@
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="15">
       <c r="A12">
         <v>10</v>
       </c>
@@ -5037,7 +5288,7 @@
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="15">
       <c r="A13">
         <v>11</v>
       </c>
@@ -5049,7 +5300,7 @@
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="15">
       <c r="A14">
         <v>12</v>
       </c>
@@ -5061,7 +5312,7 @@
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="15">
       <c r="A15">
         <v>13</v>
       </c>
@@ -5073,7 +5324,7 @@
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="15">
       <c r="A16">
         <v>14</v>
       </c>
@@ -5085,7 +5336,7 @@
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="15">
       <c r="A17">
         <v>15</v>
       </c>
@@ -5097,7 +5348,7 @@
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" ht="15">
       <c r="A18">
         <v>16</v>
       </c>
@@ -5109,7 +5360,7 @@
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" ht="15">
       <c r="A19">
         <v>17</v>
       </c>
@@ -5121,7 +5372,7 @@
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" ht="15">
       <c r="A20">
         <v>18</v>
       </c>
@@ -5133,7 +5384,7 @@
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" ht="15">
       <c r="A21">
         <v>19</v>
       </c>
@@ -5145,7 +5396,7 @@
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" ht="15">
       <c r="A22">
         <v>20</v>
       </c>
@@ -5157,7 +5408,7 @@
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" ht="15">
       <c r="A23">
         <v>21</v>
       </c>
@@ -5169,7 +5420,7 @@
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" ht="15">
       <c r="A24">
         <v>22</v>
       </c>
@@ -5181,7 +5432,7 @@
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" ht="15">
       <c r="A25">
         <v>23</v>
       </c>
@@ -5193,7 +5444,7 @@
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" ht="15">
       <c r="A26">
         <v>24</v>
       </c>
@@ -5205,7 +5456,7 @@
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" ht="15">
       <c r="A27">
         <v>25</v>
       </c>
@@ -5217,7 +5468,7 @@
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" ht="15">
       <c r="A28">
         <v>26</v>
       </c>
@@ -5229,7 +5480,7 @@
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" ht="15">
       <c r="A29">
         <v>27</v>
       </c>
@@ -5241,7 +5492,7 @@
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" ht="15">
       <c r="A30">
         <v>28</v>
       </c>
@@ -5253,7 +5504,7 @@
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" ht="15">
       <c r="A31">
         <v>29</v>
       </c>
@@ -5265,7 +5516,7 @@
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" ht="15">
       <c r="A32">
         <v>30</v>
       </c>
@@ -5277,7 +5528,7 @@
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" ht="15">
       <c r="A33">
         <v>31</v>
       </c>
@@ -5289,7 +5540,7 @@
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" ht="15">
       <c r="A34">
         <v>32</v>
       </c>
@@ -5301,7 +5552,7 @@
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" ht="15">
       <c r="A35">
         <v>33</v>
       </c>
@@ -5313,7 +5564,7 @@
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" ht="15">
       <c r="A36">
         <v>34</v>
       </c>
@@ -5325,7 +5576,7 @@
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" ht="15">
       <c r="A37">
         <v>35</v>
       </c>
@@ -5337,7 +5588,7 @@
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" ht="15">
       <c r="A38">
         <v>36</v>
       </c>
@@ -5349,7 +5600,7 @@
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" ht="15">
       <c r="A39">
         <v>37</v>
       </c>
@@ -5361,7 +5612,7 @@
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" ht="15">
       <c r="A40">
         <v>38</v>
       </c>
@@ -5373,7 +5624,7 @@
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" ht="15">
       <c r="A41">
         <v>39</v>
       </c>
@@ -5385,7 +5636,7 @@
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" ht="15">
       <c r="A42">
         <v>40</v>
       </c>
@@ -5397,7 +5648,7 @@
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8">
       <c r="A43">
         <v>41</v>
       </c>
@@ -5409,7 +5660,7 @@
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8">
       <c r="A44">
         <v>42</v>
       </c>
@@ -5421,7 +5672,7 @@
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8">
       <c r="A45">
         <v>43</v>
       </c>
@@ -5433,7 +5684,7 @@
       <c r="G45" s="1"/>
       <c r="H45" s="1"/>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8">
       <c r="A46">
         <v>44</v>
       </c>
@@ -5445,7 +5696,7 @@
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8">
       <c r="A47">
         <v>45</v>
       </c>
@@ -5457,7 +5708,7 @@
       <c r="G47" s="1"/>
       <c r="H47" s="1"/>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8">
       <c r="A48">
         <v>46</v>
       </c>
@@ -5469,7 +5720,7 @@
       <c r="G48" s="1"/>
       <c r="H48" s="1"/>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8">
       <c r="A49">
         <v>47</v>
       </c>
@@ -5481,7 +5732,7 @@
       <c r="G49" s="1"/>
       <c r="H49" s="1"/>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8">
       <c r="A50">
         <v>48</v>
       </c>
@@ -5493,7 +5744,7 @@
       <c r="G50" s="1"/>
       <c r="H50" s="1"/>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8">
       <c r="A51">
         <v>49</v>
       </c>
@@ -5505,7 +5756,7 @@
       <c r="G51" s="1"/>
       <c r="H51" s="1"/>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8">
       <c r="A52">
         <v>50</v>
       </c>
@@ -5517,7 +5768,7 @@
       <c r="G52" s="1"/>
       <c r="H52" s="1"/>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8">
       <c r="A53">
         <v>51</v>
       </c>
@@ -5529,7 +5780,7 @@
       <c r="G53" s="1"/>
       <c r="H53" s="1"/>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8">
       <c r="A54">
         <v>52</v>
       </c>
@@ -5541,7 +5792,7 @@
       <c r="G54" s="1"/>
       <c r="H54" s="1"/>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8">
       <c r="A55">
         <v>53</v>
       </c>
@@ -5553,7 +5804,7 @@
       <c r="G55" s="1"/>
       <c r="H55" s="1"/>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8">
       <c r="A56">
         <v>54</v>
       </c>
@@ -5565,7 +5816,7 @@
       <c r="G56" s="1"/>
       <c r="H56" s="1"/>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8">
       <c r="A57">
         <v>55</v>
       </c>
@@ -5577,7 +5828,7 @@
       <c r="G57" s="1"/>
       <c r="H57" s="1"/>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8">
       <c r="A58">
         <v>56</v>
       </c>
@@ -5589,7 +5840,7 @@
       <c r="G58" s="1"/>
       <c r="H58" s="1"/>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8">
       <c r="A59">
         <v>57</v>
       </c>
@@ -5601,7 +5852,7 @@
       <c r="G59" s="1"/>
       <c r="H59" s="1"/>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8">
       <c r="A60">
         <v>58</v>
       </c>
@@ -5613,7 +5864,7 @@
       <c r="G60" s="1"/>
       <c r="H60" s="1"/>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8">
       <c r="A61">
         <v>59</v>
       </c>
@@ -5625,7 +5876,7 @@
       <c r="G61" s="1"/>
       <c r="H61" s="1"/>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8">
       <c r="A62">
         <v>60</v>
       </c>
@@ -5637,7 +5888,7 @@
       <c r="G62" s="1"/>
       <c r="H62" s="1"/>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8">
       <c r="A63">
         <v>61</v>
       </c>
@@ -5649,7 +5900,7 @@
       <c r="G63" s="1"/>
       <c r="H63" s="1"/>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8">
       <c r="A64">
         <v>62</v>
       </c>
@@ -5661,7 +5912,7 @@
       <c r="G64" s="1"/>
       <c r="H64" s="1"/>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8">
       <c r="A65">
         <v>63</v>
       </c>
@@ -5673,7 +5924,7 @@
       <c r="G65" s="1"/>
       <c r="H65" s="1"/>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8">
       <c r="A66">
         <v>64</v>
       </c>
@@ -5685,7 +5936,7 @@
       <c r="G66" s="1"/>
       <c r="H66" s="1"/>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8">
       <c r="A67">
         <v>65</v>
       </c>
@@ -5697,7 +5948,7 @@
       <c r="G67" s="1"/>
       <c r="H67" s="1"/>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8">
       <c r="A68">
         <v>66</v>
       </c>
@@ -5709,7 +5960,7 @@
       <c r="G68" s="1"/>
       <c r="H68" s="1"/>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8">
       <c r="A69">
         <v>67</v>
       </c>
@@ -5721,7 +5972,7 @@
       <c r="G69" s="1"/>
       <c r="H69" s="1"/>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8">
       <c r="A70">
         <v>68</v>
       </c>
@@ -5733,7 +5984,7 @@
       <c r="G70" s="1"/>
       <c r="H70" s="1"/>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8">
       <c r="A71">
         <v>69</v>
       </c>
@@ -5745,7 +5996,7 @@
       <c r="G71" s="1"/>
       <c r="H71" s="1"/>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8">
       <c r="A72">
         <v>70</v>
       </c>
@@ -5757,7 +6008,7 @@
       <c r="G72" s="1"/>
       <c r="H72" s="1"/>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8">
       <c r="A73">
         <v>71</v>
       </c>
@@ -5769,7 +6020,7 @@
       <c r="G73" s="1"/>
       <c r="H73" s="1"/>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8">
       <c r="A74">
         <v>72</v>
       </c>
@@ -5781,7 +6032,7 @@
       <c r="G74" s="1"/>
       <c r="H74" s="1"/>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8">
       <c r="A75">
         <v>73</v>
       </c>
@@ -5793,7 +6044,7 @@
       <c r="G75" s="1"/>
       <c r="H75" s="1"/>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8">
       <c r="A76">
         <v>74</v>
       </c>
@@ -5805,7 +6056,7 @@
       <c r="G76" s="1"/>
       <c r="H76" s="1"/>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8">
       <c r="A77">
         <v>75</v>
       </c>
@@ -5817,7 +6068,7 @@
       <c r="G77" s="1"/>
       <c r="H77" s="1"/>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8">
       <c r="A78">
         <v>76</v>
       </c>
@@ -5829,7 +6080,7 @@
       <c r="G78" s="1"/>
       <c r="H78" s="1"/>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8">
       <c r="A79">
         <v>77</v>
       </c>
@@ -5841,7 +6092,7 @@
       <c r="G79" s="1"/>
       <c r="H79" s="1"/>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8">
       <c r="A80">
         <v>78</v>
       </c>
@@ -5853,7 +6104,7 @@
       <c r="G80" s="1"/>
       <c r="H80" s="1"/>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8">
       <c r="A81">
         <v>79</v>
       </c>
@@ -5865,7 +6116,7 @@
       <c r="G81" s="1"/>
       <c r="H81" s="1"/>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8">
       <c r="A82">
         <v>80</v>
       </c>
@@ -5877,7 +6128,7 @@
       <c r="G82" s="1"/>
       <c r="H82" s="1"/>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8">
       <c r="A83">
         <v>81</v>
       </c>
@@ -5889,7 +6140,7 @@
       <c r="G83" s="1"/>
       <c r="H83" s="1"/>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8">
       <c r="A84">
         <v>82</v>
       </c>
@@ -5901,7 +6152,7 @@
       <c r="G84" s="1"/>
       <c r="H84" s="1"/>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8">
       <c r="A85">
         <v>83</v>
       </c>
@@ -5913,7 +6164,7 @@
       <c r="G85" s="1"/>
       <c r="H85" s="1"/>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8">
       <c r="A86">
         <v>84</v>
       </c>
@@ -5925,7 +6176,7 @@
       <c r="G86" s="1"/>
       <c r="H86" s="1"/>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8">
       <c r="A87">
         <v>85</v>
       </c>
@@ -5937,7 +6188,7 @@
       <c r="G87" s="1"/>
       <c r="H87" s="1"/>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8">
       <c r="A88">
         <v>86</v>
       </c>
@@ -5949,7 +6200,7 @@
       <c r="G88" s="1"/>
       <c r="H88" s="1"/>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8">
       <c r="A89">
         <v>87</v>
       </c>
@@ -5961,7 +6212,7 @@
       <c r="G89" s="1"/>
       <c r="H89" s="1"/>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8">
       <c r="A90">
         <v>88</v>
       </c>
@@ -5973,7 +6224,7 @@
       <c r="G90" s="1"/>
       <c r="H90" s="1"/>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8">
       <c r="A91">
         <v>89</v>
       </c>
@@ -5985,7 +6236,7 @@
       <c r="G91" s="1"/>
       <c r="H91" s="1"/>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8">
       <c r="A92">
         <v>90</v>
       </c>
@@ -5997,7 +6248,7 @@
       <c r="G92" s="1"/>
       <c r="H92" s="1"/>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8">
       <c r="A93">
         <v>91</v>
       </c>
@@ -6009,7 +6260,7 @@
       <c r="G93" s="1"/>
       <c r="H93" s="1"/>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8">
       <c r="A94">
         <v>92</v>
       </c>
@@ -6021,7 +6272,7 @@
       <c r="G94" s="1"/>
       <c r="H94" s="1"/>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8">
       <c r="A95">
         <v>93</v>
       </c>
@@ -6033,7 +6284,7 @@
       <c r="G95" s="1"/>
       <c r="H95" s="1"/>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8">
       <c r="A96">
         <v>94</v>
       </c>
@@ -6045,7 +6296,7 @@
       <c r="G96" s="1"/>
       <c r="H96" s="1"/>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8">
       <c r="A97">
         <v>95</v>
       </c>
@@ -6057,7 +6308,7 @@
       <c r="G97" s="1"/>
       <c r="H97" s="1"/>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8">
       <c r="A98">
         <v>96</v>
       </c>
@@ -6069,7 +6320,7 @@
       <c r="G98" s="1"/>
       <c r="H98" s="1"/>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:8">
       <c r="A99">
         <v>97</v>
       </c>
@@ -6081,7 +6332,7 @@
       <c r="G99" s="1"/>
       <c r="H99" s="1"/>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8">
       <c r="A100">
         <v>98</v>
       </c>
@@ -6093,7 +6344,7 @@
       <c r="G100" s="1"/>
       <c r="H100" s="1"/>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:8">
       <c r="A101">
         <v>99</v>
       </c>
@@ -6105,7 +6356,7 @@
       <c r="G101" s="1"/>
       <c r="H101" s="1"/>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:8">
       <c r="A102">
         <v>100</v>
       </c>
@@ -6117,7 +6368,7 @@
       <c r="G102" s="1"/>
       <c r="H102" s="1"/>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:8">
       <c r="A103">
         <v>101</v>
       </c>
@@ -6129,7 +6380,7 @@
       <c r="G103" s="1"/>
       <c r="H103" s="1"/>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8">
       <c r="A104">
         <v>102</v>
       </c>
@@ -6141,7 +6392,7 @@
       <c r="G104" s="1"/>
       <c r="H104" s="1"/>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:8">
       <c r="A105">
         <v>103</v>
       </c>
@@ -6153,7 +6404,7 @@
       <c r="G105" s="1"/>
       <c r="H105" s="1"/>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:8">
       <c r="A106">
         <v>104</v>
       </c>
@@ -6165,7 +6416,7 @@
       <c r="G106" s="1"/>
       <c r="H106" s="1"/>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:8">
       <c r="A107">
         <v>105</v>
       </c>
@@ -6177,7 +6428,7 @@
       <c r="G107" s="1"/>
       <c r="H107" s="1"/>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:8">
       <c r="A108">
         <v>106</v>
       </c>
@@ -6189,7 +6440,7 @@
       <c r="G108" s="1"/>
       <c r="H108" s="1"/>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:8">
       <c r="A109">
         <v>107</v>
       </c>
@@ -6201,7 +6452,7 @@
       <c r="G109" s="1"/>
       <c r="H109" s="1"/>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:8">
       <c r="A110">
         <v>108</v>
       </c>
@@ -6213,7 +6464,7 @@
       <c r="G110" s="1"/>
       <c r="H110" s="1"/>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:8">
       <c r="A111">
         <v>109</v>
       </c>
@@ -6225,7 +6476,7 @@
       <c r="G111" s="1"/>
       <c r="H111" s="1"/>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:8">
       <c r="A112">
         <v>110</v>
       </c>
@@ -6237,7 +6488,7 @@
       <c r="G112" s="1"/>
       <c r="H112" s="1"/>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:8">
       <c r="A113">
         <v>111</v>
       </c>
@@ -6249,7 +6500,7 @@
       <c r="G113" s="1"/>
       <c r="H113" s="1"/>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:8">
       <c r="A114">
         <v>112</v>
       </c>
@@ -6261,7 +6512,7 @@
       <c r="G114" s="1"/>
       <c r="H114" s="1"/>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:8">
       <c r="A115">
         <v>113</v>
       </c>
@@ -6273,7 +6524,7 @@
       <c r="G115" s="1"/>
       <c r="H115" s="1"/>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:8">
       <c r="A116">
         <v>114</v>
       </c>
@@ -6285,7 +6536,7 @@
       <c r="G116" s="1"/>
       <c r="H116" s="1"/>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:8">
       <c r="A117">
         <v>115</v>
       </c>
@@ -6297,7 +6548,7 @@
       <c r="G117" s="1"/>
       <c r="H117" s="1"/>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:8">
       <c r="A118">
         <v>116</v>
       </c>
@@ -6309,7 +6560,7 @@
       <c r="G118" s="1"/>
       <c r="H118" s="1"/>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:8">
       <c r="A119">
         <v>117</v>
       </c>
@@ -6321,7 +6572,7 @@
       <c r="G119" s="1"/>
       <c r="H119" s="1"/>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:8">
       <c r="A120">
         <v>118</v>
       </c>
@@ -6333,7 +6584,7 @@
       <c r="G120" s="1"/>
       <c r="H120" s="1"/>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:8">
       <c r="A121">
         <v>119</v>
       </c>
@@ -6345,7 +6596,7 @@
       <c r="G121" s="1"/>
       <c r="H121" s="1"/>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:8">
       <c r="A122">
         <v>120</v>
       </c>
@@ -6357,7 +6608,7 @@
       <c r="G122" s="1"/>
       <c r="H122" s="1"/>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:8">
       <c r="A123">
         <v>121</v>
       </c>
@@ -6369,7 +6620,7 @@
       <c r="G123" s="1"/>
       <c r="H123" s="1"/>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:8">
       <c r="A124">
         <v>122</v>
       </c>
@@ -6381,7 +6632,7 @@
       <c r="G124" s="1"/>
       <c r="H124" s="1"/>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:8">
       <c r="A125">
         <v>123</v>
       </c>
@@ -6393,7 +6644,7 @@
       <c r="G125" s="1"/>
       <c r="H125" s="1"/>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:8">
       <c r="A126">
         <v>124</v>
       </c>
@@ -6405,7 +6656,7 @@
       <c r="G126" s="1"/>
       <c r="H126" s="1"/>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:8">
       <c r="A127">
         <v>125</v>
       </c>
@@ -6417,7 +6668,7 @@
       <c r="G127" s="1"/>
       <c r="H127" s="1"/>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:8">
       <c r="A128">
         <v>126</v>
       </c>
@@ -6429,7 +6680,7 @@
       <c r="G128" s="1"/>
       <c r="H128" s="1"/>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:8">
       <c r="A129">
         <v>127</v>
       </c>
@@ -6441,7 +6692,7 @@
       <c r="G129" s="1"/>
       <c r="H129" s="1"/>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:8">
       <c r="A130">
         <v>128</v>
       </c>
@@ -6453,7 +6704,7 @@
       <c r="G130" s="1"/>
       <c r="H130" s="1"/>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:8">
       <c r="A131">
         <v>129</v>
       </c>
@@ -6465,7 +6716,7 @@
       <c r="G131" s="1"/>
       <c r="H131" s="1"/>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:8">
       <c r="A132">
         <v>130</v>
       </c>
@@ -6477,7 +6728,7 @@
       <c r="G132" s="1"/>
       <c r="H132" s="1"/>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:8">
       <c r="A133">
         <v>131</v>
       </c>
@@ -6489,7 +6740,7 @@
       <c r="G133" s="1"/>
       <c r="H133" s="1"/>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:8">
       <c r="A134">
         <v>132</v>
       </c>
@@ -6501,7 +6752,7 @@
       <c r="G134" s="1"/>
       <c r="H134" s="1"/>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:8">
       <c r="A135">
         <v>133</v>
       </c>
@@ -6513,7 +6764,7 @@
       <c r="G135" s="1"/>
       <c r="H135" s="1"/>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:8">
       <c r="A136">
         <v>134</v>
       </c>
@@ -6525,7 +6776,7 @@
       <c r="G136" s="1"/>
       <c r="H136" s="1"/>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:8">
       <c r="A137">
         <v>135</v>
       </c>
@@ -6537,7 +6788,7 @@
       <c r="G137" s="1"/>
       <c r="H137" s="1"/>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:8">
       <c r="A138">
         <v>136</v>
       </c>
@@ -6549,7 +6800,7 @@
       <c r="G138" s="1"/>
       <c r="H138" s="1"/>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:8">
       <c r="A139">
         <v>137</v>
       </c>
@@ -6561,7 +6812,7 @@
       <c r="G139" s="1"/>
       <c r="H139" s="1"/>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:8">
       <c r="A140">
         <v>138</v>
       </c>
@@ -6573,7 +6824,7 @@
       <c r="G140" s="1"/>
       <c r="H140" s="1"/>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:8">
       <c r="A141">
         <v>139</v>
       </c>
@@ -6585,7 +6836,7 @@
       <c r="G141" s="1"/>
       <c r="H141" s="1"/>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:8">
       <c r="A142">
         <v>140</v>
       </c>
@@ -6597,7 +6848,7 @@
       <c r="G142" s="1"/>
       <c r="H142" s="1"/>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:8">
       <c r="A143">
         <v>141</v>
       </c>
@@ -6609,7 +6860,7 @@
       <c r="G143" s="1"/>
       <c r="H143" s="1"/>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:8">
       <c r="A144">
         <v>142</v>
       </c>
@@ -6621,7 +6872,7 @@
       <c r="G144" s="1"/>
       <c r="H144" s="1"/>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:8">
       <c r="A145">
         <v>143</v>
       </c>
@@ -6633,7 +6884,7 @@
       <c r="G145" s="1"/>
       <c r="H145" s="1"/>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:8">
       <c r="A146">
         <v>144</v>
       </c>
@@ -6645,7 +6896,7 @@
       <c r="G146" s="1"/>
       <c r="H146" s="1"/>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:8">
       <c r="A147">
         <v>145</v>
       </c>
@@ -6657,7 +6908,7 @@
       <c r="G147" s="1"/>
       <c r="H147" s="1"/>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:8">
       <c r="A148">
         <v>146</v>
       </c>
@@ -6669,7 +6920,7 @@
       <c r="G148" s="1"/>
       <c r="H148" s="1"/>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:8">
       <c r="A149">
         <v>147</v>
       </c>
@@ -6681,7 +6932,7 @@
       <c r="G149" s="1"/>
       <c r="H149" s="1"/>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:8">
       <c r="A150">
         <v>148</v>
       </c>
@@ -6693,7 +6944,7 @@
       <c r="G150" s="1"/>
       <c r="H150" s="1"/>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:8">
       <c r="A151">
         <v>149</v>
       </c>
@@ -6705,7 +6956,7 @@
       <c r="G151" s="1"/>
       <c r="H151" s="1"/>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:8">
       <c r="A152">
         <v>150</v>
       </c>
@@ -6717,7 +6968,7 @@
       <c r="G152" s="1"/>
       <c r="H152" s="1"/>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:8">
       <c r="A153">
         <v>151</v>
       </c>
@@ -6729,7 +6980,7 @@
       <c r="G153" s="1"/>
       <c r="H153" s="1"/>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:8">
       <c r="A154">
         <v>152</v>
       </c>
@@ -6741,7 +6992,7 @@
       <c r="G154" s="1"/>
       <c r="H154" s="1"/>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:8">
       <c r="A155">
         <v>153</v>
       </c>
@@ -6753,7 +7004,7 @@
       <c r="G155" s="1"/>
       <c r="H155" s="1"/>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:8">
       <c r="A156">
         <v>154</v>
       </c>
@@ -6765,7 +7016,7 @@
       <c r="G156" s="1"/>
       <c r="H156" s="1"/>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:8">
       <c r="A157">
         <v>155</v>
       </c>
@@ -6777,7 +7028,7 @@
       <c r="G157" s="1"/>
       <c r="H157" s="1"/>
     </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:8">
       <c r="A158">
         <v>156</v>
       </c>
@@ -6789,7 +7040,7 @@
       <c r="G158" s="1"/>
       <c r="H158" s="1"/>
     </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:8">
       <c r="A159">
         <v>157</v>
       </c>
@@ -6801,7 +7052,7 @@
       <c r="G159" s="1"/>
       <c r="H159" s="1"/>
     </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:8">
       <c r="A160">
         <v>158</v>
       </c>
@@ -6813,7 +7064,7 @@
       <c r="G160" s="1"/>
       <c r="H160" s="1"/>
     </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:8">
       <c r="A161">
         <v>159</v>
       </c>
@@ -6825,7 +7076,7 @@
       <c r="G161" s="1"/>
       <c r="H161" s="1"/>
     </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:8">
       <c r="A162">
         <v>160</v>
       </c>
@@ -6837,7 +7088,7 @@
       <c r="G162" s="1"/>
       <c r="H162" s="1"/>
     </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:8">
       <c r="A163">
         <v>161</v>
       </c>
@@ -6849,7 +7100,7 @@
       <c r="G163" s="1"/>
       <c r="H163" s="1"/>
     </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:8">
       <c r="A164">
         <v>162</v>
       </c>
@@ -6861,7 +7112,7 @@
       <c r="G164" s="1"/>
       <c r="H164" s="1"/>
     </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:8">
       <c r="A165">
         <v>163</v>
       </c>
@@ -6873,7 +7124,7 @@
       <c r="G165" s="1"/>
       <c r="H165" s="1"/>
     </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:8">
       <c r="A166">
         <v>164</v>
       </c>
@@ -6885,7 +7136,7 @@
       <c r="G166" s="1"/>
       <c r="H166" s="1"/>
     </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:8">
       <c r="A167">
         <v>165</v>
       </c>
@@ -6897,7 +7148,7 @@
       <c r="G167" s="1"/>
       <c r="H167" s="1"/>
     </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:8">
       <c r="A168">
         <v>166</v>
       </c>
@@ -6909,7 +7160,7 @@
       <c r="G168" s="1"/>
       <c r="H168" s="1"/>
     </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:8">
       <c r="A169">
         <v>167</v>
       </c>
@@ -6921,7 +7172,7 @@
       <c r="G169" s="1"/>
       <c r="H169" s="1"/>
     </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:8">
       <c r="A170">
         <v>168</v>
       </c>
@@ -6933,7 +7184,7 @@
       <c r="G170" s="1"/>
       <c r="H170" s="1"/>
     </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:8">
       <c r="A171">
         <v>169</v>
       </c>
@@ -6945,7 +7196,7 @@
       <c r="G171" s="1"/>
       <c r="H171" s="1"/>
     </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:8">
       <c r="A172">
         <v>170</v>
       </c>
@@ -6957,7 +7208,7 @@
       <c r="G172" s="1"/>
       <c r="H172" s="1"/>
     </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:8">
       <c r="A173">
         <v>171</v>
       </c>
@@ -6969,7 +7220,7 @@
       <c r="G173" s="1"/>
       <c r="H173" s="1"/>
     </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:8">
       <c r="A174">
         <v>172</v>
       </c>
@@ -6981,7 +7232,7 @@
       <c r="G174" s="1"/>
       <c r="H174" s="1"/>
     </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:8">
       <c r="A175">
         <v>173</v>
       </c>
@@ -6993,7 +7244,7 @@
       <c r="G175" s="1"/>
       <c r="H175" s="1"/>
     </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:8">
       <c r="A176">
         <v>174</v>
       </c>
@@ -7005,7 +7256,7 @@
       <c r="G176" s="1"/>
       <c r="H176" s="1"/>
     </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:8">
       <c r="A177">
         <v>175</v>
       </c>
@@ -7017,7 +7268,7 @@
       <c r="G177" s="1"/>
       <c r="H177" s="1"/>
     </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:8">
       <c r="A178">
         <v>176</v>
       </c>
@@ -7029,7 +7280,7 @@
       <c r="G178" s="1"/>
       <c r="H178" s="1"/>
     </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:8">
       <c r="A179">
         <v>177</v>
       </c>
@@ -7041,7 +7292,7 @@
       <c r="G179" s="1"/>
       <c r="H179" s="1"/>
     </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:8">
       <c r="A180">
         <v>178</v>
       </c>
@@ -7053,7 +7304,7 @@
       <c r="G180" s="1"/>
       <c r="H180" s="1"/>
     </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:8">
       <c r="A181">
         <v>179</v>
       </c>
@@ -7065,7 +7316,7 @@
       <c r="G181" s="1"/>
       <c r="H181" s="1"/>
     </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:8">
       <c r="A182">
         <v>180</v>
       </c>
@@ -7077,7 +7328,7 @@
       <c r="G182" s="1"/>
       <c r="H182" s="1"/>
     </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:8">
       <c r="A183">
         <v>181</v>
       </c>
@@ -7089,7 +7340,7 @@
       <c r="G183" s="1"/>
       <c r="H183" s="1"/>
     </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:8">
       <c r="A184">
         <v>182</v>
       </c>
@@ -7101,7 +7352,7 @@
       <c r="G184" s="1"/>
       <c r="H184" s="1"/>
     </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:8">
       <c r="A185">
         <v>183</v>
       </c>
@@ -7113,7 +7364,7 @@
       <c r="G185" s="1"/>
       <c r="H185" s="1"/>
     </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:8">
       <c r="A186">
         <v>184</v>
       </c>
@@ -7125,7 +7376,7 @@
       <c r="G186" s="1"/>
       <c r="H186" s="1"/>
     </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:8">
       <c r="A187">
         <v>185</v>
       </c>
@@ -7137,7 +7388,7 @@
       <c r="G187" s="1"/>
       <c r="H187" s="1"/>
     </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:8">
       <c r="A188">
         <v>186</v>
       </c>
@@ -7149,7 +7400,7 @@
       <c r="G188" s="1"/>
       <c r="H188" s="1"/>
     </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:8">
       <c r="A189">
         <v>187</v>
       </c>
@@ -7161,7 +7412,7 @@
       <c r="G189" s="1"/>
       <c r="H189" s="1"/>
     </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:8">
       <c r="A190">
         <v>188</v>
       </c>
@@ -7173,7 +7424,7 @@
       <c r="G190" s="1"/>
       <c r="H190" s="1"/>
     </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:8">
       <c r="A191">
         <v>189</v>
       </c>
@@ -7185,7 +7436,7 @@
       <c r="G191" s="1"/>
       <c r="H191" s="1"/>
     </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:8">
       <c r="A192">
         <v>190</v>
       </c>
@@ -7197,7 +7448,7 @@
       <c r="G192" s="1"/>
       <c r="H192" s="1"/>
     </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:8">
       <c r="A193">
         <v>191</v>
       </c>
@@ -7209,7 +7460,7 @@
       <c r="G193" s="1"/>
       <c r="H193" s="1"/>
     </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:8">
       <c r="A194">
         <v>192</v>
       </c>
@@ -7221,7 +7472,7 @@
       <c r="G194" s="1"/>
       <c r="H194" s="1"/>
     </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:8">
       <c r="A195">
         <v>193</v>
       </c>
@@ -7233,7 +7484,7 @@
       <c r="G195" s="1"/>
       <c r="H195" s="1"/>
     </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:8">
       <c r="A196">
         <v>194</v>
       </c>
@@ -7245,7 +7496,7 @@
       <c r="G196" s="1"/>
       <c r="H196" s="1"/>
     </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:8">
       <c r="A197">
         <v>195</v>
       </c>
@@ -7257,7 +7508,7 @@
       <c r="G197" s="1"/>
       <c r="H197" s="1"/>
     </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:8">
       <c r="A198">
         <v>196</v>
       </c>
@@ -7269,7 +7520,7 @@
       <c r="G198" s="1"/>
       <c r="H198" s="1"/>
     </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:8">
       <c r="A199">
         <v>197</v>
       </c>
@@ -7281,7 +7532,7 @@
       <c r="G199" s="1"/>
       <c r="H199" s="1"/>
     </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:8">
       <c r="A200">
         <v>198</v>
       </c>
@@ -7293,7 +7544,7 @@
       <c r="G200" s="1"/>
       <c r="H200" s="1"/>
     </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:8">
       <c r="A201">
         <v>199</v>
       </c>
@@ -7305,7 +7556,7 @@
       <c r="G201" s="1"/>
       <c r="H201" s="1"/>
     </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:8">
       <c r="A202">
         <v>200</v>
       </c>
@@ -7317,7 +7568,7 @@
       <c r="G202" s="1"/>
       <c r="H202" s="1"/>
     </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:8">
       <c r="A203">
         <v>201</v>
       </c>
@@ -7329,7 +7580,7 @@
       <c r="G203" s="1"/>
       <c r="H203" s="1"/>
     </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:8">
       <c r="A204">
         <v>202</v>
       </c>
@@ -7341,7 +7592,7 @@
       <c r="G204" s="1"/>
       <c r="H204" s="1"/>
     </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:8">
       <c r="A205">
         <v>203</v>
       </c>
@@ -7353,7 +7604,7 @@
       <c r="G205" s="1"/>
       <c r="H205" s="1"/>
     </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:8">
       <c r="A206">
         <v>204</v>
       </c>
@@ -7365,7 +7616,7 @@
       <c r="G206" s="1"/>
       <c r="H206" s="1"/>
     </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:8">
       <c r="A207">
         <v>205</v>
       </c>
@@ -7377,7 +7628,7 @@
       <c r="G207" s="1"/>
       <c r="H207" s="1"/>
     </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:8">
       <c r="A208">
         <v>206</v>
       </c>
@@ -7389,7 +7640,7 @@
       <c r="G208" s="1"/>
       <c r="H208" s="1"/>
     </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:8">
       <c r="A209">
         <v>207</v>
       </c>
@@ -7401,7 +7652,7 @@
       <c r="G209" s="1"/>
       <c r="H209" s="1"/>
     </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:8">
       <c r="A210">
         <v>208</v>
       </c>
@@ -7413,7 +7664,7 @@
       <c r="G210" s="1"/>
       <c r="H210" s="1"/>
     </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:8">
       <c r="A211">
         <v>209</v>
       </c>
@@ -7425,7 +7676,7 @@
       <c r="G211" s="1"/>
       <c r="H211" s="1"/>
     </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:8">
       <c r="A212">
         <v>210</v>
       </c>
@@ -7437,7 +7688,7 @@
       <c r="G212" s="1"/>
       <c r="H212" s="1"/>
     </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:8">
       <c r="A213">
         <v>211</v>
       </c>
@@ -7449,7 +7700,7 @@
       <c r="G213" s="1"/>
       <c r="H213" s="1"/>
     </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:8">
       <c r="A214">
         <v>212</v>
       </c>
@@ -7461,7 +7712,7 @@
       <c r="G214" s="1"/>
       <c r="H214" s="1"/>
     </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:8">
       <c r="A215">
         <v>213</v>
       </c>
@@ -7473,7 +7724,7 @@
       <c r="G215" s="1"/>
       <c r="H215" s="1"/>
     </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:8">
       <c r="A216">
         <v>214</v>
       </c>
@@ -7485,7 +7736,7 @@
       <c r="G216" s="1"/>
       <c r="H216" s="1"/>
     </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:8">
       <c r="A217">
         <v>215</v>
       </c>
@@ -7497,7 +7748,7 @@
       <c r="G217" s="1"/>
       <c r="H217" s="1"/>
     </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:8">
       <c r="A218">
         <v>216</v>
       </c>
@@ -7509,7 +7760,7 @@
       <c r="G218" s="1"/>
       <c r="H218" s="1"/>
     </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:8">
       <c r="A219">
         <v>217</v>
       </c>
@@ -7521,7 +7772,7 @@
       <c r="G219" s="1"/>
       <c r="H219" s="1"/>
     </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:8">
       <c r="A220">
         <v>218</v>
       </c>
@@ -7533,7 +7784,7 @@
       <c r="G220" s="1"/>
       <c r="H220" s="1"/>
     </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:8">
       <c r="A221">
         <v>219</v>
       </c>
@@ -7545,7 +7796,7 @@
       <c r="G221" s="1"/>
       <c r="H221" s="1"/>
     </row>
-    <row r="222" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:8">
       <c r="A222">
         <v>220</v>
       </c>
@@ -7557,7 +7808,7 @@
       <c r="G222" s="1"/>
       <c r="H222" s="1"/>
     </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:8">
       <c r="A223">
         <v>221</v>
       </c>
@@ -7569,7 +7820,7 @@
       <c r="G223" s="1"/>
       <c r="H223" s="1"/>
     </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:8">
       <c r="A224">
         <v>222</v>
       </c>
@@ -7581,7 +7832,7 @@
       <c r="G224" s="1"/>
       <c r="H224" s="1"/>
     </row>
-    <row r="225" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:8">
       <c r="A225">
         <v>223</v>
       </c>
@@ -7593,7 +7844,7 @@
       <c r="G225" s="1"/>
       <c r="H225" s="1"/>
     </row>
-    <row r="226" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:8">
       <c r="A226">
         <v>224</v>
       </c>
@@ -7605,7 +7856,7 @@
       <c r="G226" s="1"/>
       <c r="H226" s="1"/>
     </row>
-    <row r="227" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:8">
       <c r="A227">
         <v>225</v>
       </c>
@@ -7617,7 +7868,7 @@
       <c r="G227" s="1"/>
       <c r="H227" s="1"/>
     </row>
-    <row r="228" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:8">
       <c r="A228">
         <v>226</v>
       </c>
@@ -7629,7 +7880,7 @@
       <c r="G228" s="1"/>
       <c r="H228" s="1"/>
     </row>
-    <row r="229" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:8">
       <c r="A229">
         <v>227</v>
       </c>
@@ -7641,7 +7892,7 @@
       <c r="G229" s="1"/>
       <c r="H229" s="1"/>
     </row>
-    <row r="230" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:8">
       <c r="A230">
         <v>228</v>
       </c>
@@ -7653,7 +7904,7 @@
       <c r="G230" s="1"/>
       <c r="H230" s="1"/>
     </row>
-    <row r="231" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:8">
       <c r="A231">
         <v>229</v>
       </c>
@@ -7665,7 +7916,7 @@
       <c r="G231" s="1"/>
       <c r="H231" s="1"/>
     </row>
-    <row r="232" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:8">
       <c r="A232">
         <v>230</v>
       </c>
@@ -7677,7 +7928,7 @@
       <c r="G232" s="1"/>
       <c r="H232" s="1"/>
     </row>
-    <row r="233" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:8">
       <c r="A233">
         <v>231</v>
       </c>
@@ -7689,7 +7940,7 @@
       <c r="G233" s="1"/>
       <c r="H233" s="1"/>
     </row>
-    <row r="234" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:8">
       <c r="A234">
         <v>232</v>
       </c>
@@ -7701,7 +7952,7 @@
       <c r="G234" s="1"/>
       <c r="H234" s="1"/>
     </row>
-    <row r="235" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:8">
       <c r="A235">
         <v>233</v>
       </c>
@@ -7713,7 +7964,7 @@
       <c r="G235" s="1"/>
       <c r="H235" s="1"/>
     </row>
-    <row r="236" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:8">
       <c r="A236">
         <v>234</v>
       </c>
@@ -7725,7 +7976,7 @@
       <c r="G236" s="1"/>
       <c r="H236" s="1"/>
     </row>
-    <row r="237" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:8">
       <c r="A237">
         <v>235</v>
       </c>
@@ -7737,7 +7988,7 @@
       <c r="G237" s="1"/>
       <c r="H237" s="1"/>
     </row>
-    <row r="238" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:8">
       <c r="A238">
         <v>236</v>
       </c>
@@ -7749,7 +8000,7 @@
       <c r="G238" s="1"/>
       <c r="H238" s="1"/>
     </row>
-    <row r="239" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:8">
       <c r="A239">
         <v>237</v>
       </c>
@@ -7761,7 +8012,7 @@
       <c r="G239" s="1"/>
       <c r="H239" s="1"/>
     </row>
-    <row r="240" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:8">
       <c r="A240">
         <v>238</v>
       </c>
@@ -7773,7 +8024,7 @@
       <c r="G240" s="1"/>
       <c r="H240" s="1"/>
     </row>
-    <row r="241" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:8">
       <c r="A241">
         <v>239</v>
       </c>
@@ -7785,7 +8036,7 @@
       <c r="G241" s="1"/>
       <c r="H241" s="1"/>
     </row>
-    <row r="242" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:8">
       <c r="A242">
         <v>240</v>
       </c>
@@ -7797,7 +8048,7 @@
       <c r="G242" s="1"/>
       <c r="H242" s="1"/>
     </row>
-    <row r="243" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:8">
       <c r="A243">
         <v>241</v>
       </c>
@@ -7809,7 +8060,7 @@
       <c r="G243" s="1"/>
       <c r="H243" s="1"/>
     </row>
-    <row r="244" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:8">
       <c r="A244">
         <v>242</v>
       </c>
@@ -7821,7 +8072,7 @@
       <c r="G244" s="1"/>
       <c r="H244" s="1"/>
     </row>
-    <row r="245" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:8">
       <c r="A245">
         <v>243</v>
       </c>
@@ -7833,7 +8084,7 @@
       <c r="G245" s="1"/>
       <c r="H245" s="1"/>
     </row>
-    <row r="246" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:8">
       <c r="A246">
         <v>244</v>
       </c>
@@ -7845,7 +8096,7 @@
       <c r="G246" s="1"/>
       <c r="H246" s="1"/>
     </row>
-    <row r="247" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:8">
       <c r="A247">
         <v>245</v>
       </c>
@@ -7857,7 +8108,7 @@
       <c r="G247" s="1"/>
       <c r="H247" s="1"/>
     </row>
-    <row r="248" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:8">
       <c r="A248">
         <v>246</v>
       </c>
@@ -7869,7 +8120,7 @@
       <c r="G248" s="1"/>
       <c r="H248" s="1"/>
     </row>
-    <row r="249" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:8">
       <c r="A249">
         <v>247</v>
       </c>
@@ -7881,7 +8132,7 @@
       <c r="G249" s="1"/>
       <c r="H249" s="1"/>
     </row>
-    <row r="250" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:8">
       <c r="A250">
         <v>248</v>
       </c>
@@ -7893,7 +8144,7 @@
       <c r="G250" s="1"/>
       <c r="H250" s="1"/>
     </row>
-    <row r="251" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:8">
       <c r="A251">
         <v>249</v>
       </c>
@@ -7905,7 +8156,7 @@
       <c r="G251" s="1"/>
       <c r="H251" s="1"/>
     </row>
-    <row r="252" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:8">
       <c r="A252">
         <v>250</v>
       </c>
@@ -7917,7 +8168,7 @@
       <c r="G252" s="1"/>
       <c r="H252" s="1"/>
     </row>
-    <row r="253" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:8">
       <c r="A253">
         <v>251</v>
       </c>
@@ -7929,7 +8180,7 @@
       <c r="G253" s="1"/>
       <c r="H253" s="1"/>
     </row>
-    <row r="254" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:8">
       <c r="A254">
         <v>252</v>
       </c>
@@ -7941,7 +8192,7 @@
       <c r="G254" s="1"/>
       <c r="H254" s="1"/>
     </row>
-    <row r="255" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:8">
       <c r="A255">
         <v>253</v>
       </c>
@@ -7953,7 +8204,7 @@
       <c r="G255" s="1"/>
       <c r="H255" s="1"/>
     </row>
-    <row r="256" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:8">
       <c r="A256">
         <v>254</v>
       </c>
@@ -7965,7 +8216,7 @@
       <c r="G256" s="1"/>
       <c r="H256" s="1"/>
     </row>
-    <row r="257" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:8">
       <c r="A257">
         <v>255</v>
       </c>
@@ -7977,7 +8228,7 @@
       <c r="G257" s="1"/>
       <c r="H257" s="1"/>
     </row>
-    <row r="258" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:8">
       <c r="A258">
         <v>256</v>
       </c>
@@ -7989,7 +8240,7 @@
       <c r="G258" s="1"/>
       <c r="H258" s="1"/>
     </row>
-    <row r="259" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:8">
       <c r="A259">
         <v>257</v>
       </c>
@@ -8001,7 +8252,7 @@
       <c r="G259" s="1"/>
       <c r="H259" s="1"/>
     </row>
-    <row r="260" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:8">
       <c r="A260">
         <v>258</v>
       </c>
@@ -8013,7 +8264,7 @@
       <c r="G260" s="1"/>
       <c r="H260" s="1"/>
     </row>
-    <row r="261" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:8">
       <c r="A261">
         <v>259</v>
       </c>
@@ -8025,7 +8276,7 @@
       <c r="G261" s="1"/>
       <c r="H261" s="1"/>
     </row>
-    <row r="262" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:8">
       <c r="A262">
         <v>260</v>
       </c>
@@ -8037,7 +8288,7 @@
       <c r="G262" s="1"/>
       <c r="H262" s="1"/>
     </row>
-    <row r="263" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:8">
       <c r="A263">
         <v>261</v>
       </c>
@@ -8049,7 +8300,7 @@
       <c r="G263" s="1"/>
       <c r="H263" s="1"/>
     </row>
-    <row r="264" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:8">
       <c r="A264">
         <v>262</v>
       </c>
@@ -8061,7 +8312,7 @@
       <c r="G264" s="1"/>
       <c r="H264" s="1"/>
     </row>
-    <row r="265" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:8">
       <c r="A265">
         <v>263</v>
       </c>
@@ -8073,7 +8324,7 @@
       <c r="G265" s="1"/>
       <c r="H265" s="1"/>
     </row>
-    <row r="266" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:8">
       <c r="A266">
         <v>264</v>
       </c>
@@ -8085,7 +8336,7 @@
       <c r="G266" s="1"/>
       <c r="H266" s="1"/>
     </row>
-    <row r="267" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:8">
       <c r="A267">
         <v>265</v>
       </c>
@@ -8097,7 +8348,7 @@
       <c r="G267" s="1"/>
       <c r="H267" s="1"/>
     </row>
-    <row r="268" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:8">
       <c r="A268">
         <v>266</v>
       </c>
@@ -8109,7 +8360,7 @@
       <c r="G268" s="1"/>
       <c r="H268" s="1"/>
     </row>
-    <row r="269" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:8">
       <c r="A269">
         <v>267</v>
       </c>
@@ -8121,7 +8372,7 @@
       <c r="G269" s="1"/>
       <c r="H269" s="1"/>
     </row>
-    <row r="270" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:8">
       <c r="A270">
         <v>268</v>
       </c>
@@ -8133,7 +8384,7 @@
       <c r="G270" s="1"/>
       <c r="H270" s="1"/>
     </row>
-    <row r="271" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:8">
       <c r="A271">
         <v>269</v>
       </c>
@@ -8145,7 +8396,7 @@
       <c r="G271" s="1"/>
       <c r="H271" s="1"/>
     </row>
-    <row r="272" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:8">
       <c r="A272">
         <v>270</v>
       </c>
@@ -8157,7 +8408,7 @@
       <c r="G272" s="1"/>
       <c r="H272" s="1"/>
     </row>
-    <row r="273" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:8">
       <c r="A273">
         <v>271</v>
       </c>
@@ -8169,7 +8420,7 @@
       <c r="G273" s="1"/>
       <c r="H273" s="1"/>
     </row>
-    <row r="274" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:8">
       <c r="A274">
         <v>272</v>
       </c>
@@ -8181,7 +8432,7 @@
       <c r="G274" s="1"/>
       <c r="H274" s="1"/>
     </row>
-    <row r="275" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:8">
       <c r="A275">
         <v>273</v>
       </c>
@@ -8193,7 +8444,7 @@
       <c r="G275" s="1"/>
       <c r="H275" s="1"/>
     </row>
-    <row r="276" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:8">
       <c r="A276">
         <v>274</v>
       </c>
@@ -8205,7 +8456,7 @@
       <c r="G276" s="1"/>
       <c r="H276" s="1"/>
     </row>
-    <row r="277" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:8">
       <c r="A277">
         <v>275</v>
       </c>
@@ -8217,7 +8468,7 @@
       <c r="G277" s="1"/>
       <c r="H277" s="1"/>
     </row>
-    <row r="278" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:8">
       <c r="A278">
         <v>276</v>
       </c>
@@ -8229,7 +8480,7 @@
       <c r="G278" s="1"/>
       <c r="H278" s="1"/>
     </row>
-    <row r="279" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:8">
       <c r="A279">
         <v>277</v>
       </c>
@@ -8241,7 +8492,7 @@
       <c r="G279" s="1"/>
       <c r="H279" s="1"/>
     </row>
-    <row r="280" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:8">
       <c r="A280">
         <v>278</v>
       </c>
@@ -8253,7 +8504,7 @@
       <c r="G280" s="1"/>
       <c r="H280" s="1"/>
     </row>
-    <row r="281" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:8">
       <c r="A281">
         <v>279</v>
       </c>
@@ -8265,7 +8516,7 @@
       <c r="G281" s="1"/>
       <c r="H281" s="1"/>
     </row>
-    <row r="282" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:8">
       <c r="A282">
         <v>280</v>
       </c>
@@ -8277,7 +8528,7 @@
       <c r="G282" s="1"/>
       <c r="H282" s="1"/>
     </row>
-    <row r="283" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:8">
       <c r="A283">
         <v>281</v>
       </c>
@@ -8289,7 +8540,7 @@
       <c r="G283" s="1"/>
       <c r="H283" s="1"/>
     </row>
-    <row r="284" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:8">
       <c r="A284">
         <v>282</v>
       </c>
@@ -8301,7 +8552,7 @@
       <c r="G284" s="1"/>
       <c r="H284" s="1"/>
     </row>
-    <row r="285" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:8">
       <c r="A285">
         <v>283</v>
       </c>
@@ -8313,7 +8564,7 @@
       <c r="G285" s="1"/>
       <c r="H285" s="1"/>
     </row>
-    <row r="286" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:8">
       <c r="A286">
         <v>284</v>
       </c>
@@ -8325,7 +8576,7 @@
       <c r="G286" s="1"/>
       <c r="H286" s="1"/>
     </row>
-    <row r="287" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:8">
       <c r="A287">
         <v>285</v>
       </c>
@@ -8337,7 +8588,7 @@
       <c r="G287" s="1"/>
       <c r="H287" s="1"/>
     </row>
-    <row r="288" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:8">
       <c r="A288">
         <v>286</v>
       </c>
@@ -8349,7 +8600,7 @@
       <c r="G288" s="1"/>
       <c r="H288" s="1"/>
     </row>
-    <row r="289" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:8">
       <c r="A289">
         <v>287</v>
       </c>
@@ -8361,7 +8612,7 @@
       <c r="G289" s="1"/>
       <c r="H289" s="1"/>
     </row>
-    <row r="290" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:8">
       <c r="A290">
         <v>288</v>
       </c>
@@ -8373,7 +8624,7 @@
       <c r="G290" s="1"/>
       <c r="H290" s="1"/>
     </row>
-    <row r="291" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:8">
       <c r="A291">
         <v>289</v>
       </c>
@@ -8385,7 +8636,7 @@
       <c r="G291" s="1"/>
       <c r="H291" s="1"/>
     </row>
-    <row r="292" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:8">
       <c r="A292">
         <v>290</v>
       </c>
@@ -8397,7 +8648,7 @@
       <c r="G292" s="1"/>
       <c r="H292" s="1"/>
     </row>
-    <row r="293" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:8">
       <c r="A293">
         <v>291</v>
       </c>
@@ -8409,7 +8660,7 @@
       <c r="G293" s="1"/>
       <c r="H293" s="1"/>
     </row>
-    <row r="294" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:8">
       <c r="A294">
         <v>292</v>
       </c>
@@ -8421,7 +8672,7 @@
       <c r="G294" s="1"/>
       <c r="H294" s="1"/>
     </row>
-    <row r="295" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:8">
       <c r="A295">
         <v>293</v>
       </c>
@@ -8433,7 +8684,7 @@
       <c r="G295" s="1"/>
       <c r="H295" s="1"/>
     </row>
-    <row r="296" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:8">
       <c r="A296">
         <v>294</v>
       </c>
@@ -8445,7 +8696,7 @@
       <c r="G296" s="1"/>
       <c r="H296" s="1"/>
     </row>
-    <row r="297" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:8">
       <c r="A297">
         <v>295</v>
       </c>
@@ -8457,7 +8708,7 @@
       <c r="G297" s="1"/>
       <c r="H297" s="1"/>
     </row>
-    <row r="298" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:8">
       <c r="A298">
         <v>296</v>
       </c>
@@ -8469,7 +8720,7 @@
       <c r="G298" s="1"/>
       <c r="H298" s="1"/>
     </row>
-    <row r="299" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:8">
       <c r="A299">
         <v>297</v>
       </c>
@@ -8481,7 +8732,7 @@
       <c r="G299" s="1"/>
       <c r="H299" s="1"/>
     </row>
-    <row r="300" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:8">
       <c r="A300">
         <v>298</v>
       </c>
@@ -8493,7 +8744,7 @@
       <c r="G300" s="1"/>
       <c r="H300" s="1"/>
     </row>
-    <row r="301" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:8">
       <c r="A301">
         <v>299</v>
       </c>
@@ -8505,7 +8756,7 @@
       <c r="G301" s="1"/>
       <c r="H301" s="1"/>
     </row>
-    <row r="302" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:8">
       <c r="A302">
         <v>300</v>
       </c>
@@ -8517,7 +8768,7 @@
       <c r="G302" s="1"/>
       <c r="H302" s="1"/>
     </row>
-    <row r="303" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:8">
       <c r="A303">
         <v>301</v>
       </c>
@@ -8529,7 +8780,7 @@
       <c r="G303" s="1"/>
       <c r="H303" s="1"/>
     </row>
-    <row r="304" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:8">
       <c r="A304">
         <v>302</v>
       </c>
@@ -8541,7 +8792,7 @@
       <c r="G304" s="1"/>
       <c r="H304" s="1"/>
     </row>
-    <row r="305" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:8">
       <c r="A305">
         <v>303</v>
       </c>
@@ -8553,7 +8804,7 @@
       <c r="G305" s="1"/>
       <c r="H305" s="1"/>
     </row>
-    <row r="306" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:8">
       <c r="A306">
         <v>304</v>
       </c>
@@ -8565,7 +8816,7 @@
       <c r="G306" s="1"/>
       <c r="H306" s="1"/>
     </row>
-    <row r="307" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:8">
       <c r="A307">
         <v>305</v>
       </c>
@@ -8577,7 +8828,7 @@
       <c r="G307" s="1"/>
       <c r="H307" s="1"/>
     </row>
-    <row r="308" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:8">
       <c r="A308">
         <v>306</v>
       </c>
@@ -8589,7 +8840,7 @@
       <c r="G308" s="1"/>
       <c r="H308" s="1"/>
     </row>
-    <row r="309" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:8">
       <c r="A309">
         <v>307</v>
       </c>
@@ -8601,7 +8852,7 @@
       <c r="G309" s="1"/>
       <c r="H309" s="1"/>
     </row>
-    <row r="310" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:8">
       <c r="A310">
         <v>308</v>
       </c>
@@ -8613,7 +8864,7 @@
       <c r="G310" s="1"/>
       <c r="H310" s="1"/>
     </row>
-    <row r="311" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:8">
       <c r="A311">
         <v>309</v>
       </c>
@@ -8625,7 +8876,7 @@
       <c r="G311" s="1"/>
       <c r="H311" s="1"/>
     </row>
-    <row r="312" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:8">
       <c r="A312">
         <v>310</v>
       </c>
@@ -8637,7 +8888,7 @@
       <c r="G312" s="1"/>
       <c r="H312" s="1"/>
     </row>
-    <row r="313" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:8">
       <c r="A313">
         <v>311</v>
       </c>
@@ -8649,7 +8900,7 @@
       <c r="G313" s="1"/>
       <c r="H313" s="1"/>
     </row>
-    <row r="314" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:8">
       <c r="A314">
         <v>312</v>
       </c>
@@ -8661,7 +8912,7 @@
       <c r="G314" s="1"/>
       <c r="H314" s="1"/>
     </row>
-    <row r="315" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:8">
       <c r="A315">
         <v>313</v>
       </c>
@@ -8673,7 +8924,7 @@
       <c r="G315" s="1"/>
       <c r="H315" s="1"/>
     </row>
-    <row r="316" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:8">
       <c r="A316">
         <v>314</v>
       </c>
@@ -8685,7 +8936,7 @@
       <c r="G316" s="1"/>
       <c r="H316" s="1"/>
     </row>
-    <row r="317" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:8">
       <c r="A317">
         <v>315</v>
       </c>
@@ -8697,7 +8948,7 @@
       <c r="G317" s="1"/>
       <c r="H317" s="1"/>
     </row>
-    <row r="318" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:8">
       <c r="A318">
         <v>316</v>
       </c>
@@ -8709,7 +8960,7 @@
       <c r="G318" s="1"/>
       <c r="H318" s="1"/>
     </row>
-    <row r="319" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:8">
       <c r="A319">
         <v>317</v>
       </c>
@@ -8721,7 +8972,7 @@
       <c r="G319" s="1"/>
       <c r="H319" s="1"/>
     </row>
-    <row r="320" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:8">
       <c r="A320">
         <v>318</v>
       </c>
@@ -8733,7 +8984,7 @@
       <c r="G320" s="1"/>
       <c r="H320" s="1"/>
     </row>
-    <row r="321" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:8">
       <c r="A321">
         <v>319</v>
       </c>
@@ -8745,7 +8996,7 @@
       <c r="G321" s="1"/>
       <c r="H321" s="1"/>
     </row>
-    <row r="322" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:8">
       <c r="A322">
         <v>320</v>
       </c>
@@ -8757,7 +9008,7 @@
       <c r="G322" s="1"/>
       <c r="H322" s="1"/>
     </row>
-    <row r="323" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:8">
       <c r="A323">
         <v>321</v>
       </c>
@@ -8769,7 +9020,7 @@
       <c r="G323" s="1"/>
       <c r="H323" s="1"/>
     </row>
-    <row r="324" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:8">
       <c r="A324">
         <v>322</v>
       </c>
@@ -8781,7 +9032,7 @@
       <c r="G324" s="1"/>
       <c r="H324" s="1"/>
     </row>
-    <row r="325" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:8">
       <c r="A325">
         <v>323</v>
       </c>
@@ -8793,7 +9044,7 @@
       <c r="G325" s="1"/>
       <c r="H325" s="1"/>
     </row>
-    <row r="326" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:8">
       <c r="A326">
         <v>324</v>
       </c>
@@ -8805,7 +9056,7 @@
       <c r="G326" s="1"/>
       <c r="H326" s="1"/>
     </row>
-    <row r="327" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:8">
       <c r="A327">
         <v>325</v>
       </c>
@@ -8817,7 +9068,7 @@
       <c r="G327" s="1"/>
       <c r="H327" s="1"/>
     </row>
-    <row r="328" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:8">
       <c r="A328">
         <v>326</v>
       </c>
@@ -8829,7 +9080,7 @@
       <c r="G328" s="1"/>
       <c r="H328" s="1"/>
     </row>
-    <row r="329" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:8">
       <c r="A329">
         <v>327</v>
       </c>
@@ -8841,7 +9092,7 @@
       <c r="G329" s="1"/>
       <c r="H329" s="1"/>
     </row>
-    <row r="330" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:8">
       <c r="A330">
         <v>328</v>
       </c>
@@ -8853,7 +9104,7 @@
       <c r="G330" s="1"/>
       <c r="H330" s="1"/>
     </row>
-    <row r="331" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:8">
       <c r="A331">
         <v>329</v>
       </c>
@@ -8865,7 +9116,7 @@
       <c r="G331" s="1"/>
       <c r="H331" s="1"/>
     </row>
-    <row r="332" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:8">
       <c r="A332">
         <v>330</v>
       </c>
@@ -8877,7 +9128,7 @@
       <c r="G332" s="1"/>
       <c r="H332" s="1"/>
     </row>
-    <row r="333" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:8">
       <c r="A333">
         <v>331</v>
       </c>
@@ -8889,7 +9140,7 @@
       <c r="G333" s="1"/>
       <c r="H333" s="1"/>
     </row>
-    <row r="334" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:8">
       <c r="A334">
         <v>332</v>
       </c>
@@ -8901,7 +9152,7 @@
       <c r="G334" s="1"/>
       <c r="H334" s="1"/>
     </row>
-    <row r="335" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:8">
       <c r="A335">
         <v>333</v>
       </c>
@@ -8913,7 +9164,7 @@
       <c r="G335" s="1"/>
       <c r="H335" s="1"/>
     </row>
-    <row r="336" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:8">
       <c r="A336">
         <v>334</v>
       </c>
@@ -8925,7 +9176,7 @@
       <c r="G336" s="1"/>
       <c r="H336" s="1"/>
     </row>
-    <row r="337" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:8">
       <c r="A337">
         <v>335</v>
       </c>
@@ -8937,7 +9188,7 @@
       <c r="G337" s="1"/>
       <c r="H337" s="1"/>
     </row>
-    <row r="338" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:8">
       <c r="A338">
         <v>336</v>
       </c>
@@ -8949,7 +9200,7 @@
       <c r="G338" s="1"/>
       <c r="H338" s="1"/>
     </row>
-    <row r="339" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:8">
       <c r="A339">
         <v>337</v>
       </c>
@@ -8961,7 +9212,7 @@
       <c r="G339" s="1"/>
       <c r="H339" s="1"/>
     </row>
-    <row r="340" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:8">
       <c r="A340">
         <v>338</v>
       </c>
@@ -8973,7 +9224,7 @@
       <c r="G340" s="1"/>
       <c r="H340" s="1"/>
     </row>
-    <row r="341" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:8">
       <c r="A341">
         <v>339</v>
       </c>
@@ -8985,7 +9236,7 @@
       <c r="G341" s="1"/>
       <c r="H341" s="1"/>
     </row>
-    <row r="342" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:8">
       <c r="A342">
         <v>340</v>
       </c>
@@ -8997,7 +9248,7 @@
       <c r="G342" s="1"/>
       <c r="H342" s="1"/>
     </row>
-    <row r="343" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:8">
       <c r="A343">
         <v>341</v>
       </c>
@@ -9009,7 +9260,7 @@
       <c r="G343" s="1"/>
       <c r="H343" s="1"/>
     </row>
-    <row r="344" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:8">
       <c r="A344">
         <v>342</v>
       </c>
@@ -9021,7 +9272,7 @@
       <c r="G344" s="1"/>
       <c r="H344" s="1"/>
     </row>
-    <row r="345" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:8">
       <c r="A345">
         <v>343</v>
       </c>
@@ -9033,7 +9284,7 @@
       <c r="G345" s="1"/>
       <c r="H345" s="1"/>
     </row>
-    <row r="346" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:8">
       <c r="A346">
         <v>344</v>
       </c>
@@ -9045,7 +9296,7 @@
       <c r="G346" s="1"/>
       <c r="H346" s="1"/>
     </row>
-    <row r="347" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:8">
       <c r="A347">
         <v>345</v>
       </c>
@@ -9057,7 +9308,7 @@
       <c r="G347" s="1"/>
       <c r="H347" s="1"/>
     </row>
-    <row r="348" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:8">
       <c r="A348">
         <v>346</v>
       </c>
@@ -9069,7 +9320,7 @@
       <c r="G348" s="1"/>
       <c r="H348" s="1"/>
     </row>
-    <row r="349" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:8">
       <c r="A349">
         <v>347</v>
       </c>
@@ -9081,7 +9332,7 @@
       <c r="G349" s="1"/>
       <c r="H349" s="1"/>
     </row>
-    <row r="350" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:8">
       <c r="A350">
         <v>348</v>
       </c>
@@ -9093,7 +9344,7 @@
       <c r="G350" s="1"/>
       <c r="H350" s="1"/>
     </row>
-    <row r="351" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:8">
       <c r="A351">
         <v>349</v>
       </c>
@@ -9105,7 +9356,7 @@
       <c r="G351" s="1"/>
       <c r="H351" s="1"/>
     </row>
-    <row r="352" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:8">
       <c r="A352">
         <v>350</v>
       </c>
@@ -9117,7 +9368,7 @@
       <c r="G352" s="1"/>
       <c r="H352" s="1"/>
     </row>
-    <row r="353" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:8">
       <c r="A353">
         <v>351</v>
       </c>
@@ -9129,7 +9380,7 @@
       <c r="G353" s="1"/>
       <c r="H353" s="1"/>
     </row>
-    <row r="354" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:8">
       <c r="A354">
         <v>352</v>
       </c>
@@ -9141,7 +9392,7 @@
       <c r="G354" s="1"/>
       <c r="H354" s="1"/>
     </row>
-    <row r="355" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:8">
       <c r="A355">
         <v>353</v>
       </c>
@@ -9153,7 +9404,7 @@
       <c r="G355" s="1"/>
       <c r="H355" s="1"/>
     </row>
-    <row r="356" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:8">
       <c r="A356">
         <v>354</v>
       </c>
@@ -9165,7 +9416,7 @@
       <c r="G356" s="1"/>
       <c r="H356" s="1"/>
     </row>
-    <row r="357" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:8">
       <c r="A357">
         <v>355</v>
       </c>
@@ -9177,7 +9428,7 @@
       <c r="G357" s="1"/>
       <c r="H357" s="1"/>
     </row>
-    <row r="358" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:8">
       <c r="A358">
         <v>356</v>
       </c>
@@ -9189,7 +9440,7 @@
       <c r="G358" s="1"/>
       <c r="H358" s="1"/>
     </row>
-    <row r="359" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:8">
       <c r="A359">
         <v>357</v>
       </c>
@@ -9201,7 +9452,7 @@
       <c r="G359" s="1"/>
       <c r="H359" s="1"/>
     </row>
-    <row r="360" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:8">
       <c r="A360">
         <v>358</v>
       </c>
@@ -9213,7 +9464,7 @@
       <c r="G360" s="1"/>
       <c r="H360" s="1"/>
     </row>
-    <row r="361" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:8">
       <c r="A361">
         <v>359</v>
       </c>
@@ -9225,7 +9476,7 @@
       <c r="G361" s="1"/>
       <c r="H361" s="1"/>
     </row>
-    <row r="362" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:8">
       <c r="A362">
         <v>360</v>
       </c>
@@ -9237,7 +9488,7 @@
       <c r="G362" s="1"/>
       <c r="H362" s="1"/>
     </row>
-    <row r="363" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:8">
       <c r="A363">
         <v>361</v>
       </c>
@@ -9249,7 +9500,7 @@
       <c r="G363" s="1"/>
       <c r="H363" s="1"/>
     </row>
-    <row r="364" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:8">
       <c r="A364">
         <v>362</v>
       </c>
@@ -9261,7 +9512,7 @@
       <c r="G364" s="1"/>
       <c r="H364" s="1"/>
     </row>
-    <row r="365" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:8">
       <c r="A365">
         <v>363</v>
       </c>
@@ -9273,7 +9524,7 @@
       <c r="G365" s="1"/>
       <c r="H365" s="1"/>
     </row>
-    <row r="366" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:8">
       <c r="A366">
         <v>364</v>
       </c>
@@ -9285,7 +9536,7 @@
       <c r="G366" s="1"/>
       <c r="H366" s="1"/>
     </row>
-    <row r="367" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:8">
       <c r="A367">
         <v>365</v>
       </c>
@@ -9297,7 +9548,7 @@
       <c r="G367" s="1"/>
       <c r="H367" s="1"/>
     </row>
-    <row r="368" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:8">
       <c r="A368">
         <v>366</v>
       </c>
@@ -9309,7 +9560,7 @@
       <c r="G368" s="1"/>
       <c r="H368" s="1"/>
     </row>
-    <row r="369" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:8">
       <c r="A369">
         <v>367</v>
       </c>
@@ -9321,7 +9572,7 @@
       <c r="G369" s="1"/>
       <c r="H369" s="1"/>
     </row>
-    <row r="370" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:8">
       <c r="A370">
         <v>368</v>
       </c>
@@ -9333,7 +9584,7 @@
       <c r="G370" s="1"/>
       <c r="H370" s="1"/>
     </row>
-    <row r="371" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:8">
       <c r="A371">
         <v>369</v>
       </c>
@@ -9345,7 +9596,7 @@
       <c r="G371" s="1"/>
       <c r="H371" s="1"/>
     </row>
-    <row r="372" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:8">
       <c r="A372">
         <v>370</v>
       </c>
@@ -9357,7 +9608,7 @@
       <c r="G372" s="1"/>
       <c r="H372" s="1"/>
     </row>
-    <row r="373" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:8">
       <c r="A373">
         <v>371</v>
       </c>
@@ -9369,7 +9620,7 @@
       <c r="G373" s="1"/>
       <c r="H373" s="1"/>
     </row>
-    <row r="374" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:8">
       <c r="A374">
         <v>372</v>
       </c>
@@ -9381,7 +9632,7 @@
       <c r="G374" s="1"/>
       <c r="H374" s="1"/>
     </row>
-    <row r="375" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:8">
       <c r="A375">
         <v>373</v>
       </c>
@@ -9393,7 +9644,7 @@
       <c r="G375" s="1"/>
       <c r="H375" s="1"/>
     </row>
-    <row r="376" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:8">
       <c r="A376">
         <v>374</v>
       </c>
@@ -9405,7 +9656,7 @@
       <c r="G376" s="1"/>
       <c r="H376" s="1"/>
     </row>
-    <row r="377" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:8">
       <c r="A377">
         <v>375</v>
       </c>
@@ -9417,7 +9668,7 @@
       <c r="G377" s="1"/>
       <c r="H377" s="1"/>
     </row>
-    <row r="378" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:8">
       <c r="A378">
         <v>376</v>
       </c>
@@ -9429,7 +9680,7 @@
       <c r="G378" s="1"/>
       <c r="H378" s="1"/>
     </row>
-    <row r="379" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:8">
       <c r="A379">
         <v>377</v>
       </c>
@@ -9441,7 +9692,7 @@
       <c r="G379" s="1"/>
       <c r="H379" s="1"/>
     </row>
-    <row r="380" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:8">
       <c r="A380">
         <v>378</v>
       </c>
@@ -9453,7 +9704,7 @@
       <c r="G380" s="1"/>
       <c r="H380" s="1"/>
     </row>
-    <row r="381" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:8">
       <c r="A381">
         <v>379</v>
       </c>
@@ -9465,7 +9716,7 @@
       <c r="G381" s="1"/>
       <c r="H381" s="1"/>
     </row>
-    <row r="382" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:8">
       <c r="A382">
         <v>380</v>
       </c>
@@ -9477,7 +9728,7 @@
       <c r="G382" s="1"/>
       <c r="H382" s="1"/>
     </row>
-    <row r="383" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:8">
       <c r="A383">
         <v>381</v>
       </c>
@@ -9489,7 +9740,7 @@
       <c r="G383" s="1"/>
       <c r="H383" s="1"/>
     </row>
-    <row r="384" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:8">
       <c r="A384">
         <v>382</v>
       </c>
@@ -9501,7 +9752,7 @@
       <c r="G384" s="1"/>
       <c r="H384" s="1"/>
     </row>
-    <row r="385" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:8">
       <c r="A385">
         <v>383</v>
       </c>
@@ -9513,7 +9764,7 @@
       <c r="G385" s="1"/>
       <c r="H385" s="1"/>
     </row>
-    <row r="386" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:8">
       <c r="A386">
         <v>384</v>
       </c>
@@ -9525,7 +9776,7 @@
       <c r="G386" s="1"/>
       <c r="H386" s="1"/>
     </row>
-    <row r="387" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:8">
       <c r="A387">
         <v>385</v>
       </c>
@@ -9537,7 +9788,7 @@
       <c r="G387" s="1"/>
       <c r="H387" s="1"/>
     </row>
-    <row r="388" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:8">
       <c r="A388">
         <v>386</v>
       </c>
@@ -9549,7 +9800,7 @@
       <c r="G388" s="1"/>
       <c r="H388" s="1"/>
     </row>
-    <row r="389" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:8">
       <c r="A389">
         <v>387</v>
       </c>
@@ -9561,7 +9812,7 @@
       <c r="G389" s="1"/>
       <c r="H389" s="1"/>
     </row>
-    <row r="390" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:8">
       <c r="A390">
         <v>388</v>
       </c>
@@ -9573,7 +9824,7 @@
       <c r="G390" s="1"/>
       <c r="H390" s="1"/>
     </row>
-    <row r="391" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:8">
       <c r="A391">
         <v>389</v>
       </c>
@@ -9585,7 +9836,7 @@
       <c r="G391" s="1"/>
       <c r="H391" s="1"/>
     </row>
-    <row r="392" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:8">
       <c r="A392">
         <v>390</v>
       </c>
@@ -9597,7 +9848,7 @@
       <c r="G392" s="1"/>
       <c r="H392" s="1"/>
     </row>
-    <row r="393" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:8">
       <c r="A393">
         <v>391</v>
       </c>
@@ -9609,7 +9860,7 @@
       <c r="G393" s="1"/>
       <c r="H393" s="1"/>
     </row>
-    <row r="394" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:8">
       <c r="A394">
         <v>392</v>
       </c>
@@ -9621,7 +9872,7 @@
       <c r="G394" s="1"/>
       <c r="H394" s="1"/>
     </row>
-    <row r="395" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:8">
       <c r="A395">
         <v>393</v>
       </c>
@@ -9633,7 +9884,7 @@
       <c r="G395" s="1"/>
       <c r="H395" s="1"/>
     </row>
-    <row r="396" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:8">
       <c r="A396">
         <v>394</v>
       </c>
@@ -9645,7 +9896,7 @@
       <c r="G396" s="1"/>
       <c r="H396" s="1"/>
     </row>
-    <row r="397" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:8">
       <c r="A397">
         <v>395</v>
       </c>
@@ -9657,7 +9908,7 @@
       <c r="G397" s="1"/>
       <c r="H397" s="1"/>
     </row>
-    <row r="398" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:8">
       <c r="A398">
         <v>396</v>
       </c>
@@ -9669,7 +9920,7 @@
       <c r="G398" s="1"/>
       <c r="H398" s="1"/>
     </row>
-    <row r="399" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:8">
       <c r="A399">
         <v>397</v>
       </c>
@@ -9681,7 +9932,7 @@
       <c r="G399" s="1"/>
       <c r="H399" s="1"/>
     </row>
-    <row r="400" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:8">
       <c r="A400">
         <v>398</v>
       </c>
@@ -9693,7 +9944,7 @@
       <c r="G400" s="1"/>
       <c r="H400" s="1"/>
     </row>
-    <row r="401" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:8">
       <c r="A401">
         <v>399</v>
       </c>
@@ -9705,7 +9956,7 @@
       <c r="G401" s="1"/>
       <c r="H401" s="1"/>
     </row>
-    <row r="402" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:8">
       <c r="A402">
         <v>400</v>
       </c>
@@ -9717,7 +9968,7 @@
       <c r="G402" s="1"/>
       <c r="H402" s="1"/>
     </row>
-    <row r="403" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:8">
       <c r="A403">
         <v>401</v>
       </c>
@@ -9729,7 +9980,7 @@
       <c r="G403" s="1"/>
       <c r="H403" s="1"/>
     </row>
-    <row r="404" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:8">
       <c r="A404">
         <v>402</v>
       </c>
@@ -9741,7 +9992,7 @@
       <c r="G404" s="1"/>
       <c r="H404" s="1"/>
     </row>
-    <row r="405" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:8">
       <c r="A405">
         <v>403</v>
       </c>
@@ -9753,7 +10004,7 @@
       <c r="G405" s="1"/>
       <c r="H405" s="1"/>
     </row>
-    <row r="406" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:8">
       <c r="A406">
         <v>404</v>
       </c>
@@ -9765,7 +10016,7 @@
       <c r="G406" s="1"/>
       <c r="H406" s="1"/>
     </row>
-    <row r="407" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:8">
       <c r="A407">
         <v>405</v>
       </c>
@@ -9777,7 +10028,7 @@
       <c r="G407" s="1"/>
       <c r="H407" s="1"/>
     </row>
-    <row r="408" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:8">
       <c r="A408">
         <v>406</v>
       </c>
@@ -9789,7 +10040,7 @@
       <c r="G408" s="1"/>
       <c r="H408" s="1"/>
     </row>
-    <row r="409" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:8">
       <c r="A409">
         <v>407</v>
       </c>
@@ -9801,7 +10052,7 @@
       <c r="G409" s="1"/>
       <c r="H409" s="1"/>
     </row>
-    <row r="410" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:8">
       <c r="A410">
         <v>408</v>
       </c>
@@ -9816,4 +10067,122 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17">
+      <c r="A1" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="J1" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="K1" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="L1" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="M1" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="N1" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="O1" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="P1" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q1" s="11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2" t="s">
+        <v>252</v>
+      </c>
+      <c r="B2" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" t="s">
+        <v>254</v>
+      </c>
+      <c r="B3" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="A4" t="s">
+        <v>256</v>
+      </c>
+      <c r="B4" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" t="s">
+        <v>258</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
 </file>
--- a/TF_UI_APIs.xlsx
+++ b/TF_UI_APIs.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\W\tf-new-arch-artifacts\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C806607-85FE-46C0-B6CB-6284F025DA67}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="23256" windowHeight="13176" activeTab="5"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Type1" sheetId="2" r:id="rId1"/>
@@ -19,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="664" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="669" uniqueCount="264">
   <si>
     <t>Tax Authority</t>
   </si>
@@ -836,12 +842,27 @@
   <si>
     <t>maritalStatus</t>
   </si>
+  <si>
+    <t>/UserDataQueriesService/getPATaxReportForAuthority</t>
+  </si>
+  <si>
+    <t>/UserDataQueriesService/getPATaxReportAllAuthorities</t>
+  </si>
+  <si>
+    <t>/UserDataQueriesService/generateMaritalStatusReport</t>
+  </si>
+  <si>
+    <t>/UserDataQueriesService/getTaxHistoryReportAuthorities</t>
+  </si>
+  <si>
+    <t>/UserDataQueriesService/getTaxHistoryReportAuthority</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1301,13 +1322,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -1344,6 +1358,13 @@
           <bgColor theme="9" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -2422,122 +2443,122 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:P13" totalsRowShown="0" headerRowDxfId="49" dataDxfId="47" headerRowBorderDxfId="48" tableBorderDxfId="46" totalsRowBorderDxfId="45">
-  <autoFilter ref="A1:P13"/>
-  <sortState ref="A2:J13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:P13" totalsRowShown="0" headerRowDxfId="49" dataDxfId="47" headerRowBorderDxfId="48" tableBorderDxfId="46" totalsRowBorderDxfId="45">
+  <autoFilter ref="A1:P13" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J13">
     <sortCondition ref="A1:A13"/>
   </sortState>
   <tableColumns count="16">
-    <tableColumn id="1" name="Link Description"/>
-    <tableColumn id="2" name="Page Id" dataDxfId="44"/>
-    <tableColumn id="3" name="Autocomplete pageIds" dataDxfId="43"/>
-    <tableColumn id="4" name="Get Prod URL" dataDxfId="42"/>
-    <tableColumn id="11" name="Get URL Ready?"/>
-    <tableColumn id="5" name="Edit Entity"/>
-    <tableColumn id="16" name="Edit  URL Ready"/>
-    <tableColumn id="17" name="Get Usage URL"/>
-    <tableColumn id="18" name="Get Usage Ready"/>
-    <tableColumn id="9" name="Delete URL"/>
-    <tableColumn id="13" name="Delete Ready?"/>
-    <tableColumn id="8" name="Save/Update URL"/>
-    <tableColumn id="7" name="Save/Update Ready?"/>
-    <tableColumn id="10" name="View PDF?"/>
-    <tableColumn id="12" name="All APIs ready?"/>
-    <tableColumn id="6" name="Testing?" dataDxfId="41"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Link Description"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Page Id" dataDxfId="44"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Autocomplete pageIds" dataDxfId="43"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Get Prod URL" dataDxfId="42"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Get URL Ready?"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Edit Entity"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="Edit  URL Ready"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="Get Usage URL"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="Get Usage Ready"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Delete URL"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Delete Ready?"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Save/Update URL"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Save/Update Ready?"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="View PDF?"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="All APIs ready?"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Testing?" dataDxfId="41"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table5" displayName="Table5" ref="A1:H23" totalsRowShown="0" headerRowDxfId="40" dataDxfId="38" headerRowBorderDxfId="39" tableBorderDxfId="37" totalsRowBorderDxfId="36">
-  <autoFilter ref="A1:H23"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table5" displayName="Table5" ref="A1:H23" totalsRowShown="0" headerRowDxfId="40" dataDxfId="38" headerRowBorderDxfId="39" tableBorderDxfId="37" totalsRowBorderDxfId="36">
+  <autoFilter ref="A1:H23" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
   <tableColumns count="8">
-    <tableColumn id="1" name="Field Description" dataDxfId="35"/>
-    <tableColumn id="2" name="Prod URL" dataDxfId="34"/>
-    <tableColumn id="3" name="Is Autocomplete?" dataDxfId="33"/>
-    <tableColumn id="4" name="Dev Done?" dataDxfId="32"/>
-    <tableColumn id="5" name="In Sync With UI?" dataDxfId="31"/>
-    <tableColumn id="6" name="Screens" dataDxfId="30"/>
-    <tableColumn id="7" name="Dev By" dataDxfId="29"/>
-    <tableColumn id="9" name="Note" dataDxfId="28"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Field Description" dataDxfId="35"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Prod URL" dataDxfId="34"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Is Autocomplete?" dataDxfId="33"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Dev Done?" dataDxfId="32"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="In Sync With UI?" dataDxfId="31"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Screens" dataDxfId="30"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Dev By" dataDxfId="29"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="Note" dataDxfId="28"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:G35" totalsRowShown="0" headerRowDxfId="27" headerRowBorderDxfId="26" tableBorderDxfId="25">
-  <autoFilter ref="A1:G35"/>
-  <sortState ref="A2:G35">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table2" displayName="Table2" ref="A1:G35" totalsRowShown="0" headerRowDxfId="27" headerRowBorderDxfId="26" tableBorderDxfId="25">
+  <autoFilter ref="A1:G35" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G35">
     <sortCondition descending="1" ref="F1:F35"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="1" name="Link Description" dataDxfId="24"/>
-    <tableColumn id="3" name="Filter" dataDxfId="23"/>
-    <tableColumn id="4" name="Prod URL" dataDxfId="22"/>
-    <tableColumn id="6" name="Dev Done?" dataDxfId="21"/>
-    <tableColumn id="2" name="UI Sync/Ingt" dataDxfId="20"/>
-    <tableColumn id="7" name="Testing?" dataDxfId="19"/>
-    <tableColumn id="5" name="Dev By" dataDxfId="18"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Link Description" dataDxfId="24"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Filter" dataDxfId="23"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Prod URL" dataDxfId="22"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="Dev Done?" dataDxfId="21"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="UI Sync/Ingt" dataDxfId="20"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0200-000007000000}" name="Testing?" dataDxfId="19"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="Dev By" dataDxfId="18"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table14" displayName="Table14" ref="A1:Q14" totalsRowShown="0" headerRowDxfId="17" dataDxfId="15" headerRowBorderDxfId="16" tableBorderDxfId="14" totalsRowBorderDxfId="13">
-  <autoFilter ref="A1:Q14"/>
-  <sortState ref="A2:J13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table14" displayName="Table14" ref="A1:Q14" totalsRowShown="0" headerRowDxfId="17" dataDxfId="15" headerRowBorderDxfId="16" tableBorderDxfId="14" totalsRowBorderDxfId="13">
+  <autoFilter ref="A1:Q14" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J13">
     <sortCondition ref="A1:A13"/>
   </sortState>
   <tableColumns count="17">
-    <tableColumn id="1" name="Link Description"/>
-    <tableColumn id="2" name="Page Id" dataDxfId="12"/>
-    <tableColumn id="3" name="Autocomplete pageIds" dataDxfId="11"/>
-    <tableColumn id="14" name="Get Prod URL - parent grid"/>
-    <tableColumn id="4" name="Get Prod URL - child grid2" dataDxfId="10"/>
-    <tableColumn id="11" name="Get URL Ready?"/>
-    <tableColumn id="5" name="Edit Entity"/>
-    <tableColumn id="16" name="Edit  URL Ready"/>
-    <tableColumn id="17" name="Extra APIs"/>
-    <tableColumn id="18" name="Extra APIs Ready"/>
-    <tableColumn id="9" name="Delete URL"/>
-    <tableColumn id="13" name="Delete Ready?"/>
-    <tableColumn id="8" name="Save/Update URL"/>
-    <tableColumn id="7" name="Save/Update Ready?"/>
-    <tableColumn id="10" name="View PDF?"/>
-    <tableColumn id="12" name="All APIs ready?"/>
-    <tableColumn id="6" name="Testing?" dataDxfId="9"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Link Description"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Page Id" dataDxfId="12"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="Autocomplete pageIds" dataDxfId="11"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0300-00000E000000}" name="Get Prod URL - parent grid"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="Get Prod URL - child grid2" dataDxfId="10"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0300-00000B000000}" name="Get URL Ready?"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="Edit Entity"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0300-000010000000}" name="Edit  URL Ready"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0300-000011000000}" name="Extra APIs"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0300-000012000000}" name="Extra APIs Ready"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0300-000009000000}" name="Delete URL"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0300-00000D000000}" name="Delete Ready?"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0300-000008000000}" name="Save/Update URL"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0300-000007000000}" name="Save/Update Ready?"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0300-00000A000000}" name="View PDF?"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0300-00000C000000}" name="All APIs ready?"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0300-000006000000}" name="Testing?" dataDxfId="9"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table145" displayName="Table145" ref="A1:Q5" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7" headerRowBorderDxfId="5" tableBorderDxfId="6" totalsRowBorderDxfId="4">
-  <autoFilter ref="A1:Q5"/>
-  <sortState ref="A2:J13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Table145" displayName="Table145" ref="A1:Q5" totalsRowShown="0" headerRowDxfId="8" dataDxfId="6" headerRowBorderDxfId="7" tableBorderDxfId="5" totalsRowBorderDxfId="4">
+  <autoFilter ref="A1:Q5" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J13">
     <sortCondition ref="A1:A13"/>
   </sortState>
   <tableColumns count="17">
-    <tableColumn id="1" name="Link Description"/>
-    <tableColumn id="2" name="Page Id" dataDxfId="3"/>
-    <tableColumn id="3" name="Autocomplete pageIds" dataDxfId="2"/>
-    <tableColumn id="14" name="Get Prod URL - parent grid"/>
-    <tableColumn id="4" name="Get Prod URL - child grid2" dataDxfId="1"/>
-    <tableColumn id="11" name="Get URL Ready?"/>
-    <tableColumn id="5" name="Edit Entity"/>
-    <tableColumn id="16" name="Edit  URL Ready"/>
-    <tableColumn id="17" name="Extra APIs"/>
-    <tableColumn id="18" name="Extra APIs Ready"/>
-    <tableColumn id="9" name="Delete URL"/>
-    <tableColumn id="13" name="Delete Ready?"/>
-    <tableColumn id="8" name="Save/Update URL"/>
-    <tableColumn id="7" name="Save/Update Ready?"/>
-    <tableColumn id="10" name="View PDF?"/>
-    <tableColumn id="12" name="All APIs ready?"/>
-    <tableColumn id="6" name="Testing?" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="Link Description"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="Page Id" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="Autocomplete pageIds" dataDxfId="2"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0400-00000E000000}" name="Get Prod URL - parent grid"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="Get Prod URL - child grid2" dataDxfId="1"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0400-00000B000000}" name="Get URL Ready?"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0400-000005000000}" name="Edit Entity"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0400-000010000000}" name="Edit  URL Ready"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0400-000011000000}" name="Extra APIs"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0400-000012000000}" name="Extra APIs Ready"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0400-000009000000}" name="Delete URL"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0400-00000D000000}" name="Delete Ready?"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0400-000008000000}" name="Save/Update URL"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0400-000007000000}" name="Save/Update Ready?"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0400-00000A000000}" name="View PDF?"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0400-00000C000000}" name="All APIs ready?"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0400-000006000000}" name="Testing?" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2586,7 +2607,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2619,9 +2640,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2654,6 +2692,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2829,34 +2884,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.109375" customWidth="1"/>
-    <col min="4" max="4" width="47.6640625" customWidth="1"/>
-    <col min="5" max="5" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.140625" customWidth="1"/>
+    <col min="4" max="4" width="47.7109375" customWidth="1"/>
+    <col min="5" max="5" width="16.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="42" customWidth="1"/>
-    <col min="7" max="7" width="16.5546875" customWidth="1"/>
-    <col min="8" max="8" width="52.44140625" customWidth="1"/>
-    <col min="9" max="9" width="16.5546875" customWidth="1"/>
-    <col min="10" max="10" width="45.6640625" customWidth="1"/>
-    <col min="11" max="11" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="42.5546875" customWidth="1"/>
-    <col min="13" max="13" width="21.109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.5703125" customWidth="1"/>
+    <col min="8" max="8" width="52.42578125" customWidth="1"/>
+    <col min="9" max="9" width="16.5703125" customWidth="1"/>
+    <col min="10" max="10" width="45.7109375" customWidth="1"/>
+    <col min="11" max="11" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="42.5703125" customWidth="1"/>
+    <col min="13" max="13" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>34</v>
       </c>
@@ -2906,7 +2961,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>55</v>
       </c>
@@ -2953,7 +3008,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="40" t="s">
         <v>12</v>
       </c>
@@ -3001,7 +3056,7 @@
       </c>
       <c r="P3" s="40"/>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="40" t="s">
         <v>7</v>
       </c>
@@ -3049,7 +3104,7 @@
       </c>
       <c r="P4" s="40"/>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="40" t="s">
         <v>52</v>
       </c>
@@ -3097,7 +3152,7 @@
       </c>
       <c r="P5" s="40"/>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="40" t="s">
         <v>53</v>
       </c>
@@ -3145,7 +3200,7 @@
       </c>
       <c r="P6" s="40"/>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>54</v>
       </c>
@@ -3192,7 +3247,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="40" t="s">
         <v>4</v>
       </c>
@@ -3240,7 +3295,7 @@
       </c>
       <c r="P8" s="40"/>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="40" t="s">
         <v>5</v>
       </c>
@@ -3288,7 +3343,7 @@
       </c>
       <c r="P9" s="40"/>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="40" t="s">
         <v>56</v>
       </c>
@@ -3336,7 +3391,7 @@
       </c>
       <c r="P10" s="40"/>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>195</v>
       </c>
@@ -3383,7 +3438,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>201</v>
       </c>
@@ -3424,7 +3479,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="16" spans="1:16">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="H16" t="s">
         <v>233</v>
       </c>
@@ -3440,26 +3495,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="47.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="30.33203125" customWidth="1"/>
-    <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="24.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="47.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.28515625" customWidth="1"/>
+    <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>95</v>
       </c>
@@ -3485,7 +3540,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="86.4">
+    <row r="2" spans="1:8" ht="105" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
         <v>80</v>
       </c>
@@ -3509,7 +3564,7 @@
       </c>
       <c r="H2" s="20"/>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
         <v>89</v>
       </c>
@@ -3531,7 +3586,7 @@
       </c>
       <c r="H3" s="21"/>
     </row>
-    <row r="4" spans="1:8" ht="115.2">
+    <row r="4" spans="1:8" ht="135" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
         <v>83</v>
       </c>
@@ -3555,7 +3610,7 @@
       </c>
       <c r="H4" s="21"/>
     </row>
-    <row r="5" spans="1:8" ht="15">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="17" t="s">
         <v>85</v>
       </c>
@@ -3575,7 +3630,7 @@
       <c r="G5" s="21"/>
       <c r="H5" s="21"/>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="17" t="s">
         <v>85</v>
       </c>
@@ -3599,7 +3654,7 @@
       </c>
       <c r="H6" s="21"/>
     </row>
-    <row r="7" spans="1:8" ht="43.2">
+    <row r="7" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A7" s="17" t="s">
         <v>99</v>
       </c>
@@ -3625,7 +3680,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="22" t="s">
         <v>87</v>
       </c>
@@ -3649,7 +3704,7 @@
       </c>
       <c r="H8" s="21"/>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="26" t="s">
         <v>83</v>
       </c>
@@ -3671,7 +3726,7 @@
       <c r="G9" s="27"/>
       <c r="H9" s="21"/>
     </row>
-    <row r="10" spans="1:8" ht="28.8">
+    <row r="10" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="22" t="s">
         <v>99</v>
       </c>
@@ -3695,7 +3750,7 @@
       </c>
       <c r="H10" s="27"/>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="26" t="s">
         <v>105</v>
       </c>
@@ -3719,7 +3774,7 @@
       </c>
       <c r="H11" s="27"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="26" t="s">
         <v>99</v>
       </c>
@@ -3739,7 +3794,7 @@
       <c r="G12" s="27"/>
       <c r="H12" s="27"/>
     </row>
-    <row r="13" spans="1:8" ht="28.8">
+    <row r="13" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="26" t="s">
         <v>110</v>
       </c>
@@ -3761,7 +3816,7 @@
       <c r="G13" s="27"/>
       <c r="H13" s="27"/>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="26" t="s">
         <v>113</v>
       </c>
@@ -3783,7 +3838,7 @@
       <c r="G14" s="27"/>
       <c r="H14" s="27"/>
     </row>
-    <row r="15" spans="1:8" ht="43.2">
+    <row r="15" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="22" t="s">
         <v>124</v>
       </c>
@@ -3805,7 +3860,7 @@
       <c r="G15" s="27"/>
       <c r="H15" s="27"/>
     </row>
-    <row r="16" spans="1:8" ht="28.8">
+    <row r="16" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="26" t="s">
         <v>123</v>
       </c>
@@ -3827,7 +3882,7 @@
       <c r="G16" s="27"/>
       <c r="H16" s="27"/>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="26" t="s">
         <v>120</v>
       </c>
@@ -3849,7 +3904,7 @@
       <c r="G17" s="27"/>
       <c r="H17" s="27"/>
     </row>
-    <row r="18" spans="1:8" ht="100.8">
+    <row r="18" spans="1:8" ht="135" x14ac:dyDescent="0.25">
       <c r="A18" s="26" t="s">
         <v>80</v>
       </c>
@@ -3871,7 +3926,7 @@
       <c r="G18" s="27"/>
       <c r="H18" s="27"/>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="26" t="s">
         <v>85</v>
       </c>
@@ -3895,7 +3950,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="22" t="s">
         <v>85</v>
       </c>
@@ -3917,7 +3972,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="26" t="s">
         <v>131</v>
       </c>
@@ -3937,7 +3992,7 @@
       <c r="G21" s="27"/>
       <c r="H21" s="27"/>
     </row>
-    <row r="22" spans="1:8" ht="43.2">
+    <row r="22" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A22" s="26" t="s">
         <v>83</v>
       </c>
@@ -3959,7 +4014,7 @@
       <c r="G22" s="27"/>
       <c r="H22" s="27"/>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="26" t="s">
         <v>80</v>
       </c>
@@ -3991,25 +4046,25 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G35"/>
   <sheetViews>
     <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="39.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="83.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="39.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="83.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>34</v>
       </c>
@@ -4032,7 +4087,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>12</v>
       </c>
@@ -4053,7 +4108,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>30</v>
       </c>
@@ -4074,7 +4129,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>26</v>
       </c>
@@ -4095,7 +4150,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>17</v>
       </c>
@@ -4116,7 +4171,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>32</v>
       </c>
@@ -4137,7 +4192,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="35" t="s">
         <v>20</v>
       </c>
@@ -4158,7 +4213,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="35" t="s">
         <v>21</v>
       </c>
@@ -4179,7 +4234,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>29</v>
       </c>
@@ -4200,7 +4255,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>33</v>
       </c>
@@ -4221,7 +4276,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>31</v>
       </c>
@@ -4242,7 +4297,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>28</v>
       </c>
@@ -4263,7 +4318,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>27</v>
       </c>
@@ -4284,7 +4339,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>25</v>
       </c>
@@ -4305,7 +4360,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>2</v>
       </c>
@@ -4326,7 +4381,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>19</v>
       </c>
@@ -4347,7 +4402,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="16" t="s">
         <v>0</v>
       </c>
@@ -4368,7 +4423,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>24</v>
       </c>
@@ -4389,7 +4444,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>11</v>
       </c>
@@ -4410,7 +4465,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>10</v>
       </c>
@@ -4431,7 +4486,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>9</v>
       </c>
@@ -4452,7 +4507,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>13</v>
       </c>
@@ -4473,7 +4528,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>18</v>
       </c>
@@ -4494,7 +4549,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="33" t="s">
         <v>1</v>
       </c>
@@ -4515,7 +4570,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>6</v>
       </c>
@@ -4536,7 +4591,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>5</v>
       </c>
@@ -4557,7 +4612,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>3</v>
       </c>
@@ -4578,7 +4633,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="29" t="s">
         <v>8</v>
       </c>
@@ -4599,7 +4654,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>7</v>
       </c>
@@ -4620,7 +4675,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>15</v>
       </c>
@@ -4641,7 +4696,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>16</v>
       </c>
@@ -4662,7 +4717,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>14</v>
       </c>
@@ -4683,7 +4738,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>22</v>
       </c>
@@ -4704,7 +4759,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="29" t="s">
         <v>23</v>
       </c>
@@ -4725,7 +4780,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
         <v>4</v>
       </c>
@@ -4748,8 +4803,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A24" location="'UDQ Filters'!G3" display="Custom Taxes"/>
-    <hyperlink ref="A17" location="'UDQ Filters'!G2" display="Tax Authority"/>
+    <hyperlink ref="A24" location="'UDQ Filters'!G3" display="Custom Taxes" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="A17" location="'UDQ Filters'!G2" display="Tax Authority" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4760,35 +4815,35 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:Q14"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23" customWidth="1"/>
-    <col min="3" max="3" width="35.6640625" customWidth="1"/>
-    <col min="4" max="4" width="35.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="48.5546875" customWidth="1"/>
-    <col min="6" max="6" width="16.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="36.44140625" customWidth="1"/>
-    <col min="8" max="8" width="16.5546875" customWidth="1"/>
-    <col min="9" max="9" width="44.44140625" customWidth="1"/>
-    <col min="10" max="10" width="16.5546875" customWidth="1"/>
-    <col min="11" max="11" width="46.6640625" customWidth="1"/>
-    <col min="12" max="12" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="45.109375" customWidth="1"/>
-    <col min="14" max="14" width="21.109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="52.7109375" customWidth="1"/>
+    <col min="4" max="4" width="35.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="48.5703125" customWidth="1"/>
+    <col min="6" max="6" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="36.42578125" customWidth="1"/>
+    <col min="8" max="8" width="16.5703125" customWidth="1"/>
+    <col min="9" max="9" width="44.42578125" customWidth="1"/>
+    <col min="10" max="10" width="16.5703125" customWidth="1"/>
+    <col min="11" max="11" width="46.7109375" customWidth="1"/>
+    <col min="12" max="12" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="45.140625" customWidth="1"/>
+    <col min="14" max="14" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>34</v>
       </c>
@@ -4841,7 +4896,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>185</v>
       </c>
@@ -4885,7 +4940,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>186</v>
       </c>
@@ -4929,7 +4984,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>187</v>
       </c>
@@ -4973,7 +5028,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>188</v>
       </c>
@@ -5023,7 +5078,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>189</v>
       </c>
@@ -5061,42 +5116,42 @@
         <v>66</v>
       </c>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="10" spans="1:17">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="11" spans="1:17">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="12" spans="1:17">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="13" spans="1:17">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="14" spans="1:17">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>215</v>
       </c>
@@ -5127,25 +5182,25 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A2:H410"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="19.88671875" customWidth="1"/>
-    <col min="3" max="3" width="17.33203125" customWidth="1"/>
-    <col min="4" max="4" width="18.33203125" customWidth="1"/>
-    <col min="5" max="5" width="22.88671875" customWidth="1"/>
-    <col min="6" max="6" width="26.5546875" customWidth="1"/>
-    <col min="7" max="7" width="23.88671875" customWidth="1"/>
-    <col min="8" max="10" width="17.109375" customWidth="1"/>
+    <col min="2" max="2" width="19.85546875" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" customWidth="1"/>
+    <col min="5" max="5" width="22.85546875" customWidth="1"/>
+    <col min="6" max="6" width="26.5703125" customWidth="1"/>
+    <col min="7" max="7" width="23.85546875" customWidth="1"/>
+    <col min="8" max="10" width="17.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" ht="15">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B2" s="43" t="s">
         <v>220</v>
       </c>
@@ -5168,7 +5223,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -5180,7 +5235,7 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="1:8" ht="15">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -5192,7 +5247,7 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="1:8" ht="15">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -5204,7 +5259,7 @@
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
     </row>
-    <row r="6" spans="1:8" ht="15">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -5216,7 +5271,7 @@
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
     </row>
-    <row r="7" spans="1:8" ht="15">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -5228,7 +5283,7 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
     </row>
-    <row r="8" spans="1:8" ht="15">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -5240,7 +5295,7 @@
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
     </row>
-    <row r="9" spans="1:8" ht="15">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -5252,7 +5307,7 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
     </row>
-    <row r="10" spans="1:8" ht="15">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -5264,7 +5319,7 @@
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
     </row>
-    <row r="11" spans="1:8" ht="15">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -5276,7 +5331,7 @@
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
     </row>
-    <row r="12" spans="1:8" ht="15">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
@@ -5288,7 +5343,7 @@
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
     </row>
-    <row r="13" spans="1:8" ht="15">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
@@ -5300,7 +5355,7 @@
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
     </row>
-    <row r="14" spans="1:8" ht="15">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
@@ -5312,7 +5367,7 @@
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
     </row>
-    <row r="15" spans="1:8" ht="15">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
@@ -5324,7 +5379,7 @@
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
     </row>
-    <row r="16" spans="1:8" ht="15">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
@@ -5336,7 +5391,7 @@
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
     </row>
-    <row r="17" spans="1:8" ht="15">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>15</v>
       </c>
@@ -5348,7 +5403,7 @@
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
     </row>
-    <row r="18" spans="1:8" ht="15">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>16</v>
       </c>
@@ -5360,7 +5415,7 @@
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
     </row>
-    <row r="19" spans="1:8" ht="15">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>17</v>
       </c>
@@ -5372,7 +5427,7 @@
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
     </row>
-    <row r="20" spans="1:8" ht="15">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>18</v>
       </c>
@@ -5384,7 +5439,7 @@
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
     </row>
-    <row r="21" spans="1:8" ht="15">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>19</v>
       </c>
@@ -5396,7 +5451,7 @@
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
     </row>
-    <row r="22" spans="1:8" ht="15">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>20</v>
       </c>
@@ -5408,7 +5463,7 @@
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
     </row>
-    <row r="23" spans="1:8" ht="15">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>21</v>
       </c>
@@ -5420,7 +5475,7 @@
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
     </row>
-    <row r="24" spans="1:8" ht="15">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>22</v>
       </c>
@@ -5432,7 +5487,7 @@
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
     </row>
-    <row r="25" spans="1:8" ht="15">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>23</v>
       </c>
@@ -5444,7 +5499,7 @@
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
     </row>
-    <row r="26" spans="1:8" ht="15">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>24</v>
       </c>
@@ -5456,7 +5511,7 @@
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
     </row>
-    <row r="27" spans="1:8" ht="15">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>25</v>
       </c>
@@ -5468,7 +5523,7 @@
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
     </row>
-    <row r="28" spans="1:8" ht="15">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>26</v>
       </c>
@@ -5480,7 +5535,7 @@
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
     </row>
-    <row r="29" spans="1:8" ht="15">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>27</v>
       </c>
@@ -5492,7 +5547,7 @@
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
     </row>
-    <row r="30" spans="1:8" ht="15">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>28</v>
       </c>
@@ -5504,7 +5559,7 @@
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
     </row>
-    <row r="31" spans="1:8" ht="15">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>29</v>
       </c>
@@ -5516,7 +5571,7 @@
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
     </row>
-    <row r="32" spans="1:8" ht="15">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>30</v>
       </c>
@@ -5528,7 +5583,7 @@
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
     </row>
-    <row r="33" spans="1:8" ht="15">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>31</v>
       </c>
@@ -5540,7 +5595,7 @@
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
     </row>
-    <row r="34" spans="1:8" ht="15">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>32</v>
       </c>
@@ -5552,7 +5607,7 @@
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
     </row>
-    <row r="35" spans="1:8" ht="15">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>33</v>
       </c>
@@ -5564,7 +5619,7 @@
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
     </row>
-    <row r="36" spans="1:8" ht="15">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>34</v>
       </c>
@@ -5576,7 +5631,7 @@
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
     </row>
-    <row r="37" spans="1:8" ht="15">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>35</v>
       </c>
@@ -5588,7 +5643,7 @@
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
     </row>
-    <row r="38" spans="1:8" ht="15">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>36</v>
       </c>
@@ -5600,7 +5655,7 @@
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
     </row>
-    <row r="39" spans="1:8" ht="15">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>37</v>
       </c>
@@ -5612,7 +5667,7 @@
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
     </row>
-    <row r="40" spans="1:8" ht="15">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>38</v>
       </c>
@@ -5624,7 +5679,7 @@
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
     </row>
-    <row r="41" spans="1:8" ht="15">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>39</v>
       </c>
@@ -5636,7 +5691,7 @@
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
     </row>
-    <row r="42" spans="1:8" ht="15">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>40</v>
       </c>
@@ -5648,7 +5703,7 @@
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>41</v>
       </c>
@@ -5660,7 +5715,7 @@
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>42</v>
       </c>
@@ -5672,7 +5727,7 @@
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>43</v>
       </c>
@@ -5684,7 +5739,7 @@
       <c r="G45" s="1"/>
       <c r="H45" s="1"/>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>44</v>
       </c>
@@ -5696,7 +5751,7 @@
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
     </row>
-    <row r="47" spans="1:8">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>45</v>
       </c>
@@ -5708,7 +5763,7 @@
       <c r="G47" s="1"/>
       <c r="H47" s="1"/>
     </row>
-    <row r="48" spans="1:8">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>46</v>
       </c>
@@ -5720,7 +5775,7 @@
       <c r="G48" s="1"/>
       <c r="H48" s="1"/>
     </row>
-    <row r="49" spans="1:8">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>47</v>
       </c>
@@ -5732,7 +5787,7 @@
       <c r="G49" s="1"/>
       <c r="H49" s="1"/>
     </row>
-    <row r="50" spans="1:8">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>48</v>
       </c>
@@ -5744,7 +5799,7 @@
       <c r="G50" s="1"/>
       <c r="H50" s="1"/>
     </row>
-    <row r="51" spans="1:8">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>49</v>
       </c>
@@ -5756,7 +5811,7 @@
       <c r="G51" s="1"/>
       <c r="H51" s="1"/>
     </row>
-    <row r="52" spans="1:8">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>50</v>
       </c>
@@ -5768,7 +5823,7 @@
       <c r="G52" s="1"/>
       <c r="H52" s="1"/>
     </row>
-    <row r="53" spans="1:8">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>51</v>
       </c>
@@ -5780,7 +5835,7 @@
       <c r="G53" s="1"/>
       <c r="H53" s="1"/>
     </row>
-    <row r="54" spans="1:8">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>52</v>
       </c>
@@ -5792,7 +5847,7 @@
       <c r="G54" s="1"/>
       <c r="H54" s="1"/>
     </row>
-    <row r="55" spans="1:8">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>53</v>
       </c>
@@ -5804,7 +5859,7 @@
       <c r="G55" s="1"/>
       <c r="H55" s="1"/>
     </row>
-    <row r="56" spans="1:8">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>54</v>
       </c>
@@ -5816,7 +5871,7 @@
       <c r="G56" s="1"/>
       <c r="H56" s="1"/>
     </row>
-    <row r="57" spans="1:8">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>55</v>
       </c>
@@ -5828,7 +5883,7 @@
       <c r="G57" s="1"/>
       <c r="H57" s="1"/>
     </row>
-    <row r="58" spans="1:8">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>56</v>
       </c>
@@ -5840,7 +5895,7 @@
       <c r="G58" s="1"/>
       <c r="H58" s="1"/>
     </row>
-    <row r="59" spans="1:8">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>57</v>
       </c>
@@ -5852,7 +5907,7 @@
       <c r="G59" s="1"/>
       <c r="H59" s="1"/>
     </row>
-    <row r="60" spans="1:8">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>58</v>
       </c>
@@ -5864,7 +5919,7 @@
       <c r="G60" s="1"/>
       <c r="H60" s="1"/>
     </row>
-    <row r="61" spans="1:8">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>59</v>
       </c>
@@ -5876,7 +5931,7 @@
       <c r="G61" s="1"/>
       <c r="H61" s="1"/>
     </row>
-    <row r="62" spans="1:8">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>60</v>
       </c>
@@ -5888,7 +5943,7 @@
       <c r="G62" s="1"/>
       <c r="H62" s="1"/>
     </row>
-    <row r="63" spans="1:8">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>61</v>
       </c>
@@ -5900,7 +5955,7 @@
       <c r="G63" s="1"/>
       <c r="H63" s="1"/>
     </row>
-    <row r="64" spans="1:8">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>62</v>
       </c>
@@ -5912,7 +5967,7 @@
       <c r="G64" s="1"/>
       <c r="H64" s="1"/>
     </row>
-    <row r="65" spans="1:8">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>63</v>
       </c>
@@ -5924,7 +5979,7 @@
       <c r="G65" s="1"/>
       <c r="H65" s="1"/>
     </row>
-    <row r="66" spans="1:8">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>64</v>
       </c>
@@ -5936,7 +5991,7 @@
       <c r="G66" s="1"/>
       <c r="H66" s="1"/>
     </row>
-    <row r="67" spans="1:8">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>65</v>
       </c>
@@ -5948,7 +6003,7 @@
       <c r="G67" s="1"/>
       <c r="H67" s="1"/>
     </row>
-    <row r="68" spans="1:8">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>66</v>
       </c>
@@ -5960,7 +6015,7 @@
       <c r="G68" s="1"/>
       <c r="H68" s="1"/>
     </row>
-    <row r="69" spans="1:8">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>67</v>
       </c>
@@ -5972,7 +6027,7 @@
       <c r="G69" s="1"/>
       <c r="H69" s="1"/>
     </row>
-    <row r="70" spans="1:8">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>68</v>
       </c>
@@ -5984,7 +6039,7 @@
       <c r="G70" s="1"/>
       <c r="H70" s="1"/>
     </row>
-    <row r="71" spans="1:8">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>69</v>
       </c>
@@ -5996,7 +6051,7 @@
       <c r="G71" s="1"/>
       <c r="H71" s="1"/>
     </row>
-    <row r="72" spans="1:8">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>70</v>
       </c>
@@ -6008,7 +6063,7 @@
       <c r="G72" s="1"/>
       <c r="H72" s="1"/>
     </row>
-    <row r="73" spans="1:8">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>71</v>
       </c>
@@ -6020,7 +6075,7 @@
       <c r="G73" s="1"/>
       <c r="H73" s="1"/>
     </row>
-    <row r="74" spans="1:8">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>72</v>
       </c>
@@ -6032,7 +6087,7 @@
       <c r="G74" s="1"/>
       <c r="H74" s="1"/>
     </row>
-    <row r="75" spans="1:8">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>73</v>
       </c>
@@ -6044,7 +6099,7 @@
       <c r="G75" s="1"/>
       <c r="H75" s="1"/>
     </row>
-    <row r="76" spans="1:8">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>74</v>
       </c>
@@ -6056,7 +6111,7 @@
       <c r="G76" s="1"/>
       <c r="H76" s="1"/>
     </row>
-    <row r="77" spans="1:8">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>75</v>
       </c>
@@ -6068,7 +6123,7 @@
       <c r="G77" s="1"/>
       <c r="H77" s="1"/>
     </row>
-    <row r="78" spans="1:8">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>76</v>
       </c>
@@ -6080,7 +6135,7 @@
       <c r="G78" s="1"/>
       <c r="H78" s="1"/>
     </row>
-    <row r="79" spans="1:8">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>77</v>
       </c>
@@ -6092,7 +6147,7 @@
       <c r="G79" s="1"/>
       <c r="H79" s="1"/>
     </row>
-    <row r="80" spans="1:8">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>78</v>
       </c>
@@ -6104,7 +6159,7 @@
       <c r="G80" s="1"/>
       <c r="H80" s="1"/>
     </row>
-    <row r="81" spans="1:8">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>79</v>
       </c>
@@ -6116,7 +6171,7 @@
       <c r="G81" s="1"/>
       <c r="H81" s="1"/>
     </row>
-    <row r="82" spans="1:8">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>80</v>
       </c>
@@ -6128,7 +6183,7 @@
       <c r="G82" s="1"/>
       <c r="H82" s="1"/>
     </row>
-    <row r="83" spans="1:8">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>81</v>
       </c>
@@ -6140,7 +6195,7 @@
       <c r="G83" s="1"/>
       <c r="H83" s="1"/>
     </row>
-    <row r="84" spans="1:8">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>82</v>
       </c>
@@ -6152,7 +6207,7 @@
       <c r="G84" s="1"/>
       <c r="H84" s="1"/>
     </row>
-    <row r="85" spans="1:8">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>83</v>
       </c>
@@ -6164,7 +6219,7 @@
       <c r="G85" s="1"/>
       <c r="H85" s="1"/>
     </row>
-    <row r="86" spans="1:8">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>84</v>
       </c>
@@ -6176,7 +6231,7 @@
       <c r="G86" s="1"/>
       <c r="H86" s="1"/>
     </row>
-    <row r="87" spans="1:8">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>85</v>
       </c>
@@ -6188,7 +6243,7 @@
       <c r="G87" s="1"/>
       <c r="H87" s="1"/>
     </row>
-    <row r="88" spans="1:8">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>86</v>
       </c>
@@ -6200,7 +6255,7 @@
       <c r="G88" s="1"/>
       <c r="H88" s="1"/>
     </row>
-    <row r="89" spans="1:8">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>87</v>
       </c>
@@ -6212,7 +6267,7 @@
       <c r="G89" s="1"/>
       <c r="H89" s="1"/>
     </row>
-    <row r="90" spans="1:8">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>88</v>
       </c>
@@ -6224,7 +6279,7 @@
       <c r="G90" s="1"/>
       <c r="H90" s="1"/>
     </row>
-    <row r="91" spans="1:8">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>89</v>
       </c>
@@ -6236,7 +6291,7 @@
       <c r="G91" s="1"/>
       <c r="H91" s="1"/>
     </row>
-    <row r="92" spans="1:8">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>90</v>
       </c>
@@ -6248,7 +6303,7 @@
       <c r="G92" s="1"/>
       <c r="H92" s="1"/>
     </row>
-    <row r="93" spans="1:8">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>91</v>
       </c>
@@ -6260,7 +6315,7 @@
       <c r="G93" s="1"/>
       <c r="H93" s="1"/>
     </row>
-    <row r="94" spans="1:8">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>92</v>
       </c>
@@ -6272,7 +6327,7 @@
       <c r="G94" s="1"/>
       <c r="H94" s="1"/>
     </row>
-    <row r="95" spans="1:8">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>93</v>
       </c>
@@ -6284,7 +6339,7 @@
       <c r="G95" s="1"/>
       <c r="H95" s="1"/>
     </row>
-    <row r="96" spans="1:8">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>94</v>
       </c>
@@ -6296,7 +6351,7 @@
       <c r="G96" s="1"/>
       <c r="H96" s="1"/>
     </row>
-    <row r="97" spans="1:8">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>95</v>
       </c>
@@ -6308,7 +6363,7 @@
       <c r="G97" s="1"/>
       <c r="H97" s="1"/>
     </row>
-    <row r="98" spans="1:8">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>96</v>
       </c>
@@ -6320,7 +6375,7 @@
       <c r="G98" s="1"/>
       <c r="H98" s="1"/>
     </row>
-    <row r="99" spans="1:8">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>97</v>
       </c>
@@ -6332,7 +6387,7 @@
       <c r="G99" s="1"/>
       <c r="H99" s="1"/>
     </row>
-    <row r="100" spans="1:8">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>98</v>
       </c>
@@ -6344,7 +6399,7 @@
       <c r="G100" s="1"/>
       <c r="H100" s="1"/>
     </row>
-    <row r="101" spans="1:8">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>99</v>
       </c>
@@ -6356,7 +6411,7 @@
       <c r="G101" s="1"/>
       <c r="H101" s="1"/>
     </row>
-    <row r="102" spans="1:8">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>100</v>
       </c>
@@ -6368,7 +6423,7 @@
       <c r="G102" s="1"/>
       <c r="H102" s="1"/>
     </row>
-    <row r="103" spans="1:8">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>101</v>
       </c>
@@ -6380,7 +6435,7 @@
       <c r="G103" s="1"/>
       <c r="H103" s="1"/>
     </row>
-    <row r="104" spans="1:8">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>102</v>
       </c>
@@ -6392,7 +6447,7 @@
       <c r="G104" s="1"/>
       <c r="H104" s="1"/>
     </row>
-    <row r="105" spans="1:8">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>103</v>
       </c>
@@ -6404,7 +6459,7 @@
       <c r="G105" s="1"/>
       <c r="H105" s="1"/>
     </row>
-    <row r="106" spans="1:8">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>104</v>
       </c>
@@ -6416,7 +6471,7 @@
       <c r="G106" s="1"/>
       <c r="H106" s="1"/>
     </row>
-    <row r="107" spans="1:8">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>105</v>
       </c>
@@ -6428,7 +6483,7 @@
       <c r="G107" s="1"/>
       <c r="H107" s="1"/>
     </row>
-    <row r="108" spans="1:8">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>106</v>
       </c>
@@ -6440,7 +6495,7 @@
       <c r="G108" s="1"/>
       <c r="H108" s="1"/>
     </row>
-    <row r="109" spans="1:8">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>107</v>
       </c>
@@ -6452,7 +6507,7 @@
       <c r="G109" s="1"/>
       <c r="H109" s="1"/>
     </row>
-    <row r="110" spans="1:8">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>108</v>
       </c>
@@ -6464,7 +6519,7 @@
       <c r="G110" s="1"/>
       <c r="H110" s="1"/>
     </row>
-    <row r="111" spans="1:8">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>109</v>
       </c>
@@ -6476,7 +6531,7 @@
       <c r="G111" s="1"/>
       <c r="H111" s="1"/>
     </row>
-    <row r="112" spans="1:8">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>110</v>
       </c>
@@ -6488,7 +6543,7 @@
       <c r="G112" s="1"/>
       <c r="H112" s="1"/>
     </row>
-    <row r="113" spans="1:8">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>111</v>
       </c>
@@ -6500,7 +6555,7 @@
       <c r="G113" s="1"/>
       <c r="H113" s="1"/>
     </row>
-    <row r="114" spans="1:8">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>112</v>
       </c>
@@ -6512,7 +6567,7 @@
       <c r="G114" s="1"/>
       <c r="H114" s="1"/>
     </row>
-    <row r="115" spans="1:8">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>113</v>
       </c>
@@ -6524,7 +6579,7 @@
       <c r="G115" s="1"/>
       <c r="H115" s="1"/>
     </row>
-    <row r="116" spans="1:8">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>114</v>
       </c>
@@ -6536,7 +6591,7 @@
       <c r="G116" s="1"/>
       <c r="H116" s="1"/>
     </row>
-    <row r="117" spans="1:8">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>115</v>
       </c>
@@ -6548,7 +6603,7 @@
       <c r="G117" s="1"/>
       <c r="H117" s="1"/>
     </row>
-    <row r="118" spans="1:8">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>116</v>
       </c>
@@ -6560,7 +6615,7 @@
       <c r="G118" s="1"/>
       <c r="H118" s="1"/>
     </row>
-    <row r="119" spans="1:8">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>117</v>
       </c>
@@ -6572,7 +6627,7 @@
       <c r="G119" s="1"/>
       <c r="H119" s="1"/>
     </row>
-    <row r="120" spans="1:8">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>118</v>
       </c>
@@ -6584,7 +6639,7 @@
       <c r="G120" s="1"/>
       <c r="H120" s="1"/>
     </row>
-    <row r="121" spans="1:8">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>119</v>
       </c>
@@ -6596,7 +6651,7 @@
       <c r="G121" s="1"/>
       <c r="H121" s="1"/>
     </row>
-    <row r="122" spans="1:8">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>120</v>
       </c>
@@ -6608,7 +6663,7 @@
       <c r="G122" s="1"/>
       <c r="H122" s="1"/>
     </row>
-    <row r="123" spans="1:8">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>121</v>
       </c>
@@ -6620,7 +6675,7 @@
       <c r="G123" s="1"/>
       <c r="H123" s="1"/>
     </row>
-    <row r="124" spans="1:8">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>122</v>
       </c>
@@ -6632,7 +6687,7 @@
       <c r="G124" s="1"/>
       <c r="H124" s="1"/>
     </row>
-    <row r="125" spans="1:8">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>123</v>
       </c>
@@ -6644,7 +6699,7 @@
       <c r="G125" s="1"/>
       <c r="H125" s="1"/>
     </row>
-    <row r="126" spans="1:8">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>124</v>
       </c>
@@ -6656,7 +6711,7 @@
       <c r="G126" s="1"/>
       <c r="H126" s="1"/>
     </row>
-    <row r="127" spans="1:8">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>125</v>
       </c>
@@ -6668,7 +6723,7 @@
       <c r="G127" s="1"/>
       <c r="H127" s="1"/>
     </row>
-    <row r="128" spans="1:8">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>126</v>
       </c>
@@ -6680,7 +6735,7 @@
       <c r="G128" s="1"/>
       <c r="H128" s="1"/>
     </row>
-    <row r="129" spans="1:8">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>127</v>
       </c>
@@ -6692,7 +6747,7 @@
       <c r="G129" s="1"/>
       <c r="H129" s="1"/>
     </row>
-    <row r="130" spans="1:8">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>128</v>
       </c>
@@ -6704,7 +6759,7 @@
       <c r="G130" s="1"/>
       <c r="H130" s="1"/>
     </row>
-    <row r="131" spans="1:8">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>129</v>
       </c>
@@ -6716,7 +6771,7 @@
       <c r="G131" s="1"/>
       <c r="H131" s="1"/>
     </row>
-    <row r="132" spans="1:8">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>130</v>
       </c>
@@ -6728,7 +6783,7 @@
       <c r="G132" s="1"/>
       <c r="H132" s="1"/>
     </row>
-    <row r="133" spans="1:8">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>131</v>
       </c>
@@ -6740,7 +6795,7 @@
       <c r="G133" s="1"/>
       <c r="H133" s="1"/>
     </row>
-    <row r="134" spans="1:8">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>132</v>
       </c>
@@ -6752,7 +6807,7 @@
       <c r="G134" s="1"/>
       <c r="H134" s="1"/>
     </row>
-    <row r="135" spans="1:8">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>133</v>
       </c>
@@ -6764,7 +6819,7 @@
       <c r="G135" s="1"/>
       <c r="H135" s="1"/>
     </row>
-    <row r="136" spans="1:8">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>134</v>
       </c>
@@ -6776,7 +6831,7 @@
       <c r="G136" s="1"/>
       <c r="H136" s="1"/>
     </row>
-    <row r="137" spans="1:8">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>135</v>
       </c>
@@ -6788,7 +6843,7 @@
       <c r="G137" s="1"/>
       <c r="H137" s="1"/>
     </row>
-    <row r="138" spans="1:8">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>136</v>
       </c>
@@ -6800,7 +6855,7 @@
       <c r="G138" s="1"/>
       <c r="H138" s="1"/>
     </row>
-    <row r="139" spans="1:8">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>137</v>
       </c>
@@ -6812,7 +6867,7 @@
       <c r="G139" s="1"/>
       <c r="H139" s="1"/>
     </row>
-    <row r="140" spans="1:8">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>138</v>
       </c>
@@ -6824,7 +6879,7 @@
       <c r="G140" s="1"/>
       <c r="H140" s="1"/>
     </row>
-    <row r="141" spans="1:8">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>139</v>
       </c>
@@ -6836,7 +6891,7 @@
       <c r="G141" s="1"/>
       <c r="H141" s="1"/>
     </row>
-    <row r="142" spans="1:8">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>140</v>
       </c>
@@ -6848,7 +6903,7 @@
       <c r="G142" s="1"/>
       <c r="H142" s="1"/>
     </row>
-    <row r="143" spans="1:8">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>141</v>
       </c>
@@ -6860,7 +6915,7 @@
       <c r="G143" s="1"/>
       <c r="H143" s="1"/>
     </row>
-    <row r="144" spans="1:8">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>142</v>
       </c>
@@ -6872,7 +6927,7 @@
       <c r="G144" s="1"/>
       <c r="H144" s="1"/>
     </row>
-    <row r="145" spans="1:8">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>143</v>
       </c>
@@ -6884,7 +6939,7 @@
       <c r="G145" s="1"/>
       <c r="H145" s="1"/>
     </row>
-    <row r="146" spans="1:8">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>144</v>
       </c>
@@ -6896,7 +6951,7 @@
       <c r="G146" s="1"/>
       <c r="H146" s="1"/>
     </row>
-    <row r="147" spans="1:8">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>145</v>
       </c>
@@ -6908,7 +6963,7 @@
       <c r="G147" s="1"/>
       <c r="H147" s="1"/>
     </row>
-    <row r="148" spans="1:8">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>146</v>
       </c>
@@ -6920,7 +6975,7 @@
       <c r="G148" s="1"/>
       <c r="H148" s="1"/>
     </row>
-    <row r="149" spans="1:8">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>147</v>
       </c>
@@ -6932,7 +6987,7 @@
       <c r="G149" s="1"/>
       <c r="H149" s="1"/>
     </row>
-    <row r="150" spans="1:8">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>148</v>
       </c>
@@ -6944,7 +6999,7 @@
       <c r="G150" s="1"/>
       <c r="H150" s="1"/>
     </row>
-    <row r="151" spans="1:8">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>149</v>
       </c>
@@ -6956,7 +7011,7 @@
       <c r="G151" s="1"/>
       <c r="H151" s="1"/>
     </row>
-    <row r="152" spans="1:8">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>150</v>
       </c>
@@ -6968,7 +7023,7 @@
       <c r="G152" s="1"/>
       <c r="H152" s="1"/>
     </row>
-    <row r="153" spans="1:8">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>151</v>
       </c>
@@ -6980,7 +7035,7 @@
       <c r="G153" s="1"/>
       <c r="H153" s="1"/>
     </row>
-    <row r="154" spans="1:8">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>152</v>
       </c>
@@ -6992,7 +7047,7 @@
       <c r="G154" s="1"/>
       <c r="H154" s="1"/>
     </row>
-    <row r="155" spans="1:8">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>153</v>
       </c>
@@ -7004,7 +7059,7 @@
       <c r="G155" s="1"/>
       <c r="H155" s="1"/>
     </row>
-    <row r="156" spans="1:8">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>154</v>
       </c>
@@ -7016,7 +7071,7 @@
       <c r="G156" s="1"/>
       <c r="H156" s="1"/>
     </row>
-    <row r="157" spans="1:8">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>155</v>
       </c>
@@ -7028,7 +7083,7 @@
       <c r="G157" s="1"/>
       <c r="H157" s="1"/>
     </row>
-    <row r="158" spans="1:8">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>156</v>
       </c>
@@ -7040,7 +7095,7 @@
       <c r="G158" s="1"/>
       <c r="H158" s="1"/>
     </row>
-    <row r="159" spans="1:8">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>157</v>
       </c>
@@ -7052,7 +7107,7 @@
       <c r="G159" s="1"/>
       <c r="H159" s="1"/>
     </row>
-    <row r="160" spans="1:8">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>158</v>
       </c>
@@ -7064,7 +7119,7 @@
       <c r="G160" s="1"/>
       <c r="H160" s="1"/>
     </row>
-    <row r="161" spans="1:8">
+    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>159</v>
       </c>
@@ -7076,7 +7131,7 @@
       <c r="G161" s="1"/>
       <c r="H161" s="1"/>
     </row>
-    <row r="162" spans="1:8">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>160</v>
       </c>
@@ -7088,7 +7143,7 @@
       <c r="G162" s="1"/>
       <c r="H162" s="1"/>
     </row>
-    <row r="163" spans="1:8">
+    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>161</v>
       </c>
@@ -7100,7 +7155,7 @@
       <c r="G163" s="1"/>
       <c r="H163" s="1"/>
     </row>
-    <row r="164" spans="1:8">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>162</v>
       </c>
@@ -7112,7 +7167,7 @@
       <c r="G164" s="1"/>
       <c r="H164" s="1"/>
     </row>
-    <row r="165" spans="1:8">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>163</v>
       </c>
@@ -7124,7 +7179,7 @@
       <c r="G165" s="1"/>
       <c r="H165" s="1"/>
     </row>
-    <row r="166" spans="1:8">
+    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>164</v>
       </c>
@@ -7136,7 +7191,7 @@
       <c r="G166" s="1"/>
       <c r="H166" s="1"/>
     </row>
-    <row r="167" spans="1:8">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>165</v>
       </c>
@@ -7148,7 +7203,7 @@
       <c r="G167" s="1"/>
       <c r="H167" s="1"/>
     </row>
-    <row r="168" spans="1:8">
+    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>166</v>
       </c>
@@ -7160,7 +7215,7 @@
       <c r="G168" s="1"/>
       <c r="H168" s="1"/>
     </row>
-    <row r="169" spans="1:8">
+    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>167</v>
       </c>
@@ -7172,7 +7227,7 @@
       <c r="G169" s="1"/>
       <c r="H169" s="1"/>
     </row>
-    <row r="170" spans="1:8">
+    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>168</v>
       </c>
@@ -7184,7 +7239,7 @@
       <c r="G170" s="1"/>
       <c r="H170" s="1"/>
     </row>
-    <row r="171" spans="1:8">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>169</v>
       </c>
@@ -7196,7 +7251,7 @@
       <c r="G171" s="1"/>
       <c r="H171" s="1"/>
     </row>
-    <row r="172" spans="1:8">
+    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>170</v>
       </c>
@@ -7208,7 +7263,7 @@
       <c r="G172" s="1"/>
       <c r="H172" s="1"/>
     </row>
-    <row r="173" spans="1:8">
+    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>171</v>
       </c>
@@ -7220,7 +7275,7 @@
       <c r="G173" s="1"/>
       <c r="H173" s="1"/>
     </row>
-    <row r="174" spans="1:8">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>172</v>
       </c>
@@ -7232,7 +7287,7 @@
       <c r="G174" s="1"/>
       <c r="H174" s="1"/>
     </row>
-    <row r="175" spans="1:8">
+    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>173</v>
       </c>
@@ -7244,7 +7299,7 @@
       <c r="G175" s="1"/>
       <c r="H175" s="1"/>
     </row>
-    <row r="176" spans="1:8">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>174</v>
       </c>
@@ -7256,7 +7311,7 @@
       <c r="G176" s="1"/>
       <c r="H176" s="1"/>
     </row>
-    <row r="177" spans="1:8">
+    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>175</v>
       </c>
@@ -7268,7 +7323,7 @@
       <c r="G177" s="1"/>
       <c r="H177" s="1"/>
     </row>
-    <row r="178" spans="1:8">
+    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>176</v>
       </c>
@@ -7280,7 +7335,7 @@
       <c r="G178" s="1"/>
       <c r="H178" s="1"/>
     </row>
-    <row r="179" spans="1:8">
+    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>177</v>
       </c>
@@ -7292,7 +7347,7 @@
       <c r="G179" s="1"/>
       <c r="H179" s="1"/>
     </row>
-    <row r="180" spans="1:8">
+    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>178</v>
       </c>
@@ -7304,7 +7359,7 @@
       <c r="G180" s="1"/>
       <c r="H180" s="1"/>
     </row>
-    <row r="181" spans="1:8">
+    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>179</v>
       </c>
@@ -7316,7 +7371,7 @@
       <c r="G181" s="1"/>
       <c r="H181" s="1"/>
     </row>
-    <row r="182" spans="1:8">
+    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>180</v>
       </c>
@@ -7328,7 +7383,7 @@
       <c r="G182" s="1"/>
       <c r="H182" s="1"/>
     </row>
-    <row r="183" spans="1:8">
+    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>181</v>
       </c>
@@ -7340,7 +7395,7 @@
       <c r="G183" s="1"/>
       <c r="H183" s="1"/>
     </row>
-    <row r="184" spans="1:8">
+    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>182</v>
       </c>
@@ -7352,7 +7407,7 @@
       <c r="G184" s="1"/>
       <c r="H184" s="1"/>
     </row>
-    <row r="185" spans="1:8">
+    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>183</v>
       </c>
@@ -7364,7 +7419,7 @@
       <c r="G185" s="1"/>
       <c r="H185" s="1"/>
     </row>
-    <row r="186" spans="1:8">
+    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>184</v>
       </c>
@@ -7376,7 +7431,7 @@
       <c r="G186" s="1"/>
       <c r="H186" s="1"/>
     </row>
-    <row r="187" spans="1:8">
+    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>185</v>
       </c>
@@ -7388,7 +7443,7 @@
       <c r="G187" s="1"/>
       <c r="H187" s="1"/>
     </row>
-    <row r="188" spans="1:8">
+    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>186</v>
       </c>
@@ -7400,7 +7455,7 @@
       <c r="G188" s="1"/>
       <c r="H188" s="1"/>
     </row>
-    <row r="189" spans="1:8">
+    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>187</v>
       </c>
@@ -7412,7 +7467,7 @@
       <c r="G189" s="1"/>
       <c r="H189" s="1"/>
     </row>
-    <row r="190" spans="1:8">
+    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>188</v>
       </c>
@@ -7424,7 +7479,7 @@
       <c r="G190" s="1"/>
       <c r="H190" s="1"/>
     </row>
-    <row r="191" spans="1:8">
+    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>189</v>
       </c>
@@ -7436,7 +7491,7 @@
       <c r="G191" s="1"/>
       <c r="H191" s="1"/>
     </row>
-    <row r="192" spans="1:8">
+    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>190</v>
       </c>
@@ -7448,7 +7503,7 @@
       <c r="G192" s="1"/>
       <c r="H192" s="1"/>
     </row>
-    <row r="193" spans="1:8">
+    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>191</v>
       </c>
@@ -7460,7 +7515,7 @@
       <c r="G193" s="1"/>
       <c r="H193" s="1"/>
     </row>
-    <row r="194" spans="1:8">
+    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>192</v>
       </c>
@@ -7472,7 +7527,7 @@
       <c r="G194" s="1"/>
       <c r="H194" s="1"/>
     </row>
-    <row r="195" spans="1:8">
+    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>193</v>
       </c>
@@ -7484,7 +7539,7 @@
       <c r="G195" s="1"/>
       <c r="H195" s="1"/>
     </row>
-    <row r="196" spans="1:8">
+    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>194</v>
       </c>
@@ -7496,7 +7551,7 @@
       <c r="G196" s="1"/>
       <c r="H196" s="1"/>
     </row>
-    <row r="197" spans="1:8">
+    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>195</v>
       </c>
@@ -7508,7 +7563,7 @@
       <c r="G197" s="1"/>
       <c r="H197" s="1"/>
     </row>
-    <row r="198" spans="1:8">
+    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>196</v>
       </c>
@@ -7520,7 +7575,7 @@
       <c r="G198" s="1"/>
       <c r="H198" s="1"/>
     </row>
-    <row r="199" spans="1:8">
+    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>197</v>
       </c>
@@ -7532,7 +7587,7 @@
       <c r="G199" s="1"/>
       <c r="H199" s="1"/>
     </row>
-    <row r="200" spans="1:8">
+    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>198</v>
       </c>
@@ -7544,7 +7599,7 @@
       <c r="G200" s="1"/>
       <c r="H200" s="1"/>
     </row>
-    <row r="201" spans="1:8">
+    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>199</v>
       </c>
@@ -7556,7 +7611,7 @@
       <c r="G201" s="1"/>
       <c r="H201" s="1"/>
     </row>
-    <row r="202" spans="1:8">
+    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>200</v>
       </c>
@@ -7568,7 +7623,7 @@
       <c r="G202" s="1"/>
       <c r="H202" s="1"/>
     </row>
-    <row r="203" spans="1:8">
+    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>201</v>
       </c>
@@ -7580,7 +7635,7 @@
       <c r="G203" s="1"/>
       <c r="H203" s="1"/>
     </row>
-    <row r="204" spans="1:8">
+    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>202</v>
       </c>
@@ -7592,7 +7647,7 @@
       <c r="G204" s="1"/>
       <c r="H204" s="1"/>
     </row>
-    <row r="205" spans="1:8">
+    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>203</v>
       </c>
@@ -7604,7 +7659,7 @@
       <c r="G205" s="1"/>
       <c r="H205" s="1"/>
     </row>
-    <row r="206" spans="1:8">
+    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>204</v>
       </c>
@@ -7616,7 +7671,7 @@
       <c r="G206" s="1"/>
       <c r="H206" s="1"/>
     </row>
-    <row r="207" spans="1:8">
+    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>205</v>
       </c>
@@ -7628,7 +7683,7 @@
       <c r="G207" s="1"/>
       <c r="H207" s="1"/>
     </row>
-    <row r="208" spans="1:8">
+    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>206</v>
       </c>
@@ -7640,7 +7695,7 @@
       <c r="G208" s="1"/>
       <c r="H208" s="1"/>
     </row>
-    <row r="209" spans="1:8">
+    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>207</v>
       </c>
@@ -7652,7 +7707,7 @@
       <c r="G209" s="1"/>
       <c r="H209" s="1"/>
     </row>
-    <row r="210" spans="1:8">
+    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>208</v>
       </c>
@@ -7664,7 +7719,7 @@
       <c r="G210" s="1"/>
       <c r="H210" s="1"/>
     </row>
-    <row r="211" spans="1:8">
+    <row r="211" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>209</v>
       </c>
@@ -7676,7 +7731,7 @@
       <c r="G211" s="1"/>
       <c r="H211" s="1"/>
     </row>
-    <row r="212" spans="1:8">
+    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>210</v>
       </c>
@@ -7688,7 +7743,7 @@
       <c r="G212" s="1"/>
       <c r="H212" s="1"/>
     </row>
-    <row r="213" spans="1:8">
+    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>211</v>
       </c>
@@ -7700,7 +7755,7 @@
       <c r="G213" s="1"/>
       <c r="H213" s="1"/>
     </row>
-    <row r="214" spans="1:8">
+    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>212</v>
       </c>
@@ -7712,7 +7767,7 @@
       <c r="G214" s="1"/>
       <c r="H214" s="1"/>
     </row>
-    <row r="215" spans="1:8">
+    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>213</v>
       </c>
@@ -7724,7 +7779,7 @@
       <c r="G215" s="1"/>
       <c r="H215" s="1"/>
     </row>
-    <row r="216" spans="1:8">
+    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>214</v>
       </c>
@@ -7736,7 +7791,7 @@
       <c r="G216" s="1"/>
       <c r="H216" s="1"/>
     </row>
-    <row r="217" spans="1:8">
+    <row r="217" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>215</v>
       </c>
@@ -7748,7 +7803,7 @@
       <c r="G217" s="1"/>
       <c r="H217" s="1"/>
     </row>
-    <row r="218" spans="1:8">
+    <row r="218" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>216</v>
       </c>
@@ -7760,7 +7815,7 @@
       <c r="G218" s="1"/>
       <c r="H218" s="1"/>
     </row>
-    <row r="219" spans="1:8">
+    <row r="219" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>217</v>
       </c>
@@ -7772,7 +7827,7 @@
       <c r="G219" s="1"/>
       <c r="H219" s="1"/>
     </row>
-    <row r="220" spans="1:8">
+    <row r="220" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>218</v>
       </c>
@@ -7784,7 +7839,7 @@
       <c r="G220" s="1"/>
       <c r="H220" s="1"/>
     </row>
-    <row r="221" spans="1:8">
+    <row r="221" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>219</v>
       </c>
@@ -7796,7 +7851,7 @@
       <c r="G221" s="1"/>
       <c r="H221" s="1"/>
     </row>
-    <row r="222" spans="1:8">
+    <row r="222" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>220</v>
       </c>
@@ -7808,7 +7863,7 @@
       <c r="G222" s="1"/>
       <c r="H222" s="1"/>
     </row>
-    <row r="223" spans="1:8">
+    <row r="223" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>221</v>
       </c>
@@ -7820,7 +7875,7 @@
       <c r="G223" s="1"/>
       <c r="H223" s="1"/>
     </row>
-    <row r="224" spans="1:8">
+    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>222</v>
       </c>
@@ -7832,7 +7887,7 @@
       <c r="G224" s="1"/>
       <c r="H224" s="1"/>
     </row>
-    <row r="225" spans="1:8">
+    <row r="225" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>223</v>
       </c>
@@ -7844,7 +7899,7 @@
       <c r="G225" s="1"/>
       <c r="H225" s="1"/>
     </row>
-    <row r="226" spans="1:8">
+    <row r="226" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>224</v>
       </c>
@@ -7856,7 +7911,7 @@
       <c r="G226" s="1"/>
       <c r="H226" s="1"/>
     </row>
-    <row r="227" spans="1:8">
+    <row r="227" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>225</v>
       </c>
@@ -7868,7 +7923,7 @@
       <c r="G227" s="1"/>
       <c r="H227" s="1"/>
     </row>
-    <row r="228" spans="1:8">
+    <row r="228" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>226</v>
       </c>
@@ -7880,7 +7935,7 @@
       <c r="G228" s="1"/>
       <c r="H228" s="1"/>
     </row>
-    <row r="229" spans="1:8">
+    <row r="229" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>227</v>
       </c>
@@ -7892,7 +7947,7 @@
       <c r="G229" s="1"/>
       <c r="H229" s="1"/>
     </row>
-    <row r="230" spans="1:8">
+    <row r="230" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>228</v>
       </c>
@@ -7904,7 +7959,7 @@
       <c r="G230" s="1"/>
       <c r="H230" s="1"/>
     </row>
-    <row r="231" spans="1:8">
+    <row r="231" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>229</v>
       </c>
@@ -7916,7 +7971,7 @@
       <c r="G231" s="1"/>
       <c r="H231" s="1"/>
     </row>
-    <row r="232" spans="1:8">
+    <row r="232" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>230</v>
       </c>
@@ -7928,7 +7983,7 @@
       <c r="G232" s="1"/>
       <c r="H232" s="1"/>
     </row>
-    <row r="233" spans="1:8">
+    <row r="233" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>231</v>
       </c>
@@ -7940,7 +7995,7 @@
       <c r="G233" s="1"/>
       <c r="H233" s="1"/>
     </row>
-    <row r="234" spans="1:8">
+    <row r="234" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>232</v>
       </c>
@@ -7952,7 +8007,7 @@
       <c r="G234" s="1"/>
       <c r="H234" s="1"/>
     </row>
-    <row r="235" spans="1:8">
+    <row r="235" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>233</v>
       </c>
@@ -7964,7 +8019,7 @@
       <c r="G235" s="1"/>
       <c r="H235" s="1"/>
     </row>
-    <row r="236" spans="1:8">
+    <row r="236" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>234</v>
       </c>
@@ -7976,7 +8031,7 @@
       <c r="G236" s="1"/>
       <c r="H236" s="1"/>
     </row>
-    <row r="237" spans="1:8">
+    <row r="237" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>235</v>
       </c>
@@ -7988,7 +8043,7 @@
       <c r="G237" s="1"/>
       <c r="H237" s="1"/>
     </row>
-    <row r="238" spans="1:8">
+    <row r="238" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>236</v>
       </c>
@@ -8000,7 +8055,7 @@
       <c r="G238" s="1"/>
       <c r="H238" s="1"/>
     </row>
-    <row r="239" spans="1:8">
+    <row r="239" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>237</v>
       </c>
@@ -8012,7 +8067,7 @@
       <c r="G239" s="1"/>
       <c r="H239" s="1"/>
     </row>
-    <row r="240" spans="1:8">
+    <row r="240" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>238</v>
       </c>
@@ -8024,7 +8079,7 @@
       <c r="G240" s="1"/>
       <c r="H240" s="1"/>
     </row>
-    <row r="241" spans="1:8">
+    <row r="241" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>239</v>
       </c>
@@ -8036,7 +8091,7 @@
       <c r="G241" s="1"/>
       <c r="H241" s="1"/>
     </row>
-    <row r="242" spans="1:8">
+    <row r="242" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>240</v>
       </c>
@@ -8048,7 +8103,7 @@
       <c r="G242" s="1"/>
       <c r="H242" s="1"/>
     </row>
-    <row r="243" spans="1:8">
+    <row r="243" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>241</v>
       </c>
@@ -8060,7 +8115,7 @@
       <c r="G243" s="1"/>
       <c r="H243" s="1"/>
     </row>
-    <row r="244" spans="1:8">
+    <row r="244" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>242</v>
       </c>
@@ -8072,7 +8127,7 @@
       <c r="G244" s="1"/>
       <c r="H244" s="1"/>
     </row>
-    <row r="245" spans="1:8">
+    <row r="245" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>243</v>
       </c>
@@ -8084,7 +8139,7 @@
       <c r="G245" s="1"/>
       <c r="H245" s="1"/>
     </row>
-    <row r="246" spans="1:8">
+    <row r="246" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>244</v>
       </c>
@@ -8096,7 +8151,7 @@
       <c r="G246" s="1"/>
       <c r="H246" s="1"/>
     </row>
-    <row r="247" spans="1:8">
+    <row r="247" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>245</v>
       </c>
@@ -8108,7 +8163,7 @@
       <c r="G247" s="1"/>
       <c r="H247" s="1"/>
     </row>
-    <row r="248" spans="1:8">
+    <row r="248" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>246</v>
       </c>
@@ -8120,7 +8175,7 @@
       <c r="G248" s="1"/>
       <c r="H248" s="1"/>
     </row>
-    <row r="249" spans="1:8">
+    <row r="249" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>247</v>
       </c>
@@ -8132,7 +8187,7 @@
       <c r="G249" s="1"/>
       <c r="H249" s="1"/>
     </row>
-    <row r="250" spans="1:8">
+    <row r="250" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>248</v>
       </c>
@@ -8144,7 +8199,7 @@
       <c r="G250" s="1"/>
       <c r="H250" s="1"/>
     </row>
-    <row r="251" spans="1:8">
+    <row r="251" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>249</v>
       </c>
@@ -8156,7 +8211,7 @@
       <c r="G251" s="1"/>
       <c r="H251" s="1"/>
     </row>
-    <row r="252" spans="1:8">
+    <row r="252" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>250</v>
       </c>
@@ -8168,7 +8223,7 @@
       <c r="G252" s="1"/>
       <c r="H252" s="1"/>
     </row>
-    <row r="253" spans="1:8">
+    <row r="253" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>251</v>
       </c>
@@ -8180,7 +8235,7 @@
       <c r="G253" s="1"/>
       <c r="H253" s="1"/>
     </row>
-    <row r="254" spans="1:8">
+    <row r="254" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>252</v>
       </c>
@@ -8192,7 +8247,7 @@
       <c r="G254" s="1"/>
       <c r="H254" s="1"/>
     </row>
-    <row r="255" spans="1:8">
+    <row r="255" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>253</v>
       </c>
@@ -8204,7 +8259,7 @@
       <c r="G255" s="1"/>
       <c r="H255" s="1"/>
     </row>
-    <row r="256" spans="1:8">
+    <row r="256" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>254</v>
       </c>
@@ -8216,7 +8271,7 @@
       <c r="G256" s="1"/>
       <c r="H256" s="1"/>
     </row>
-    <row r="257" spans="1:8">
+    <row r="257" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>255</v>
       </c>
@@ -8228,7 +8283,7 @@
       <c r="G257" s="1"/>
       <c r="H257" s="1"/>
     </row>
-    <row r="258" spans="1:8">
+    <row r="258" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>256</v>
       </c>
@@ -8240,7 +8295,7 @@
       <c r="G258" s="1"/>
       <c r="H258" s="1"/>
     </row>
-    <row r="259" spans="1:8">
+    <row r="259" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>257</v>
       </c>
@@ -8252,7 +8307,7 @@
       <c r="G259" s="1"/>
       <c r="H259" s="1"/>
     </row>
-    <row r="260" spans="1:8">
+    <row r="260" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>258</v>
       </c>
@@ -8264,7 +8319,7 @@
       <c r="G260" s="1"/>
       <c r="H260" s="1"/>
     </row>
-    <row r="261" spans="1:8">
+    <row r="261" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>259</v>
       </c>
@@ -8276,7 +8331,7 @@
       <c r="G261" s="1"/>
       <c r="H261" s="1"/>
     </row>
-    <row r="262" spans="1:8">
+    <row r="262" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>260</v>
       </c>
@@ -8288,7 +8343,7 @@
       <c r="G262" s="1"/>
       <c r="H262" s="1"/>
     </row>
-    <row r="263" spans="1:8">
+    <row r="263" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>261</v>
       </c>
@@ -8300,7 +8355,7 @@
       <c r="G263" s="1"/>
       <c r="H263" s="1"/>
     </row>
-    <row r="264" spans="1:8">
+    <row r="264" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A264">
         <v>262</v>
       </c>
@@ -8312,7 +8367,7 @@
       <c r="G264" s="1"/>
       <c r="H264" s="1"/>
     </row>
-    <row r="265" spans="1:8">
+    <row r="265" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>263</v>
       </c>
@@ -8324,7 +8379,7 @@
       <c r="G265" s="1"/>
       <c r="H265" s="1"/>
     </row>
-    <row r="266" spans="1:8">
+    <row r="266" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>264</v>
       </c>
@@ -8336,7 +8391,7 @@
       <c r="G266" s="1"/>
       <c r="H266" s="1"/>
     </row>
-    <row r="267" spans="1:8">
+    <row r="267" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A267">
         <v>265</v>
       </c>
@@ -8348,7 +8403,7 @@
       <c r="G267" s="1"/>
       <c r="H267" s="1"/>
     </row>
-    <row r="268" spans="1:8">
+    <row r="268" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A268">
         <v>266</v>
       </c>
@@ -8360,7 +8415,7 @@
       <c r="G268" s="1"/>
       <c r="H268" s="1"/>
     </row>
-    <row r="269" spans="1:8">
+    <row r="269" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A269">
         <v>267</v>
       </c>
@@ -8372,7 +8427,7 @@
       <c r="G269" s="1"/>
       <c r="H269" s="1"/>
     </row>
-    <row r="270" spans="1:8">
+    <row r="270" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A270">
         <v>268</v>
       </c>
@@ -8384,7 +8439,7 @@
       <c r="G270" s="1"/>
       <c r="H270" s="1"/>
     </row>
-    <row r="271" spans="1:8">
+    <row r="271" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A271">
         <v>269</v>
       </c>
@@ -8396,7 +8451,7 @@
       <c r="G271" s="1"/>
       <c r="H271" s="1"/>
     </row>
-    <row r="272" spans="1:8">
+    <row r="272" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A272">
         <v>270</v>
       </c>
@@ -8408,7 +8463,7 @@
       <c r="G272" s="1"/>
       <c r="H272" s="1"/>
     </row>
-    <row r="273" spans="1:8">
+    <row r="273" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A273">
         <v>271</v>
       </c>
@@ -8420,7 +8475,7 @@
       <c r="G273" s="1"/>
       <c r="H273" s="1"/>
     </row>
-    <row r="274" spans="1:8">
+    <row r="274" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A274">
         <v>272</v>
       </c>
@@ -8432,7 +8487,7 @@
       <c r="G274" s="1"/>
       <c r="H274" s="1"/>
     </row>
-    <row r="275" spans="1:8">
+    <row r="275" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A275">
         <v>273</v>
       </c>
@@ -8444,7 +8499,7 @@
       <c r="G275" s="1"/>
       <c r="H275" s="1"/>
     </row>
-    <row r="276" spans="1:8">
+    <row r="276" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A276">
         <v>274</v>
       </c>
@@ -8456,7 +8511,7 @@
       <c r="G276" s="1"/>
       <c r="H276" s="1"/>
     </row>
-    <row r="277" spans="1:8">
+    <row r="277" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A277">
         <v>275</v>
       </c>
@@ -8468,7 +8523,7 @@
       <c r="G277" s="1"/>
       <c r="H277" s="1"/>
     </row>
-    <row r="278" spans="1:8">
+    <row r="278" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A278">
         <v>276</v>
       </c>
@@ -8480,7 +8535,7 @@
       <c r="G278" s="1"/>
       <c r="H278" s="1"/>
     </row>
-    <row r="279" spans="1:8">
+    <row r="279" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A279">
         <v>277</v>
       </c>
@@ -8492,7 +8547,7 @@
       <c r="G279" s="1"/>
       <c r="H279" s="1"/>
     </row>
-    <row r="280" spans="1:8">
+    <row r="280" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A280">
         <v>278</v>
       </c>
@@ -8504,7 +8559,7 @@
       <c r="G280" s="1"/>
       <c r="H280" s="1"/>
     </row>
-    <row r="281" spans="1:8">
+    <row r="281" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A281">
         <v>279</v>
       </c>
@@ -8516,7 +8571,7 @@
       <c r="G281" s="1"/>
       <c r="H281" s="1"/>
     </row>
-    <row r="282" spans="1:8">
+    <row r="282" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A282">
         <v>280</v>
       </c>
@@ -8528,7 +8583,7 @@
       <c r="G282" s="1"/>
       <c r="H282" s="1"/>
     </row>
-    <row r="283" spans="1:8">
+    <row r="283" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A283">
         <v>281</v>
       </c>
@@ -8540,7 +8595,7 @@
       <c r="G283" s="1"/>
       <c r="H283" s="1"/>
     </row>
-    <row r="284" spans="1:8">
+    <row r="284" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A284">
         <v>282</v>
       </c>
@@ -8552,7 +8607,7 @@
       <c r="G284" s="1"/>
       <c r="H284" s="1"/>
     </row>
-    <row r="285" spans="1:8">
+    <row r="285" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A285">
         <v>283</v>
       </c>
@@ -8564,7 +8619,7 @@
       <c r="G285" s="1"/>
       <c r="H285" s="1"/>
     </row>
-    <row r="286" spans="1:8">
+    <row r="286" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A286">
         <v>284</v>
       </c>
@@ -8576,7 +8631,7 @@
       <c r="G286" s="1"/>
       <c r="H286" s="1"/>
     </row>
-    <row r="287" spans="1:8">
+    <row r="287" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A287">
         <v>285</v>
       </c>
@@ -8588,7 +8643,7 @@
       <c r="G287" s="1"/>
       <c r="H287" s="1"/>
     </row>
-    <row r="288" spans="1:8">
+    <row r="288" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A288">
         <v>286</v>
       </c>
@@ -8600,7 +8655,7 @@
       <c r="G288" s="1"/>
       <c r="H288" s="1"/>
     </row>
-    <row r="289" spans="1:8">
+    <row r="289" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A289">
         <v>287</v>
       </c>
@@ -8612,7 +8667,7 @@
       <c r="G289" s="1"/>
       <c r="H289" s="1"/>
     </row>
-    <row r="290" spans="1:8">
+    <row r="290" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A290">
         <v>288</v>
       </c>
@@ -8624,7 +8679,7 @@
       <c r="G290" s="1"/>
       <c r="H290" s="1"/>
     </row>
-    <row r="291" spans="1:8">
+    <row r="291" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A291">
         <v>289</v>
       </c>
@@ -8636,7 +8691,7 @@
       <c r="G291" s="1"/>
       <c r="H291" s="1"/>
     </row>
-    <row r="292" spans="1:8">
+    <row r="292" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A292">
         <v>290</v>
       </c>
@@ -8648,7 +8703,7 @@
       <c r="G292" s="1"/>
       <c r="H292" s="1"/>
     </row>
-    <row r="293" spans="1:8">
+    <row r="293" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A293">
         <v>291</v>
       </c>
@@ -8660,7 +8715,7 @@
       <c r="G293" s="1"/>
       <c r="H293" s="1"/>
     </row>
-    <row r="294" spans="1:8">
+    <row r="294" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A294">
         <v>292</v>
       </c>
@@ -8672,7 +8727,7 @@
       <c r="G294" s="1"/>
       <c r="H294" s="1"/>
     </row>
-    <row r="295" spans="1:8">
+    <row r="295" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A295">
         <v>293</v>
       </c>
@@ -8684,7 +8739,7 @@
       <c r="G295" s="1"/>
       <c r="H295" s="1"/>
     </row>
-    <row r="296" spans="1:8">
+    <row r="296" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A296">
         <v>294</v>
       </c>
@@ -8696,7 +8751,7 @@
       <c r="G296" s="1"/>
       <c r="H296" s="1"/>
     </row>
-    <row r="297" spans="1:8">
+    <row r="297" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A297">
         <v>295</v>
       </c>
@@ -8708,7 +8763,7 @@
       <c r="G297" s="1"/>
       <c r="H297" s="1"/>
     </row>
-    <row r="298" spans="1:8">
+    <row r="298" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A298">
         <v>296</v>
       </c>
@@ -8720,7 +8775,7 @@
       <c r="G298" s="1"/>
       <c r="H298" s="1"/>
     </row>
-    <row r="299" spans="1:8">
+    <row r="299" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A299">
         <v>297</v>
       </c>
@@ -8732,7 +8787,7 @@
       <c r="G299" s="1"/>
       <c r="H299" s="1"/>
     </row>
-    <row r="300" spans="1:8">
+    <row r="300" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A300">
         <v>298</v>
       </c>
@@ -8744,7 +8799,7 @@
       <c r="G300" s="1"/>
       <c r="H300" s="1"/>
     </row>
-    <row r="301" spans="1:8">
+    <row r="301" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A301">
         <v>299</v>
       </c>
@@ -8756,7 +8811,7 @@
       <c r="G301" s="1"/>
       <c r="H301" s="1"/>
     </row>
-    <row r="302" spans="1:8">
+    <row r="302" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A302">
         <v>300</v>
       </c>
@@ -8768,7 +8823,7 @@
       <c r="G302" s="1"/>
       <c r="H302" s="1"/>
     </row>
-    <row r="303" spans="1:8">
+    <row r="303" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A303">
         <v>301</v>
       </c>
@@ -8780,7 +8835,7 @@
       <c r="G303" s="1"/>
       <c r="H303" s="1"/>
     </row>
-    <row r="304" spans="1:8">
+    <row r="304" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A304">
         <v>302</v>
       </c>
@@ -8792,7 +8847,7 @@
       <c r="G304" s="1"/>
       <c r="H304" s="1"/>
     </row>
-    <row r="305" spans="1:8">
+    <row r="305" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A305">
         <v>303</v>
       </c>
@@ -8804,7 +8859,7 @@
       <c r="G305" s="1"/>
       <c r="H305" s="1"/>
     </row>
-    <row r="306" spans="1:8">
+    <row r="306" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A306">
         <v>304</v>
       </c>
@@ -8816,7 +8871,7 @@
       <c r="G306" s="1"/>
       <c r="H306" s="1"/>
     </row>
-    <row r="307" spans="1:8">
+    <row r="307" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A307">
         <v>305</v>
       </c>
@@ -8828,7 +8883,7 @@
       <c r="G307" s="1"/>
       <c r="H307" s="1"/>
     </row>
-    <row r="308" spans="1:8">
+    <row r="308" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A308">
         <v>306</v>
       </c>
@@ -8840,7 +8895,7 @@
       <c r="G308" s="1"/>
       <c r="H308" s="1"/>
     </row>
-    <row r="309" spans="1:8">
+    <row r="309" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A309">
         <v>307</v>
       </c>
@@ -8852,7 +8907,7 @@
       <c r="G309" s="1"/>
       <c r="H309" s="1"/>
     </row>
-    <row r="310" spans="1:8">
+    <row r="310" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A310">
         <v>308</v>
       </c>
@@ -8864,7 +8919,7 @@
       <c r="G310" s="1"/>
       <c r="H310" s="1"/>
     </row>
-    <row r="311" spans="1:8">
+    <row r="311" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A311">
         <v>309</v>
       </c>
@@ -8876,7 +8931,7 @@
       <c r="G311" s="1"/>
       <c r="H311" s="1"/>
     </row>
-    <row r="312" spans="1:8">
+    <row r="312" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A312">
         <v>310</v>
       </c>
@@ -8888,7 +8943,7 @@
       <c r="G312" s="1"/>
       <c r="H312" s="1"/>
     </row>
-    <row r="313" spans="1:8">
+    <row r="313" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A313">
         <v>311</v>
       </c>
@@ -8900,7 +8955,7 @@
       <c r="G313" s="1"/>
       <c r="H313" s="1"/>
     </row>
-    <row r="314" spans="1:8">
+    <row r="314" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A314">
         <v>312</v>
       </c>
@@ -8912,7 +8967,7 @@
       <c r="G314" s="1"/>
       <c r="H314" s="1"/>
     </row>
-    <row r="315" spans="1:8">
+    <row r="315" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A315">
         <v>313</v>
       </c>
@@ -8924,7 +8979,7 @@
       <c r="G315" s="1"/>
       <c r="H315" s="1"/>
     </row>
-    <row r="316" spans="1:8">
+    <row r="316" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A316">
         <v>314</v>
       </c>
@@ -8936,7 +8991,7 @@
       <c r="G316" s="1"/>
       <c r="H316" s="1"/>
     </row>
-    <row r="317" spans="1:8">
+    <row r="317" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A317">
         <v>315</v>
       </c>
@@ -8948,7 +9003,7 @@
       <c r="G317" s="1"/>
       <c r="H317" s="1"/>
     </row>
-    <row r="318" spans="1:8">
+    <row r="318" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A318">
         <v>316</v>
       </c>
@@ -8960,7 +9015,7 @@
       <c r="G318" s="1"/>
       <c r="H318" s="1"/>
     </row>
-    <row r="319" spans="1:8">
+    <row r="319" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A319">
         <v>317</v>
       </c>
@@ -8972,7 +9027,7 @@
       <c r="G319" s="1"/>
       <c r="H319" s="1"/>
     </row>
-    <row r="320" spans="1:8">
+    <row r="320" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A320">
         <v>318</v>
       </c>
@@ -8984,7 +9039,7 @@
       <c r="G320" s="1"/>
       <c r="H320" s="1"/>
     </row>
-    <row r="321" spans="1:8">
+    <row r="321" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A321">
         <v>319</v>
       </c>
@@ -8996,7 +9051,7 @@
       <c r="G321" s="1"/>
       <c r="H321" s="1"/>
     </row>
-    <row r="322" spans="1:8">
+    <row r="322" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A322">
         <v>320</v>
       </c>
@@ -9008,7 +9063,7 @@
       <c r="G322" s="1"/>
       <c r="H322" s="1"/>
     </row>
-    <row r="323" spans="1:8">
+    <row r="323" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A323">
         <v>321</v>
       </c>
@@ -9020,7 +9075,7 @@
       <c r="G323" s="1"/>
       <c r="H323" s="1"/>
     </row>
-    <row r="324" spans="1:8">
+    <row r="324" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A324">
         <v>322</v>
       </c>
@@ -9032,7 +9087,7 @@
       <c r="G324" s="1"/>
       <c r="H324" s="1"/>
     </row>
-    <row r="325" spans="1:8">
+    <row r="325" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A325">
         <v>323</v>
       </c>
@@ -9044,7 +9099,7 @@
       <c r="G325" s="1"/>
       <c r="H325" s="1"/>
     </row>
-    <row r="326" spans="1:8">
+    <row r="326" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A326">
         <v>324</v>
       </c>
@@ -9056,7 +9111,7 @@
       <c r="G326" s="1"/>
       <c r="H326" s="1"/>
     </row>
-    <row r="327" spans="1:8">
+    <row r="327" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A327">
         <v>325</v>
       </c>
@@ -9068,7 +9123,7 @@
       <c r="G327" s="1"/>
       <c r="H327" s="1"/>
     </row>
-    <row r="328" spans="1:8">
+    <row r="328" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A328">
         <v>326</v>
       </c>
@@ -9080,7 +9135,7 @@
       <c r="G328" s="1"/>
       <c r="H328" s="1"/>
     </row>
-    <row r="329" spans="1:8">
+    <row r="329" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A329">
         <v>327</v>
       </c>
@@ -9092,7 +9147,7 @@
       <c r="G329" s="1"/>
       <c r="H329" s="1"/>
     </row>
-    <row r="330" spans="1:8">
+    <row r="330" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A330">
         <v>328</v>
       </c>
@@ -9104,7 +9159,7 @@
       <c r="G330" s="1"/>
       <c r="H330" s="1"/>
     </row>
-    <row r="331" spans="1:8">
+    <row r="331" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A331">
         <v>329</v>
       </c>
@@ -9116,7 +9171,7 @@
       <c r="G331" s="1"/>
       <c r="H331" s="1"/>
     </row>
-    <row r="332" spans="1:8">
+    <row r="332" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A332">
         <v>330</v>
       </c>
@@ -9128,7 +9183,7 @@
       <c r="G332" s="1"/>
       <c r="H332" s="1"/>
     </row>
-    <row r="333" spans="1:8">
+    <row r="333" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A333">
         <v>331</v>
       </c>
@@ -9140,7 +9195,7 @@
       <c r="G333" s="1"/>
       <c r="H333" s="1"/>
     </row>
-    <row r="334" spans="1:8">
+    <row r="334" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A334">
         <v>332</v>
       </c>
@@ -9152,7 +9207,7 @@
       <c r="G334" s="1"/>
       <c r="H334" s="1"/>
     </row>
-    <row r="335" spans="1:8">
+    <row r="335" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A335">
         <v>333</v>
       </c>
@@ -9164,7 +9219,7 @@
       <c r="G335" s="1"/>
       <c r="H335" s="1"/>
     </row>
-    <row r="336" spans="1:8">
+    <row r="336" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A336">
         <v>334</v>
       </c>
@@ -9176,7 +9231,7 @@
       <c r="G336" s="1"/>
       <c r="H336" s="1"/>
     </row>
-    <row r="337" spans="1:8">
+    <row r="337" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A337">
         <v>335</v>
       </c>
@@ -9188,7 +9243,7 @@
       <c r="G337" s="1"/>
       <c r="H337" s="1"/>
     </row>
-    <row r="338" spans="1:8">
+    <row r="338" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A338">
         <v>336</v>
       </c>
@@ -9200,7 +9255,7 @@
       <c r="G338" s="1"/>
       <c r="H338" s="1"/>
     </row>
-    <row r="339" spans="1:8">
+    <row r="339" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A339">
         <v>337</v>
       </c>
@@ -9212,7 +9267,7 @@
       <c r="G339" s="1"/>
       <c r="H339" s="1"/>
     </row>
-    <row r="340" spans="1:8">
+    <row r="340" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A340">
         <v>338</v>
       </c>
@@ -9224,7 +9279,7 @@
       <c r="G340" s="1"/>
       <c r="H340" s="1"/>
     </row>
-    <row r="341" spans="1:8">
+    <row r="341" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A341">
         <v>339</v>
       </c>
@@ -9236,7 +9291,7 @@
       <c r="G341" s="1"/>
       <c r="H341" s="1"/>
     </row>
-    <row r="342" spans="1:8">
+    <row r="342" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A342">
         <v>340</v>
       </c>
@@ -9248,7 +9303,7 @@
       <c r="G342" s="1"/>
       <c r="H342" s="1"/>
     </row>
-    <row r="343" spans="1:8">
+    <row r="343" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A343">
         <v>341</v>
       </c>
@@ -9260,7 +9315,7 @@
       <c r="G343" s="1"/>
       <c r="H343" s="1"/>
     </row>
-    <row r="344" spans="1:8">
+    <row r="344" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A344">
         <v>342</v>
       </c>
@@ -9272,7 +9327,7 @@
       <c r="G344" s="1"/>
       <c r="H344" s="1"/>
     </row>
-    <row r="345" spans="1:8">
+    <row r="345" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A345">
         <v>343</v>
       </c>
@@ -9284,7 +9339,7 @@
       <c r="G345" s="1"/>
       <c r="H345" s="1"/>
     </row>
-    <row r="346" spans="1:8">
+    <row r="346" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A346">
         <v>344</v>
       </c>
@@ -9296,7 +9351,7 @@
       <c r="G346" s="1"/>
       <c r="H346" s="1"/>
     </row>
-    <row r="347" spans="1:8">
+    <row r="347" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A347">
         <v>345</v>
       </c>
@@ -9308,7 +9363,7 @@
       <c r="G347" s="1"/>
       <c r="H347" s="1"/>
     </row>
-    <row r="348" spans="1:8">
+    <row r="348" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A348">
         <v>346</v>
       </c>
@@ -9320,7 +9375,7 @@
       <c r="G348" s="1"/>
       <c r="H348" s="1"/>
     </row>
-    <row r="349" spans="1:8">
+    <row r="349" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A349">
         <v>347</v>
       </c>
@@ -9332,7 +9387,7 @@
       <c r="G349" s="1"/>
       <c r="H349" s="1"/>
     </row>
-    <row r="350" spans="1:8">
+    <row r="350" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A350">
         <v>348</v>
       </c>
@@ -9344,7 +9399,7 @@
       <c r="G350" s="1"/>
       <c r="H350" s="1"/>
     </row>
-    <row r="351" spans="1:8">
+    <row r="351" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A351">
         <v>349</v>
       </c>
@@ -9356,7 +9411,7 @@
       <c r="G351" s="1"/>
       <c r="H351" s="1"/>
     </row>
-    <row r="352" spans="1:8">
+    <row r="352" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A352">
         <v>350</v>
       </c>
@@ -9368,7 +9423,7 @@
       <c r="G352" s="1"/>
       <c r="H352" s="1"/>
     </row>
-    <row r="353" spans="1:8">
+    <row r="353" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A353">
         <v>351</v>
       </c>
@@ -9380,7 +9435,7 @@
       <c r="G353" s="1"/>
       <c r="H353" s="1"/>
     </row>
-    <row r="354" spans="1:8">
+    <row r="354" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A354">
         <v>352</v>
       </c>
@@ -9392,7 +9447,7 @@
       <c r="G354" s="1"/>
       <c r="H354" s="1"/>
     </row>
-    <row r="355" spans="1:8">
+    <row r="355" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A355">
         <v>353</v>
       </c>
@@ -9404,7 +9459,7 @@
       <c r="G355" s="1"/>
       <c r="H355" s="1"/>
     </row>
-    <row r="356" spans="1:8">
+    <row r="356" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A356">
         <v>354</v>
       </c>
@@ -9416,7 +9471,7 @@
       <c r="G356" s="1"/>
       <c r="H356" s="1"/>
     </row>
-    <row r="357" spans="1:8">
+    <row r="357" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A357">
         <v>355</v>
       </c>
@@ -9428,7 +9483,7 @@
       <c r="G357" s="1"/>
       <c r="H357" s="1"/>
     </row>
-    <row r="358" spans="1:8">
+    <row r="358" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A358">
         <v>356</v>
       </c>
@@ -9440,7 +9495,7 @@
       <c r="G358" s="1"/>
       <c r="H358" s="1"/>
     </row>
-    <row r="359" spans="1:8">
+    <row r="359" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A359">
         <v>357</v>
       </c>
@@ -9452,7 +9507,7 @@
       <c r="G359" s="1"/>
       <c r="H359" s="1"/>
     </row>
-    <row r="360" spans="1:8">
+    <row r="360" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A360">
         <v>358</v>
       </c>
@@ -9464,7 +9519,7 @@
       <c r="G360" s="1"/>
       <c r="H360" s="1"/>
     </row>
-    <row r="361" spans="1:8">
+    <row r="361" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A361">
         <v>359</v>
       </c>
@@ -9476,7 +9531,7 @@
       <c r="G361" s="1"/>
       <c r="H361" s="1"/>
     </row>
-    <row r="362" spans="1:8">
+    <row r="362" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A362">
         <v>360</v>
       </c>
@@ -9488,7 +9543,7 @@
       <c r="G362" s="1"/>
       <c r="H362" s="1"/>
     </row>
-    <row r="363" spans="1:8">
+    <row r="363" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A363">
         <v>361</v>
       </c>
@@ -9500,7 +9555,7 @@
       <c r="G363" s="1"/>
       <c r="H363" s="1"/>
     </row>
-    <row r="364" spans="1:8">
+    <row r="364" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A364">
         <v>362</v>
       </c>
@@ -9512,7 +9567,7 @@
       <c r="G364" s="1"/>
       <c r="H364" s="1"/>
     </row>
-    <row r="365" spans="1:8">
+    <row r="365" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A365">
         <v>363</v>
       </c>
@@ -9524,7 +9579,7 @@
       <c r="G365" s="1"/>
       <c r="H365" s="1"/>
     </row>
-    <row r="366" spans="1:8">
+    <row r="366" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A366">
         <v>364</v>
       </c>
@@ -9536,7 +9591,7 @@
       <c r="G366" s="1"/>
       <c r="H366" s="1"/>
     </row>
-    <row r="367" spans="1:8">
+    <row r="367" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A367">
         <v>365</v>
       </c>
@@ -9548,7 +9603,7 @@
       <c r="G367" s="1"/>
       <c r="H367" s="1"/>
     </row>
-    <row r="368" spans="1:8">
+    <row r="368" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A368">
         <v>366</v>
       </c>
@@ -9560,7 +9615,7 @@
       <c r="G368" s="1"/>
       <c r="H368" s="1"/>
     </row>
-    <row r="369" spans="1:8">
+    <row r="369" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A369">
         <v>367</v>
       </c>
@@ -9572,7 +9627,7 @@
       <c r="G369" s="1"/>
       <c r="H369" s="1"/>
     </row>
-    <row r="370" spans="1:8">
+    <row r="370" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A370">
         <v>368</v>
       </c>
@@ -9584,7 +9639,7 @@
       <c r="G370" s="1"/>
       <c r="H370" s="1"/>
     </row>
-    <row r="371" spans="1:8">
+    <row r="371" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A371">
         <v>369</v>
       </c>
@@ -9596,7 +9651,7 @@
       <c r="G371" s="1"/>
       <c r="H371" s="1"/>
     </row>
-    <row r="372" spans="1:8">
+    <row r="372" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A372">
         <v>370</v>
       </c>
@@ -9608,7 +9663,7 @@
       <c r="G372" s="1"/>
       <c r="H372" s="1"/>
     </row>
-    <row r="373" spans="1:8">
+    <row r="373" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A373">
         <v>371</v>
       </c>
@@ -9620,7 +9675,7 @@
       <c r="G373" s="1"/>
       <c r="H373" s="1"/>
     </row>
-    <row r="374" spans="1:8">
+    <row r="374" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A374">
         <v>372</v>
       </c>
@@ -9632,7 +9687,7 @@
       <c r="G374" s="1"/>
       <c r="H374" s="1"/>
     </row>
-    <row r="375" spans="1:8">
+    <row r="375" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A375">
         <v>373</v>
       </c>
@@ -9644,7 +9699,7 @@
       <c r="G375" s="1"/>
       <c r="H375" s="1"/>
     </row>
-    <row r="376" spans="1:8">
+    <row r="376" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A376">
         <v>374</v>
       </c>
@@ -9656,7 +9711,7 @@
       <c r="G376" s="1"/>
       <c r="H376" s="1"/>
     </row>
-    <row r="377" spans="1:8">
+    <row r="377" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A377">
         <v>375</v>
       </c>
@@ -9668,7 +9723,7 @@
       <c r="G377" s="1"/>
       <c r="H377" s="1"/>
     </row>
-    <row r="378" spans="1:8">
+    <row r="378" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A378">
         <v>376</v>
       </c>
@@ -9680,7 +9735,7 @@
       <c r="G378" s="1"/>
       <c r="H378" s="1"/>
     </row>
-    <row r="379" spans="1:8">
+    <row r="379" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A379">
         <v>377</v>
       </c>
@@ -9692,7 +9747,7 @@
       <c r="G379" s="1"/>
       <c r="H379" s="1"/>
     </row>
-    <row r="380" spans="1:8">
+    <row r="380" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A380">
         <v>378</v>
       </c>
@@ -9704,7 +9759,7 @@
       <c r="G380" s="1"/>
       <c r="H380" s="1"/>
     </row>
-    <row r="381" spans="1:8">
+    <row r="381" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A381">
         <v>379</v>
       </c>
@@ -9716,7 +9771,7 @@
       <c r="G381" s="1"/>
       <c r="H381" s="1"/>
     </row>
-    <row r="382" spans="1:8">
+    <row r="382" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A382">
         <v>380</v>
       </c>
@@ -9728,7 +9783,7 @@
       <c r="G382" s="1"/>
       <c r="H382" s="1"/>
     </row>
-    <row r="383" spans="1:8">
+    <row r="383" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A383">
         <v>381</v>
       </c>
@@ -9740,7 +9795,7 @@
       <c r="G383" s="1"/>
       <c r="H383" s="1"/>
     </row>
-    <row r="384" spans="1:8">
+    <row r="384" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A384">
         <v>382</v>
       </c>
@@ -9752,7 +9807,7 @@
       <c r="G384" s="1"/>
       <c r="H384" s="1"/>
     </row>
-    <row r="385" spans="1:8">
+    <row r="385" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A385">
         <v>383</v>
       </c>
@@ -9764,7 +9819,7 @@
       <c r="G385" s="1"/>
       <c r="H385" s="1"/>
     </row>
-    <row r="386" spans="1:8">
+    <row r="386" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A386">
         <v>384</v>
       </c>
@@ -9776,7 +9831,7 @@
       <c r="G386" s="1"/>
       <c r="H386" s="1"/>
     </row>
-    <row r="387" spans="1:8">
+    <row r="387" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A387">
         <v>385</v>
       </c>
@@ -9788,7 +9843,7 @@
       <c r="G387" s="1"/>
       <c r="H387" s="1"/>
     </row>
-    <row r="388" spans="1:8">
+    <row r="388" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A388">
         <v>386</v>
       </c>
@@ -9800,7 +9855,7 @@
       <c r="G388" s="1"/>
       <c r="H388" s="1"/>
     </row>
-    <row r="389" spans="1:8">
+    <row r="389" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A389">
         <v>387</v>
       </c>
@@ -9812,7 +9867,7 @@
       <c r="G389" s="1"/>
       <c r="H389" s="1"/>
     </row>
-    <row r="390" spans="1:8">
+    <row r="390" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A390">
         <v>388</v>
       </c>
@@ -9824,7 +9879,7 @@
       <c r="G390" s="1"/>
       <c r="H390" s="1"/>
     </row>
-    <row r="391" spans="1:8">
+    <row r="391" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A391">
         <v>389</v>
       </c>
@@ -9836,7 +9891,7 @@
       <c r="G391" s="1"/>
       <c r="H391" s="1"/>
     </row>
-    <row r="392" spans="1:8">
+    <row r="392" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A392">
         <v>390</v>
       </c>
@@ -9848,7 +9903,7 @@
       <c r="G392" s="1"/>
       <c r="H392" s="1"/>
     </row>
-    <row r="393" spans="1:8">
+    <row r="393" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A393">
         <v>391</v>
       </c>
@@ -9860,7 +9915,7 @@
       <c r="G393" s="1"/>
       <c r="H393" s="1"/>
     </row>
-    <row r="394" spans="1:8">
+    <row r="394" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A394">
         <v>392</v>
       </c>
@@ -9872,7 +9927,7 @@
       <c r="G394" s="1"/>
       <c r="H394" s="1"/>
     </row>
-    <row r="395" spans="1:8">
+    <row r="395" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A395">
         <v>393</v>
       </c>
@@ -9884,7 +9939,7 @@
       <c r="G395" s="1"/>
       <c r="H395" s="1"/>
     </row>
-    <row r="396" spans="1:8">
+    <row r="396" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A396">
         <v>394</v>
       </c>
@@ -9896,7 +9951,7 @@
       <c r="G396" s="1"/>
       <c r="H396" s="1"/>
     </row>
-    <row r="397" spans="1:8">
+    <row r="397" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A397">
         <v>395</v>
       </c>
@@ -9908,7 +9963,7 @@
       <c r="G397" s="1"/>
       <c r="H397" s="1"/>
     </row>
-    <row r="398" spans="1:8">
+    <row r="398" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A398">
         <v>396</v>
       </c>
@@ -9920,7 +9975,7 @@
       <c r="G398" s="1"/>
       <c r="H398" s="1"/>
     </row>
-    <row r="399" spans="1:8">
+    <row r="399" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A399">
         <v>397</v>
       </c>
@@ -9932,7 +9987,7 @@
       <c r="G399" s="1"/>
       <c r="H399" s="1"/>
     </row>
-    <row r="400" spans="1:8">
+    <row r="400" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A400">
         <v>398</v>
       </c>
@@ -9944,7 +9999,7 @@
       <c r="G400" s="1"/>
       <c r="H400" s="1"/>
     </row>
-    <row r="401" spans="1:8">
+    <row r="401" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A401">
         <v>399</v>
       </c>
@@ -9956,7 +10011,7 @@
       <c r="G401" s="1"/>
       <c r="H401" s="1"/>
     </row>
-    <row r="402" spans="1:8">
+    <row r="402" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A402">
         <v>400</v>
       </c>
@@ -9968,7 +10023,7 @@
       <c r="G402" s="1"/>
       <c r="H402" s="1"/>
     </row>
-    <row r="403" spans="1:8">
+    <row r="403" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A403">
         <v>401</v>
       </c>
@@ -9980,7 +10035,7 @@
       <c r="G403" s="1"/>
       <c r="H403" s="1"/>
     </row>
-    <row r="404" spans="1:8">
+    <row r="404" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A404">
         <v>402</v>
       </c>
@@ -9992,7 +10047,7 @@
       <c r="G404" s="1"/>
       <c r="H404" s="1"/>
     </row>
-    <row r="405" spans="1:8">
+    <row r="405" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A405">
         <v>403</v>
       </c>
@@ -10004,7 +10059,7 @@
       <c r="G405" s="1"/>
       <c r="H405" s="1"/>
     </row>
-    <row r="406" spans="1:8">
+    <row r="406" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A406">
         <v>404</v>
       </c>
@@ -10016,7 +10071,7 @@
       <c r="G406" s="1"/>
       <c r="H406" s="1"/>
     </row>
-    <row r="407" spans="1:8">
+    <row r="407" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A407">
         <v>405</v>
       </c>
@@ -10028,7 +10083,7 @@
       <c r="G407" s="1"/>
       <c r="H407" s="1"/>
     </row>
-    <row r="408" spans="1:8">
+    <row r="408" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A408">
         <v>406</v>
       </c>
@@ -10040,7 +10095,7 @@
       <c r="G408" s="1"/>
       <c r="H408" s="1"/>
     </row>
-    <row r="409" spans="1:8">
+    <row r="409" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A409">
         <v>407</v>
       </c>
@@ -10052,7 +10107,7 @@
       <c r="G409" s="1"/>
       <c r="H409" s="1"/>
     </row>
-    <row r="410" spans="1:8">
+    <row r="410" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A410">
         <v>408</v>
       </c>
@@ -10070,31 +10125,31 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:Q5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="51" customWidth="1"/>
+    <col min="5" max="5" width="50" customWidth="1"/>
+    <col min="6" max="6" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>34</v>
       </c>
@@ -10147,23 +10202,35 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>252</v>
       </c>
       <c r="B2" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="D2" t="s">
+        <v>260</v>
+      </c>
+      <c r="E2" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>254</v>
       </c>
       <c r="B3" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="D3" t="s">
+        <v>262</v>
+      </c>
+      <c r="E3" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>256</v>
       </c>
@@ -10171,12 +10238,15 @@
         <v>257</v>
       </c>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>15</v>
       </c>
       <c r="B5" t="s">
         <v>258</v>
+      </c>
+      <c r="D5" t="s">
+        <v>261</v>
       </c>
     </row>
   </sheetData>

--- a/TF_UI_APIs.xlsx
+++ b/TF_UI_APIs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\W\tf-new-arch-artifacts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C806607-85FE-46C0-B6CB-6284F025DA67}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8C6F436-68CD-4D31-A30D-72676008CBE4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -10129,7 +10129,7 @@
   <dimension ref="A1:Q5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/TF_UI_APIs.xlsx
+++ b/TF_UI_APIs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\W\tf-new-arch-artifacts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8C6F436-68CD-4D31-A30D-72676008CBE4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52CFEA61-09C0-467E-BECD-9F27126B8B23}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="669" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="681" uniqueCount="276">
   <si>
     <t>Tax Authority</t>
   </si>
@@ -856,6 +856,42 @@
   </si>
   <si>
     <t>/UserDataQueriesService/getTaxHistoryReportAuthority</t>
+  </si>
+  <si>
+    <t>Message APIs</t>
+  </si>
+  <si>
+    <t>getMessageRunList</t>
+  </si>
+  <si>
+    <t>getMessageRunListByFilterDate</t>
+  </si>
+  <si>
+    <t>getToTalMessageCount</t>
+  </si>
+  <si>
+    <t>deleteAllMessages</t>
+  </si>
+  <si>
+    <t>deleteFilteredMessages</t>
+  </si>
+  <si>
+    <t>generateFilteredMessageReport</t>
+  </si>
+  <si>
+    <t>getMessageViewListByRunId</t>
+  </si>
+  <si>
+    <t>getMessageViewListByMessageType</t>
+  </si>
+  <si>
+    <t>getToTalMessageCountByRunId</t>
+  </si>
+  <si>
+    <t>getToTalMessageCountByMessageType</t>
+  </si>
+  <si>
+    <t>deleteAllMessagesByRunId</t>
   </si>
 </sst>
 </file>
@@ -1074,7 +1110,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1153,6 +1189,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -10126,16 +10163,16 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:Q5"/>
+  <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38" customWidth="1"/>
     <col min="3" max="3" width="22.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="51" customWidth="1"/>
     <col min="5" max="5" width="50" customWidth="1"/>
@@ -10249,10 +10286,71 @@
         <v>261</v>
       </c>
     </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B11" s="44" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>275</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
--- a/TF_UI_APIs.xlsx
+++ b/TF_UI_APIs.xlsx
@@ -8,24 +8,25 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\W\tf-new-arch-artifacts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52CFEA61-09C0-467E-BECD-9F27126B8B23}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFB52185-0403-45A8-A875-7A58AE590C26}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3990" yWindow="45" windowWidth="21705" windowHeight="14835" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Type1" sheetId="2" r:id="rId1"/>
     <sheet name="UDQ Filters" sheetId="3" r:id="rId2"/>
     <sheet name="UDQ" sheetId="1" r:id="rId3"/>
     <sheet name="Type 2" sheetId="4" r:id="rId4"/>
-    <sheet name="API Spec-Test" sheetId="5" r:id="rId5"/>
-    <sheet name="Reporting Too" sheetId="6" r:id="rId6"/>
+    <sheet name="Pension What if" sheetId="7" r:id="rId5"/>
+    <sheet name="API Spec-Test" sheetId="5" r:id="rId6"/>
+    <sheet name="Reporting Too" sheetId="6" r:id="rId7"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="681" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="690" uniqueCount="285">
   <si>
     <t>Tax Authority</t>
   </si>
@@ -892,6 +893,33 @@
   </si>
   <si>
     <t>deleteAllMessagesByRunId</t>
+  </si>
+  <si>
+    <t>/WhatIfService/getPensionWhatIfEmployees</t>
+  </si>
+  <si>
+    <t>/WhatIfService/deleteAllPensionWhatIfEmployees</t>
+  </si>
+  <si>
+    <t>/WhatIfService/savePensionRecipient</t>
+  </si>
+  <si>
+    <t>/WhatIfService/updatePensionRecipient</t>
+  </si>
+  <si>
+    <t>/WhatIfService/deletePensionRecipient</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/WhatIfService/saveAsPensionRecipient </t>
+  </si>
+  <si>
+    <t>/WhatIfService/generatePensionRecipientPDF</t>
+  </si>
+  <si>
+    <t>Pension What If Taxes</t>
+  </si>
+  <si>
+    <t>Pension What If Recipient</t>
   </si>
 </sst>
 </file>
@@ -1110,7 +1138,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1190,6 +1218,9 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2925,7 +2956,7 @@
   <dimension ref="A1:P16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3536,7 +3567,7 @@
   <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5219,6 +5250,69 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C1C95F1-B491-4EFF-B631-D7340BA4B41F}">
+  <dimension ref="A1:B9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="62.140625" customWidth="1"/>
+    <col min="2" max="2" width="57.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" s="46" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="45" t="s">
+        <v>284</v>
+      </c>
+      <c r="B1" s="47" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>282</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A2:H410"/>
   <sheetViews>
@@ -10161,11 +10255,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>

--- a/TF_UI_APIs.xlsx
+++ b/TF_UI_APIs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\W\tf-new-arch-artifacts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFB52185-0403-45A8-A875-7A58AE590C26}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B9D2678-9B0F-4AA7-ABD0-DA257D05066F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3990" yWindow="45" windowWidth="21705" windowHeight="14835" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4365" yWindow="570" windowWidth="21600" windowHeight="14205" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Type1" sheetId="2" r:id="rId1"/>
@@ -18,15 +18,16 @@
     <sheet name="UDQ" sheetId="1" r:id="rId3"/>
     <sheet name="Type 2" sheetId="4" r:id="rId4"/>
     <sheet name="Pension What if" sheetId="7" r:id="rId5"/>
-    <sheet name="API Spec-Test" sheetId="5" r:id="rId6"/>
-    <sheet name="Reporting Too" sheetId="6" r:id="rId7"/>
+    <sheet name="What If" sheetId="8" r:id="rId6"/>
+    <sheet name="API Spec-Test" sheetId="5" r:id="rId7"/>
+    <sheet name="Reporting Too" sheetId="6" r:id="rId8"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="690" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="305">
   <si>
     <t>Tax Authority</t>
   </si>
@@ -920,6 +921,66 @@
   </si>
   <si>
     <t>Pension What If Recipient</t>
+  </si>
+  <si>
+    <t>What If Employee</t>
+  </si>
+  <si>
+    <t>/WhatIfService/getWhatIfEmployees</t>
+  </si>
+  <si>
+    <t>/WhatIfService/deleteAllWhatIfEmployees</t>
+  </si>
+  <si>
+    <t>/WhatIfService/getWhatIfEmployee</t>
+  </si>
+  <si>
+    <t>/WhatIfService/saveWhatIfEmployee</t>
+  </si>
+  <si>
+    <t>/WhatIfService/saveAsWhatIfEmployee</t>
+  </si>
+  <si>
+    <t>/WhatIfService/updateWhatIfEmployee</t>
+  </si>
+  <si>
+    <t>/WhatIfService/deleteWhatIfEmployee</t>
+  </si>
+  <si>
+    <t>/WhatIfService/generateEmployeeDetailPDF</t>
+  </si>
+  <si>
+    <t>What If Employee Taxes</t>
+  </si>
+  <si>
+    <t>/WhatIfService/getWhatIfTaxes</t>
+  </si>
+  <si>
+    <t>/WhatIfService/calculateWhatIfTaxes</t>
+  </si>
+  <si>
+    <t>/WhatIfService/getWhatIfEmployeeTaxDetail</t>
+  </si>
+  <si>
+    <t>/WhatIfService/getWhatIfEmployeeWages</t>
+  </si>
+  <si>
+    <t>/WhatIfService/ToolsSelectFieldIds.AuthorityCodeList - autocompleteAuthorities</t>
+  </si>
+  <si>
+    <t>/WhatIfService/getWhatIfAutocompleteTaxTypes</t>
+  </si>
+  <si>
+    <t>/WhatIfService/getWhatIfAutocompleteFormulas</t>
+  </si>
+  <si>
+    <t>/WhatIfService/saveWhatIfEmployeeTax</t>
+  </si>
+  <si>
+    <t>/WhatIfService/updateWhatIfEmployeeTax</t>
+  </si>
+  <si>
+    <t>/WhatIfService/deleteWhatIfEmployeeTax</t>
   </si>
 </sst>
 </file>
@@ -4887,7 +4948,7 @@
   <dimension ref="A1:Q14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5253,8 +5314,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C1C95F1-B491-4EFF-B631-D7340BA4B41F}">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5313,6 +5374,111 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E013B70C-EDE5-4F6D-8C4E-9CA7DA951589}">
+  <dimension ref="A1:B12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="55" customWidth="1"/>
+    <col min="2" max="2" width="72.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="47" t="s">
+        <v>285</v>
+      </c>
+      <c r="B1" s="47" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>286</v>
+      </c>
+      <c r="B3" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>287</v>
+      </c>
+      <c r="B4" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>288</v>
+      </c>
+      <c r="B5" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>289</v>
+      </c>
+      <c r="B6" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>290</v>
+      </c>
+      <c r="B7" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>291</v>
+      </c>
+      <c r="B8" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>292</v>
+      </c>
+      <c r="B9" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>293</v>
+      </c>
+      <c r="B10" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>287</v>
+      </c>
+      <c r="B11" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>304</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A2:H410"/>
   <sheetViews>
@@ -10255,7 +10421,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:Q22"/>
   <sheetViews>

--- a/TF_UI_APIs.xlsx
+++ b/TF_UI_APIs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\W\tf-new-arch-artifacts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B9D2678-9B0F-4AA7-ABD0-DA257D05066F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29D10268-DBC2-4CF2-B4A2-51B386FD90AE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4365" yWindow="570" windowWidth="21600" windowHeight="14205" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5730" yWindow="255" windowWidth="21600" windowHeight="14205" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Type1" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="737" uniqueCount="329">
   <si>
     <t>Tax Authority</t>
   </si>
@@ -981,6 +981,78 @@
   </si>
   <si>
     <t>/WhatIfService/deleteWhatIfEmployeeTax</t>
+  </si>
+  <si>
+    <t>What If Employee Garnishments</t>
+  </si>
+  <si>
+    <t>/TaxCodeService/getAutocompleteAuthorities - ToolsSelectFieldIds.AuthorityCodeList</t>
+  </si>
+  <si>
+    <t>/WhatIfService/saveAsWhatIfEmployeeTax</t>
+  </si>
+  <si>
+    <t>/WhatIfService/generateWhatIfEmployeeTaxDetailPDF</t>
+  </si>
+  <si>
+    <t>/WhatIfService/getWhatIfEmployeeWage</t>
+  </si>
+  <si>
+    <t>/WhatIfService/saveWhatIfEmployeeTaxWage</t>
+  </si>
+  <si>
+    <t>/WhatIfService/updateWhatIfEmployeeTaxWage</t>
+  </si>
+  <si>
+    <t>/WhatIfService/deleteWhatIfEmployeeTaxWage</t>
+  </si>
+  <si>
+    <t>/WhatIfService/generateWhatIfEmployeeTaxWagePDF</t>
+  </si>
+  <si>
+    <t>/WhatIfService/getWhatIfEmployeeWageAutocomplete</t>
+  </si>
+  <si>
+    <t>/WhatIfService/getWhatIfEmployeeGarnishments</t>
+  </si>
+  <si>
+    <t>/WhatIfService/getWhatIfEmployeeGarnishmentDetail</t>
+  </si>
+  <si>
+    <t>/WhatIfService/getWhatIfGarnAutocompleteTaxTypes</t>
+  </si>
+  <si>
+    <t>/WhatIfService/saveWhatIfEmployeeGarnishment</t>
+  </si>
+  <si>
+    <t>/WhatIfService/updateWhatIfEmployeeGarnishment</t>
+  </si>
+  <si>
+    <t>/WhatIfService/deleteWhatIfEmployeeGarnishment</t>
+  </si>
+  <si>
+    <t>/WhatIfService/saveAsWhatIfEmployeeGarnishment</t>
+  </si>
+  <si>
+    <t>/WhatIfService/generateWhatIfEmployeeGarnishmentPDF</t>
+  </si>
+  <si>
+    <t>/WhatIfService/getWhatIfEmployeeGarnDedBenefits</t>
+  </si>
+  <si>
+    <t>/WhatIfService/deleteAllWhatIfEmployeeGarnDedBenefits</t>
+  </si>
+  <si>
+    <t>/WhatIfService/getWhatIfEmployeeGarnDedBenefitsDetail</t>
+  </si>
+  <si>
+    <t>/WhatIfService/saveWhatIfEmployeeGarnDedBenefits</t>
+  </si>
+  <si>
+    <t>/WhatIfService/updateWhatIfEmployeeGarnDedBenefits</t>
+  </si>
+  <si>
+    <t>/WhatIfService/deleteWhatIfEmployeeGarnDedBenefits</t>
   </si>
 </sst>
 </file>
@@ -5375,101 +5447,200 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E013B70C-EDE5-4F6D-8C4E-9CA7DA951589}">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="55" customWidth="1"/>
     <col min="2" max="2" width="72.42578125" customWidth="1"/>
+    <col min="3" max="3" width="48.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="47" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="47" t="s">
         <v>285</v>
       </c>
       <c r="B1" s="47" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" s="47" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>286</v>
       </c>
       <c r="B3" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>287</v>
       </c>
       <c r="B4" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>288</v>
       </c>
       <c r="B5" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>289</v>
       </c>
       <c r="B6" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>290</v>
       </c>
       <c r="B7" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>291</v>
       </c>
       <c r="B8" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>292</v>
       </c>
       <c r="B9" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>293</v>
       </c>
       <c r="B10" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>287</v>
       </c>
       <c r="B11" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>304</v>
+      </c>
+      <c r="C12" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>308</v>
+      </c>
+      <c r="C14" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>298</v>
+      </c>
+      <c r="C16" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>309</v>
+      </c>
+      <c r="C17" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>310</v>
+      </c>
+      <c r="C18" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>311</v>
+      </c>
+      <c r="C19" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>314</v>
       </c>
     </row>
   </sheetData>

--- a/TF_UI_APIs.xlsx
+++ b/TF_UI_APIs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\W\tf-new-arch-artifacts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29D10268-DBC2-4CF2-B4A2-51B386FD90AE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EE2C140-DC65-4FB9-9E3E-44CB719A1108}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5730" yWindow="255" windowWidth="21600" windowHeight="14205" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5730" yWindow="255" windowWidth="21600" windowHeight="14205" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Type1" sheetId="2" r:id="rId1"/>
@@ -19,15 +19,16 @@
     <sheet name="Type 2" sheetId="4" r:id="rId4"/>
     <sheet name="Pension What if" sheetId="7" r:id="rId5"/>
     <sheet name="What If" sheetId="8" r:id="rId6"/>
-    <sheet name="API Spec-Test" sheetId="5" r:id="rId7"/>
-    <sheet name="Reporting Too" sheetId="6" r:id="rId8"/>
+    <sheet name="Tax Locator" sheetId="9" r:id="rId7"/>
+    <sheet name="API Spec-Test" sheetId="5" r:id="rId8"/>
+    <sheet name="Reporting Too" sheetId="6" r:id="rId9"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="737" uniqueCount="329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="757" uniqueCount="349">
   <si>
     <t>Tax Authority</t>
   </si>
@@ -1053,6 +1054,66 @@
   </si>
   <si>
     <t>/WhatIfService/deleteWhatIfEmployeeGarnDedBenefits</t>
+  </si>
+  <si>
+    <t>Tax Locator Employee</t>
+  </si>
+  <si>
+    <t>Tax Locator Locations</t>
+  </si>
+  <si>
+    <t>getTaxLocatorEmployees</t>
+  </si>
+  <si>
+    <t>getTaxLocatorEmployeeDetail</t>
+  </si>
+  <si>
+    <t>deleteAllTaxLocatorEmployees</t>
+  </si>
+  <si>
+    <t>saveTaxLocatorEmployee</t>
+  </si>
+  <si>
+    <t>updateTaxLocatorEmployee</t>
+  </si>
+  <si>
+    <t>deleteTaxLocatorEmployee</t>
+  </si>
+  <si>
+    <t>saveAsTaxLocatorEmployee</t>
+  </si>
+  <si>
+    <t>generateTaxLocatorEmployeePDF</t>
+  </si>
+  <si>
+    <t>getTaxLocatorEmployeeLocations</t>
+  </si>
+  <si>
+    <t>deleteAllTaxLocatorEmployeeLocations</t>
+  </si>
+  <si>
+    <t>getTaxLocatorEmployeeLocationDetail</t>
+  </si>
+  <si>
+    <t>saveTaxLocatorEmployeeLocation</t>
+  </si>
+  <si>
+    <t>updateTaxLocatorEmployeeLocation</t>
+  </si>
+  <si>
+    <t>deleteTaxLocatorEmployeeLocation</t>
+  </si>
+  <si>
+    <t>runTaxLocator</t>
+  </si>
+  <si>
+    <t>generateTaxLocatorRunLocatorPDF</t>
+  </si>
+  <si>
+    <t>getTaxLocatorAddressFromWorksite</t>
+  </si>
+  <si>
+    <t>saveWorksitesToTaxLocator</t>
   </si>
 </sst>
 </file>
@@ -5449,7 +5510,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E013B70C-EDE5-4F6D-8C4E-9CA7DA951589}">
   <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
@@ -5650,6 +5711,108 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2EDB5C4-DF64-42A3-A67D-403FA4F0CABD}">
+  <dimension ref="A1:B11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="34.5703125" customWidth="1"/>
+    <col min="2" max="2" width="34" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="47" t="s">
+        <v>329</v>
+      </c>
+      <c r="B1" s="47" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>331</v>
+      </c>
+      <c r="B2" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>332</v>
+      </c>
+      <c r="B3" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>333</v>
+      </c>
+      <c r="B4" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>334</v>
+      </c>
+      <c r="B5" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>335</v>
+      </c>
+      <c r="B6" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>336</v>
+      </c>
+      <c r="B7" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>337</v>
+      </c>
+      <c r="B8" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>338</v>
+      </c>
+      <c r="B9" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>348</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A2:H410"/>
   <sheetViews>
@@ -10592,7 +10755,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:Q22"/>
   <sheetViews>

--- a/TF_UI_APIs.xlsx
+++ b/TF_UI_APIs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\W\tf-new-arch-artifacts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EE2C140-DC65-4FB9-9E3E-44CB719A1108}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC81C5FC-36E6-4DC4-B3D0-BEBD8E6756B6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5730" yWindow="255" windowWidth="21600" windowHeight="14205" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5730" yWindow="255" windowWidth="21600" windowHeight="14205" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Type1" sheetId="2" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="757" uniqueCount="349">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="769" uniqueCount="360">
   <si>
     <t>Tax Authority</t>
   </si>
@@ -1114,6 +1114,39 @@
   </si>
   <si>
     <t>saveWorksitesToTaxLocator</t>
+  </si>
+  <si>
+    <t>/WhatIfService/getWhatIfGarnDedBenefitsAutocomplete</t>
+  </si>
+  <si>
+    <t>TaxCodeService/getAutocompleteAuthorities...ToolsSelectFieldIds.AuthorityCodeList</t>
+  </si>
+  <si>
+    <t>/WhatIfService/getPensionRecipientTaxes</t>
+  </si>
+  <si>
+    <t>/WhatIfService/getPensionRecipientTaxDetail</t>
+  </si>
+  <si>
+    <t>/WhatIfService/getPensionTaxTypeAutocomplete</t>
+  </si>
+  <si>
+    <t>/WhatIfService/savePensionRecipientTax</t>
+  </si>
+  <si>
+    <t>/WhatIfService/updatePensionRecipientTax</t>
+  </si>
+  <si>
+    <t>/WhatIfService/deletePensionRecipientTax</t>
+  </si>
+  <si>
+    <t>/WhatIfService/saveAsPensionRecipientTax</t>
+  </si>
+  <si>
+    <t>/WhatIfService/generatePensionRecipientTaxDetailPDF</t>
+  </si>
+  <si>
+    <t>/WhatIfService/calculatePensionWhatIfTaxes</t>
   </si>
 </sst>
 </file>
@@ -5445,10 +5478,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C1C95F1-B491-4EFF-B631-D7340BA4B41F}">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5469,35 +5502,76 @@
       <c r="A3" t="s">
         <v>276</v>
       </c>
+      <c r="B3" t="s">
+        <v>351</v>
+      </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>277</v>
       </c>
+      <c r="B4" t="s">
+        <v>352</v>
+      </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>278</v>
       </c>
+      <c r="B5" t="s">
+        <v>350</v>
+      </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>279</v>
       </c>
+      <c r="B6" t="s">
+        <v>353</v>
+      </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>280</v>
       </c>
+      <c r="B7" t="s">
+        <v>301</v>
+      </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>281</v>
       </c>
+      <c r="B8" t="s">
+        <v>354</v>
+      </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>282</v>
+      </c>
+      <c r="B9" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>359</v>
       </c>
     </row>
   </sheetData>
@@ -5511,7 +5585,7 @@
   <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5693,6 +5767,9 @@
       <c r="B20" t="s">
         <v>312</v>
       </c>
+      <c r="C20" t="s">
+        <v>349</v>
+      </c>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
@@ -5714,7 +5791,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2EDB5C4-DF64-42A3-A67D-403FA4F0CABD}">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>

--- a/TF_UI_APIs.xlsx
+++ b/TF_UI_APIs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\W\tf-new-arch-artifacts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC81C5FC-36E6-4DC4-B3D0-BEBD8E6756B6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB7D8210-6776-497F-AF04-D11518A5733A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5730" yWindow="255" windowWidth="21600" windowHeight="14205" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5730" yWindow="255" windowWidth="21600" windowHeight="14205" firstSheet="2" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Type1" sheetId="2" r:id="rId1"/>
@@ -20,15 +20,16 @@
     <sheet name="Pension What if" sheetId="7" r:id="rId5"/>
     <sheet name="What If" sheetId="8" r:id="rId6"/>
     <sheet name="Tax Locator" sheetId="9" r:id="rId7"/>
-    <sheet name="API Spec-Test" sheetId="5" r:id="rId8"/>
-    <sheet name="Reporting Too" sheetId="6" r:id="rId9"/>
+    <sheet name="Type 3" sheetId="10" r:id="rId8"/>
+    <sheet name="API Spec-Test" sheetId="5" r:id="rId9"/>
+    <sheet name="Reporting Too" sheetId="6" r:id="rId10"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="769" uniqueCount="360">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="779" uniqueCount="369">
   <si>
     <t>Tax Authority</t>
   </si>
@@ -1147,6 +1148,33 @@
   </si>
   <si>
     <t>/WhatIfService/calculatePensionWhatIfTaxes</t>
+  </si>
+  <si>
+    <t>getEmployeeGroupList</t>
+  </si>
+  <si>
+    <t>getGroupOverrides</t>
+  </si>
+  <si>
+    <t>getGroupOverrideDetail</t>
+  </si>
+  <si>
+    <t>getGroupOverrideAutocompleteAuth</t>
+  </si>
+  <si>
+    <t>UserDataQueriesService/getAutocomplete....ToolsSelectFieldIds.TaxTypes</t>
+  </si>
+  <si>
+    <t>getGroupOverrideAutocompleteFormulas</t>
+  </si>
+  <si>
+    <t>generateGroupOverridesPDF</t>
+  </si>
+  <si>
+    <t>saveGroupOverride</t>
+  </si>
+  <si>
+    <t>deleteGroupOverride</t>
   </si>
 </sst>
 </file>
@@ -3789,6 +3817,200 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:Q22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38" customWidth="1"/>
+    <col min="3" max="3" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="51" customWidth="1"/>
+    <col min="5" max="5" width="50" customWidth="1"/>
+    <col min="6" max="6" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="J1" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="K1" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="L1" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="M1" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="N1" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="O1" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="P1" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q1" s="11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>252</v>
+      </c>
+      <c r="B2" t="s">
+        <v>253</v>
+      </c>
+      <c r="D2" t="s">
+        <v>260</v>
+      </c>
+      <c r="E2" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>254</v>
+      </c>
+      <c r="B3" t="s">
+        <v>255</v>
+      </c>
+      <c r="D3" t="s">
+        <v>262</v>
+      </c>
+      <c r="E3" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>256</v>
+      </c>
+      <c r="B4" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" t="s">
+        <v>258</v>
+      </c>
+      <c r="D5" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B11" s="44" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>275</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H23"/>
@@ -5480,7 +5702,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C1C95F1-B491-4EFF-B631-D7340BA4B41F}">
   <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
@@ -5890,6 +6112,75 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42780BC3-8465-42F9-9BAC-21D18B22970C}">
+  <dimension ref="A1:A10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="44.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="47" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>368</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A2:H410"/>
   <sheetViews>
@@ -10830,198 +11121,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:Q22"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38" customWidth="1"/>
-    <col min="3" max="3" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="51" customWidth="1"/>
-    <col min="5" max="5" width="50" customWidth="1"/>
-    <col min="6" max="6" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="B1" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>213</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>212</v>
-      </c>
-      <c r="F1" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="G1" s="10" t="s">
-        <v>142</v>
-      </c>
-      <c r="H1" s="10" t="s">
-        <v>144</v>
-      </c>
-      <c r="I1" s="10" t="s">
-        <v>239</v>
-      </c>
-      <c r="J1" s="10" t="s">
-        <v>240</v>
-      </c>
-      <c r="K1" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="L1" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="M1" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="N1" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="O1" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="P1" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q1" s="11" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>252</v>
-      </c>
-      <c r="B2" t="s">
-        <v>253</v>
-      </c>
-      <c r="D2" t="s">
-        <v>260</v>
-      </c>
-      <c r="E2" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>254</v>
-      </c>
-      <c r="B3" t="s">
-        <v>255</v>
-      </c>
-      <c r="D3" t="s">
-        <v>262</v>
-      </c>
-      <c r="E3" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>256</v>
-      </c>
-      <c r="B4" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" t="s">
-        <v>258</v>
-      </c>
-      <c r="D5" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B11" s="44" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
-        <v>275</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
-  <tableParts count="1">
-    <tablePart r:id="rId2"/>
-  </tableParts>
-</worksheet>
 </file>
--- a/TF_UI_APIs.xlsx
+++ b/TF_UI_APIs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\W\tf-new-arch-artifacts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB7D8210-6776-497F-AF04-D11518A5733A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7C8708B-4690-4A95-A285-8A8CD19B7C64}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5730" yWindow="255" windowWidth="21600" windowHeight="14205" firstSheet="2" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="779" uniqueCount="369">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="782" uniqueCount="371">
   <si>
     <t>Tax Authority</t>
   </si>
@@ -1150,31 +1150,37 @@
     <t>/WhatIfService/calculatePensionWhatIfTaxes</t>
   </si>
   <si>
-    <t>getEmployeeGroupList</t>
-  </si>
-  <si>
-    <t>getGroupOverrides</t>
-  </si>
-  <si>
-    <t>getGroupOverrideDetail</t>
-  </si>
-  <si>
-    <t>getGroupOverrideAutocompleteAuth</t>
-  </si>
-  <si>
     <t>UserDataQueriesService/getAutocomplete....ToolsSelectFieldIds.TaxTypes</t>
   </si>
   <si>
-    <t>getGroupOverrideAutocompleteFormulas</t>
-  </si>
-  <si>
-    <t>generateGroupOverridesPDF</t>
-  </si>
-  <si>
-    <t>saveGroupOverride</t>
-  </si>
-  <si>
-    <t>deleteGroupOverride</t>
+    <t>Batch Test</t>
+  </si>
+  <si>
+    <t>/FileUploaderService/uploadBatchTest</t>
+  </si>
+  <si>
+    <t>/FileUploaderService/generateBatchTestPDF</t>
+  </si>
+  <si>
+    <t>/EmployeeService/getGroupOverrides</t>
+  </si>
+  <si>
+    <t>/EmployeeService/getGroupOverrideDetail</t>
+  </si>
+  <si>
+    <t>/EmployeeService/getGroupOverrideAutocompleteAuth</t>
+  </si>
+  <si>
+    <t>/EmployeeService/getGroupOverrideAutocompleteFormulas</t>
+  </si>
+  <si>
+    <t>/EmployeeService/generateGroupOverridesPDF</t>
+  </si>
+  <si>
+    <t>/EmployeeService/saveGroupOverride</t>
+  </si>
+  <si>
+    <t>/EmployeeService/deleteGroupOverride</t>
   </si>
 </sst>
 </file>
@@ -6113,65 +6119,75 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42780BC3-8465-42F9-9BAC-21D18B22970C}">
-  <dimension ref="A1:A10"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A10"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="44.85546875" customWidth="1"/>
+    <col min="1" max="1" width="66.85546875" customWidth="1"/>
+    <col min="2" max="2" width="41" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" s="47" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="47" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B1" s="47" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>175</v>
+      </c>
+      <c r="B2" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>364</v>
+      </c>
+      <c r="B3" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
     </row>
   </sheetData>

--- a/TF_UI_APIs.xlsx
+++ b/TF_UI_APIs.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\W\tf-new-arch-artifacts\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B8BD859-8051-475A-BB77-0BF4C9B93A75}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5730" yWindow="255" windowWidth="21600" windowHeight="14205" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5736" yWindow="252" windowWidth="21600" windowHeight="13176" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Type1" sheetId="2" r:id="rId1"/>
@@ -30,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="790" uniqueCount="378">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="794" uniqueCount="381">
   <si>
     <t>Tax Authority</t>
   </si>
@@ -1204,12 +1198,21 @@
   <si>
     <t>public ResponseEntity&lt;List&lt;Object&gt;&gt; getNonResTaxTypesAutocomplete(@Valid @NotNull @RequestBody(required = true) InputData input) throws Exception</t>
   </si>
+  <si>
+    <t>/GarnishmentService/getCustomGarnishmentFormulasList</t>
+  </si>
+  <si>
+    <t>UsrTax</t>
+  </si>
+  <si>
+    <t>customGarnishmentFormulas</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2794,122 +2797,122 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:P13" totalsRowShown="0" headerRowDxfId="49" dataDxfId="47" headerRowBorderDxfId="48" tableBorderDxfId="46" totalsRowBorderDxfId="45">
-  <autoFilter ref="A1:P13" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:P13" totalsRowShown="0" headerRowDxfId="49" dataDxfId="47" headerRowBorderDxfId="48" tableBorderDxfId="46" totalsRowBorderDxfId="45">
+  <autoFilter ref="A1:P13"/>
+  <sortState ref="A2:J13">
     <sortCondition ref="A1:A13"/>
   </sortState>
   <tableColumns count="16">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Link Description"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Page Id" dataDxfId="44"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Autocomplete pageIds" dataDxfId="43"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Get Prod URL" dataDxfId="42"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Get URL Ready?"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Edit Entity"/>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="Edit  URL Ready"/>
-    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="Get Usage URL"/>
-    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="Get Usage Ready"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Delete URL"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Delete Ready?"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Save/Update URL"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Save/Update Ready?"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="View PDF?"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="All APIs ready?"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Testing?" dataDxfId="41"/>
+    <tableColumn id="1" name="Link Description"/>
+    <tableColumn id="2" name="Page Id" dataDxfId="44"/>
+    <tableColumn id="3" name="Autocomplete pageIds" dataDxfId="43"/>
+    <tableColumn id="4" name="Get Prod URL" dataDxfId="42"/>
+    <tableColumn id="11" name="Get URL Ready?"/>
+    <tableColumn id="5" name="Edit Entity"/>
+    <tableColumn id="16" name="Edit  URL Ready"/>
+    <tableColumn id="17" name="Get Usage URL"/>
+    <tableColumn id="18" name="Get Usage Ready"/>
+    <tableColumn id="9" name="Delete URL"/>
+    <tableColumn id="13" name="Delete Ready?"/>
+    <tableColumn id="8" name="Save/Update URL"/>
+    <tableColumn id="7" name="Save/Update Ready?"/>
+    <tableColumn id="10" name="View PDF?"/>
+    <tableColumn id="12" name="All APIs ready?"/>
+    <tableColumn id="6" name="Testing?" dataDxfId="41"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table5" displayName="Table5" ref="A1:H23" totalsRowShown="0" headerRowDxfId="40" dataDxfId="38" headerRowBorderDxfId="39" tableBorderDxfId="37" totalsRowBorderDxfId="36">
-  <autoFilter ref="A1:H23" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table5" displayName="Table5" ref="A1:H23" totalsRowShown="0" headerRowDxfId="40" dataDxfId="38" headerRowBorderDxfId="39" tableBorderDxfId="37" totalsRowBorderDxfId="36">
+  <autoFilter ref="A1:H23"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Field Description" dataDxfId="35"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Prod URL" dataDxfId="34"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Is Autocomplete?" dataDxfId="33"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Dev Done?" dataDxfId="32"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="In Sync With UI?" dataDxfId="31"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Screens" dataDxfId="30"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Dev By" dataDxfId="29"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="Note" dataDxfId="28"/>
+    <tableColumn id="1" name="Field Description" dataDxfId="35"/>
+    <tableColumn id="2" name="Prod URL" dataDxfId="34"/>
+    <tableColumn id="3" name="Is Autocomplete?" dataDxfId="33"/>
+    <tableColumn id="4" name="Dev Done?" dataDxfId="32"/>
+    <tableColumn id="5" name="In Sync With UI?" dataDxfId="31"/>
+    <tableColumn id="6" name="Screens" dataDxfId="30"/>
+    <tableColumn id="7" name="Dev By" dataDxfId="29"/>
+    <tableColumn id="9" name="Note" dataDxfId="28"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table2" displayName="Table2" ref="A1:G35" totalsRowShown="0" headerRowDxfId="27" headerRowBorderDxfId="26" tableBorderDxfId="25">
-  <autoFilter ref="A1:G35" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G35">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:G35" totalsRowShown="0" headerRowDxfId="27" headerRowBorderDxfId="26" tableBorderDxfId="25">
+  <autoFilter ref="A1:G35"/>
+  <sortState ref="A2:G35">
     <sortCondition descending="1" ref="F1:F35"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Link Description" dataDxfId="24"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Filter" dataDxfId="23"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Prod URL" dataDxfId="22"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="Dev Done?" dataDxfId="21"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="UI Sync/Ingt" dataDxfId="20"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0200-000007000000}" name="Testing?" dataDxfId="19"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="Dev By" dataDxfId="18"/>
+    <tableColumn id="1" name="Link Description" dataDxfId="24"/>
+    <tableColumn id="3" name="Filter" dataDxfId="23"/>
+    <tableColumn id="4" name="Prod URL" dataDxfId="22"/>
+    <tableColumn id="6" name="Dev Done?" dataDxfId="21"/>
+    <tableColumn id="2" name="UI Sync/Ingt" dataDxfId="20"/>
+    <tableColumn id="7" name="Testing?" dataDxfId="19"/>
+    <tableColumn id="5" name="Dev By" dataDxfId="18"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table14" displayName="Table14" ref="A1:Q14" totalsRowShown="0" headerRowDxfId="17" dataDxfId="15" headerRowBorderDxfId="16" tableBorderDxfId="14" totalsRowBorderDxfId="13">
-  <autoFilter ref="A1:Q14" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table14" displayName="Table14" ref="A1:Q14" totalsRowShown="0" headerRowDxfId="17" dataDxfId="15" headerRowBorderDxfId="16" tableBorderDxfId="14" totalsRowBorderDxfId="13">
+  <autoFilter ref="A1:Q14"/>
+  <sortState ref="A2:J13">
     <sortCondition ref="A1:A13"/>
   </sortState>
   <tableColumns count="17">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Link Description"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Page Id" dataDxfId="12"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="Autocomplete pageIds" dataDxfId="11"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0300-00000E000000}" name="Get Prod URL - parent grid"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="Get Prod URL - child grid2" dataDxfId="10"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0300-00000B000000}" name="Get URL Ready?"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="Edit Entity"/>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0300-000010000000}" name="Edit  URL Ready"/>
-    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0300-000011000000}" name="Extra APIs"/>
-    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0300-000012000000}" name="Extra APIs Ready"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0300-000009000000}" name="Delete URL"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0300-00000D000000}" name="Delete Ready?"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0300-000008000000}" name="Save/Update URL"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0300-000007000000}" name="Save/Update Ready?"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0300-00000A000000}" name="View PDF?"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0300-00000C000000}" name="All APIs ready?"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0300-000006000000}" name="Testing?" dataDxfId="9"/>
+    <tableColumn id="1" name="Link Description"/>
+    <tableColumn id="2" name="Page Id" dataDxfId="12"/>
+    <tableColumn id="3" name="Autocomplete pageIds" dataDxfId="11"/>
+    <tableColumn id="14" name="Get Prod URL - parent grid"/>
+    <tableColumn id="4" name="Get Prod URL - child grid2" dataDxfId="10"/>
+    <tableColumn id="11" name="Get URL Ready?"/>
+    <tableColumn id="5" name="Edit Entity"/>
+    <tableColumn id="16" name="Edit  URL Ready"/>
+    <tableColumn id="17" name="Extra APIs"/>
+    <tableColumn id="18" name="Extra APIs Ready"/>
+    <tableColumn id="9" name="Delete URL"/>
+    <tableColumn id="13" name="Delete Ready?"/>
+    <tableColumn id="8" name="Save/Update URL"/>
+    <tableColumn id="7" name="Save/Update Ready?"/>
+    <tableColumn id="10" name="View PDF?"/>
+    <tableColumn id="12" name="All APIs ready?"/>
+    <tableColumn id="6" name="Testing?" dataDxfId="9"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Table145" displayName="Table145" ref="A1:Q5" totalsRowShown="0" headerRowDxfId="8" dataDxfId="6" headerRowBorderDxfId="7" tableBorderDxfId="5" totalsRowBorderDxfId="4">
-  <autoFilter ref="A1:Q5" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table145" displayName="Table145" ref="A1:Q5" totalsRowShown="0" headerRowDxfId="8" dataDxfId="6" headerRowBorderDxfId="7" tableBorderDxfId="5" totalsRowBorderDxfId="4">
+  <autoFilter ref="A1:Q5"/>
+  <sortState ref="A2:J13">
     <sortCondition ref="A1:A13"/>
   </sortState>
   <tableColumns count="17">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="Link Description"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="Page Id" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="Autocomplete pageIds" dataDxfId="2"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0400-00000E000000}" name="Get Prod URL - parent grid"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="Get Prod URL - child grid2" dataDxfId="1"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0400-00000B000000}" name="Get URL Ready?"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0400-000005000000}" name="Edit Entity"/>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0400-000010000000}" name="Edit  URL Ready"/>
-    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0400-000011000000}" name="Extra APIs"/>
-    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0400-000012000000}" name="Extra APIs Ready"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0400-000009000000}" name="Delete URL"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0400-00000D000000}" name="Delete Ready?"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0400-000008000000}" name="Save/Update URL"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0400-000007000000}" name="Save/Update Ready?"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0400-00000A000000}" name="View PDF?"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0400-00000C000000}" name="All APIs ready?"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0400-000006000000}" name="Testing?" dataDxfId="0"/>
+    <tableColumn id="1" name="Link Description"/>
+    <tableColumn id="2" name="Page Id" dataDxfId="3"/>
+    <tableColumn id="3" name="Autocomplete pageIds" dataDxfId="2"/>
+    <tableColumn id="14" name="Get Prod URL - parent grid"/>
+    <tableColumn id="4" name="Get Prod URL - child grid2" dataDxfId="1"/>
+    <tableColumn id="11" name="Get URL Ready?"/>
+    <tableColumn id="5" name="Edit Entity"/>
+    <tableColumn id="16" name="Edit  URL Ready"/>
+    <tableColumn id="17" name="Extra APIs"/>
+    <tableColumn id="18" name="Extra APIs Ready"/>
+    <tableColumn id="9" name="Delete URL"/>
+    <tableColumn id="13" name="Delete Ready?"/>
+    <tableColumn id="8" name="Save/Update URL"/>
+    <tableColumn id="7" name="Save/Update Ready?"/>
+    <tableColumn id="10" name="View PDF?"/>
+    <tableColumn id="12" name="All APIs ready?"/>
+    <tableColumn id="6" name="Testing?" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2958,7 +2961,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2991,26 +2994,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3043,23 +3029,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3235,34 +3204,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="24.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.140625" customWidth="1"/>
-    <col min="4" max="4" width="47.7109375" customWidth="1"/>
-    <col min="5" max="5" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.109375" customWidth="1"/>
+    <col min="4" max="4" width="47.6640625" customWidth="1"/>
+    <col min="5" max="5" width="16.5546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="42" customWidth="1"/>
-    <col min="7" max="7" width="16.5703125" customWidth="1"/>
-    <col min="8" max="8" width="52.42578125" customWidth="1"/>
-    <col min="9" max="9" width="16.5703125" customWidth="1"/>
-    <col min="10" max="10" width="45.7109375" customWidth="1"/>
-    <col min="11" max="11" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="42.5703125" customWidth="1"/>
-    <col min="13" max="13" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.5546875" customWidth="1"/>
+    <col min="8" max="8" width="52.44140625" customWidth="1"/>
+    <col min="9" max="9" width="16.5546875" customWidth="1"/>
+    <col min="10" max="10" width="45.6640625" customWidth="1"/>
+    <col min="11" max="11" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="42.5546875" customWidth="1"/>
+    <col min="13" max="13" width="21.109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16">
       <c r="A1" s="9" t="s">
         <v>34</v>
       </c>
@@ -3312,7 +3281,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16">
       <c r="A2" t="s">
         <v>55</v>
       </c>
@@ -3359,7 +3328,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16">
       <c r="A3" s="40" t="s">
         <v>12</v>
       </c>
@@ -3407,7 +3376,7 @@
       </c>
       <c r="P3" s="40"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16">
       <c r="A4" s="40" t="s">
         <v>7</v>
       </c>
@@ -3455,7 +3424,7 @@
       </c>
       <c r="P4" s="40"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16">
       <c r="A5" s="40" t="s">
         <v>52</v>
       </c>
@@ -3503,7 +3472,7 @@
       </c>
       <c r="P5" s="40"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16">
       <c r="A6" s="40" t="s">
         <v>53</v>
       </c>
@@ -3551,7 +3520,7 @@
       </c>
       <c r="P6" s="40"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16">
       <c r="A7" t="s">
         <v>54</v>
       </c>
@@ -3598,7 +3567,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16">
       <c r="A8" s="40" t="s">
         <v>4</v>
       </c>
@@ -3646,7 +3615,7 @@
       </c>
       <c r="P8" s="40"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16">
       <c r="A9" s="40" t="s">
         <v>5</v>
       </c>
@@ -3694,7 +3663,7 @@
       </c>
       <c r="P9" s="40"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16">
       <c r="A10" s="40" t="s">
         <v>56</v>
       </c>
@@ -3742,7 +3711,7 @@
       </c>
       <c r="P10" s="40"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16">
       <c r="A11" t="s">
         <v>195</v>
       </c>
@@ -3789,7 +3758,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16">
       <c r="A12" t="s">
         <v>201</v>
       </c>
@@ -3830,7 +3799,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16">
       <c r="H16" t="s">
         <v>233</v>
       </c>
@@ -3846,25 +3815,25 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:H410"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="19.85546875" customWidth="1"/>
-    <col min="3" max="3" width="17.28515625" customWidth="1"/>
-    <col min="4" max="4" width="18.28515625" customWidth="1"/>
-    <col min="5" max="5" width="22.85546875" customWidth="1"/>
-    <col min="6" max="6" width="26.5703125" customWidth="1"/>
-    <col min="7" max="7" width="23.85546875" customWidth="1"/>
-    <col min="8" max="10" width="17.140625" customWidth="1"/>
+    <col min="2" max="2" width="19.88671875" customWidth="1"/>
+    <col min="3" max="3" width="17.33203125" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" customWidth="1"/>
+    <col min="5" max="5" width="22.88671875" customWidth="1"/>
+    <col min="6" max="6" width="26.5546875" customWidth="1"/>
+    <col min="7" max="7" width="23.88671875" customWidth="1"/>
+    <col min="8" max="10" width="17.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="15">
       <c r="B2" s="43" t="s">
         <v>220</v>
       </c>
@@ -3887,7 +3856,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="15">
       <c r="A3">
         <v>1</v>
       </c>
@@ -3899,7 +3868,7 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="15">
       <c r="A4">
         <v>2</v>
       </c>
@@ -3911,7 +3880,7 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="15">
       <c r="A5">
         <v>3</v>
       </c>
@@ -3923,7 +3892,7 @@
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="15">
       <c r="A6">
         <v>4</v>
       </c>
@@ -3935,7 +3904,7 @@
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="15">
       <c r="A7">
         <v>5</v>
       </c>
@@ -3947,7 +3916,7 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="15">
       <c r="A8">
         <v>6</v>
       </c>
@@ -3959,7 +3928,7 @@
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="15">
       <c r="A9">
         <v>7</v>
       </c>
@@ -3971,7 +3940,7 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="15">
       <c r="A10">
         <v>8</v>
       </c>
@@ -3983,7 +3952,7 @@
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="15">
       <c r="A11">
         <v>9</v>
       </c>
@@ -3995,7 +3964,7 @@
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="15">
       <c r="A12">
         <v>10</v>
       </c>
@@ -4007,7 +3976,7 @@
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="15">
       <c r="A13">
         <v>11</v>
       </c>
@@ -4019,7 +3988,7 @@
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="15">
       <c r="A14">
         <v>12</v>
       </c>
@@ -4031,7 +4000,7 @@
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="15">
       <c r="A15">
         <v>13</v>
       </c>
@@ -4043,7 +4012,7 @@
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="15">
       <c r="A16">
         <v>14</v>
       </c>
@@ -4055,7 +4024,7 @@
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="15">
       <c r="A17">
         <v>15</v>
       </c>
@@ -4067,7 +4036,7 @@
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" ht="15">
       <c r="A18">
         <v>16</v>
       </c>
@@ -4079,7 +4048,7 @@
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" ht="15">
       <c r="A19">
         <v>17</v>
       </c>
@@ -4091,7 +4060,7 @@
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" ht="15">
       <c r="A20">
         <v>18</v>
       </c>
@@ -4103,7 +4072,7 @@
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" ht="15">
       <c r="A21">
         <v>19</v>
       </c>
@@ -4115,7 +4084,7 @@
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" ht="15">
       <c r="A22">
         <v>20</v>
       </c>
@@ -4127,7 +4096,7 @@
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" ht="15">
       <c r="A23">
         <v>21</v>
       </c>
@@ -4139,7 +4108,7 @@
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" ht="15">
       <c r="A24">
         <v>22</v>
       </c>
@@ -4151,7 +4120,7 @@
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" ht="15">
       <c r="A25">
         <v>23</v>
       </c>
@@ -4163,7 +4132,7 @@
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" ht="15">
       <c r="A26">
         <v>24</v>
       </c>
@@ -4175,7 +4144,7 @@
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" ht="15">
       <c r="A27">
         <v>25</v>
       </c>
@@ -4187,7 +4156,7 @@
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8">
       <c r="A28">
         <v>26</v>
       </c>
@@ -4199,7 +4168,7 @@
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8">
       <c r="A29">
         <v>27</v>
       </c>
@@ -4211,7 +4180,7 @@
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8">
       <c r="A30">
         <v>28</v>
       </c>
@@ -4223,7 +4192,7 @@
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8">
       <c r="A31">
         <v>29</v>
       </c>
@@ -4235,7 +4204,7 @@
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8">
       <c r="A32">
         <v>30</v>
       </c>
@@ -4247,7 +4216,7 @@
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8">
       <c r="A33">
         <v>31</v>
       </c>
@@ -4259,7 +4228,7 @@
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8">
       <c r="A34">
         <v>32</v>
       </c>
@@ -4271,7 +4240,7 @@
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8">
       <c r="A35">
         <v>33</v>
       </c>
@@ -4283,7 +4252,7 @@
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8">
       <c r="A36">
         <v>34</v>
       </c>
@@ -4295,7 +4264,7 @@
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8">
       <c r="A37">
         <v>35</v>
       </c>
@@ -4307,7 +4276,7 @@
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8">
       <c r="A38">
         <v>36</v>
       </c>
@@ -4319,7 +4288,7 @@
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8">
       <c r="A39">
         <v>37</v>
       </c>
@@ -4331,7 +4300,7 @@
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8">
       <c r="A40">
         <v>38</v>
       </c>
@@ -4343,7 +4312,7 @@
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8">
       <c r="A41">
         <v>39</v>
       </c>
@@ -4355,7 +4324,7 @@
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8">
       <c r="A42">
         <v>40</v>
       </c>
@@ -4367,7 +4336,7 @@
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8">
       <c r="A43">
         <v>41</v>
       </c>
@@ -4379,7 +4348,7 @@
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8">
       <c r="A44">
         <v>42</v>
       </c>
@@ -4391,7 +4360,7 @@
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8">
       <c r="A45">
         <v>43</v>
       </c>
@@ -4403,7 +4372,7 @@
       <c r="G45" s="1"/>
       <c r="H45" s="1"/>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8">
       <c r="A46">
         <v>44</v>
       </c>
@@ -4415,7 +4384,7 @@
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8">
       <c r="A47">
         <v>45</v>
       </c>
@@ -4427,7 +4396,7 @@
       <c r="G47" s="1"/>
       <c r="H47" s="1"/>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8">
       <c r="A48">
         <v>46</v>
       </c>
@@ -4439,7 +4408,7 @@
       <c r="G48" s="1"/>
       <c r="H48" s="1"/>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8">
       <c r="A49">
         <v>47</v>
       </c>
@@ -4451,7 +4420,7 @@
       <c r="G49" s="1"/>
       <c r="H49" s="1"/>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8">
       <c r="A50">
         <v>48</v>
       </c>
@@ -4463,7 +4432,7 @@
       <c r="G50" s="1"/>
       <c r="H50" s="1"/>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8">
       <c r="A51">
         <v>49</v>
       </c>
@@ -4475,7 +4444,7 @@
       <c r="G51" s="1"/>
       <c r="H51" s="1"/>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8">
       <c r="A52">
         <v>50</v>
       </c>
@@ -4487,7 +4456,7 @@
       <c r="G52" s="1"/>
       <c r="H52" s="1"/>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8">
       <c r="A53">
         <v>51</v>
       </c>
@@ -4499,7 +4468,7 @@
       <c r="G53" s="1"/>
       <c r="H53" s="1"/>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8">
       <c r="A54">
         <v>52</v>
       </c>
@@ -4511,7 +4480,7 @@
       <c r="G54" s="1"/>
       <c r="H54" s="1"/>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8">
       <c r="A55">
         <v>53</v>
       </c>
@@ -4523,7 +4492,7 @@
       <c r="G55" s="1"/>
       <c r="H55" s="1"/>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8">
       <c r="A56">
         <v>54</v>
       </c>
@@ -4535,7 +4504,7 @@
       <c r="G56" s="1"/>
       <c r="H56" s="1"/>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8">
       <c r="A57">
         <v>55</v>
       </c>
@@ -4547,7 +4516,7 @@
       <c r="G57" s="1"/>
       <c r="H57" s="1"/>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8">
       <c r="A58">
         <v>56</v>
       </c>
@@ -4559,7 +4528,7 @@
       <c r="G58" s="1"/>
       <c r="H58" s="1"/>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8">
       <c r="A59">
         <v>57</v>
       </c>
@@ -4571,7 +4540,7 @@
       <c r="G59" s="1"/>
       <c r="H59" s="1"/>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8">
       <c r="A60">
         <v>58</v>
       </c>
@@ -4583,7 +4552,7 @@
       <c r="G60" s="1"/>
       <c r="H60" s="1"/>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8">
       <c r="A61">
         <v>59</v>
       </c>
@@ -4595,7 +4564,7 @@
       <c r="G61" s="1"/>
       <c r="H61" s="1"/>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8">
       <c r="A62">
         <v>60</v>
       </c>
@@ -4607,7 +4576,7 @@
       <c r="G62" s="1"/>
       <c r="H62" s="1"/>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8">
       <c r="A63">
         <v>61</v>
       </c>
@@ -4619,7 +4588,7 @@
       <c r="G63" s="1"/>
       <c r="H63" s="1"/>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8">
       <c r="A64">
         <v>62</v>
       </c>
@@ -4631,7 +4600,7 @@
       <c r="G64" s="1"/>
       <c r="H64" s="1"/>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8">
       <c r="A65">
         <v>63</v>
       </c>
@@ -4643,7 +4612,7 @@
       <c r="G65" s="1"/>
       <c r="H65" s="1"/>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8">
       <c r="A66">
         <v>64</v>
       </c>
@@ -4655,7 +4624,7 @@
       <c r="G66" s="1"/>
       <c r="H66" s="1"/>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8">
       <c r="A67">
         <v>65</v>
       </c>
@@ -4667,7 +4636,7 @@
       <c r="G67" s="1"/>
       <c r="H67" s="1"/>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8">
       <c r="A68">
         <v>66</v>
       </c>
@@ -4679,7 +4648,7 @@
       <c r="G68" s="1"/>
       <c r="H68" s="1"/>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8">
       <c r="A69">
         <v>67</v>
       </c>
@@ -4691,7 +4660,7 @@
       <c r="G69" s="1"/>
       <c r="H69" s="1"/>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8">
       <c r="A70">
         <v>68</v>
       </c>
@@ -4703,7 +4672,7 @@
       <c r="G70" s="1"/>
       <c r="H70" s="1"/>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8">
       <c r="A71">
         <v>69</v>
       </c>
@@ -4715,7 +4684,7 @@
       <c r="G71" s="1"/>
       <c r="H71" s="1"/>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8">
       <c r="A72">
         <v>70</v>
       </c>
@@ -4727,7 +4696,7 @@
       <c r="G72" s="1"/>
       <c r="H72" s="1"/>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8">
       <c r="A73">
         <v>71</v>
       </c>
@@ -4739,7 +4708,7 @@
       <c r="G73" s="1"/>
       <c r="H73" s="1"/>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8">
       <c r="A74">
         <v>72</v>
       </c>
@@ -4751,7 +4720,7 @@
       <c r="G74" s="1"/>
       <c r="H74" s="1"/>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8">
       <c r="A75">
         <v>73</v>
       </c>
@@ -4763,7 +4732,7 @@
       <c r="G75" s="1"/>
       <c r="H75" s="1"/>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8">
       <c r="A76">
         <v>74</v>
       </c>
@@ -4775,7 +4744,7 @@
       <c r="G76" s="1"/>
       <c r="H76" s="1"/>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8">
       <c r="A77">
         <v>75</v>
       </c>
@@ -4787,7 +4756,7 @@
       <c r="G77" s="1"/>
       <c r="H77" s="1"/>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8">
       <c r="A78">
         <v>76</v>
       </c>
@@ -4799,7 +4768,7 @@
       <c r="G78" s="1"/>
       <c r="H78" s="1"/>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8">
       <c r="A79">
         <v>77</v>
       </c>
@@ -4811,7 +4780,7 @@
       <c r="G79" s="1"/>
       <c r="H79" s="1"/>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8">
       <c r="A80">
         <v>78</v>
       </c>
@@ -4823,7 +4792,7 @@
       <c r="G80" s="1"/>
       <c r="H80" s="1"/>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8">
       <c r="A81">
         <v>79</v>
       </c>
@@ -4835,7 +4804,7 @@
       <c r="G81" s="1"/>
       <c r="H81" s="1"/>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8">
       <c r="A82">
         <v>80</v>
       </c>
@@ -4847,7 +4816,7 @@
       <c r="G82" s="1"/>
       <c r="H82" s="1"/>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8">
       <c r="A83">
         <v>81</v>
       </c>
@@ -4859,7 +4828,7 @@
       <c r="G83" s="1"/>
       <c r="H83" s="1"/>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8">
       <c r="A84">
         <v>82</v>
       </c>
@@ -4871,7 +4840,7 @@
       <c r="G84" s="1"/>
       <c r="H84" s="1"/>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8">
       <c r="A85">
         <v>83</v>
       </c>
@@ -4883,7 +4852,7 @@
       <c r="G85" s="1"/>
       <c r="H85" s="1"/>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8">
       <c r="A86">
         <v>84</v>
       </c>
@@ -4895,7 +4864,7 @@
       <c r="G86" s="1"/>
       <c r="H86" s="1"/>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8">
       <c r="A87">
         <v>85</v>
       </c>
@@ -4907,7 +4876,7 @@
       <c r="G87" s="1"/>
       <c r="H87" s="1"/>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8">
       <c r="A88">
         <v>86</v>
       </c>
@@ -4919,7 +4888,7 @@
       <c r="G88" s="1"/>
       <c r="H88" s="1"/>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8">
       <c r="A89">
         <v>87</v>
       </c>
@@ -4931,7 +4900,7 @@
       <c r="G89" s="1"/>
       <c r="H89" s="1"/>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8">
       <c r="A90">
         <v>88</v>
       </c>
@@ -4943,7 +4912,7 @@
       <c r="G90" s="1"/>
       <c r="H90" s="1"/>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8">
       <c r="A91">
         <v>89</v>
       </c>
@@ -4955,7 +4924,7 @@
       <c r="G91" s="1"/>
       <c r="H91" s="1"/>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8">
       <c r="A92">
         <v>90</v>
       </c>
@@ -4967,7 +4936,7 @@
       <c r="G92" s="1"/>
       <c r="H92" s="1"/>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8">
       <c r="A93">
         <v>91</v>
       </c>
@@ -4979,7 +4948,7 @@
       <c r="G93" s="1"/>
       <c r="H93" s="1"/>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8">
       <c r="A94">
         <v>92</v>
       </c>
@@ -4991,7 +4960,7 @@
       <c r="G94" s="1"/>
       <c r="H94" s="1"/>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8">
       <c r="A95">
         <v>93</v>
       </c>
@@ -5003,7 +4972,7 @@
       <c r="G95" s="1"/>
       <c r="H95" s="1"/>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8">
       <c r="A96">
         <v>94</v>
       </c>
@@ -5015,7 +4984,7 @@
       <c r="G96" s="1"/>
       <c r="H96" s="1"/>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8">
       <c r="A97">
         <v>95</v>
       </c>
@@ -5027,7 +4996,7 @@
       <c r="G97" s="1"/>
       <c r="H97" s="1"/>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8">
       <c r="A98">
         <v>96</v>
       </c>
@@ -5039,7 +5008,7 @@
       <c r="G98" s="1"/>
       <c r="H98" s="1"/>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:8">
       <c r="A99">
         <v>97</v>
       </c>
@@ -5051,7 +5020,7 @@
       <c r="G99" s="1"/>
       <c r="H99" s="1"/>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8">
       <c r="A100">
         <v>98</v>
       </c>
@@ -5063,7 +5032,7 @@
       <c r="G100" s="1"/>
       <c r="H100" s="1"/>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:8">
       <c r="A101">
         <v>99</v>
       </c>
@@ -5075,7 +5044,7 @@
       <c r="G101" s="1"/>
       <c r="H101" s="1"/>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:8">
       <c r="A102">
         <v>100</v>
       </c>
@@ -5087,7 +5056,7 @@
       <c r="G102" s="1"/>
       <c r="H102" s="1"/>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:8">
       <c r="A103">
         <v>101</v>
       </c>
@@ -5099,7 +5068,7 @@
       <c r="G103" s="1"/>
       <c r="H103" s="1"/>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8">
       <c r="A104">
         <v>102</v>
       </c>
@@ -5111,7 +5080,7 @@
       <c r="G104" s="1"/>
       <c r="H104" s="1"/>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:8">
       <c r="A105">
         <v>103</v>
       </c>
@@ -5123,7 +5092,7 @@
       <c r="G105" s="1"/>
       <c r="H105" s="1"/>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:8">
       <c r="A106">
         <v>104</v>
       </c>
@@ -5135,7 +5104,7 @@
       <c r="G106" s="1"/>
       <c r="H106" s="1"/>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:8">
       <c r="A107">
         <v>105</v>
       </c>
@@ -5147,7 +5116,7 @@
       <c r="G107" s="1"/>
       <c r="H107" s="1"/>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:8">
       <c r="A108">
         <v>106</v>
       </c>
@@ -5159,7 +5128,7 @@
       <c r="G108" s="1"/>
       <c r="H108" s="1"/>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:8">
       <c r="A109">
         <v>107</v>
       </c>
@@ -5171,7 +5140,7 @@
       <c r="G109" s="1"/>
       <c r="H109" s="1"/>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:8">
       <c r="A110">
         <v>108</v>
       </c>
@@ -5183,7 +5152,7 @@
       <c r="G110" s="1"/>
       <c r="H110" s="1"/>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:8">
       <c r="A111">
         <v>109</v>
       </c>
@@ -5195,7 +5164,7 @@
       <c r="G111" s="1"/>
       <c r="H111" s="1"/>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:8">
       <c r="A112">
         <v>110</v>
       </c>
@@ -5207,7 +5176,7 @@
       <c r="G112" s="1"/>
       <c r="H112" s="1"/>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:8">
       <c r="A113">
         <v>111</v>
       </c>
@@ -5219,7 +5188,7 @@
       <c r="G113" s="1"/>
       <c r="H113" s="1"/>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:8">
       <c r="A114">
         <v>112</v>
       </c>
@@ -5231,7 +5200,7 @@
       <c r="G114" s="1"/>
       <c r="H114" s="1"/>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:8">
       <c r="A115">
         <v>113</v>
       </c>
@@ -5243,7 +5212,7 @@
       <c r="G115" s="1"/>
       <c r="H115" s="1"/>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:8">
       <c r="A116">
         <v>114</v>
       </c>
@@ -5255,7 +5224,7 @@
       <c r="G116" s="1"/>
       <c r="H116" s="1"/>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:8">
       <c r="A117">
         <v>115</v>
       </c>
@@ -5267,7 +5236,7 @@
       <c r="G117" s="1"/>
       <c r="H117" s="1"/>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:8">
       <c r="A118">
         <v>116</v>
       </c>
@@ -5279,7 +5248,7 @@
       <c r="G118" s="1"/>
       <c r="H118" s="1"/>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:8">
       <c r="A119">
         <v>117</v>
       </c>
@@ -5291,7 +5260,7 @@
       <c r="G119" s="1"/>
       <c r="H119" s="1"/>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:8">
       <c r="A120">
         <v>118</v>
       </c>
@@ -5303,7 +5272,7 @@
       <c r="G120" s="1"/>
       <c r="H120" s="1"/>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:8">
       <c r="A121">
         <v>119</v>
       </c>
@@ -5315,7 +5284,7 @@
       <c r="G121" s="1"/>
       <c r="H121" s="1"/>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:8">
       <c r="A122">
         <v>120</v>
       </c>
@@ -5327,7 +5296,7 @@
       <c r="G122" s="1"/>
       <c r="H122" s="1"/>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:8">
       <c r="A123">
         <v>121</v>
       </c>
@@ -5339,7 +5308,7 @@
       <c r="G123" s="1"/>
       <c r="H123" s="1"/>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:8">
       <c r="A124">
         <v>122</v>
       </c>
@@ -5351,7 +5320,7 @@
       <c r="G124" s="1"/>
       <c r="H124" s="1"/>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:8">
       <c r="A125">
         <v>123</v>
       </c>
@@ -5363,7 +5332,7 @@
       <c r="G125" s="1"/>
       <c r="H125" s="1"/>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:8">
       <c r="A126">
         <v>124</v>
       </c>
@@ -5375,7 +5344,7 @@
       <c r="G126" s="1"/>
       <c r="H126" s="1"/>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:8">
       <c r="A127">
         <v>125</v>
       </c>
@@ -5387,7 +5356,7 @@
       <c r="G127" s="1"/>
       <c r="H127" s="1"/>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:8">
       <c r="A128">
         <v>126</v>
       </c>
@@ -5399,7 +5368,7 @@
       <c r="G128" s="1"/>
       <c r="H128" s="1"/>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:8">
       <c r="A129">
         <v>127</v>
       </c>
@@ -5411,7 +5380,7 @@
       <c r="G129" s="1"/>
       <c r="H129" s="1"/>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:8">
       <c r="A130">
         <v>128</v>
       </c>
@@ -5423,7 +5392,7 @@
       <c r="G130" s="1"/>
       <c r="H130" s="1"/>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:8">
       <c r="A131">
         <v>129</v>
       </c>
@@ -5435,7 +5404,7 @@
       <c r="G131" s="1"/>
       <c r="H131" s="1"/>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:8">
       <c r="A132">
         <v>130</v>
       </c>
@@ -5447,7 +5416,7 @@
       <c r="G132" s="1"/>
       <c r="H132" s="1"/>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:8">
       <c r="A133">
         <v>131</v>
       </c>
@@ -5459,7 +5428,7 @@
       <c r="G133" s="1"/>
       <c r="H133" s="1"/>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:8">
       <c r="A134">
         <v>132</v>
       </c>
@@ -5471,7 +5440,7 @@
       <c r="G134" s="1"/>
       <c r="H134" s="1"/>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:8">
       <c r="A135">
         <v>133</v>
       </c>
@@ -5483,7 +5452,7 @@
       <c r="G135" s="1"/>
       <c r="H135" s="1"/>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:8">
       <c r="A136">
         <v>134</v>
       </c>
@@ -5495,7 +5464,7 @@
       <c r="G136" s="1"/>
       <c r="H136" s="1"/>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:8">
       <c r="A137">
         <v>135</v>
       </c>
@@ -5507,7 +5476,7 @@
       <c r="G137" s="1"/>
       <c r="H137" s="1"/>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:8">
       <c r="A138">
         <v>136</v>
       </c>
@@ -5519,7 +5488,7 @@
       <c r="G138" s="1"/>
       <c r="H138" s="1"/>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:8">
       <c r="A139">
         <v>137</v>
       </c>
@@ -5531,7 +5500,7 @@
       <c r="G139" s="1"/>
       <c r="H139" s="1"/>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:8">
       <c r="A140">
         <v>138</v>
       </c>
@@ -5543,7 +5512,7 @@
       <c r="G140" s="1"/>
       <c r="H140" s="1"/>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:8">
       <c r="A141">
         <v>139</v>
       </c>
@@ -5555,7 +5524,7 @@
       <c r="G141" s="1"/>
       <c r="H141" s="1"/>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:8">
       <c r="A142">
         <v>140</v>
       </c>
@@ -5567,7 +5536,7 @@
       <c r="G142" s="1"/>
       <c r="H142" s="1"/>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:8">
       <c r="A143">
         <v>141</v>
       </c>
@@ -5579,7 +5548,7 @@
       <c r="G143" s="1"/>
       <c r="H143" s="1"/>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:8">
       <c r="A144">
         <v>142</v>
       </c>
@@ -5591,7 +5560,7 @@
       <c r="G144" s="1"/>
       <c r="H144" s="1"/>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:8">
       <c r="A145">
         <v>143</v>
       </c>
@@ -5603,7 +5572,7 @@
       <c r="G145" s="1"/>
       <c r="H145" s="1"/>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:8">
       <c r="A146">
         <v>144</v>
       </c>
@@ -5615,7 +5584,7 @@
       <c r="G146" s="1"/>
       <c r="H146" s="1"/>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:8">
       <c r="A147">
         <v>145</v>
       </c>
@@ -5627,7 +5596,7 @@
       <c r="G147" s="1"/>
       <c r="H147" s="1"/>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:8">
       <c r="A148">
         <v>146</v>
       </c>
@@ -5639,7 +5608,7 @@
       <c r="G148" s="1"/>
       <c r="H148" s="1"/>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:8">
       <c r="A149">
         <v>147</v>
       </c>
@@ -5651,7 +5620,7 @@
       <c r="G149" s="1"/>
       <c r="H149" s="1"/>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:8">
       <c r="A150">
         <v>148</v>
       </c>
@@ -5663,7 +5632,7 @@
       <c r="G150" s="1"/>
       <c r="H150" s="1"/>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:8">
       <c r="A151">
         <v>149</v>
       </c>
@@ -5675,7 +5644,7 @@
       <c r="G151" s="1"/>
       <c r="H151" s="1"/>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:8">
       <c r="A152">
         <v>150</v>
       </c>
@@ -5687,7 +5656,7 @@
       <c r="G152" s="1"/>
       <c r="H152" s="1"/>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:8">
       <c r="A153">
         <v>151</v>
       </c>
@@ -5699,7 +5668,7 @@
       <c r="G153" s="1"/>
       <c r="H153" s="1"/>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:8">
       <c r="A154">
         <v>152</v>
       </c>
@@ -5711,7 +5680,7 @@
       <c r="G154" s="1"/>
       <c r="H154" s="1"/>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:8">
       <c r="A155">
         <v>153</v>
       </c>
@@ -5723,7 +5692,7 @@
       <c r="G155" s="1"/>
       <c r="H155" s="1"/>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:8">
       <c r="A156">
         <v>154</v>
       </c>
@@ -5735,7 +5704,7 @@
       <c r="G156" s="1"/>
       <c r="H156" s="1"/>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:8">
       <c r="A157">
         <v>155</v>
       </c>
@@ -5747,7 +5716,7 @@
       <c r="G157" s="1"/>
       <c r="H157" s="1"/>
     </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:8">
       <c r="A158">
         <v>156</v>
       </c>
@@ -5759,7 +5728,7 @@
       <c r="G158" s="1"/>
       <c r="H158" s="1"/>
     </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:8">
       <c r="A159">
         <v>157</v>
       </c>
@@ -5771,7 +5740,7 @@
       <c r="G159" s="1"/>
       <c r="H159" s="1"/>
     </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:8">
       <c r="A160">
         <v>158</v>
       </c>
@@ -5783,7 +5752,7 @@
       <c r="G160" s="1"/>
       <c r="H160" s="1"/>
     </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:8">
       <c r="A161">
         <v>159</v>
       </c>
@@ -5795,7 +5764,7 @@
       <c r="G161" s="1"/>
       <c r="H161" s="1"/>
     </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:8">
       <c r="A162">
         <v>160</v>
       </c>
@@ -5807,7 +5776,7 @@
       <c r="G162" s="1"/>
       <c r="H162" s="1"/>
     </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:8">
       <c r="A163">
         <v>161</v>
       </c>
@@ -5819,7 +5788,7 @@
       <c r="G163" s="1"/>
       <c r="H163" s="1"/>
     </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:8">
       <c r="A164">
         <v>162</v>
       </c>
@@ -5831,7 +5800,7 @@
       <c r="G164" s="1"/>
       <c r="H164" s="1"/>
     </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:8">
       <c r="A165">
         <v>163</v>
       </c>
@@ -5843,7 +5812,7 @@
       <c r="G165" s="1"/>
       <c r="H165" s="1"/>
     </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:8">
       <c r="A166">
         <v>164</v>
       </c>
@@ -5855,7 +5824,7 @@
       <c r="G166" s="1"/>
       <c r="H166" s="1"/>
     </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:8">
       <c r="A167">
         <v>165</v>
       </c>
@@ -5867,7 +5836,7 @@
       <c r="G167" s="1"/>
       <c r="H167" s="1"/>
     </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:8">
       <c r="A168">
         <v>166</v>
       </c>
@@ -5879,7 +5848,7 @@
       <c r="G168" s="1"/>
       <c r="H168" s="1"/>
     </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:8">
       <c r="A169">
         <v>167</v>
       </c>
@@ -5891,7 +5860,7 @@
       <c r="G169" s="1"/>
       <c r="H169" s="1"/>
     </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:8">
       <c r="A170">
         <v>168</v>
       </c>
@@ -5903,7 +5872,7 @@
       <c r="G170" s="1"/>
       <c r="H170" s="1"/>
     </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:8">
       <c r="A171">
         <v>169</v>
       </c>
@@ -5915,7 +5884,7 @@
       <c r="G171" s="1"/>
       <c r="H171" s="1"/>
     </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:8">
       <c r="A172">
         <v>170</v>
       </c>
@@ -5927,7 +5896,7 @@
       <c r="G172" s="1"/>
       <c r="H172" s="1"/>
     </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:8">
       <c r="A173">
         <v>171</v>
       </c>
@@ -5939,7 +5908,7 @@
       <c r="G173" s="1"/>
       <c r="H173" s="1"/>
     </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:8">
       <c r="A174">
         <v>172</v>
       </c>
@@ -5951,7 +5920,7 @@
       <c r="G174" s="1"/>
       <c r="H174" s="1"/>
     </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:8">
       <c r="A175">
         <v>173</v>
       </c>
@@ -5963,7 +5932,7 @@
       <c r="G175" s="1"/>
       <c r="H175" s="1"/>
     </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:8">
       <c r="A176">
         <v>174</v>
       </c>
@@ -5975,7 +5944,7 @@
       <c r="G176" s="1"/>
       <c r="H176" s="1"/>
     </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:8">
       <c r="A177">
         <v>175</v>
       </c>
@@ -5987,7 +5956,7 @@
       <c r="G177" s="1"/>
       <c r="H177" s="1"/>
     </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:8">
       <c r="A178">
         <v>176</v>
       </c>
@@ -5999,7 +5968,7 @@
       <c r="G178" s="1"/>
       <c r="H178" s="1"/>
     </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:8">
       <c r="A179">
         <v>177</v>
       </c>
@@ -6011,7 +5980,7 @@
       <c r="G179" s="1"/>
       <c r="H179" s="1"/>
     </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:8">
       <c r="A180">
         <v>178</v>
       </c>
@@ -6023,7 +5992,7 @@
       <c r="G180" s="1"/>
       <c r="H180" s="1"/>
     </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:8">
       <c r="A181">
         <v>179</v>
       </c>
@@ -6035,7 +6004,7 @@
       <c r="G181" s="1"/>
       <c r="H181" s="1"/>
     </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:8">
       <c r="A182">
         <v>180</v>
       </c>
@@ -6047,7 +6016,7 @@
       <c r="G182" s="1"/>
       <c r="H182" s="1"/>
     </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:8">
       <c r="A183">
         <v>181</v>
       </c>
@@ -6059,7 +6028,7 @@
       <c r="G183" s="1"/>
       <c r="H183" s="1"/>
     </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:8">
       <c r="A184">
         <v>182</v>
       </c>
@@ -6071,7 +6040,7 @@
       <c r="G184" s="1"/>
       <c r="H184" s="1"/>
     </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:8">
       <c r="A185">
         <v>183</v>
       </c>
@@ -6083,7 +6052,7 @@
       <c r="G185" s="1"/>
       <c r="H185" s="1"/>
     </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:8">
       <c r="A186">
         <v>184</v>
       </c>
@@ -6095,7 +6064,7 @@
       <c r="G186" s="1"/>
       <c r="H186" s="1"/>
     </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:8">
       <c r="A187">
         <v>185</v>
       </c>
@@ -6107,7 +6076,7 @@
       <c r="G187" s="1"/>
       <c r="H187" s="1"/>
     </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:8">
       <c r="A188">
         <v>186</v>
       </c>
@@ -6119,7 +6088,7 @@
       <c r="G188" s="1"/>
       <c r="H188" s="1"/>
     </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:8">
       <c r="A189">
         <v>187</v>
       </c>
@@ -6131,7 +6100,7 @@
       <c r="G189" s="1"/>
       <c r="H189" s="1"/>
     </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:8">
       <c r="A190">
         <v>188</v>
       </c>
@@ -6143,7 +6112,7 @@
       <c r="G190" s="1"/>
       <c r="H190" s="1"/>
     </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:8">
       <c r="A191">
         <v>189</v>
       </c>
@@ -6155,7 +6124,7 @@
       <c r="G191" s="1"/>
       <c r="H191" s="1"/>
     </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:8">
       <c r="A192">
         <v>190</v>
       </c>
@@ -6167,7 +6136,7 @@
       <c r="G192" s="1"/>
       <c r="H192" s="1"/>
     </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:8">
       <c r="A193">
         <v>191</v>
       </c>
@@ -6179,7 +6148,7 @@
       <c r="G193" s="1"/>
       <c r="H193" s="1"/>
     </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:8">
       <c r="A194">
         <v>192</v>
       </c>
@@ -6191,7 +6160,7 @@
       <c r="G194" s="1"/>
       <c r="H194" s="1"/>
     </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:8">
       <c r="A195">
         <v>193</v>
       </c>
@@ -6203,7 +6172,7 @@
       <c r="G195" s="1"/>
       <c r="H195" s="1"/>
     </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:8">
       <c r="A196">
         <v>194</v>
       </c>
@@ -6215,7 +6184,7 @@
       <c r="G196" s="1"/>
       <c r="H196" s="1"/>
     </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:8">
       <c r="A197">
         <v>195</v>
       </c>
@@ -6227,7 +6196,7 @@
       <c r="G197" s="1"/>
       <c r="H197" s="1"/>
     </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:8">
       <c r="A198">
         <v>196</v>
       </c>
@@ -6239,7 +6208,7 @@
       <c r="G198" s="1"/>
       <c r="H198" s="1"/>
     </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:8">
       <c r="A199">
         <v>197</v>
       </c>
@@ -6251,7 +6220,7 @@
       <c r="G199" s="1"/>
       <c r="H199" s="1"/>
     </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:8">
       <c r="A200">
         <v>198</v>
       </c>
@@ -6263,7 +6232,7 @@
       <c r="G200" s="1"/>
       <c r="H200" s="1"/>
     </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:8">
       <c r="A201">
         <v>199</v>
       </c>
@@ -6275,7 +6244,7 @@
       <c r="G201" s="1"/>
       <c r="H201" s="1"/>
     </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:8">
       <c r="A202">
         <v>200</v>
       </c>
@@ -6287,7 +6256,7 @@
       <c r="G202" s="1"/>
       <c r="H202" s="1"/>
     </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:8">
       <c r="A203">
         <v>201</v>
       </c>
@@ -6299,7 +6268,7 @@
       <c r="G203" s="1"/>
       <c r="H203" s="1"/>
     </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:8">
       <c r="A204">
         <v>202</v>
       </c>
@@ -6311,7 +6280,7 @@
       <c r="G204" s="1"/>
       <c r="H204" s="1"/>
     </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:8">
       <c r="A205">
         <v>203</v>
       </c>
@@ -6323,7 +6292,7 @@
       <c r="G205" s="1"/>
       <c r="H205" s="1"/>
     </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:8">
       <c r="A206">
         <v>204</v>
       </c>
@@ -6335,7 +6304,7 @@
       <c r="G206" s="1"/>
       <c r="H206" s="1"/>
     </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:8">
       <c r="A207">
         <v>205</v>
       </c>
@@ -6347,7 +6316,7 @@
       <c r="G207" s="1"/>
       <c r="H207" s="1"/>
     </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:8">
       <c r="A208">
         <v>206</v>
       </c>
@@ -6359,7 +6328,7 @@
       <c r="G208" s="1"/>
       <c r="H208" s="1"/>
     </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:8">
       <c r="A209">
         <v>207</v>
       </c>
@@ -6371,7 +6340,7 @@
       <c r="G209" s="1"/>
       <c r="H209" s="1"/>
     </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:8">
       <c r="A210">
         <v>208</v>
       </c>
@@ -6383,7 +6352,7 @@
       <c r="G210" s="1"/>
       <c r="H210" s="1"/>
     </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:8">
       <c r="A211">
         <v>209</v>
       </c>
@@ -6395,7 +6364,7 @@
       <c r="G211" s="1"/>
       <c r="H211" s="1"/>
     </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:8">
       <c r="A212">
         <v>210</v>
       </c>
@@ -6407,7 +6376,7 @@
       <c r="G212" s="1"/>
       <c r="H212" s="1"/>
     </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:8">
       <c r="A213">
         <v>211</v>
       </c>
@@ -6419,7 +6388,7 @@
       <c r="G213" s="1"/>
       <c r="H213" s="1"/>
     </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:8">
       <c r="A214">
         <v>212</v>
       </c>
@@ -6431,7 +6400,7 @@
       <c r="G214" s="1"/>
       <c r="H214" s="1"/>
     </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:8">
       <c r="A215">
         <v>213</v>
       </c>
@@ -6443,7 +6412,7 @@
       <c r="G215" s="1"/>
       <c r="H215" s="1"/>
     </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:8">
       <c r="A216">
         <v>214</v>
       </c>
@@ -6455,7 +6424,7 @@
       <c r="G216" s="1"/>
       <c r="H216" s="1"/>
     </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:8">
       <c r="A217">
         <v>215</v>
       </c>
@@ -6467,7 +6436,7 @@
       <c r="G217" s="1"/>
       <c r="H217" s="1"/>
     </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:8">
       <c r="A218">
         <v>216</v>
       </c>
@@ -6479,7 +6448,7 @@
       <c r="G218" s="1"/>
       <c r="H218" s="1"/>
     </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:8">
       <c r="A219">
         <v>217</v>
       </c>
@@ -6491,7 +6460,7 @@
       <c r="G219" s="1"/>
       <c r="H219" s="1"/>
     </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:8">
       <c r="A220">
         <v>218</v>
       </c>
@@ -6503,7 +6472,7 @@
       <c r="G220" s="1"/>
       <c r="H220" s="1"/>
     </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:8">
       <c r="A221">
         <v>219</v>
       </c>
@@ -6515,7 +6484,7 @@
       <c r="G221" s="1"/>
       <c r="H221" s="1"/>
     </row>
-    <row r="222" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:8">
       <c r="A222">
         <v>220</v>
       </c>
@@ -6527,7 +6496,7 @@
       <c r="G222" s="1"/>
       <c r="H222" s="1"/>
     </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:8">
       <c r="A223">
         <v>221</v>
       </c>
@@ -6539,7 +6508,7 @@
       <c r="G223" s="1"/>
       <c r="H223" s="1"/>
     </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:8">
       <c r="A224">
         <v>222</v>
       </c>
@@ -6551,7 +6520,7 @@
       <c r="G224" s="1"/>
       <c r="H224" s="1"/>
     </row>
-    <row r="225" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:8">
       <c r="A225">
         <v>223</v>
       </c>
@@ -6563,7 +6532,7 @@
       <c r="G225" s="1"/>
       <c r="H225" s="1"/>
     </row>
-    <row r="226" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:8">
       <c r="A226">
         <v>224</v>
       </c>
@@ -6575,7 +6544,7 @@
       <c r="G226" s="1"/>
       <c r="H226" s="1"/>
     </row>
-    <row r="227" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:8">
       <c r="A227">
         <v>225</v>
       </c>
@@ -6587,7 +6556,7 @@
       <c r="G227" s="1"/>
       <c r="H227" s="1"/>
     </row>
-    <row r="228" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:8">
       <c r="A228">
         <v>226</v>
       </c>
@@ -6599,7 +6568,7 @@
       <c r="G228" s="1"/>
       <c r="H228" s="1"/>
     </row>
-    <row r="229" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:8">
       <c r="A229">
         <v>227</v>
       </c>
@@ -6611,7 +6580,7 @@
       <c r="G229" s="1"/>
       <c r="H229" s="1"/>
     </row>
-    <row r="230" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:8">
       <c r="A230">
         <v>228</v>
       </c>
@@ -6623,7 +6592,7 @@
       <c r="G230" s="1"/>
       <c r="H230" s="1"/>
     </row>
-    <row r="231" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:8">
       <c r="A231">
         <v>229</v>
       </c>
@@ -6635,7 +6604,7 @@
       <c r="G231" s="1"/>
       <c r="H231" s="1"/>
     </row>
-    <row r="232" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:8">
       <c r="A232">
         <v>230</v>
       </c>
@@ -6647,7 +6616,7 @@
       <c r="G232" s="1"/>
       <c r="H232" s="1"/>
     </row>
-    <row r="233" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:8">
       <c r="A233">
         <v>231</v>
       </c>
@@ -6659,7 +6628,7 @@
       <c r="G233" s="1"/>
       <c r="H233" s="1"/>
     </row>
-    <row r="234" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:8">
       <c r="A234">
         <v>232</v>
       </c>
@@ -6671,7 +6640,7 @@
       <c r="G234" s="1"/>
       <c r="H234" s="1"/>
     </row>
-    <row r="235" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:8">
       <c r="A235">
         <v>233</v>
       </c>
@@ -6683,7 +6652,7 @@
       <c r="G235" s="1"/>
       <c r="H235" s="1"/>
     </row>
-    <row r="236" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:8">
       <c r="A236">
         <v>234</v>
       </c>
@@ -6695,7 +6664,7 @@
       <c r="G236" s="1"/>
       <c r="H236" s="1"/>
     </row>
-    <row r="237" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:8">
       <c r="A237">
         <v>235</v>
       </c>
@@ -6707,7 +6676,7 @@
       <c r="G237" s="1"/>
       <c r="H237" s="1"/>
     </row>
-    <row r="238" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:8">
       <c r="A238">
         <v>236</v>
       </c>
@@ -6719,7 +6688,7 @@
       <c r="G238" s="1"/>
       <c r="H238" s="1"/>
     </row>
-    <row r="239" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:8">
       <c r="A239">
         <v>237</v>
       </c>
@@ -6731,7 +6700,7 @@
       <c r="G239" s="1"/>
       <c r="H239" s="1"/>
     </row>
-    <row r="240" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:8">
       <c r="A240">
         <v>238</v>
       </c>
@@ -6743,7 +6712,7 @@
       <c r="G240" s="1"/>
       <c r="H240" s="1"/>
     </row>
-    <row r="241" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:8">
       <c r="A241">
         <v>239</v>
       </c>
@@ -6755,7 +6724,7 @@
       <c r="G241" s="1"/>
       <c r="H241" s="1"/>
     </row>
-    <row r="242" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:8">
       <c r="A242">
         <v>240</v>
       </c>
@@ -6767,7 +6736,7 @@
       <c r="G242" s="1"/>
       <c r="H242" s="1"/>
     </row>
-    <row r="243" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:8">
       <c r="A243">
         <v>241</v>
       </c>
@@ -6779,7 +6748,7 @@
       <c r="G243" s="1"/>
       <c r="H243" s="1"/>
     </row>
-    <row r="244" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:8">
       <c r="A244">
         <v>242</v>
       </c>
@@ -6791,7 +6760,7 @@
       <c r="G244" s="1"/>
       <c r="H244" s="1"/>
     </row>
-    <row r="245" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:8">
       <c r="A245">
         <v>243</v>
       </c>
@@ -6803,7 +6772,7 @@
       <c r="G245" s="1"/>
       <c r="H245" s="1"/>
     </row>
-    <row r="246" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:8">
       <c r="A246">
         <v>244</v>
       </c>
@@ -6815,7 +6784,7 @@
       <c r="G246" s="1"/>
       <c r="H246" s="1"/>
     </row>
-    <row r="247" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:8">
       <c r="A247">
         <v>245</v>
       </c>
@@ -6827,7 +6796,7 @@
       <c r="G247" s="1"/>
       <c r="H247" s="1"/>
     </row>
-    <row r="248" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:8">
       <c r="A248">
         <v>246</v>
       </c>
@@ -6839,7 +6808,7 @@
       <c r="G248" s="1"/>
       <c r="H248" s="1"/>
     </row>
-    <row r="249" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:8">
       <c r="A249">
         <v>247</v>
       </c>
@@ -6851,7 +6820,7 @@
       <c r="G249" s="1"/>
       <c r="H249" s="1"/>
     </row>
-    <row r="250" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:8">
       <c r="A250">
         <v>248</v>
       </c>
@@ -6863,7 +6832,7 @@
       <c r="G250" s="1"/>
       <c r="H250" s="1"/>
     </row>
-    <row r="251" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:8">
       <c r="A251">
         <v>249</v>
       </c>
@@ -6875,7 +6844,7 @@
       <c r="G251" s="1"/>
       <c r="H251" s="1"/>
     </row>
-    <row r="252" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:8">
       <c r="A252">
         <v>250</v>
       </c>
@@ -6887,7 +6856,7 @@
       <c r="G252" s="1"/>
       <c r="H252" s="1"/>
     </row>
-    <row r="253" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:8">
       <c r="A253">
         <v>251</v>
       </c>
@@ -6899,7 +6868,7 @@
       <c r="G253" s="1"/>
       <c r="H253" s="1"/>
     </row>
-    <row r="254" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:8">
       <c r="A254">
         <v>252</v>
       </c>
@@ -6911,7 +6880,7 @@
       <c r="G254" s="1"/>
       <c r="H254" s="1"/>
     </row>
-    <row r="255" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:8">
       <c r="A255">
         <v>253</v>
       </c>
@@ -6923,7 +6892,7 @@
       <c r="G255" s="1"/>
       <c r="H255" s="1"/>
     </row>
-    <row r="256" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:8">
       <c r="A256">
         <v>254</v>
       </c>
@@ -6935,7 +6904,7 @@
       <c r="G256" s="1"/>
       <c r="H256" s="1"/>
     </row>
-    <row r="257" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:8">
       <c r="A257">
         <v>255</v>
       </c>
@@ -6947,7 +6916,7 @@
       <c r="G257" s="1"/>
       <c r="H257" s="1"/>
     </row>
-    <row r="258" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:8">
       <c r="A258">
         <v>256</v>
       </c>
@@ -6959,7 +6928,7 @@
       <c r="G258" s="1"/>
       <c r="H258" s="1"/>
     </row>
-    <row r="259" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:8">
       <c r="A259">
         <v>257</v>
       </c>
@@ -6971,7 +6940,7 @@
       <c r="G259" s="1"/>
       <c r="H259" s="1"/>
     </row>
-    <row r="260" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:8">
       <c r="A260">
         <v>258</v>
       </c>
@@ -6983,7 +6952,7 @@
       <c r="G260" s="1"/>
       <c r="H260" s="1"/>
     </row>
-    <row r="261" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:8">
       <c r="A261">
         <v>259</v>
       </c>
@@ -6995,7 +6964,7 @@
       <c r="G261" s="1"/>
       <c r="H261" s="1"/>
     </row>
-    <row r="262" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:8">
       <c r="A262">
         <v>260</v>
       </c>
@@ -7007,7 +6976,7 @@
       <c r="G262" s="1"/>
       <c r="H262" s="1"/>
     </row>
-    <row r="263" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:8">
       <c r="A263">
         <v>261</v>
       </c>
@@ -7019,7 +6988,7 @@
       <c r="G263" s="1"/>
       <c r="H263" s="1"/>
     </row>
-    <row r="264" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:8">
       <c r="A264">
         <v>262</v>
       </c>
@@ -7031,7 +7000,7 @@
       <c r="G264" s="1"/>
       <c r="H264" s="1"/>
     </row>
-    <row r="265" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:8">
       <c r="A265">
         <v>263</v>
       </c>
@@ -7043,7 +7012,7 @@
       <c r="G265" s="1"/>
       <c r="H265" s="1"/>
     </row>
-    <row r="266" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:8">
       <c r="A266">
         <v>264</v>
       </c>
@@ -7055,7 +7024,7 @@
       <c r="G266" s="1"/>
       <c r="H266" s="1"/>
     </row>
-    <row r="267" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:8">
       <c r="A267">
         <v>265</v>
       </c>
@@ -7067,7 +7036,7 @@
       <c r="G267" s="1"/>
       <c r="H267" s="1"/>
     </row>
-    <row r="268" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:8">
       <c r="A268">
         <v>266</v>
       </c>
@@ -7079,7 +7048,7 @@
       <c r="G268" s="1"/>
       <c r="H268" s="1"/>
     </row>
-    <row r="269" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:8">
       <c r="A269">
         <v>267</v>
       </c>
@@ -7091,7 +7060,7 @@
       <c r="G269" s="1"/>
       <c r="H269" s="1"/>
     </row>
-    <row r="270" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:8">
       <c r="A270">
         <v>268</v>
       </c>
@@ -7103,7 +7072,7 @@
       <c r="G270" s="1"/>
       <c r="H270" s="1"/>
     </row>
-    <row r="271" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:8">
       <c r="A271">
         <v>269</v>
       </c>
@@ -7115,7 +7084,7 @@
       <c r="G271" s="1"/>
       <c r="H271" s="1"/>
     </row>
-    <row r="272" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:8">
       <c r="A272">
         <v>270</v>
       </c>
@@ -7127,7 +7096,7 @@
       <c r="G272" s="1"/>
       <c r="H272" s="1"/>
     </row>
-    <row r="273" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:8">
       <c r="A273">
         <v>271</v>
       </c>
@@ -7139,7 +7108,7 @@
       <c r="G273" s="1"/>
       <c r="H273" s="1"/>
     </row>
-    <row r="274" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:8">
       <c r="A274">
         <v>272</v>
       </c>
@@ -7151,7 +7120,7 @@
       <c r="G274" s="1"/>
       <c r="H274" s="1"/>
     </row>
-    <row r="275" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:8">
       <c r="A275">
         <v>273</v>
       </c>
@@ -7163,7 +7132,7 @@
       <c r="G275" s="1"/>
       <c r="H275" s="1"/>
     </row>
-    <row r="276" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:8">
       <c r="A276">
         <v>274</v>
       </c>
@@ -7175,7 +7144,7 @@
       <c r="G276" s="1"/>
       <c r="H276" s="1"/>
     </row>
-    <row r="277" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:8">
       <c r="A277">
         <v>275</v>
       </c>
@@ -7187,7 +7156,7 @@
       <c r="G277" s="1"/>
       <c r="H277" s="1"/>
     </row>
-    <row r="278" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:8">
       <c r="A278">
         <v>276</v>
       </c>
@@ -7199,7 +7168,7 @@
       <c r="G278" s="1"/>
       <c r="H278" s="1"/>
     </row>
-    <row r="279" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:8">
       <c r="A279">
         <v>277</v>
       </c>
@@ -7211,7 +7180,7 @@
       <c r="G279" s="1"/>
       <c r="H279" s="1"/>
     </row>
-    <row r="280" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:8">
       <c r="A280">
         <v>278</v>
       </c>
@@ -7223,7 +7192,7 @@
       <c r="G280" s="1"/>
       <c r="H280" s="1"/>
     </row>
-    <row r="281" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:8">
       <c r="A281">
         <v>279</v>
       </c>
@@ -7235,7 +7204,7 @@
       <c r="G281" s="1"/>
       <c r="H281" s="1"/>
     </row>
-    <row r="282" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:8">
       <c r="A282">
         <v>280</v>
       </c>
@@ -7247,7 +7216,7 @@
       <c r="G282" s="1"/>
       <c r="H282" s="1"/>
     </row>
-    <row r="283" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:8">
       <c r="A283">
         <v>281</v>
       </c>
@@ -7259,7 +7228,7 @@
       <c r="G283" s="1"/>
       <c r="H283" s="1"/>
     </row>
-    <row r="284" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:8">
       <c r="A284">
         <v>282</v>
       </c>
@@ -7271,7 +7240,7 @@
       <c r="G284" s="1"/>
       <c r="H284" s="1"/>
     </row>
-    <row r="285" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:8">
       <c r="A285">
         <v>283</v>
       </c>
@@ -7283,7 +7252,7 @@
       <c r="G285" s="1"/>
       <c r="H285" s="1"/>
     </row>
-    <row r="286" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:8">
       <c r="A286">
         <v>284</v>
       </c>
@@ -7295,7 +7264,7 @@
       <c r="G286" s="1"/>
       <c r="H286" s="1"/>
     </row>
-    <row r="287" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:8">
       <c r="A287">
         <v>285</v>
       </c>
@@ -7307,7 +7276,7 @@
       <c r="G287" s="1"/>
       <c r="H287" s="1"/>
     </row>
-    <row r="288" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:8">
       <c r="A288">
         <v>286</v>
       </c>
@@ -7319,7 +7288,7 @@
       <c r="G288" s="1"/>
       <c r="H288" s="1"/>
     </row>
-    <row r="289" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:8">
       <c r="A289">
         <v>287</v>
       </c>
@@ -7331,7 +7300,7 @@
       <c r="G289" s="1"/>
       <c r="H289" s="1"/>
     </row>
-    <row r="290" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:8">
       <c r="A290">
         <v>288</v>
       </c>
@@ -7343,7 +7312,7 @@
       <c r="G290" s="1"/>
       <c r="H290" s="1"/>
     </row>
-    <row r="291" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:8">
       <c r="A291">
         <v>289</v>
       </c>
@@ -7355,7 +7324,7 @@
       <c r="G291" s="1"/>
       <c r="H291" s="1"/>
     </row>
-    <row r="292" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:8">
       <c r="A292">
         <v>290</v>
       </c>
@@ -7367,7 +7336,7 @@
       <c r="G292" s="1"/>
       <c r="H292" s="1"/>
     </row>
-    <row r="293" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:8">
       <c r="A293">
         <v>291</v>
       </c>
@@ -7379,7 +7348,7 @@
       <c r="G293" s="1"/>
       <c r="H293" s="1"/>
     </row>
-    <row r="294" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:8">
       <c r="A294">
         <v>292</v>
       </c>
@@ -7391,7 +7360,7 @@
       <c r="G294" s="1"/>
       <c r="H294" s="1"/>
     </row>
-    <row r="295" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:8">
       <c r="A295">
         <v>293</v>
       </c>
@@ -7403,7 +7372,7 @@
       <c r="G295" s="1"/>
       <c r="H295" s="1"/>
     </row>
-    <row r="296" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:8">
       <c r="A296">
         <v>294</v>
       </c>
@@ -7415,7 +7384,7 @@
       <c r="G296" s="1"/>
       <c r="H296" s="1"/>
     </row>
-    <row r="297" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:8">
       <c r="A297">
         <v>295</v>
       </c>
@@ -7427,7 +7396,7 @@
       <c r="G297" s="1"/>
       <c r="H297" s="1"/>
     </row>
-    <row r="298" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:8">
       <c r="A298">
         <v>296</v>
       </c>
@@ -7439,7 +7408,7 @@
       <c r="G298" s="1"/>
       <c r="H298" s="1"/>
     </row>
-    <row r="299" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:8">
       <c r="A299">
         <v>297</v>
       </c>
@@ -7451,7 +7420,7 @@
       <c r="G299" s="1"/>
       <c r="H299" s="1"/>
     </row>
-    <row r="300" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:8">
       <c r="A300">
         <v>298</v>
       </c>
@@ -7463,7 +7432,7 @@
       <c r="G300" s="1"/>
       <c r="H300" s="1"/>
     </row>
-    <row r="301" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:8">
       <c r="A301">
         <v>299</v>
       </c>
@@ -7475,7 +7444,7 @@
       <c r="G301" s="1"/>
       <c r="H301" s="1"/>
     </row>
-    <row r="302" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:8">
       <c r="A302">
         <v>300</v>
       </c>
@@ -7487,7 +7456,7 @@
       <c r="G302" s="1"/>
       <c r="H302" s="1"/>
     </row>
-    <row r="303" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:8">
       <c r="A303">
         <v>301</v>
       </c>
@@ -7499,7 +7468,7 @@
       <c r="G303" s="1"/>
       <c r="H303" s="1"/>
     </row>
-    <row r="304" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:8">
       <c r="A304">
         <v>302</v>
       </c>
@@ -7511,7 +7480,7 @@
       <c r="G304" s="1"/>
       <c r="H304" s="1"/>
     </row>
-    <row r="305" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:8">
       <c r="A305">
         <v>303</v>
       </c>
@@ -7523,7 +7492,7 @@
       <c r="G305" s="1"/>
       <c r="H305" s="1"/>
     </row>
-    <row r="306" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:8">
       <c r="A306">
         <v>304</v>
       </c>
@@ -7535,7 +7504,7 @@
       <c r="G306" s="1"/>
       <c r="H306" s="1"/>
     </row>
-    <row r="307" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:8">
       <c r="A307">
         <v>305</v>
       </c>
@@ -7547,7 +7516,7 @@
       <c r="G307" s="1"/>
       <c r="H307" s="1"/>
     </row>
-    <row r="308" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:8">
       <c r="A308">
         <v>306</v>
       </c>
@@ -7559,7 +7528,7 @@
       <c r="G308" s="1"/>
       <c r="H308" s="1"/>
     </row>
-    <row r="309" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:8">
       <c r="A309">
         <v>307</v>
       </c>
@@ -7571,7 +7540,7 @@
       <c r="G309" s="1"/>
       <c r="H309" s="1"/>
     </row>
-    <row r="310" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:8">
       <c r="A310">
         <v>308</v>
       </c>
@@ -7583,7 +7552,7 @@
       <c r="G310" s="1"/>
       <c r="H310" s="1"/>
     </row>
-    <row r="311" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:8">
       <c r="A311">
         <v>309</v>
       </c>
@@ -7595,7 +7564,7 @@
       <c r="G311" s="1"/>
       <c r="H311" s="1"/>
     </row>
-    <row r="312" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:8">
       <c r="A312">
         <v>310</v>
       </c>
@@ -7607,7 +7576,7 @@
       <c r="G312" s="1"/>
       <c r="H312" s="1"/>
     </row>
-    <row r="313" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:8">
       <c r="A313">
         <v>311</v>
       </c>
@@ -7619,7 +7588,7 @@
       <c r="G313" s="1"/>
       <c r="H313" s="1"/>
     </row>
-    <row r="314" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:8">
       <c r="A314">
         <v>312</v>
       </c>
@@ -7631,7 +7600,7 @@
       <c r="G314" s="1"/>
       <c r="H314" s="1"/>
     </row>
-    <row r="315" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:8">
       <c r="A315">
         <v>313</v>
       </c>
@@ -7643,7 +7612,7 @@
       <c r="G315" s="1"/>
       <c r="H315" s="1"/>
     </row>
-    <row r="316" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:8">
       <c r="A316">
         <v>314</v>
       </c>
@@ -7655,7 +7624,7 @@
       <c r="G316" s="1"/>
       <c r="H316" s="1"/>
     </row>
-    <row r="317" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:8">
       <c r="A317">
         <v>315</v>
       </c>
@@ -7667,7 +7636,7 @@
       <c r="G317" s="1"/>
       <c r="H317" s="1"/>
     </row>
-    <row r="318" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:8">
       <c r="A318">
         <v>316</v>
       </c>
@@ -7679,7 +7648,7 @@
       <c r="G318" s="1"/>
       <c r="H318" s="1"/>
     </row>
-    <row r="319" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:8">
       <c r="A319">
         <v>317</v>
       </c>
@@ -7691,7 +7660,7 @@
       <c r="G319" s="1"/>
       <c r="H319" s="1"/>
     </row>
-    <row r="320" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:8">
       <c r="A320">
         <v>318</v>
       </c>
@@ -7703,7 +7672,7 @@
       <c r="G320" s="1"/>
       <c r="H320" s="1"/>
     </row>
-    <row r="321" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:8">
       <c r="A321">
         <v>319</v>
       </c>
@@ -7715,7 +7684,7 @@
       <c r="G321" s="1"/>
       <c r="H321" s="1"/>
     </row>
-    <row r="322" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:8">
       <c r="A322">
         <v>320</v>
       </c>
@@ -7727,7 +7696,7 @@
       <c r="G322" s="1"/>
       <c r="H322" s="1"/>
     </row>
-    <row r="323" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:8">
       <c r="A323">
         <v>321</v>
       </c>
@@ -7739,7 +7708,7 @@
       <c r="G323" s="1"/>
       <c r="H323" s="1"/>
     </row>
-    <row r="324" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:8">
       <c r="A324">
         <v>322</v>
       </c>
@@ -7751,7 +7720,7 @@
       <c r="G324" s="1"/>
       <c r="H324" s="1"/>
     </row>
-    <row r="325" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:8">
       <c r="A325">
         <v>323</v>
       </c>
@@ -7763,7 +7732,7 @@
       <c r="G325" s="1"/>
       <c r="H325" s="1"/>
     </row>
-    <row r="326" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:8">
       <c r="A326">
         <v>324</v>
       </c>
@@ -7775,7 +7744,7 @@
       <c r="G326" s="1"/>
       <c r="H326" s="1"/>
     </row>
-    <row r="327" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:8">
       <c r="A327">
         <v>325</v>
       </c>
@@ -7787,7 +7756,7 @@
       <c r="G327" s="1"/>
       <c r="H327" s="1"/>
     </row>
-    <row r="328" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:8">
       <c r="A328">
         <v>326</v>
       </c>
@@ -7799,7 +7768,7 @@
       <c r="G328" s="1"/>
       <c r="H328" s="1"/>
     </row>
-    <row r="329" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:8">
       <c r="A329">
         <v>327</v>
       </c>
@@ -7811,7 +7780,7 @@
       <c r="G329" s="1"/>
       <c r="H329" s="1"/>
     </row>
-    <row r="330" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:8">
       <c r="A330">
         <v>328</v>
       </c>
@@ -7823,7 +7792,7 @@
       <c r="G330" s="1"/>
       <c r="H330" s="1"/>
     </row>
-    <row r="331" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:8">
       <c r="A331">
         <v>329</v>
       </c>
@@ -7835,7 +7804,7 @@
       <c r="G331" s="1"/>
       <c r="H331" s="1"/>
     </row>
-    <row r="332" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:8">
       <c r="A332">
         <v>330</v>
       </c>
@@ -7847,7 +7816,7 @@
       <c r="G332" s="1"/>
       <c r="H332" s="1"/>
     </row>
-    <row r="333" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:8">
       <c r="A333">
         <v>331</v>
       </c>
@@ -7859,7 +7828,7 @@
       <c r="G333" s="1"/>
       <c r="H333" s="1"/>
     </row>
-    <row r="334" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:8">
       <c r="A334">
         <v>332</v>
       </c>
@@ -7871,7 +7840,7 @@
       <c r="G334" s="1"/>
       <c r="H334" s="1"/>
     </row>
-    <row r="335" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:8">
       <c r="A335">
         <v>333</v>
       </c>
@@ -7883,7 +7852,7 @@
       <c r="G335" s="1"/>
       <c r="H335" s="1"/>
     </row>
-    <row r="336" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:8">
       <c r="A336">
         <v>334</v>
       </c>
@@ -7895,7 +7864,7 @@
       <c r="G336" s="1"/>
       <c r="H336" s="1"/>
     </row>
-    <row r="337" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:8">
       <c r="A337">
         <v>335</v>
       </c>
@@ -7907,7 +7876,7 @@
       <c r="G337" s="1"/>
       <c r="H337" s="1"/>
     </row>
-    <row r="338" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:8">
       <c r="A338">
         <v>336</v>
       </c>
@@ -7919,7 +7888,7 @@
       <c r="G338" s="1"/>
       <c r="H338" s="1"/>
     </row>
-    <row r="339" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:8">
       <c r="A339">
         <v>337</v>
       </c>
@@ -7931,7 +7900,7 @@
       <c r="G339" s="1"/>
       <c r="H339" s="1"/>
     </row>
-    <row r="340" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:8">
       <c r="A340">
         <v>338</v>
       </c>
@@ -7943,7 +7912,7 @@
       <c r="G340" s="1"/>
       <c r="H340" s="1"/>
     </row>
-    <row r="341" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:8">
       <c r="A341">
         <v>339</v>
       </c>
@@ -7955,7 +7924,7 @@
       <c r="G341" s="1"/>
       <c r="H341" s="1"/>
     </row>
-    <row r="342" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:8">
       <c r="A342">
         <v>340</v>
       </c>
@@ -7967,7 +7936,7 @@
       <c r="G342" s="1"/>
       <c r="H342" s="1"/>
     </row>
-    <row r="343" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:8">
       <c r="A343">
         <v>341</v>
       </c>
@@ -7979,7 +7948,7 @@
       <c r="G343" s="1"/>
       <c r="H343" s="1"/>
     </row>
-    <row r="344" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:8">
       <c r="A344">
         <v>342</v>
       </c>
@@ -7991,7 +7960,7 @@
       <c r="G344" s="1"/>
       <c r="H344" s="1"/>
     </row>
-    <row r="345" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:8">
       <c r="A345">
         <v>343</v>
       </c>
@@ -8003,7 +7972,7 @@
       <c r="G345" s="1"/>
       <c r="H345" s="1"/>
     </row>
-    <row r="346" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:8">
       <c r="A346">
         <v>344</v>
       </c>
@@ -8015,7 +7984,7 @@
       <c r="G346" s="1"/>
       <c r="H346" s="1"/>
     </row>
-    <row r="347" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:8">
       <c r="A347">
         <v>345</v>
       </c>
@@ -8027,7 +7996,7 @@
       <c r="G347" s="1"/>
       <c r="H347" s="1"/>
     </row>
-    <row r="348" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:8">
       <c r="A348">
         <v>346</v>
       </c>
@@ -8039,7 +8008,7 @@
       <c r="G348" s="1"/>
       <c r="H348" s="1"/>
     </row>
-    <row r="349" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:8">
       <c r="A349">
         <v>347</v>
       </c>
@@ -8051,7 +8020,7 @@
       <c r="G349" s="1"/>
       <c r="H349" s="1"/>
     </row>
-    <row r="350" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:8">
       <c r="A350">
         <v>348</v>
       </c>
@@ -8063,7 +8032,7 @@
       <c r="G350" s="1"/>
       <c r="H350" s="1"/>
     </row>
-    <row r="351" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:8">
       <c r="A351">
         <v>349</v>
       </c>
@@ -8075,7 +8044,7 @@
       <c r="G351" s="1"/>
       <c r="H351" s="1"/>
     </row>
-    <row r="352" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:8">
       <c r="A352">
         <v>350</v>
       </c>
@@ -8087,7 +8056,7 @@
       <c r="G352" s="1"/>
       <c r="H352" s="1"/>
     </row>
-    <row r="353" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:8">
       <c r="A353">
         <v>351</v>
       </c>
@@ -8099,7 +8068,7 @@
       <c r="G353" s="1"/>
       <c r="H353" s="1"/>
     </row>
-    <row r="354" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:8">
       <c r="A354">
         <v>352</v>
       </c>
@@ -8111,7 +8080,7 @@
       <c r="G354" s="1"/>
       <c r="H354" s="1"/>
     </row>
-    <row r="355" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:8">
       <c r="A355">
         <v>353</v>
       </c>
@@ -8123,7 +8092,7 @@
       <c r="G355" s="1"/>
       <c r="H355" s="1"/>
     </row>
-    <row r="356" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:8">
       <c r="A356">
         <v>354</v>
       </c>
@@ -8135,7 +8104,7 @@
       <c r="G356" s="1"/>
       <c r="H356" s="1"/>
     </row>
-    <row r="357" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:8">
       <c r="A357">
         <v>355</v>
       </c>
@@ -8147,7 +8116,7 @@
       <c r="G357" s="1"/>
       <c r="H357" s="1"/>
     </row>
-    <row r="358" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:8">
       <c r="A358">
         <v>356</v>
       </c>
@@ -8159,7 +8128,7 @@
       <c r="G358" s="1"/>
       <c r="H358" s="1"/>
     </row>
-    <row r="359" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:8">
       <c r="A359">
         <v>357</v>
       </c>
@@ -8171,7 +8140,7 @@
       <c r="G359" s="1"/>
       <c r="H359" s="1"/>
     </row>
-    <row r="360" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:8">
       <c r="A360">
         <v>358</v>
       </c>
@@ -8183,7 +8152,7 @@
       <c r="G360" s="1"/>
       <c r="H360" s="1"/>
     </row>
-    <row r="361" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:8">
       <c r="A361">
         <v>359</v>
       </c>
@@ -8195,7 +8164,7 @@
       <c r="G361" s="1"/>
       <c r="H361" s="1"/>
     </row>
-    <row r="362" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:8">
       <c r="A362">
         <v>360</v>
       </c>
@@ -8207,7 +8176,7 @@
       <c r="G362" s="1"/>
       <c r="H362" s="1"/>
     </row>
-    <row r="363" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:8">
       <c r="A363">
         <v>361</v>
       </c>
@@ -8219,7 +8188,7 @@
       <c r="G363" s="1"/>
       <c r="H363" s="1"/>
     </row>
-    <row r="364" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:8">
       <c r="A364">
         <v>362</v>
       </c>
@@ -8231,7 +8200,7 @@
       <c r="G364" s="1"/>
       <c r="H364" s="1"/>
     </row>
-    <row r="365" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:8">
       <c r="A365">
         <v>363</v>
       </c>
@@ -8243,7 +8212,7 @@
       <c r="G365" s="1"/>
       <c r="H365" s="1"/>
     </row>
-    <row r="366" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:8">
       <c r="A366">
         <v>364</v>
       </c>
@@ -8255,7 +8224,7 @@
       <c r="G366" s="1"/>
       <c r="H366" s="1"/>
     </row>
-    <row r="367" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:8">
       <c r="A367">
         <v>365</v>
       </c>
@@ -8267,7 +8236,7 @@
       <c r="G367" s="1"/>
       <c r="H367" s="1"/>
     </row>
-    <row r="368" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:8">
       <c r="A368">
         <v>366</v>
       </c>
@@ -8279,7 +8248,7 @@
       <c r="G368" s="1"/>
       <c r="H368" s="1"/>
     </row>
-    <row r="369" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:8">
       <c r="A369">
         <v>367</v>
       </c>
@@ -8291,7 +8260,7 @@
       <c r="G369" s="1"/>
       <c r="H369" s="1"/>
     </row>
-    <row r="370" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:8">
       <c r="A370">
         <v>368</v>
       </c>
@@ -8303,7 +8272,7 @@
       <c r="G370" s="1"/>
       <c r="H370" s="1"/>
     </row>
-    <row r="371" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:8">
       <c r="A371">
         <v>369</v>
       </c>
@@ -8315,7 +8284,7 @@
       <c r="G371" s="1"/>
       <c r="H371" s="1"/>
     </row>
-    <row r="372" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:8">
       <c r="A372">
         <v>370</v>
       </c>
@@ -8327,7 +8296,7 @@
       <c r="G372" s="1"/>
       <c r="H372" s="1"/>
     </row>
-    <row r="373" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:8">
       <c r="A373">
         <v>371</v>
       </c>
@@ -8339,7 +8308,7 @@
       <c r="G373" s="1"/>
       <c r="H373" s="1"/>
     </row>
-    <row r="374" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:8">
       <c r="A374">
         <v>372</v>
       </c>
@@ -8351,7 +8320,7 @@
       <c r="G374" s="1"/>
       <c r="H374" s="1"/>
     </row>
-    <row r="375" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:8">
       <c r="A375">
         <v>373</v>
       </c>
@@ -8363,7 +8332,7 @@
       <c r="G375" s="1"/>
       <c r="H375" s="1"/>
     </row>
-    <row r="376" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:8">
       <c r="A376">
         <v>374</v>
       </c>
@@ -8375,7 +8344,7 @@
       <c r="G376" s="1"/>
       <c r="H376" s="1"/>
     </row>
-    <row r="377" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:8">
       <c r="A377">
         <v>375</v>
       </c>
@@ -8387,7 +8356,7 @@
       <c r="G377" s="1"/>
       <c r="H377" s="1"/>
     </row>
-    <row r="378" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:8">
       <c r="A378">
         <v>376</v>
       </c>
@@ -8399,7 +8368,7 @@
       <c r="G378" s="1"/>
       <c r="H378" s="1"/>
     </row>
-    <row r="379" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:8">
       <c r="A379">
         <v>377</v>
       </c>
@@ -8411,7 +8380,7 @@
       <c r="G379" s="1"/>
       <c r="H379" s="1"/>
     </row>
-    <row r="380" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:8">
       <c r="A380">
         <v>378</v>
       </c>
@@ -8423,7 +8392,7 @@
       <c r="G380" s="1"/>
       <c r="H380" s="1"/>
     </row>
-    <row r="381" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:8">
       <c r="A381">
         <v>379</v>
       </c>
@@ -8435,7 +8404,7 @@
       <c r="G381" s="1"/>
       <c r="H381" s="1"/>
     </row>
-    <row r="382" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:8">
       <c r="A382">
         <v>380</v>
       </c>
@@ -8447,7 +8416,7 @@
       <c r="G382" s="1"/>
       <c r="H382" s="1"/>
     </row>
-    <row r="383" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:8">
       <c r="A383">
         <v>381</v>
       </c>
@@ -8459,7 +8428,7 @@
       <c r="G383" s="1"/>
       <c r="H383" s="1"/>
     </row>
-    <row r="384" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:8">
       <c r="A384">
         <v>382</v>
       </c>
@@ -8471,7 +8440,7 @@
       <c r="G384" s="1"/>
       <c r="H384" s="1"/>
     </row>
-    <row r="385" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:8">
       <c r="A385">
         <v>383</v>
       </c>
@@ -8483,7 +8452,7 @@
       <c r="G385" s="1"/>
       <c r="H385" s="1"/>
     </row>
-    <row r="386" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:8">
       <c r="A386">
         <v>384</v>
       </c>
@@ -8495,7 +8464,7 @@
       <c r="G386" s="1"/>
       <c r="H386" s="1"/>
     </row>
-    <row r="387" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:8">
       <c r="A387">
         <v>385</v>
       </c>
@@ -8507,7 +8476,7 @@
       <c r="G387" s="1"/>
       <c r="H387" s="1"/>
     </row>
-    <row r="388" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:8">
       <c r="A388">
         <v>386</v>
       </c>
@@ -8519,7 +8488,7 @@
       <c r="G388" s="1"/>
       <c r="H388" s="1"/>
     </row>
-    <row r="389" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:8">
       <c r="A389">
         <v>387</v>
       </c>
@@ -8531,7 +8500,7 @@
       <c r="G389" s="1"/>
       <c r="H389" s="1"/>
     </row>
-    <row r="390" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:8">
       <c r="A390">
         <v>388</v>
       </c>
@@ -8543,7 +8512,7 @@
       <c r="G390" s="1"/>
       <c r="H390" s="1"/>
     </row>
-    <row r="391" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:8">
       <c r="A391">
         <v>389</v>
       </c>
@@ -8555,7 +8524,7 @@
       <c r="G391" s="1"/>
       <c r="H391" s="1"/>
     </row>
-    <row r="392" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:8">
       <c r="A392">
         <v>390</v>
       </c>
@@ -8567,7 +8536,7 @@
       <c r="G392" s="1"/>
       <c r="H392" s="1"/>
     </row>
-    <row r="393" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:8">
       <c r="A393">
         <v>391</v>
       </c>
@@ -8579,7 +8548,7 @@
       <c r="G393" s="1"/>
       <c r="H393" s="1"/>
     </row>
-    <row r="394" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:8">
       <c r="A394">
         <v>392</v>
       </c>
@@ -8591,7 +8560,7 @@
       <c r="G394" s="1"/>
       <c r="H394" s="1"/>
     </row>
-    <row r="395" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:8">
       <c r="A395">
         <v>393</v>
       </c>
@@ -8603,7 +8572,7 @@
       <c r="G395" s="1"/>
       <c r="H395" s="1"/>
     </row>
-    <row r="396" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:8">
       <c r="A396">
         <v>394</v>
       </c>
@@ -8615,7 +8584,7 @@
       <c r="G396" s="1"/>
       <c r="H396" s="1"/>
     </row>
-    <row r="397" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:8">
       <c r="A397">
         <v>395</v>
       </c>
@@ -8627,7 +8596,7 @@
       <c r="G397" s="1"/>
       <c r="H397" s="1"/>
     </row>
-    <row r="398" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:8">
       <c r="A398">
         <v>396</v>
       </c>
@@ -8639,7 +8608,7 @@
       <c r="G398" s="1"/>
       <c r="H398" s="1"/>
     </row>
-    <row r="399" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:8">
       <c r="A399">
         <v>397</v>
       </c>
@@ -8651,7 +8620,7 @@
       <c r="G399" s="1"/>
       <c r="H399" s="1"/>
     </row>
-    <row r="400" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:8">
       <c r="A400">
         <v>398</v>
       </c>
@@ -8663,7 +8632,7 @@
       <c r="G400" s="1"/>
       <c r="H400" s="1"/>
     </row>
-    <row r="401" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:8">
       <c r="A401">
         <v>399</v>
       </c>
@@ -8675,7 +8644,7 @@
       <c r="G401" s="1"/>
       <c r="H401" s="1"/>
     </row>
-    <row r="402" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:8">
       <c r="A402">
         <v>400</v>
       </c>
@@ -8687,7 +8656,7 @@
       <c r="G402" s="1"/>
       <c r="H402" s="1"/>
     </row>
-    <row r="403" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:8">
       <c r="A403">
         <v>401</v>
       </c>
@@ -8699,7 +8668,7 @@
       <c r="G403" s="1"/>
       <c r="H403" s="1"/>
     </row>
-    <row r="404" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:8">
       <c r="A404">
         <v>402</v>
       </c>
@@ -8711,7 +8680,7 @@
       <c r="G404" s="1"/>
       <c r="H404" s="1"/>
     </row>
-    <row r="405" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:8">
       <c r="A405">
         <v>403</v>
       </c>
@@ -8723,7 +8692,7 @@
       <c r="G405" s="1"/>
       <c r="H405" s="1"/>
     </row>
-    <row r="406" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:8">
       <c r="A406">
         <v>404</v>
       </c>
@@ -8735,7 +8704,7 @@
       <c r="G406" s="1"/>
       <c r="H406" s="1"/>
     </row>
-    <row r="407" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:8">
       <c r="A407">
         <v>405</v>
       </c>
@@ -8747,7 +8716,7 @@
       <c r="G407" s="1"/>
       <c r="H407" s="1"/>
     </row>
-    <row r="408" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:8">
       <c r="A408">
         <v>406</v>
       </c>
@@ -8759,7 +8728,7 @@
       <c r="G408" s="1"/>
       <c r="H408" s="1"/>
     </row>
-    <row r="409" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:8">
       <c r="A409">
         <v>407</v>
       </c>
@@ -8771,7 +8740,7 @@
       <c r="G409" s="1"/>
       <c r="H409" s="1"/>
     </row>
-    <row r="410" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:8">
       <c r="A410">
         <v>408</v>
       </c>
@@ -8789,31 +8758,31 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="38" customWidth="1"/>
-    <col min="3" max="3" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="51" customWidth="1"/>
     <col min="5" max="5" width="50" customWidth="1"/>
-    <col min="6" max="6" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17">
       <c r="A1" s="9" t="s">
         <v>34</v>
       </c>
@@ -8866,7 +8835,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17">
       <c r="A2" t="s">
         <v>252</v>
       </c>
@@ -8880,7 +8849,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17">
       <c r="A3" t="s">
         <v>254</v>
       </c>
@@ -8894,7 +8863,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17">
       <c r="A4" t="s">
         <v>256</v>
       </c>
@@ -8902,7 +8871,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -8913,62 +8882,62 @@
         <v>261</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17">
       <c r="B11" s="44" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17">
       <c r="B12" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17">
       <c r="B13" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17">
       <c r="B14" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17">
       <c r="B15" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17">
       <c r="B16" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:2">
       <c r="B17" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:2">
       <c r="B18" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:2">
       <c r="B19" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:2">
       <c r="B20" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:2">
       <c r="B21" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:2">
       <c r="B22" t="s">
         <v>275</v>
       </c>
@@ -8983,26 +8952,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="47.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="30.28515625" customWidth="1"/>
-    <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="47.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.33203125" customWidth="1"/>
+    <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="15">
       <c r="A1" s="12" t="s">
         <v>95</v>
       </c>
@@ -9028,7 +8997,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="86.4">
       <c r="A2" s="17" t="s">
         <v>80</v>
       </c>
@@ -9052,7 +9021,7 @@
       </c>
       <c r="H2" s="20"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8">
       <c r="A3" s="17" t="s">
         <v>89</v>
       </c>
@@ -9074,7 +9043,7 @@
       </c>
       <c r="H3" s="21"/>
     </row>
-    <row r="4" spans="1:8" ht="135" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="115.2">
       <c r="A4" s="17" t="s">
         <v>83</v>
       </c>
@@ -9098,7 +9067,7 @@
       </c>
       <c r="H4" s="21"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="15">
       <c r="A5" s="17" t="s">
         <v>85</v>
       </c>
@@ -9118,7 +9087,7 @@
       <c r="G5" s="21"/>
       <c r="H5" s="21"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8">
       <c r="A6" s="17" t="s">
         <v>85</v>
       </c>
@@ -9142,7 +9111,7 @@
       </c>
       <c r="H6" s="21"/>
     </row>
-    <row r="7" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="43.2">
       <c r="A7" s="17" t="s">
         <v>99</v>
       </c>
@@ -9168,7 +9137,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8">
       <c r="A8" s="22" t="s">
         <v>87</v>
       </c>
@@ -9192,7 +9161,7 @@
       </c>
       <c r="H8" s="21"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8">
       <c r="A9" s="26" t="s">
         <v>83</v>
       </c>
@@ -9214,7 +9183,7 @@
       <c r="G9" s="27"/>
       <c r="H9" s="21"/>
     </row>
-    <row r="10" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="28.8">
       <c r="A10" s="22" t="s">
         <v>99</v>
       </c>
@@ -9238,7 +9207,7 @@
       </c>
       <c r="H10" s="27"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8">
       <c r="A11" s="26" t="s">
         <v>105</v>
       </c>
@@ -9262,7 +9231,7 @@
       </c>
       <c r="H11" s="27"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8">
       <c r="A12" s="26" t="s">
         <v>99</v>
       </c>
@@ -9282,7 +9251,7 @@
       <c r="G12" s="27"/>
       <c r="H12" s="27"/>
     </row>
-    <row r="13" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="28.8">
       <c r="A13" s="26" t="s">
         <v>110</v>
       </c>
@@ -9304,7 +9273,7 @@
       <c r="G13" s="27"/>
       <c r="H13" s="27"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8">
       <c r="A14" s="26" t="s">
         <v>113</v>
       </c>
@@ -9326,7 +9295,7 @@
       <c r="G14" s="27"/>
       <c r="H14" s="27"/>
     </row>
-    <row r="15" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="43.2">
       <c r="A15" s="22" t="s">
         <v>124</v>
       </c>
@@ -9348,7 +9317,7 @@
       <c r="G15" s="27"/>
       <c r="H15" s="27"/>
     </row>
-    <row r="16" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="28.8">
       <c r="A16" s="26" t="s">
         <v>123</v>
       </c>
@@ -9370,7 +9339,7 @@
       <c r="G16" s="27"/>
       <c r="H16" s="27"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8">
       <c r="A17" s="26" t="s">
         <v>120</v>
       </c>
@@ -9392,7 +9361,7 @@
       <c r="G17" s="27"/>
       <c r="H17" s="27"/>
     </row>
-    <row r="18" spans="1:8" ht="135" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" ht="100.8">
       <c r="A18" s="26" t="s">
         <v>80</v>
       </c>
@@ -9414,7 +9383,7 @@
       <c r="G18" s="27"/>
       <c r="H18" s="27"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8">
       <c r="A19" s="26" t="s">
         <v>85</v>
       </c>
@@ -9438,7 +9407,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8">
       <c r="A20" s="22" t="s">
         <v>85</v>
       </c>
@@ -9460,7 +9429,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8">
       <c r="A21" s="26" t="s">
         <v>131</v>
       </c>
@@ -9480,7 +9449,7 @@
       <c r="G21" s="27"/>
       <c r="H21" s="27"/>
     </row>
-    <row r="22" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" ht="43.2">
       <c r="A22" s="26" t="s">
         <v>83</v>
       </c>
@@ -9502,7 +9471,7 @@
       <c r="G22" s="27"/>
       <c r="H22" s="27"/>
     </row>
-    <row r="23" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8">
       <c r="A23" s="26" t="s">
         <v>80</v>
       </c>
@@ -9534,25 +9503,25 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G35"/>
   <sheetViews>
     <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="33.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="39.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="83.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="39.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="83.44140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="15">
       <c r="A1" s="2" t="s">
         <v>34</v>
       </c>
@@ -9575,7 +9544,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="15">
       <c r="A2" s="29" t="s">
         <v>12</v>
       </c>
@@ -9596,7 +9565,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="15">
       <c r="A3" s="3" t="s">
         <v>30</v>
       </c>
@@ -9617,7 +9586,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="15">
       <c r="A4" s="3" t="s">
         <v>26</v>
       </c>
@@ -9638,7 +9607,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="15">
       <c r="A5" s="3" t="s">
         <v>17</v>
       </c>
@@ -9659,7 +9628,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="15">
       <c r="A6" s="3" t="s">
         <v>32</v>
       </c>
@@ -9680,7 +9649,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="15">
       <c r="A7" s="35" t="s">
         <v>20</v>
       </c>
@@ -9701,7 +9670,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="15">
       <c r="A8" s="35" t="s">
         <v>21</v>
       </c>
@@ -9722,7 +9691,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="15">
       <c r="A9" s="3" t="s">
         <v>29</v>
       </c>
@@ -9743,7 +9712,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="15">
       <c r="A10" s="3" t="s">
         <v>33</v>
       </c>
@@ -9764,7 +9733,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="15">
       <c r="A11" s="3" t="s">
         <v>31</v>
       </c>
@@ -9785,7 +9754,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="15">
       <c r="A12" s="3" t="s">
         <v>28</v>
       </c>
@@ -9806,7 +9775,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="15">
       <c r="A13" s="3" t="s">
         <v>27</v>
       </c>
@@ -9827,7 +9796,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="15">
       <c r="A14" s="3" t="s">
         <v>25</v>
       </c>
@@ -9848,7 +9817,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="15">
       <c r="A15" s="3" t="s">
         <v>2</v>
       </c>
@@ -9869,7 +9838,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="15">
       <c r="A16" s="3" t="s">
         <v>19</v>
       </c>
@@ -9890,7 +9859,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="15">
       <c r="A17" s="16" t="s">
         <v>0</v>
       </c>
@@ -9911,7 +9880,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="15">
       <c r="A18" s="3" t="s">
         <v>24</v>
       </c>
@@ -9932,7 +9901,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="15">
       <c r="A19" s="3" t="s">
         <v>11</v>
       </c>
@@ -9953,7 +9922,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="15">
       <c r="A20" s="3" t="s">
         <v>10</v>
       </c>
@@ -9974,7 +9943,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="15">
       <c r="A21" s="3" t="s">
         <v>9</v>
       </c>
@@ -9995,7 +9964,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="15">
       <c r="A22" s="3" t="s">
         <v>13</v>
       </c>
@@ -10016,7 +9985,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="15">
       <c r="A23" s="3" t="s">
         <v>18</v>
       </c>
@@ -10037,7 +10006,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="15">
       <c r="A24" s="33" t="s">
         <v>1</v>
       </c>
@@ -10058,7 +10027,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="15">
       <c r="A25" s="3" t="s">
         <v>6</v>
       </c>
@@ -10079,7 +10048,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" ht="15">
       <c r="A26" s="3" t="s">
         <v>5</v>
       </c>
@@ -10100,7 +10069,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" ht="15">
       <c r="A27" s="3" t="s">
         <v>3</v>
       </c>
@@ -10121,7 +10090,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" ht="15">
       <c r="A28" s="29" t="s">
         <v>8</v>
       </c>
@@ -10142,7 +10111,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" ht="15">
       <c r="A29" s="3" t="s">
         <v>7</v>
       </c>
@@ -10163,7 +10132,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" ht="15">
       <c r="A30" s="3" t="s">
         <v>15</v>
       </c>
@@ -10184,7 +10153,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7">
       <c r="A31" s="3" t="s">
         <v>16</v>
       </c>
@@ -10205,7 +10174,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7">
       <c r="A32" s="3" t="s">
         <v>14</v>
       </c>
@@ -10226,7 +10195,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7">
       <c r="A33" s="3" t="s">
         <v>22</v>
       </c>
@@ -10247,7 +10216,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7">
       <c r="A34" s="29" t="s">
         <v>23</v>
       </c>
@@ -10268,7 +10237,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7">
       <c r="A35" s="5" t="s">
         <v>4</v>
       </c>
@@ -10291,8 +10260,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A24" location="'UDQ Filters'!G3" display="Custom Taxes" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
-    <hyperlink ref="A17" location="'UDQ Filters'!G2" display="Tax Authority" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
+    <hyperlink ref="A24" location="'UDQ Filters'!G3" display="Custom Taxes"/>
+    <hyperlink ref="A17" location="'UDQ Filters'!G2" display="Tax Authority"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -10303,35 +10272,35 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="26.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23" customWidth="1"/>
-    <col min="3" max="3" width="52.7109375" customWidth="1"/>
-    <col min="4" max="4" width="35.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="48.5703125" customWidth="1"/>
-    <col min="6" max="6" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="36.42578125" customWidth="1"/>
-    <col min="8" max="8" width="16.5703125" customWidth="1"/>
-    <col min="9" max="9" width="44.42578125" customWidth="1"/>
-    <col min="10" max="10" width="16.5703125" customWidth="1"/>
-    <col min="11" max="11" width="46.7109375" customWidth="1"/>
-    <col min="12" max="12" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="45.140625" customWidth="1"/>
-    <col min="14" max="14" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="52.6640625" customWidth="1"/>
+    <col min="4" max="4" width="35.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="48.5546875" customWidth="1"/>
+    <col min="6" max="6" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="36.44140625" customWidth="1"/>
+    <col min="8" max="8" width="16.5546875" customWidth="1"/>
+    <col min="9" max="9" width="44.44140625" customWidth="1"/>
+    <col min="10" max="10" width="16.5546875" customWidth="1"/>
+    <col min="11" max="11" width="46.6640625" customWidth="1"/>
+    <col min="12" max="12" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="45.109375" customWidth="1"/>
+    <col min="14" max="14" width="21.109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="15">
       <c r="A1" s="9" t="s">
         <v>34</v>
       </c>
@@ -10384,7 +10353,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" ht="15">
       <c r="A2" t="s">
         <v>185</v>
       </c>
@@ -10428,7 +10397,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" ht="15">
       <c r="A3" t="s">
         <v>186</v>
       </c>
@@ -10472,7 +10441,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" ht="15">
       <c r="A4" t="s">
         <v>187</v>
       </c>
@@ -10516,7 +10485,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" ht="15">
       <c r="A5" t="s">
         <v>188</v>
       </c>
@@ -10566,7 +10535,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" ht="15">
       <c r="A6" t="s">
         <v>189</v>
       </c>
@@ -10604,42 +10573,54 @@
         <v>66</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" ht="15">
       <c r="A7" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" ht="15">
       <c r="A8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" ht="15">
       <c r="A9" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" ht="15">
       <c r="A10" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17">
       <c r="A11" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17">
       <c r="A12" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>380</v>
+      </c>
+      <c r="C12" t="s">
+        <v>379</v>
+      </c>
+      <c r="D12" t="s">
+        <v>69</v>
+      </c>
+      <c r="E12" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" ht="15">
       <c r="A14" t="s">
         <v>215</v>
       </c>
@@ -10670,20 +10651,20 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C1C95F1-B491-4EFF-B631-D7340BA4B41F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="62.140625" customWidth="1"/>
-    <col min="2" max="2" width="57.42578125" customWidth="1"/>
+    <col min="1" max="1" width="62.109375" customWidth="1"/>
+    <col min="2" max="2" width="57.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="46" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" s="46" customFormat="1">
       <c r="A1" s="45" t="s">
         <v>284</v>
       </c>
@@ -10691,7 +10672,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>276</v>
       </c>
@@ -10699,7 +10680,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>277</v>
       </c>
@@ -10707,7 +10688,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>278</v>
       </c>
@@ -10715,7 +10696,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>279</v>
       </c>
@@ -10723,7 +10704,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>280</v>
       </c>
@@ -10731,7 +10712,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
         <v>281</v>
       </c>
@@ -10739,7 +10720,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
         <v>282</v>
       </c>
@@ -10747,22 +10728,22 @@
         <v>355</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2">
       <c r="B10" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2">
       <c r="B11" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2">
       <c r="B12" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2">
       <c r="B13" t="s">
         <v>359</v>
       </c>
@@ -10774,21 +10755,21 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E013B70C-EDE5-4F6D-8C4E-9CA7DA951589}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="55" customWidth="1"/>
-    <col min="2" max="2" width="72.42578125" customWidth="1"/>
-    <col min="3" max="3" width="48.5703125" customWidth="1"/>
+    <col min="2" max="2" width="72.44140625" customWidth="1"/>
+    <col min="3" max="3" width="48.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="47" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" s="47" customFormat="1">
       <c r="A1" s="47" t="s">
         <v>285</v>
       </c>
@@ -10799,7 +10780,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>286</v>
       </c>
@@ -10810,7 +10791,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>287</v>
       </c>
@@ -10821,7 +10802,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>288</v>
       </c>
@@ -10832,7 +10813,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>289</v>
       </c>
@@ -10843,7 +10824,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>290</v>
       </c>
@@ -10854,7 +10835,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>291</v>
       </c>
@@ -10865,7 +10846,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
         <v>292</v>
       </c>
@@ -10876,7 +10857,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
         <v>293</v>
       </c>
@@ -10887,7 +10868,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
         <v>287</v>
       </c>
@@ -10898,7 +10879,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3">
       <c r="B12" t="s">
         <v>304</v>
       </c>
@@ -10906,12 +10887,12 @@
         <v>322</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3">
       <c r="B13" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3">
       <c r="B14" t="s">
         <v>308</v>
       </c>
@@ -10919,12 +10900,12 @@
         <v>323</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3">
       <c r="C15" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3">
       <c r="B16" t="s">
         <v>298</v>
       </c>
@@ -10932,7 +10913,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:3">
       <c r="B17" t="s">
         <v>309</v>
       </c>
@@ -10940,7 +10921,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:3">
       <c r="B18" t="s">
         <v>310</v>
       </c>
@@ -10948,7 +10929,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:3">
       <c r="B19" t="s">
         <v>311</v>
       </c>
@@ -10956,7 +10937,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:3">
       <c r="B20" t="s">
         <v>312</v>
       </c>
@@ -10964,12 +10945,12 @@
         <v>349</v>
       </c>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:3">
       <c r="B21" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:3">
       <c r="B22" t="s">
         <v>314</v>
       </c>
@@ -10981,20 +10962,20 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2EDB5C4-DF64-42A3-A67D-403FA4F0CABD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="34.5703125" customWidth="1"/>
+    <col min="1" max="1" width="34.5546875" customWidth="1"/>
     <col min="2" max="2" width="34" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="47" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" s="47" customFormat="1">
       <c r="A1" s="47" t="s">
         <v>329</v>
       </c>
@@ -11002,7 +10983,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>331</v>
       </c>
@@ -11010,7 +10991,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>332</v>
       </c>
@@ -11018,7 +10999,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>333</v>
       </c>
@@ -11026,7 +11007,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>334</v>
       </c>
@@ -11034,7 +11015,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>335</v>
       </c>
@@ -11042,7 +11023,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>336</v>
       </c>
@@ -11050,7 +11031,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
         <v>337</v>
       </c>
@@ -11058,7 +11039,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
         <v>338</v>
       </c>
@@ -11066,12 +11047,12 @@
         <v>346</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2">
       <c r="B10" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2">
       <c r="B11" t="s">
         <v>348</v>
       </c>
@@ -11083,54 +11064,54 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CB5E01E-9F02-4587-BC86-010E555326DF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="191.85546875" customWidth="1"/>
+    <col min="1" max="1" width="191.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" s="46" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" s="46" customFormat="1">
       <c r="A1" s="47" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1">
       <c r="A2" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1">
       <c r="A3" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1">
       <c r="A4" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1">
       <c r="A5" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1">
       <c r="A6" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1">
       <c r="A7" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1">
       <c r="A8" t="s">
         <v>377</v>
       </c>
@@ -11142,20 +11123,20 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42780BC3-8465-42F9-9BAC-21D18B22970C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="66.85546875" customWidth="1"/>
+    <col min="1" max="1" width="66.88671875" customWidth="1"/>
     <col min="2" max="2" width="41" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="47" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" s="47" customFormat="1">
       <c r="A1" s="47" t="s">
         <v>215</v>
       </c>
@@ -11163,7 +11144,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>175</v>
       </c>
@@ -11171,7 +11152,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>364</v>
       </c>
@@ -11179,37 +11160,37 @@
         <v>363</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2">
       <c r="A10" t="s">
         <v>370</v>
       </c>

--- a/TF_UI_APIs.xlsx
+++ b/TF_UI_APIs.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\W\tf-new-arch-artifacts\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B58D8ED9-BC51-453E-AD60-6275AA287645}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5736" yWindow="252" windowWidth="21600" windowHeight="13176" activeTab="3"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Type1" sheetId="2" r:id="rId1"/>
@@ -24,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="794" uniqueCount="381">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="816" uniqueCount="396">
   <si>
     <t>Tax Authority</t>
   </si>
@@ -1207,12 +1213,57 @@
   <si>
     <t>customGarnishmentFormulas</t>
   </si>
+  <si>
+    <t>/GarnishmentService/getGarnishmentFormulaOverrides</t>
+  </si>
+  <si>
+    <t>/GarnishmentService/getGarnishmentFormulaOverrideDetail</t>
+  </si>
+  <si>
+    <t>/GarnishmentService/deleteGarnishmentFormulaOverride</t>
+  </si>
+  <si>
+    <t>/GarnishmentService/saveGarnishmentFormulaOverride</t>
+  </si>
+  <si>
+    <t>/GarnishmentService/generateGarnishmentFormulaOverridePDF</t>
+  </si>
+  <si>
+    <t>/GarnishmentService/getGarnFormulaOverdTaxTypeAutocomplete</t>
+  </si>
+  <si>
+    <t>/TaxCodeService/saveReciprocalOverride</t>
+  </si>
+  <si>
+    <t>/TaxCodeService/getRecipOvrdAutocompleteResAuthorities</t>
+  </si>
+  <si>
+    <t>/TaxCodeService/getRecipOvrdAutocompleteResAuthoritiesLocal</t>
+  </si>
+  <si>
+    <t>/TaxCodeService/getRecipOvrdAutocompleteNonResAuthorities</t>
+  </si>
+  <si>
+    <t>/TaxCodeService/getRecipOvrdAutocompleteNonResAuthoritiesLocal</t>
+  </si>
+  <si>
+    <t>/TaxCodeService/getRecipOvrdAutocompleteResTaxTypes</t>
+  </si>
+  <si>
+    <t>/TaxCodeService/getRecipOvrdAutocompleteResTaxTypesLocal</t>
+  </si>
+  <si>
+    <t>/TaxCodeService/getRecipOvrdAutocompleteNonResTaxTypes</t>
+  </si>
+  <si>
+    <t>/TaxCodeService/getRecipOvrdAutocompleteNonResTaxTypesLocal</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2797,122 +2848,122 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:P13" totalsRowShown="0" headerRowDxfId="49" dataDxfId="47" headerRowBorderDxfId="48" tableBorderDxfId="46" totalsRowBorderDxfId="45">
-  <autoFilter ref="A1:P13"/>
-  <sortState ref="A2:J13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:P13" totalsRowShown="0" headerRowDxfId="49" dataDxfId="47" headerRowBorderDxfId="48" tableBorderDxfId="46" totalsRowBorderDxfId="45">
+  <autoFilter ref="A1:P13" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J13">
     <sortCondition ref="A1:A13"/>
   </sortState>
   <tableColumns count="16">
-    <tableColumn id="1" name="Link Description"/>
-    <tableColumn id="2" name="Page Id" dataDxfId="44"/>
-    <tableColumn id="3" name="Autocomplete pageIds" dataDxfId="43"/>
-    <tableColumn id="4" name="Get Prod URL" dataDxfId="42"/>
-    <tableColumn id="11" name="Get URL Ready?"/>
-    <tableColumn id="5" name="Edit Entity"/>
-    <tableColumn id="16" name="Edit  URL Ready"/>
-    <tableColumn id="17" name="Get Usage URL"/>
-    <tableColumn id="18" name="Get Usage Ready"/>
-    <tableColumn id="9" name="Delete URL"/>
-    <tableColumn id="13" name="Delete Ready?"/>
-    <tableColumn id="8" name="Save/Update URL"/>
-    <tableColumn id="7" name="Save/Update Ready?"/>
-    <tableColumn id="10" name="View PDF?"/>
-    <tableColumn id="12" name="All APIs ready?"/>
-    <tableColumn id="6" name="Testing?" dataDxfId="41"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Link Description"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Page Id" dataDxfId="44"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Autocomplete pageIds" dataDxfId="43"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Get Prod URL" dataDxfId="42"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Get URL Ready?"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Edit Entity"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="Edit  URL Ready"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="Get Usage URL"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="Get Usage Ready"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Delete URL"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Delete Ready?"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Save/Update URL"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Save/Update Ready?"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="View PDF?"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="All APIs ready?"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Testing?" dataDxfId="41"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table5" displayName="Table5" ref="A1:H23" totalsRowShown="0" headerRowDxfId="40" dataDxfId="38" headerRowBorderDxfId="39" tableBorderDxfId="37" totalsRowBorderDxfId="36">
-  <autoFilter ref="A1:H23"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table5" displayName="Table5" ref="A1:H23" totalsRowShown="0" headerRowDxfId="40" dataDxfId="38" headerRowBorderDxfId="39" tableBorderDxfId="37" totalsRowBorderDxfId="36">
+  <autoFilter ref="A1:H23" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
   <tableColumns count="8">
-    <tableColumn id="1" name="Field Description" dataDxfId="35"/>
-    <tableColumn id="2" name="Prod URL" dataDxfId="34"/>
-    <tableColumn id="3" name="Is Autocomplete?" dataDxfId="33"/>
-    <tableColumn id="4" name="Dev Done?" dataDxfId="32"/>
-    <tableColumn id="5" name="In Sync With UI?" dataDxfId="31"/>
-    <tableColumn id="6" name="Screens" dataDxfId="30"/>
-    <tableColumn id="7" name="Dev By" dataDxfId="29"/>
-    <tableColumn id="9" name="Note" dataDxfId="28"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Field Description" dataDxfId="35"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Prod URL" dataDxfId="34"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Is Autocomplete?" dataDxfId="33"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Dev Done?" dataDxfId="32"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="In Sync With UI?" dataDxfId="31"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Screens" dataDxfId="30"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Dev By" dataDxfId="29"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="Note" dataDxfId="28"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:G35" totalsRowShown="0" headerRowDxfId="27" headerRowBorderDxfId="26" tableBorderDxfId="25">
-  <autoFilter ref="A1:G35"/>
-  <sortState ref="A2:G35">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table2" displayName="Table2" ref="A1:G35" totalsRowShown="0" headerRowDxfId="27" headerRowBorderDxfId="26" tableBorderDxfId="25">
+  <autoFilter ref="A1:G35" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G35">
     <sortCondition descending="1" ref="F1:F35"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="1" name="Link Description" dataDxfId="24"/>
-    <tableColumn id="3" name="Filter" dataDxfId="23"/>
-    <tableColumn id="4" name="Prod URL" dataDxfId="22"/>
-    <tableColumn id="6" name="Dev Done?" dataDxfId="21"/>
-    <tableColumn id="2" name="UI Sync/Ingt" dataDxfId="20"/>
-    <tableColumn id="7" name="Testing?" dataDxfId="19"/>
-    <tableColumn id="5" name="Dev By" dataDxfId="18"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Link Description" dataDxfId="24"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Filter" dataDxfId="23"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Prod URL" dataDxfId="22"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="Dev Done?" dataDxfId="21"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="UI Sync/Ingt" dataDxfId="20"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0200-000007000000}" name="Testing?" dataDxfId="19"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="Dev By" dataDxfId="18"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table14" displayName="Table14" ref="A1:Q14" totalsRowShown="0" headerRowDxfId="17" dataDxfId="15" headerRowBorderDxfId="16" tableBorderDxfId="14" totalsRowBorderDxfId="13">
-  <autoFilter ref="A1:Q14"/>
-  <sortState ref="A2:J13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table14" displayName="Table14" ref="A1:Q14" totalsRowShown="0" headerRowDxfId="17" dataDxfId="15" headerRowBorderDxfId="16" tableBorderDxfId="14" totalsRowBorderDxfId="13">
+  <autoFilter ref="A1:Q14" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J13">
     <sortCondition ref="A1:A13"/>
   </sortState>
   <tableColumns count="17">
-    <tableColumn id="1" name="Link Description"/>
-    <tableColumn id="2" name="Page Id" dataDxfId="12"/>
-    <tableColumn id="3" name="Autocomplete pageIds" dataDxfId="11"/>
-    <tableColumn id="14" name="Get Prod URL - parent grid"/>
-    <tableColumn id="4" name="Get Prod URL - child grid2" dataDxfId="10"/>
-    <tableColumn id="11" name="Get URL Ready?"/>
-    <tableColumn id="5" name="Edit Entity"/>
-    <tableColumn id="16" name="Edit  URL Ready"/>
-    <tableColumn id="17" name="Extra APIs"/>
-    <tableColumn id="18" name="Extra APIs Ready"/>
-    <tableColumn id="9" name="Delete URL"/>
-    <tableColumn id="13" name="Delete Ready?"/>
-    <tableColumn id="8" name="Save/Update URL"/>
-    <tableColumn id="7" name="Save/Update Ready?"/>
-    <tableColumn id="10" name="View PDF?"/>
-    <tableColumn id="12" name="All APIs ready?"/>
-    <tableColumn id="6" name="Testing?" dataDxfId="9"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Link Description"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Page Id" dataDxfId="12"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="Autocomplete pageIds" dataDxfId="11"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0300-00000E000000}" name="Get Prod URL - parent grid"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="Get Prod URL - child grid2" dataDxfId="10"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0300-00000B000000}" name="Get URL Ready?"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="Edit Entity"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0300-000010000000}" name="Edit  URL Ready"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0300-000011000000}" name="Extra APIs"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0300-000012000000}" name="Extra APIs Ready"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0300-000009000000}" name="Delete URL"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0300-00000D000000}" name="Delete Ready?"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0300-000008000000}" name="Save/Update URL"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0300-000007000000}" name="Save/Update Ready?"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0300-00000A000000}" name="View PDF?"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0300-00000C000000}" name="All APIs ready?"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0300-000006000000}" name="Testing?" dataDxfId="9"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table145" displayName="Table145" ref="A1:Q5" totalsRowShown="0" headerRowDxfId="8" dataDxfId="6" headerRowBorderDxfId="7" tableBorderDxfId="5" totalsRowBorderDxfId="4">
-  <autoFilter ref="A1:Q5"/>
-  <sortState ref="A2:J13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Table145" displayName="Table145" ref="A1:Q5" totalsRowShown="0" headerRowDxfId="8" dataDxfId="6" headerRowBorderDxfId="7" tableBorderDxfId="5" totalsRowBorderDxfId="4">
+  <autoFilter ref="A1:Q5" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J13">
     <sortCondition ref="A1:A13"/>
   </sortState>
   <tableColumns count="17">
-    <tableColumn id="1" name="Link Description"/>
-    <tableColumn id="2" name="Page Id" dataDxfId="3"/>
-    <tableColumn id="3" name="Autocomplete pageIds" dataDxfId="2"/>
-    <tableColumn id="14" name="Get Prod URL - parent grid"/>
-    <tableColumn id="4" name="Get Prod URL - child grid2" dataDxfId="1"/>
-    <tableColumn id="11" name="Get URL Ready?"/>
-    <tableColumn id="5" name="Edit Entity"/>
-    <tableColumn id="16" name="Edit  URL Ready"/>
-    <tableColumn id="17" name="Extra APIs"/>
-    <tableColumn id="18" name="Extra APIs Ready"/>
-    <tableColumn id="9" name="Delete URL"/>
-    <tableColumn id="13" name="Delete Ready?"/>
-    <tableColumn id="8" name="Save/Update URL"/>
-    <tableColumn id="7" name="Save/Update Ready?"/>
-    <tableColumn id="10" name="View PDF?"/>
-    <tableColumn id="12" name="All APIs ready?"/>
-    <tableColumn id="6" name="Testing?" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="Link Description"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="Page Id" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="Autocomplete pageIds" dataDxfId="2"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0400-00000E000000}" name="Get Prod URL - parent grid"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="Get Prod URL - child grid2" dataDxfId="1"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0400-00000B000000}" name="Get URL Ready?"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0400-000005000000}" name="Edit Entity"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0400-000010000000}" name="Edit  URL Ready"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0400-000011000000}" name="Extra APIs"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0400-000012000000}" name="Extra APIs Ready"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0400-000009000000}" name="Delete URL"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0400-00000D000000}" name="Delete Ready?"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0400-000008000000}" name="Save/Update URL"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0400-000007000000}" name="Save/Update Ready?"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0400-00000A000000}" name="View PDF?"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0400-00000C000000}" name="All APIs ready?"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0400-000006000000}" name="Testing?" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2961,7 +3012,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2994,9 +3045,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3029,6 +3097,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3204,34 +3289,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.109375" customWidth="1"/>
-    <col min="4" max="4" width="47.6640625" customWidth="1"/>
-    <col min="5" max="5" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.140625" customWidth="1"/>
+    <col min="4" max="4" width="47.7109375" customWidth="1"/>
+    <col min="5" max="5" width="16.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="42" customWidth="1"/>
-    <col min="7" max="7" width="16.5546875" customWidth="1"/>
-    <col min="8" max="8" width="52.44140625" customWidth="1"/>
-    <col min="9" max="9" width="16.5546875" customWidth="1"/>
-    <col min="10" max="10" width="45.6640625" customWidth="1"/>
-    <col min="11" max="11" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="42.5546875" customWidth="1"/>
-    <col min="13" max="13" width="21.109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.5703125" customWidth="1"/>
+    <col min="8" max="8" width="52.42578125" customWidth="1"/>
+    <col min="9" max="9" width="16.5703125" customWidth="1"/>
+    <col min="10" max="10" width="45.7109375" customWidth="1"/>
+    <col min="11" max="11" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="42.5703125" customWidth="1"/>
+    <col min="13" max="13" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>34</v>
       </c>
@@ -3281,7 +3366,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>55</v>
       </c>
@@ -3328,7 +3413,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="40" t="s">
         <v>12</v>
       </c>
@@ -3376,7 +3461,7 @@
       </c>
       <c r="P3" s="40"/>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="40" t="s">
         <v>7</v>
       </c>
@@ -3424,7 +3509,7 @@
       </c>
       <c r="P4" s="40"/>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="40" t="s">
         <v>52</v>
       </c>
@@ -3472,7 +3557,7 @@
       </c>
       <c r="P5" s="40"/>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="40" t="s">
         <v>53</v>
       </c>
@@ -3520,7 +3605,7 @@
       </c>
       <c r="P6" s="40"/>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>54</v>
       </c>
@@ -3567,7 +3652,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="40" t="s">
         <v>4</v>
       </c>
@@ -3615,7 +3700,7 @@
       </c>
       <c r="P8" s="40"/>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="40" t="s">
         <v>5</v>
       </c>
@@ -3663,7 +3748,7 @@
       </c>
       <c r="P9" s="40"/>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="40" t="s">
         <v>56</v>
       </c>
@@ -3711,7 +3796,7 @@
       </c>
       <c r="P10" s="40"/>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>195</v>
       </c>
@@ -3758,7 +3843,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>201</v>
       </c>
@@ -3799,7 +3884,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="16" spans="1:16">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="H16" t="s">
         <v>233</v>
       </c>
@@ -3815,25 +3900,25 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A2:H410"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="19.88671875" customWidth="1"/>
-    <col min="3" max="3" width="17.33203125" customWidth="1"/>
-    <col min="4" max="4" width="18.33203125" customWidth="1"/>
-    <col min="5" max="5" width="22.88671875" customWidth="1"/>
-    <col min="6" max="6" width="26.5546875" customWidth="1"/>
-    <col min="7" max="7" width="23.88671875" customWidth="1"/>
-    <col min="8" max="10" width="17.109375" customWidth="1"/>
+    <col min="2" max="2" width="19.85546875" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" customWidth="1"/>
+    <col min="5" max="5" width="22.85546875" customWidth="1"/>
+    <col min="6" max="6" width="26.5703125" customWidth="1"/>
+    <col min="7" max="7" width="23.85546875" customWidth="1"/>
+    <col min="8" max="10" width="17.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" ht="15">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B2" s="43" t="s">
         <v>220</v>
       </c>
@@ -3856,7 +3941,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -3868,7 +3953,7 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="1:8" ht="15">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -3880,7 +3965,7 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="1:8" ht="15">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -3892,7 +3977,7 @@
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
     </row>
-    <row r="6" spans="1:8" ht="15">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -3904,7 +3989,7 @@
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
     </row>
-    <row r="7" spans="1:8" ht="15">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -3916,7 +4001,7 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
     </row>
-    <row r="8" spans="1:8" ht="15">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -3928,7 +4013,7 @@
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
     </row>
-    <row r="9" spans="1:8" ht="15">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -3940,7 +4025,7 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
     </row>
-    <row r="10" spans="1:8" ht="15">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -3952,7 +4037,7 @@
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
     </row>
-    <row r="11" spans="1:8" ht="15">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -3964,7 +4049,7 @@
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
     </row>
-    <row r="12" spans="1:8" ht="15">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
@@ -3976,7 +4061,7 @@
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
     </row>
-    <row r="13" spans="1:8" ht="15">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
@@ -3988,7 +4073,7 @@
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
     </row>
-    <row r="14" spans="1:8" ht="15">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
@@ -4000,7 +4085,7 @@
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
     </row>
-    <row r="15" spans="1:8" ht="15">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
@@ -4012,7 +4097,7 @@
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
     </row>
-    <row r="16" spans="1:8" ht="15">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
@@ -4024,7 +4109,7 @@
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
     </row>
-    <row r="17" spans="1:8" ht="15">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>15</v>
       </c>
@@ -4036,7 +4121,7 @@
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
     </row>
-    <row r="18" spans="1:8" ht="15">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>16</v>
       </c>
@@ -4048,7 +4133,7 @@
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
     </row>
-    <row r="19" spans="1:8" ht="15">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>17</v>
       </c>
@@ -4060,7 +4145,7 @@
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
     </row>
-    <row r="20" spans="1:8" ht="15">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>18</v>
       </c>
@@ -4072,7 +4157,7 @@
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
     </row>
-    <row r="21" spans="1:8" ht="15">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>19</v>
       </c>
@@ -4084,7 +4169,7 @@
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
     </row>
-    <row r="22" spans="1:8" ht="15">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>20</v>
       </c>
@@ -4096,7 +4181,7 @@
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
     </row>
-    <row r="23" spans="1:8" ht="15">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>21</v>
       </c>
@@ -4108,7 +4193,7 @@
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
     </row>
-    <row r="24" spans="1:8" ht="15">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>22</v>
       </c>
@@ -4120,7 +4205,7 @@
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
     </row>
-    <row r="25" spans="1:8" ht="15">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>23</v>
       </c>
@@ -4132,7 +4217,7 @@
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
     </row>
-    <row r="26" spans="1:8" ht="15">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>24</v>
       </c>
@@ -4144,7 +4229,7 @@
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
     </row>
-    <row r="27" spans="1:8" ht="15">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>25</v>
       </c>
@@ -4156,7 +4241,7 @@
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>26</v>
       </c>
@@ -4168,7 +4253,7 @@
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>27</v>
       </c>
@@ -4180,7 +4265,7 @@
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>28</v>
       </c>
@@ -4192,7 +4277,7 @@
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>29</v>
       </c>
@@ -4204,7 +4289,7 @@
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>30</v>
       </c>
@@ -4216,7 +4301,7 @@
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>31</v>
       </c>
@@ -4228,7 +4313,7 @@
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>32</v>
       </c>
@@ -4240,7 +4325,7 @@
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>33</v>
       </c>
@@ -4252,7 +4337,7 @@
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>34</v>
       </c>
@@ -4264,7 +4349,7 @@
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>35</v>
       </c>
@@ -4276,7 +4361,7 @@
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>36</v>
       </c>
@@ -4288,7 +4373,7 @@
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>37</v>
       </c>
@@ -4300,7 +4385,7 @@
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>38</v>
       </c>
@@ -4312,7 +4397,7 @@
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>39</v>
       </c>
@@ -4324,7 +4409,7 @@
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>40</v>
       </c>
@@ -4336,7 +4421,7 @@
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>41</v>
       </c>
@@ -4348,7 +4433,7 @@
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>42</v>
       </c>
@@ -4360,7 +4445,7 @@
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>43</v>
       </c>
@@ -4372,7 +4457,7 @@
       <c r="G45" s="1"/>
       <c r="H45" s="1"/>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>44</v>
       </c>
@@ -4384,7 +4469,7 @@
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
     </row>
-    <row r="47" spans="1:8">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>45</v>
       </c>
@@ -4396,7 +4481,7 @@
       <c r="G47" s="1"/>
       <c r="H47" s="1"/>
     </row>
-    <row r="48" spans="1:8">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>46</v>
       </c>
@@ -4408,7 +4493,7 @@
       <c r="G48" s="1"/>
       <c r="H48" s="1"/>
     </row>
-    <row r="49" spans="1:8">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>47</v>
       </c>
@@ -4420,7 +4505,7 @@
       <c r="G49" s="1"/>
       <c r="H49" s="1"/>
     </row>
-    <row r="50" spans="1:8">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>48</v>
       </c>
@@ -4432,7 +4517,7 @@
       <c r="G50" s="1"/>
       <c r="H50" s="1"/>
     </row>
-    <row r="51" spans="1:8">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>49</v>
       </c>
@@ -4444,7 +4529,7 @@
       <c r="G51" s="1"/>
       <c r="H51" s="1"/>
     </row>
-    <row r="52" spans="1:8">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>50</v>
       </c>
@@ -4456,7 +4541,7 @@
       <c r="G52" s="1"/>
       <c r="H52" s="1"/>
     </row>
-    <row r="53" spans="1:8">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>51</v>
       </c>
@@ -4468,7 +4553,7 @@
       <c r="G53" s="1"/>
       <c r="H53" s="1"/>
     </row>
-    <row r="54" spans="1:8">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>52</v>
       </c>
@@ -4480,7 +4565,7 @@
       <c r="G54" s="1"/>
       <c r="H54" s="1"/>
     </row>
-    <row r="55" spans="1:8">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>53</v>
       </c>
@@ -4492,7 +4577,7 @@
       <c r="G55" s="1"/>
       <c r="H55" s="1"/>
     </row>
-    <row r="56" spans="1:8">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>54</v>
       </c>
@@ -4504,7 +4589,7 @@
       <c r="G56" s="1"/>
       <c r="H56" s="1"/>
     </row>
-    <row r="57" spans="1:8">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>55</v>
       </c>
@@ -4516,7 +4601,7 @@
       <c r="G57" s="1"/>
       <c r="H57" s="1"/>
     </row>
-    <row r="58" spans="1:8">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>56</v>
       </c>
@@ -4528,7 +4613,7 @@
       <c r="G58" s="1"/>
       <c r="H58" s="1"/>
     </row>
-    <row r="59" spans="1:8">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>57</v>
       </c>
@@ -4540,7 +4625,7 @@
       <c r="G59" s="1"/>
       <c r="H59" s="1"/>
     </row>
-    <row r="60" spans="1:8">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>58</v>
       </c>
@@ -4552,7 +4637,7 @@
       <c r="G60" s="1"/>
       <c r="H60" s="1"/>
     </row>
-    <row r="61" spans="1:8">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>59</v>
       </c>
@@ -4564,7 +4649,7 @@
       <c r="G61" s="1"/>
       <c r="H61" s="1"/>
     </row>
-    <row r="62" spans="1:8">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>60</v>
       </c>
@@ -4576,7 +4661,7 @@
       <c r="G62" s="1"/>
       <c r="H62" s="1"/>
     </row>
-    <row r="63" spans="1:8">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>61</v>
       </c>
@@ -4588,7 +4673,7 @@
       <c r="G63" s="1"/>
       <c r="H63" s="1"/>
     </row>
-    <row r="64" spans="1:8">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>62</v>
       </c>
@@ -4600,7 +4685,7 @@
       <c r="G64" s="1"/>
       <c r="H64" s="1"/>
     </row>
-    <row r="65" spans="1:8">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>63</v>
       </c>
@@ -4612,7 +4697,7 @@
       <c r="G65" s="1"/>
       <c r="H65" s="1"/>
     </row>
-    <row r="66" spans="1:8">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>64</v>
       </c>
@@ -4624,7 +4709,7 @@
       <c r="G66" s="1"/>
       <c r="H66" s="1"/>
     </row>
-    <row r="67" spans="1:8">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>65</v>
       </c>
@@ -4636,7 +4721,7 @@
       <c r="G67" s="1"/>
       <c r="H67" s="1"/>
     </row>
-    <row r="68" spans="1:8">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>66</v>
       </c>
@@ -4648,7 +4733,7 @@
       <c r="G68" s="1"/>
       <c r="H68" s="1"/>
     </row>
-    <row r="69" spans="1:8">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>67</v>
       </c>
@@ -4660,7 +4745,7 @@
       <c r="G69" s="1"/>
       <c r="H69" s="1"/>
     </row>
-    <row r="70" spans="1:8">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>68</v>
       </c>
@@ -4672,7 +4757,7 @@
       <c r="G70" s="1"/>
       <c r="H70" s="1"/>
     </row>
-    <row r="71" spans="1:8">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>69</v>
       </c>
@@ -4684,7 +4769,7 @@
       <c r="G71" s="1"/>
       <c r="H71" s="1"/>
     </row>
-    <row r="72" spans="1:8">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>70</v>
       </c>
@@ -4696,7 +4781,7 @@
       <c r="G72" s="1"/>
       <c r="H72" s="1"/>
     </row>
-    <row r="73" spans="1:8">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>71</v>
       </c>
@@ -4708,7 +4793,7 @@
       <c r="G73" s="1"/>
       <c r="H73" s="1"/>
     </row>
-    <row r="74" spans="1:8">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>72</v>
       </c>
@@ -4720,7 +4805,7 @@
       <c r="G74" s="1"/>
       <c r="H74" s="1"/>
     </row>
-    <row r="75" spans="1:8">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>73</v>
       </c>
@@ -4732,7 +4817,7 @@
       <c r="G75" s="1"/>
       <c r="H75" s="1"/>
     </row>
-    <row r="76" spans="1:8">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>74</v>
       </c>
@@ -4744,7 +4829,7 @@
       <c r="G76" s="1"/>
       <c r="H76" s="1"/>
     </row>
-    <row r="77" spans="1:8">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>75</v>
       </c>
@@ -4756,7 +4841,7 @@
       <c r="G77" s="1"/>
       <c r="H77" s="1"/>
     </row>
-    <row r="78" spans="1:8">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>76</v>
       </c>
@@ -4768,7 +4853,7 @@
       <c r="G78" s="1"/>
       <c r="H78" s="1"/>
     </row>
-    <row r="79" spans="1:8">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>77</v>
       </c>
@@ -4780,7 +4865,7 @@
       <c r="G79" s="1"/>
       <c r="H79" s="1"/>
     </row>
-    <row r="80" spans="1:8">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>78</v>
       </c>
@@ -4792,7 +4877,7 @@
       <c r="G80" s="1"/>
       <c r="H80" s="1"/>
     </row>
-    <row r="81" spans="1:8">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>79</v>
       </c>
@@ -4804,7 +4889,7 @@
       <c r="G81" s="1"/>
       <c r="H81" s="1"/>
     </row>
-    <row r="82" spans="1:8">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>80</v>
       </c>
@@ -4816,7 +4901,7 @@
       <c r="G82" s="1"/>
       <c r="H82" s="1"/>
     </row>
-    <row r="83" spans="1:8">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>81</v>
       </c>
@@ -4828,7 +4913,7 @@
       <c r="G83" s="1"/>
       <c r="H83" s="1"/>
     </row>
-    <row r="84" spans="1:8">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>82</v>
       </c>
@@ -4840,7 +4925,7 @@
       <c r="G84" s="1"/>
       <c r="H84" s="1"/>
     </row>
-    <row r="85" spans="1:8">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>83</v>
       </c>
@@ -4852,7 +4937,7 @@
       <c r="G85" s="1"/>
       <c r="H85" s="1"/>
     </row>
-    <row r="86" spans="1:8">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>84</v>
       </c>
@@ -4864,7 +4949,7 @@
       <c r="G86" s="1"/>
       <c r="H86" s="1"/>
     </row>
-    <row r="87" spans="1:8">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>85</v>
       </c>
@@ -4876,7 +4961,7 @@
       <c r="G87" s="1"/>
       <c r="H87" s="1"/>
     </row>
-    <row r="88" spans="1:8">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>86</v>
       </c>
@@ -4888,7 +4973,7 @@
       <c r="G88" s="1"/>
       <c r="H88" s="1"/>
     </row>
-    <row r="89" spans="1:8">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>87</v>
       </c>
@@ -4900,7 +4985,7 @@
       <c r="G89" s="1"/>
       <c r="H89" s="1"/>
     </row>
-    <row r="90" spans="1:8">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>88</v>
       </c>
@@ -4912,7 +4997,7 @@
       <c r="G90" s="1"/>
       <c r="H90" s="1"/>
     </row>
-    <row r="91" spans="1:8">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>89</v>
       </c>
@@ -4924,7 +5009,7 @@
       <c r="G91" s="1"/>
       <c r="H91" s="1"/>
     </row>
-    <row r="92" spans="1:8">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>90</v>
       </c>
@@ -4936,7 +5021,7 @@
       <c r="G92" s="1"/>
       <c r="H92" s="1"/>
     </row>
-    <row r="93" spans="1:8">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>91</v>
       </c>
@@ -4948,7 +5033,7 @@
       <c r="G93" s="1"/>
       <c r="H93" s="1"/>
     </row>
-    <row r="94" spans="1:8">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>92</v>
       </c>
@@ -4960,7 +5045,7 @@
       <c r="G94" s="1"/>
       <c r="H94" s="1"/>
     </row>
-    <row r="95" spans="1:8">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>93</v>
       </c>
@@ -4972,7 +5057,7 @@
       <c r="G95" s="1"/>
       <c r="H95" s="1"/>
     </row>
-    <row r="96" spans="1:8">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>94</v>
       </c>
@@ -4984,7 +5069,7 @@
       <c r="G96" s="1"/>
       <c r="H96" s="1"/>
     </row>
-    <row r="97" spans="1:8">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>95</v>
       </c>
@@ -4996,7 +5081,7 @@
       <c r="G97" s="1"/>
       <c r="H97" s="1"/>
     </row>
-    <row r="98" spans="1:8">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>96</v>
       </c>
@@ -5008,7 +5093,7 @@
       <c r="G98" s="1"/>
       <c r="H98" s="1"/>
     </row>
-    <row r="99" spans="1:8">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>97</v>
       </c>
@@ -5020,7 +5105,7 @@
       <c r="G99" s="1"/>
       <c r="H99" s="1"/>
     </row>
-    <row r="100" spans="1:8">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>98</v>
       </c>
@@ -5032,7 +5117,7 @@
       <c r="G100" s="1"/>
       <c r="H100" s="1"/>
     </row>
-    <row r="101" spans="1:8">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>99</v>
       </c>
@@ -5044,7 +5129,7 @@
       <c r="G101" s="1"/>
       <c r="H101" s="1"/>
     </row>
-    <row r="102" spans="1:8">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>100</v>
       </c>
@@ -5056,7 +5141,7 @@
       <c r="G102" s="1"/>
       <c r="H102" s="1"/>
     </row>
-    <row r="103" spans="1:8">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>101</v>
       </c>
@@ -5068,7 +5153,7 @@
       <c r="G103" s="1"/>
       <c r="H103" s="1"/>
     </row>
-    <row r="104" spans="1:8">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>102</v>
       </c>
@@ -5080,7 +5165,7 @@
       <c r="G104" s="1"/>
       <c r="H104" s="1"/>
     </row>
-    <row r="105" spans="1:8">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>103</v>
       </c>
@@ -5092,7 +5177,7 @@
       <c r="G105" s="1"/>
       <c r="H105" s="1"/>
     </row>
-    <row r="106" spans="1:8">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>104</v>
       </c>
@@ -5104,7 +5189,7 @@
       <c r="G106" s="1"/>
       <c r="H106" s="1"/>
     </row>
-    <row r="107" spans="1:8">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>105</v>
       </c>
@@ -5116,7 +5201,7 @@
       <c r="G107" s="1"/>
       <c r="H107" s="1"/>
     </row>
-    <row r="108" spans="1:8">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>106</v>
       </c>
@@ -5128,7 +5213,7 @@
       <c r="G108" s="1"/>
       <c r="H108" s="1"/>
     </row>
-    <row r="109" spans="1:8">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>107</v>
       </c>
@@ -5140,7 +5225,7 @@
       <c r="G109" s="1"/>
       <c r="H109" s="1"/>
     </row>
-    <row r="110" spans="1:8">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>108</v>
       </c>
@@ -5152,7 +5237,7 @@
       <c r="G110" s="1"/>
       <c r="H110" s="1"/>
     </row>
-    <row r="111" spans="1:8">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>109</v>
       </c>
@@ -5164,7 +5249,7 @@
       <c r="G111" s="1"/>
       <c r="H111" s="1"/>
     </row>
-    <row r="112" spans="1:8">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>110</v>
       </c>
@@ -5176,7 +5261,7 @@
       <c r="G112" s="1"/>
       <c r="H112" s="1"/>
     </row>
-    <row r="113" spans="1:8">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>111</v>
       </c>
@@ -5188,7 +5273,7 @@
       <c r="G113" s="1"/>
       <c r="H113" s="1"/>
     </row>
-    <row r="114" spans="1:8">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>112</v>
       </c>
@@ -5200,7 +5285,7 @@
       <c r="G114" s="1"/>
       <c r="H114" s="1"/>
     </row>
-    <row r="115" spans="1:8">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>113</v>
       </c>
@@ -5212,7 +5297,7 @@
       <c r="G115" s="1"/>
       <c r="H115" s="1"/>
     </row>
-    <row r="116" spans="1:8">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>114</v>
       </c>
@@ -5224,7 +5309,7 @@
       <c r="G116" s="1"/>
       <c r="H116" s="1"/>
     </row>
-    <row r="117" spans="1:8">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>115</v>
       </c>
@@ -5236,7 +5321,7 @@
       <c r="G117" s="1"/>
       <c r="H117" s="1"/>
     </row>
-    <row r="118" spans="1:8">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>116</v>
       </c>
@@ -5248,7 +5333,7 @@
       <c r="G118" s="1"/>
       <c r="H118" s="1"/>
     </row>
-    <row r="119" spans="1:8">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>117</v>
       </c>
@@ -5260,7 +5345,7 @@
       <c r="G119" s="1"/>
       <c r="H119" s="1"/>
     </row>
-    <row r="120" spans="1:8">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>118</v>
       </c>
@@ -5272,7 +5357,7 @@
       <c r="G120" s="1"/>
       <c r="H120" s="1"/>
     </row>
-    <row r="121" spans="1:8">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>119</v>
       </c>
@@ -5284,7 +5369,7 @@
       <c r="G121" s="1"/>
       <c r="H121" s="1"/>
     </row>
-    <row r="122" spans="1:8">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>120</v>
       </c>
@@ -5296,7 +5381,7 @@
       <c r="G122" s="1"/>
       <c r="H122" s="1"/>
     </row>
-    <row r="123" spans="1:8">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>121</v>
       </c>
@@ -5308,7 +5393,7 @@
       <c r="G123" s="1"/>
       <c r="H123" s="1"/>
     </row>
-    <row r="124" spans="1:8">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>122</v>
       </c>
@@ -5320,7 +5405,7 @@
       <c r="G124" s="1"/>
       <c r="H124" s="1"/>
     </row>
-    <row r="125" spans="1:8">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>123</v>
       </c>
@@ -5332,7 +5417,7 @@
       <c r="G125" s="1"/>
       <c r="H125" s="1"/>
     </row>
-    <row r="126" spans="1:8">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>124</v>
       </c>
@@ -5344,7 +5429,7 @@
       <c r="G126" s="1"/>
       <c r="H126" s="1"/>
     </row>
-    <row r="127" spans="1:8">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>125</v>
       </c>
@@ -5356,7 +5441,7 @@
       <c r="G127" s="1"/>
       <c r="H127" s="1"/>
     </row>
-    <row r="128" spans="1:8">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>126</v>
       </c>
@@ -5368,7 +5453,7 @@
       <c r="G128" s="1"/>
       <c r="H128" s="1"/>
     </row>
-    <row r="129" spans="1:8">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>127</v>
       </c>
@@ -5380,7 +5465,7 @@
       <c r="G129" s="1"/>
       <c r="H129" s="1"/>
     </row>
-    <row r="130" spans="1:8">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>128</v>
       </c>
@@ -5392,7 +5477,7 @@
       <c r="G130" s="1"/>
       <c r="H130" s="1"/>
     </row>
-    <row r="131" spans="1:8">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>129</v>
       </c>
@@ -5404,7 +5489,7 @@
       <c r="G131" s="1"/>
       <c r="H131" s="1"/>
     </row>
-    <row r="132" spans="1:8">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>130</v>
       </c>
@@ -5416,7 +5501,7 @@
       <c r="G132" s="1"/>
       <c r="H132" s="1"/>
     </row>
-    <row r="133" spans="1:8">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>131</v>
       </c>
@@ -5428,7 +5513,7 @@
       <c r="G133" s="1"/>
       <c r="H133" s="1"/>
     </row>
-    <row r="134" spans="1:8">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>132</v>
       </c>
@@ -5440,7 +5525,7 @@
       <c r="G134" s="1"/>
       <c r="H134" s="1"/>
     </row>
-    <row r="135" spans="1:8">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>133</v>
       </c>
@@ -5452,7 +5537,7 @@
       <c r="G135" s="1"/>
       <c r="H135" s="1"/>
     </row>
-    <row r="136" spans="1:8">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>134</v>
       </c>
@@ -5464,7 +5549,7 @@
       <c r="G136" s="1"/>
       <c r="H136" s="1"/>
     </row>
-    <row r="137" spans="1:8">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>135</v>
       </c>
@@ -5476,7 +5561,7 @@
       <c r="G137" s="1"/>
       <c r="H137" s="1"/>
     </row>
-    <row r="138" spans="1:8">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>136</v>
       </c>
@@ -5488,7 +5573,7 @@
       <c r="G138" s="1"/>
       <c r="H138" s="1"/>
     </row>
-    <row r="139" spans="1:8">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>137</v>
       </c>
@@ -5500,7 +5585,7 @@
       <c r="G139" s="1"/>
       <c r="H139" s="1"/>
     </row>
-    <row r="140" spans="1:8">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>138</v>
       </c>
@@ -5512,7 +5597,7 @@
       <c r="G140" s="1"/>
       <c r="H140" s="1"/>
     </row>
-    <row r="141" spans="1:8">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>139</v>
       </c>
@@ -5524,7 +5609,7 @@
       <c r="G141" s="1"/>
       <c r="H141" s="1"/>
     </row>
-    <row r="142" spans="1:8">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>140</v>
       </c>
@@ -5536,7 +5621,7 @@
       <c r="G142" s="1"/>
       <c r="H142" s="1"/>
     </row>
-    <row r="143" spans="1:8">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>141</v>
       </c>
@@ -5548,7 +5633,7 @@
       <c r="G143" s="1"/>
       <c r="H143" s="1"/>
     </row>
-    <row r="144" spans="1:8">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>142</v>
       </c>
@@ -5560,7 +5645,7 @@
       <c r="G144" s="1"/>
       <c r="H144" s="1"/>
     </row>
-    <row r="145" spans="1:8">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>143</v>
       </c>
@@ -5572,7 +5657,7 @@
       <c r="G145" s="1"/>
       <c r="H145" s="1"/>
     </row>
-    <row r="146" spans="1:8">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>144</v>
       </c>
@@ -5584,7 +5669,7 @@
       <c r="G146" s="1"/>
       <c r="H146" s="1"/>
     </row>
-    <row r="147" spans="1:8">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>145</v>
       </c>
@@ -5596,7 +5681,7 @@
       <c r="G147" s="1"/>
       <c r="H147" s="1"/>
     </row>
-    <row r="148" spans="1:8">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>146</v>
       </c>
@@ -5608,7 +5693,7 @@
       <c r="G148" s="1"/>
       <c r="H148" s="1"/>
     </row>
-    <row r="149" spans="1:8">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>147</v>
       </c>
@@ -5620,7 +5705,7 @@
       <c r="G149" s="1"/>
       <c r="H149" s="1"/>
     </row>
-    <row r="150" spans="1:8">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>148</v>
       </c>
@@ -5632,7 +5717,7 @@
       <c r="G150" s="1"/>
       <c r="H150" s="1"/>
     </row>
-    <row r="151" spans="1:8">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>149</v>
       </c>
@@ -5644,7 +5729,7 @@
       <c r="G151" s="1"/>
       <c r="H151" s="1"/>
     </row>
-    <row r="152" spans="1:8">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>150</v>
       </c>
@@ -5656,7 +5741,7 @@
       <c r="G152" s="1"/>
       <c r="H152" s="1"/>
     </row>
-    <row r="153" spans="1:8">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>151</v>
       </c>
@@ -5668,7 +5753,7 @@
       <c r="G153" s="1"/>
       <c r="H153" s="1"/>
     </row>
-    <row r="154" spans="1:8">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>152</v>
       </c>
@@ -5680,7 +5765,7 @@
       <c r="G154" s="1"/>
       <c r="H154" s="1"/>
     </row>
-    <row r="155" spans="1:8">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>153</v>
       </c>
@@ -5692,7 +5777,7 @@
       <c r="G155" s="1"/>
       <c r="H155" s="1"/>
     </row>
-    <row r="156" spans="1:8">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>154</v>
       </c>
@@ -5704,7 +5789,7 @@
       <c r="G156" s="1"/>
       <c r="H156" s="1"/>
     </row>
-    <row r="157" spans="1:8">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>155</v>
       </c>
@@ -5716,7 +5801,7 @@
       <c r="G157" s="1"/>
       <c r="H157" s="1"/>
     </row>
-    <row r="158" spans="1:8">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>156</v>
       </c>
@@ -5728,7 +5813,7 @@
       <c r="G158" s="1"/>
       <c r="H158" s="1"/>
     </row>
-    <row r="159" spans="1:8">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>157</v>
       </c>
@@ -5740,7 +5825,7 @@
       <c r="G159" s="1"/>
       <c r="H159" s="1"/>
     </row>
-    <row r="160" spans="1:8">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>158</v>
       </c>
@@ -5752,7 +5837,7 @@
       <c r="G160" s="1"/>
       <c r="H160" s="1"/>
     </row>
-    <row r="161" spans="1:8">
+    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>159</v>
       </c>
@@ -5764,7 +5849,7 @@
       <c r="G161" s="1"/>
       <c r="H161" s="1"/>
     </row>
-    <row r="162" spans="1:8">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>160</v>
       </c>
@@ -5776,7 +5861,7 @@
       <c r="G162" s="1"/>
       <c r="H162" s="1"/>
     </row>
-    <row r="163" spans="1:8">
+    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>161</v>
       </c>
@@ -5788,7 +5873,7 @@
       <c r="G163" s="1"/>
       <c r="H163" s="1"/>
     </row>
-    <row r="164" spans="1:8">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>162</v>
       </c>
@@ -5800,7 +5885,7 @@
       <c r="G164" s="1"/>
       <c r="H164" s="1"/>
     </row>
-    <row r="165" spans="1:8">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>163</v>
       </c>
@@ -5812,7 +5897,7 @@
       <c r="G165" s="1"/>
       <c r="H165" s="1"/>
     </row>
-    <row r="166" spans="1:8">
+    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>164</v>
       </c>
@@ -5824,7 +5909,7 @@
       <c r="G166" s="1"/>
       <c r="H166" s="1"/>
     </row>
-    <row r="167" spans="1:8">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>165</v>
       </c>
@@ -5836,7 +5921,7 @@
       <c r="G167" s="1"/>
       <c r="H167" s="1"/>
     </row>
-    <row r="168" spans="1:8">
+    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>166</v>
       </c>
@@ -5848,7 +5933,7 @@
       <c r="G168" s="1"/>
       <c r="H168" s="1"/>
     </row>
-    <row r="169" spans="1:8">
+    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>167</v>
       </c>
@@ -5860,7 +5945,7 @@
       <c r="G169" s="1"/>
       <c r="H169" s="1"/>
     </row>
-    <row r="170" spans="1:8">
+    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>168</v>
       </c>
@@ -5872,7 +5957,7 @@
       <c r="G170" s="1"/>
       <c r="H170" s="1"/>
     </row>
-    <row r="171" spans="1:8">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>169</v>
       </c>
@@ -5884,7 +5969,7 @@
       <c r="G171" s="1"/>
       <c r="H171" s="1"/>
     </row>
-    <row r="172" spans="1:8">
+    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>170</v>
       </c>
@@ -5896,7 +5981,7 @@
       <c r="G172" s="1"/>
       <c r="H172" s="1"/>
     </row>
-    <row r="173" spans="1:8">
+    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>171</v>
       </c>
@@ -5908,7 +5993,7 @@
       <c r="G173" s="1"/>
       <c r="H173" s="1"/>
     </row>
-    <row r="174" spans="1:8">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>172</v>
       </c>
@@ -5920,7 +6005,7 @@
       <c r="G174" s="1"/>
       <c r="H174" s="1"/>
     </row>
-    <row r="175" spans="1:8">
+    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>173</v>
       </c>
@@ -5932,7 +6017,7 @@
       <c r="G175" s="1"/>
       <c r="H175" s="1"/>
     </row>
-    <row r="176" spans="1:8">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>174</v>
       </c>
@@ -5944,7 +6029,7 @@
       <c r="G176" s="1"/>
       <c r="H176" s="1"/>
     </row>
-    <row r="177" spans="1:8">
+    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>175</v>
       </c>
@@ -5956,7 +6041,7 @@
       <c r="G177" s="1"/>
       <c r="H177" s="1"/>
     </row>
-    <row r="178" spans="1:8">
+    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>176</v>
       </c>
@@ -5968,7 +6053,7 @@
       <c r="G178" s="1"/>
       <c r="H178" s="1"/>
     </row>
-    <row r="179" spans="1:8">
+    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>177</v>
       </c>
@@ -5980,7 +6065,7 @@
       <c r="G179" s="1"/>
       <c r="H179" s="1"/>
     </row>
-    <row r="180" spans="1:8">
+    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>178</v>
       </c>
@@ -5992,7 +6077,7 @@
       <c r="G180" s="1"/>
       <c r="H180" s="1"/>
     </row>
-    <row r="181" spans="1:8">
+    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>179</v>
       </c>
@@ -6004,7 +6089,7 @@
       <c r="G181" s="1"/>
       <c r="H181" s="1"/>
     </row>
-    <row r="182" spans="1:8">
+    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>180</v>
       </c>
@@ -6016,7 +6101,7 @@
       <c r="G182" s="1"/>
       <c r="H182" s="1"/>
     </row>
-    <row r="183" spans="1:8">
+    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>181</v>
       </c>
@@ -6028,7 +6113,7 @@
       <c r="G183" s="1"/>
       <c r="H183" s="1"/>
     </row>
-    <row r="184" spans="1:8">
+    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>182</v>
       </c>
@@ -6040,7 +6125,7 @@
       <c r="G184" s="1"/>
       <c r="H184" s="1"/>
     </row>
-    <row r="185" spans="1:8">
+    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>183</v>
       </c>
@@ -6052,7 +6137,7 @@
       <c r="G185" s="1"/>
       <c r="H185" s="1"/>
     </row>
-    <row r="186" spans="1:8">
+    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>184</v>
       </c>
@@ -6064,7 +6149,7 @@
       <c r="G186" s="1"/>
       <c r="H186" s="1"/>
     </row>
-    <row r="187" spans="1:8">
+    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>185</v>
       </c>
@@ -6076,7 +6161,7 @@
       <c r="G187" s="1"/>
       <c r="H187" s="1"/>
     </row>
-    <row r="188" spans="1:8">
+    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>186</v>
       </c>
@@ -6088,7 +6173,7 @@
       <c r="G188" s="1"/>
       <c r="H188" s="1"/>
     </row>
-    <row r="189" spans="1:8">
+    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>187</v>
       </c>
@@ -6100,7 +6185,7 @@
       <c r="G189" s="1"/>
       <c r="H189" s="1"/>
     </row>
-    <row r="190" spans="1:8">
+    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>188</v>
       </c>
@@ -6112,7 +6197,7 @@
       <c r="G190" s="1"/>
       <c r="H190" s="1"/>
     </row>
-    <row r="191" spans="1:8">
+    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>189</v>
       </c>
@@ -6124,7 +6209,7 @@
       <c r="G191" s="1"/>
       <c r="H191" s="1"/>
     </row>
-    <row r="192" spans="1:8">
+    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>190</v>
       </c>
@@ -6136,7 +6221,7 @@
       <c r="G192" s="1"/>
       <c r="H192" s="1"/>
     </row>
-    <row r="193" spans="1:8">
+    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>191</v>
       </c>
@@ -6148,7 +6233,7 @@
       <c r="G193" s="1"/>
       <c r="H193" s="1"/>
     </row>
-    <row r="194" spans="1:8">
+    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>192</v>
       </c>
@@ -6160,7 +6245,7 @@
       <c r="G194" s="1"/>
       <c r="H194" s="1"/>
     </row>
-    <row r="195" spans="1:8">
+    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>193</v>
       </c>
@@ -6172,7 +6257,7 @@
       <c r="G195" s="1"/>
       <c r="H195" s="1"/>
     </row>
-    <row r="196" spans="1:8">
+    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>194</v>
       </c>
@@ -6184,7 +6269,7 @@
       <c r="G196" s="1"/>
       <c r="H196" s="1"/>
     </row>
-    <row r="197" spans="1:8">
+    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>195</v>
       </c>
@@ -6196,7 +6281,7 @@
       <c r="G197" s="1"/>
       <c r="H197" s="1"/>
     </row>
-    <row r="198" spans="1:8">
+    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>196</v>
       </c>
@@ -6208,7 +6293,7 @@
       <c r="G198" s="1"/>
       <c r="H198" s="1"/>
     </row>
-    <row r="199" spans="1:8">
+    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>197</v>
       </c>
@@ -6220,7 +6305,7 @@
       <c r="G199" s="1"/>
       <c r="H199" s="1"/>
     </row>
-    <row r="200" spans="1:8">
+    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>198</v>
       </c>
@@ -6232,7 +6317,7 @@
       <c r="G200" s="1"/>
       <c r="H200" s="1"/>
     </row>
-    <row r="201" spans="1:8">
+    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>199</v>
       </c>
@@ -6244,7 +6329,7 @@
       <c r="G201" s="1"/>
       <c r="H201" s="1"/>
     </row>
-    <row r="202" spans="1:8">
+    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>200</v>
       </c>
@@ -6256,7 +6341,7 @@
       <c r="G202" s="1"/>
       <c r="H202" s="1"/>
     </row>
-    <row r="203" spans="1:8">
+    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>201</v>
       </c>
@@ -6268,7 +6353,7 @@
       <c r="G203" s="1"/>
       <c r="H203" s="1"/>
     </row>
-    <row r="204" spans="1:8">
+    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>202</v>
       </c>
@@ -6280,7 +6365,7 @@
       <c r="G204" s="1"/>
       <c r="H204" s="1"/>
     </row>
-    <row r="205" spans="1:8">
+    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>203</v>
       </c>
@@ -6292,7 +6377,7 @@
       <c r="G205" s="1"/>
       <c r="H205" s="1"/>
     </row>
-    <row r="206" spans="1:8">
+    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>204</v>
       </c>
@@ -6304,7 +6389,7 @@
       <c r="G206" s="1"/>
       <c r="H206" s="1"/>
     </row>
-    <row r="207" spans="1:8">
+    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>205</v>
       </c>
@@ -6316,7 +6401,7 @@
       <c r="G207" s="1"/>
       <c r="H207" s="1"/>
     </row>
-    <row r="208" spans="1:8">
+    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>206</v>
       </c>
@@ -6328,7 +6413,7 @@
       <c r="G208" s="1"/>
       <c r="H208" s="1"/>
     </row>
-    <row r="209" spans="1:8">
+    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>207</v>
       </c>
@@ -6340,7 +6425,7 @@
       <c r="G209" s="1"/>
       <c r="H209" s="1"/>
     </row>
-    <row r="210" spans="1:8">
+    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>208</v>
       </c>
@@ -6352,7 +6437,7 @@
       <c r="G210" s="1"/>
       <c r="H210" s="1"/>
     </row>
-    <row r="211" spans="1:8">
+    <row r="211" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>209</v>
       </c>
@@ -6364,7 +6449,7 @@
       <c r="G211" s="1"/>
       <c r="H211" s="1"/>
     </row>
-    <row r="212" spans="1:8">
+    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>210</v>
       </c>
@@ -6376,7 +6461,7 @@
       <c r="G212" s="1"/>
       <c r="H212" s="1"/>
     </row>
-    <row r="213" spans="1:8">
+    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>211</v>
       </c>
@@ -6388,7 +6473,7 @@
       <c r="G213" s="1"/>
       <c r="H213" s="1"/>
     </row>
-    <row r="214" spans="1:8">
+    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>212</v>
       </c>
@@ -6400,7 +6485,7 @@
       <c r="G214" s="1"/>
       <c r="H214" s="1"/>
     </row>
-    <row r="215" spans="1:8">
+    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>213</v>
       </c>
@@ -6412,7 +6497,7 @@
       <c r="G215" s="1"/>
       <c r="H215" s="1"/>
     </row>
-    <row r="216" spans="1:8">
+    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>214</v>
       </c>
@@ -6424,7 +6509,7 @@
       <c r="G216" s="1"/>
       <c r="H216" s="1"/>
     </row>
-    <row r="217" spans="1:8">
+    <row r="217" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>215</v>
       </c>
@@ -6436,7 +6521,7 @@
       <c r="G217" s="1"/>
       <c r="H217" s="1"/>
     </row>
-    <row r="218" spans="1:8">
+    <row r="218" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>216</v>
       </c>
@@ -6448,7 +6533,7 @@
       <c r="G218" s="1"/>
       <c r="H218" s="1"/>
     </row>
-    <row r="219" spans="1:8">
+    <row r="219" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>217</v>
       </c>
@@ -6460,7 +6545,7 @@
       <c r="G219" s="1"/>
       <c r="H219" s="1"/>
     </row>
-    <row r="220" spans="1:8">
+    <row r="220" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>218</v>
       </c>
@@ -6472,7 +6557,7 @@
       <c r="G220" s="1"/>
       <c r="H220" s="1"/>
     </row>
-    <row r="221" spans="1:8">
+    <row r="221" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>219</v>
       </c>
@@ -6484,7 +6569,7 @@
       <c r="G221" s="1"/>
       <c r="H221" s="1"/>
     </row>
-    <row r="222" spans="1:8">
+    <row r="222" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>220</v>
       </c>
@@ -6496,7 +6581,7 @@
       <c r="G222" s="1"/>
       <c r="H222" s="1"/>
     </row>
-    <row r="223" spans="1:8">
+    <row r="223" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>221</v>
       </c>
@@ -6508,7 +6593,7 @@
       <c r="G223" s="1"/>
       <c r="H223" s="1"/>
     </row>
-    <row r="224" spans="1:8">
+    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>222</v>
       </c>
@@ -6520,7 +6605,7 @@
       <c r="G224" s="1"/>
       <c r="H224" s="1"/>
     </row>
-    <row r="225" spans="1:8">
+    <row r="225" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>223</v>
       </c>
@@ -6532,7 +6617,7 @@
       <c r="G225" s="1"/>
       <c r="H225" s="1"/>
     </row>
-    <row r="226" spans="1:8">
+    <row r="226" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>224</v>
       </c>
@@ -6544,7 +6629,7 @@
       <c r="G226" s="1"/>
       <c r="H226" s="1"/>
     </row>
-    <row r="227" spans="1:8">
+    <row r="227" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>225</v>
       </c>
@@ -6556,7 +6641,7 @@
       <c r="G227" s="1"/>
       <c r="H227" s="1"/>
     </row>
-    <row r="228" spans="1:8">
+    <row r="228" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>226</v>
       </c>
@@ -6568,7 +6653,7 @@
       <c r="G228" s="1"/>
       <c r="H228" s="1"/>
     </row>
-    <row r="229" spans="1:8">
+    <row r="229" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>227</v>
       </c>
@@ -6580,7 +6665,7 @@
       <c r="G229" s="1"/>
       <c r="H229" s="1"/>
     </row>
-    <row r="230" spans="1:8">
+    <row r="230" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>228</v>
       </c>
@@ -6592,7 +6677,7 @@
       <c r="G230" s="1"/>
       <c r="H230" s="1"/>
     </row>
-    <row r="231" spans="1:8">
+    <row r="231" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>229</v>
       </c>
@@ -6604,7 +6689,7 @@
       <c r="G231" s="1"/>
       <c r="H231" s="1"/>
     </row>
-    <row r="232" spans="1:8">
+    <row r="232" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>230</v>
       </c>
@@ -6616,7 +6701,7 @@
       <c r="G232" s="1"/>
       <c r="H232" s="1"/>
     </row>
-    <row r="233" spans="1:8">
+    <row r="233" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>231</v>
       </c>
@@ -6628,7 +6713,7 @@
       <c r="G233" s="1"/>
       <c r="H233" s="1"/>
     </row>
-    <row r="234" spans="1:8">
+    <row r="234" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>232</v>
       </c>
@@ -6640,7 +6725,7 @@
       <c r="G234" s="1"/>
       <c r="H234" s="1"/>
     </row>
-    <row r="235" spans="1:8">
+    <row r="235" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>233</v>
       </c>
@@ -6652,7 +6737,7 @@
       <c r="G235" s="1"/>
       <c r="H235" s="1"/>
     </row>
-    <row r="236" spans="1:8">
+    <row r="236" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>234</v>
       </c>
@@ -6664,7 +6749,7 @@
       <c r="G236" s="1"/>
       <c r="H236" s="1"/>
     </row>
-    <row r="237" spans="1:8">
+    <row r="237" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>235</v>
       </c>
@@ -6676,7 +6761,7 @@
       <c r="G237" s="1"/>
       <c r="H237" s="1"/>
     </row>
-    <row r="238" spans="1:8">
+    <row r="238" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>236</v>
       </c>
@@ -6688,7 +6773,7 @@
       <c r="G238" s="1"/>
       <c r="H238" s="1"/>
     </row>
-    <row r="239" spans="1:8">
+    <row r="239" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>237</v>
       </c>
@@ -6700,7 +6785,7 @@
       <c r="G239" s="1"/>
       <c r="H239" s="1"/>
     </row>
-    <row r="240" spans="1:8">
+    <row r="240" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>238</v>
       </c>
@@ -6712,7 +6797,7 @@
       <c r="G240" s="1"/>
       <c r="H240" s="1"/>
     </row>
-    <row r="241" spans="1:8">
+    <row r="241" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>239</v>
       </c>
@@ -6724,7 +6809,7 @@
       <c r="G241" s="1"/>
       <c r="H241" s="1"/>
     </row>
-    <row r="242" spans="1:8">
+    <row r="242" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>240</v>
       </c>
@@ -6736,7 +6821,7 @@
       <c r="G242" s="1"/>
       <c r="H242" s="1"/>
     </row>
-    <row r="243" spans="1:8">
+    <row r="243" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>241</v>
       </c>
@@ -6748,7 +6833,7 @@
       <c r="G243" s="1"/>
       <c r="H243" s="1"/>
     </row>
-    <row r="244" spans="1:8">
+    <row r="244" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>242</v>
       </c>
@@ -6760,7 +6845,7 @@
       <c r="G244" s="1"/>
       <c r="H244" s="1"/>
     </row>
-    <row r="245" spans="1:8">
+    <row r="245" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>243</v>
       </c>
@@ -6772,7 +6857,7 @@
       <c r="G245" s="1"/>
       <c r="H245" s="1"/>
     </row>
-    <row r="246" spans="1:8">
+    <row r="246" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>244</v>
       </c>
@@ -6784,7 +6869,7 @@
       <c r="G246" s="1"/>
       <c r="H246" s="1"/>
     </row>
-    <row r="247" spans="1:8">
+    <row r="247" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>245</v>
       </c>
@@ -6796,7 +6881,7 @@
       <c r="G247" s="1"/>
       <c r="H247" s="1"/>
     </row>
-    <row r="248" spans="1:8">
+    <row r="248" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>246</v>
       </c>
@@ -6808,7 +6893,7 @@
       <c r="G248" s="1"/>
       <c r="H248" s="1"/>
     </row>
-    <row r="249" spans="1:8">
+    <row r="249" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>247</v>
       </c>
@@ -6820,7 +6905,7 @@
       <c r="G249" s="1"/>
       <c r="H249" s="1"/>
     </row>
-    <row r="250" spans="1:8">
+    <row r="250" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>248</v>
       </c>
@@ -6832,7 +6917,7 @@
       <c r="G250" s="1"/>
       <c r="H250" s="1"/>
     </row>
-    <row r="251" spans="1:8">
+    <row r="251" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>249</v>
       </c>
@@ -6844,7 +6929,7 @@
       <c r="G251" s="1"/>
       <c r="H251" s="1"/>
     </row>
-    <row r="252" spans="1:8">
+    <row r="252" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>250</v>
       </c>
@@ -6856,7 +6941,7 @@
       <c r="G252" s="1"/>
       <c r="H252" s="1"/>
     </row>
-    <row r="253" spans="1:8">
+    <row r="253" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>251</v>
       </c>
@@ -6868,7 +6953,7 @@
       <c r="G253" s="1"/>
       <c r="H253" s="1"/>
     </row>
-    <row r="254" spans="1:8">
+    <row r="254" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>252</v>
       </c>
@@ -6880,7 +6965,7 @@
       <c r="G254" s="1"/>
       <c r="H254" s="1"/>
     </row>
-    <row r="255" spans="1:8">
+    <row r="255" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>253</v>
       </c>
@@ -6892,7 +6977,7 @@
       <c r="G255" s="1"/>
       <c r="H255" s="1"/>
     </row>
-    <row r="256" spans="1:8">
+    <row r="256" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>254</v>
       </c>
@@ -6904,7 +6989,7 @@
       <c r="G256" s="1"/>
       <c r="H256" s="1"/>
     </row>
-    <row r="257" spans="1:8">
+    <row r="257" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>255</v>
       </c>
@@ -6916,7 +7001,7 @@
       <c r="G257" s="1"/>
       <c r="H257" s="1"/>
     </row>
-    <row r="258" spans="1:8">
+    <row r="258" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>256</v>
       </c>
@@ -6928,7 +7013,7 @@
       <c r="G258" s="1"/>
       <c r="H258" s="1"/>
     </row>
-    <row r="259" spans="1:8">
+    <row r="259" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>257</v>
       </c>
@@ -6940,7 +7025,7 @@
       <c r="G259" s="1"/>
       <c r="H259" s="1"/>
     </row>
-    <row r="260" spans="1:8">
+    <row r="260" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>258</v>
       </c>
@@ -6952,7 +7037,7 @@
       <c r="G260" s="1"/>
       <c r="H260" s="1"/>
     </row>
-    <row r="261" spans="1:8">
+    <row r="261" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>259</v>
       </c>
@@ -6964,7 +7049,7 @@
       <c r="G261" s="1"/>
       <c r="H261" s="1"/>
     </row>
-    <row r="262" spans="1:8">
+    <row r="262" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>260</v>
       </c>
@@ -6976,7 +7061,7 @@
       <c r="G262" s="1"/>
       <c r="H262" s="1"/>
     </row>
-    <row r="263" spans="1:8">
+    <row r="263" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>261</v>
       </c>
@@ -6988,7 +7073,7 @@
       <c r="G263" s="1"/>
       <c r="H263" s="1"/>
     </row>
-    <row r="264" spans="1:8">
+    <row r="264" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A264">
         <v>262</v>
       </c>
@@ -7000,7 +7085,7 @@
       <c r="G264" s="1"/>
       <c r="H264" s="1"/>
     </row>
-    <row r="265" spans="1:8">
+    <row r="265" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>263</v>
       </c>
@@ -7012,7 +7097,7 @@
       <c r="G265" s="1"/>
       <c r="H265" s="1"/>
     </row>
-    <row r="266" spans="1:8">
+    <row r="266" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>264</v>
       </c>
@@ -7024,7 +7109,7 @@
       <c r="G266" s="1"/>
       <c r="H266" s="1"/>
     </row>
-    <row r="267" spans="1:8">
+    <row r="267" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A267">
         <v>265</v>
       </c>
@@ -7036,7 +7121,7 @@
       <c r="G267" s="1"/>
       <c r="H267" s="1"/>
     </row>
-    <row r="268" spans="1:8">
+    <row r="268" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A268">
         <v>266</v>
       </c>
@@ -7048,7 +7133,7 @@
       <c r="G268" s="1"/>
       <c r="H268" s="1"/>
     </row>
-    <row r="269" spans="1:8">
+    <row r="269" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A269">
         <v>267</v>
       </c>
@@ -7060,7 +7145,7 @@
       <c r="G269" s="1"/>
       <c r="H269" s="1"/>
     </row>
-    <row r="270" spans="1:8">
+    <row r="270" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A270">
         <v>268</v>
       </c>
@@ -7072,7 +7157,7 @@
       <c r="G270" s="1"/>
       <c r="H270" s="1"/>
     </row>
-    <row r="271" spans="1:8">
+    <row r="271" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A271">
         <v>269</v>
       </c>
@@ -7084,7 +7169,7 @@
       <c r="G271" s="1"/>
       <c r="H271" s="1"/>
     </row>
-    <row r="272" spans="1:8">
+    <row r="272" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A272">
         <v>270</v>
       </c>
@@ -7096,7 +7181,7 @@
       <c r="G272" s="1"/>
       <c r="H272" s="1"/>
     </row>
-    <row r="273" spans="1:8">
+    <row r="273" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A273">
         <v>271</v>
       </c>
@@ -7108,7 +7193,7 @@
       <c r="G273" s="1"/>
       <c r="H273" s="1"/>
     </row>
-    <row r="274" spans="1:8">
+    <row r="274" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A274">
         <v>272</v>
       </c>
@@ -7120,7 +7205,7 @@
       <c r="G274" s="1"/>
       <c r="H274" s="1"/>
     </row>
-    <row r="275" spans="1:8">
+    <row r="275" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A275">
         <v>273</v>
       </c>
@@ -7132,7 +7217,7 @@
       <c r="G275" s="1"/>
       <c r="H275" s="1"/>
     </row>
-    <row r="276" spans="1:8">
+    <row r="276" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A276">
         <v>274</v>
       </c>
@@ -7144,7 +7229,7 @@
       <c r="G276" s="1"/>
       <c r="H276" s="1"/>
     </row>
-    <row r="277" spans="1:8">
+    <row r="277" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A277">
         <v>275</v>
       </c>
@@ -7156,7 +7241,7 @@
       <c r="G277" s="1"/>
       <c r="H277" s="1"/>
     </row>
-    <row r="278" spans="1:8">
+    <row r="278" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A278">
         <v>276</v>
       </c>
@@ -7168,7 +7253,7 @@
       <c r="G278" s="1"/>
       <c r="H278" s="1"/>
     </row>
-    <row r="279" spans="1:8">
+    <row r="279" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A279">
         <v>277</v>
       </c>
@@ -7180,7 +7265,7 @@
       <c r="G279" s="1"/>
       <c r="H279" s="1"/>
     </row>
-    <row r="280" spans="1:8">
+    <row r="280" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A280">
         <v>278</v>
       </c>
@@ -7192,7 +7277,7 @@
       <c r="G280" s="1"/>
       <c r="H280" s="1"/>
     </row>
-    <row r="281" spans="1:8">
+    <row r="281" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A281">
         <v>279</v>
       </c>
@@ -7204,7 +7289,7 @@
       <c r="G281" s="1"/>
       <c r="H281" s="1"/>
     </row>
-    <row r="282" spans="1:8">
+    <row r="282" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A282">
         <v>280</v>
       </c>
@@ -7216,7 +7301,7 @@
       <c r="G282" s="1"/>
       <c r="H282" s="1"/>
     </row>
-    <row r="283" spans="1:8">
+    <row r="283" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A283">
         <v>281</v>
       </c>
@@ -7228,7 +7313,7 @@
       <c r="G283" s="1"/>
       <c r="H283" s="1"/>
     </row>
-    <row r="284" spans="1:8">
+    <row r="284" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A284">
         <v>282</v>
       </c>
@@ -7240,7 +7325,7 @@
       <c r="G284" s="1"/>
       <c r="H284" s="1"/>
     </row>
-    <row r="285" spans="1:8">
+    <row r="285" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A285">
         <v>283</v>
       </c>
@@ -7252,7 +7337,7 @@
       <c r="G285" s="1"/>
       <c r="H285" s="1"/>
     </row>
-    <row r="286" spans="1:8">
+    <row r="286" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A286">
         <v>284</v>
       </c>
@@ -7264,7 +7349,7 @@
       <c r="G286" s="1"/>
       <c r="H286" s="1"/>
     </row>
-    <row r="287" spans="1:8">
+    <row r="287" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A287">
         <v>285</v>
       </c>
@@ -7276,7 +7361,7 @@
       <c r="G287" s="1"/>
       <c r="H287" s="1"/>
     </row>
-    <row r="288" spans="1:8">
+    <row r="288" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A288">
         <v>286</v>
       </c>
@@ -7288,7 +7373,7 @@
       <c r="G288" s="1"/>
       <c r="H288" s="1"/>
     </row>
-    <row r="289" spans="1:8">
+    <row r="289" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A289">
         <v>287</v>
       </c>
@@ -7300,7 +7385,7 @@
       <c r="G289" s="1"/>
       <c r="H289" s="1"/>
     </row>
-    <row r="290" spans="1:8">
+    <row r="290" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A290">
         <v>288</v>
       </c>
@@ -7312,7 +7397,7 @@
       <c r="G290" s="1"/>
       <c r="H290" s="1"/>
     </row>
-    <row r="291" spans="1:8">
+    <row r="291" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A291">
         <v>289</v>
       </c>
@@ -7324,7 +7409,7 @@
       <c r="G291" s="1"/>
       <c r="H291" s="1"/>
     </row>
-    <row r="292" spans="1:8">
+    <row r="292" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A292">
         <v>290</v>
       </c>
@@ -7336,7 +7421,7 @@
       <c r="G292" s="1"/>
       <c r="H292" s="1"/>
     </row>
-    <row r="293" spans="1:8">
+    <row r="293" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A293">
         <v>291</v>
       </c>
@@ -7348,7 +7433,7 @@
       <c r="G293" s="1"/>
       <c r="H293" s="1"/>
     </row>
-    <row r="294" spans="1:8">
+    <row r="294" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A294">
         <v>292</v>
       </c>
@@ -7360,7 +7445,7 @@
       <c r="G294" s="1"/>
       <c r="H294" s="1"/>
     </row>
-    <row r="295" spans="1:8">
+    <row r="295" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A295">
         <v>293</v>
       </c>
@@ -7372,7 +7457,7 @@
       <c r="G295" s="1"/>
       <c r="H295" s="1"/>
     </row>
-    <row r="296" spans="1:8">
+    <row r="296" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A296">
         <v>294</v>
       </c>
@@ -7384,7 +7469,7 @@
       <c r="G296" s="1"/>
       <c r="H296" s="1"/>
     </row>
-    <row r="297" spans="1:8">
+    <row r="297" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A297">
         <v>295</v>
       </c>
@@ -7396,7 +7481,7 @@
       <c r="G297" s="1"/>
       <c r="H297" s="1"/>
     </row>
-    <row r="298" spans="1:8">
+    <row r="298" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A298">
         <v>296</v>
       </c>
@@ -7408,7 +7493,7 @@
       <c r="G298" s="1"/>
       <c r="H298" s="1"/>
     </row>
-    <row r="299" spans="1:8">
+    <row r="299" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A299">
         <v>297</v>
       </c>
@@ -7420,7 +7505,7 @@
       <c r="G299" s="1"/>
       <c r="H299" s="1"/>
     </row>
-    <row r="300" spans="1:8">
+    <row r="300" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A300">
         <v>298</v>
       </c>
@@ -7432,7 +7517,7 @@
       <c r="G300" s="1"/>
       <c r="H300" s="1"/>
     </row>
-    <row r="301" spans="1:8">
+    <row r="301" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A301">
         <v>299</v>
       </c>
@@ -7444,7 +7529,7 @@
       <c r="G301" s="1"/>
       <c r="H301" s="1"/>
     </row>
-    <row r="302" spans="1:8">
+    <row r="302" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A302">
         <v>300</v>
       </c>
@@ -7456,7 +7541,7 @@
       <c r="G302" s="1"/>
       <c r="H302" s="1"/>
     </row>
-    <row r="303" spans="1:8">
+    <row r="303" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A303">
         <v>301</v>
       </c>
@@ -7468,7 +7553,7 @@
       <c r="G303" s="1"/>
       <c r="H303" s="1"/>
     </row>
-    <row r="304" spans="1:8">
+    <row r="304" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A304">
         <v>302</v>
       </c>
@@ -7480,7 +7565,7 @@
       <c r="G304" s="1"/>
       <c r="H304" s="1"/>
     </row>
-    <row r="305" spans="1:8">
+    <row r="305" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A305">
         <v>303</v>
       </c>
@@ -7492,7 +7577,7 @@
       <c r="G305" s="1"/>
       <c r="H305" s="1"/>
     </row>
-    <row r="306" spans="1:8">
+    <row r="306" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A306">
         <v>304</v>
       </c>
@@ -7504,7 +7589,7 @@
       <c r="G306" s="1"/>
       <c r="H306" s="1"/>
     </row>
-    <row r="307" spans="1:8">
+    <row r="307" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A307">
         <v>305</v>
       </c>
@@ -7516,7 +7601,7 @@
       <c r="G307" s="1"/>
       <c r="H307" s="1"/>
     </row>
-    <row r="308" spans="1:8">
+    <row r="308" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A308">
         <v>306</v>
       </c>
@@ -7528,7 +7613,7 @@
       <c r="G308" s="1"/>
       <c r="H308" s="1"/>
     </row>
-    <row r="309" spans="1:8">
+    <row r="309" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A309">
         <v>307</v>
       </c>
@@ -7540,7 +7625,7 @@
       <c r="G309" s="1"/>
       <c r="H309" s="1"/>
     </row>
-    <row r="310" spans="1:8">
+    <row r="310" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A310">
         <v>308</v>
       </c>
@@ -7552,7 +7637,7 @@
       <c r="G310" s="1"/>
       <c r="H310" s="1"/>
     </row>
-    <row r="311" spans="1:8">
+    <row r="311" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A311">
         <v>309</v>
       </c>
@@ -7564,7 +7649,7 @@
       <c r="G311" s="1"/>
       <c r="H311" s="1"/>
     </row>
-    <row r="312" spans="1:8">
+    <row r="312" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A312">
         <v>310</v>
       </c>
@@ -7576,7 +7661,7 @@
       <c r="G312" s="1"/>
       <c r="H312" s="1"/>
     </row>
-    <row r="313" spans="1:8">
+    <row r="313" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A313">
         <v>311</v>
       </c>
@@ -7588,7 +7673,7 @@
       <c r="G313" s="1"/>
       <c r="H313" s="1"/>
     </row>
-    <row r="314" spans="1:8">
+    <row r="314" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A314">
         <v>312</v>
       </c>
@@ -7600,7 +7685,7 @@
       <c r="G314" s="1"/>
       <c r="H314" s="1"/>
     </row>
-    <row r="315" spans="1:8">
+    <row r="315" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A315">
         <v>313</v>
       </c>
@@ -7612,7 +7697,7 @@
       <c r="G315" s="1"/>
       <c r="H315" s="1"/>
     </row>
-    <row r="316" spans="1:8">
+    <row r="316" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A316">
         <v>314</v>
       </c>
@@ -7624,7 +7709,7 @@
       <c r="G316" s="1"/>
       <c r="H316" s="1"/>
     </row>
-    <row r="317" spans="1:8">
+    <row r="317" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A317">
         <v>315</v>
       </c>
@@ -7636,7 +7721,7 @@
       <c r="G317" s="1"/>
       <c r="H317" s="1"/>
     </row>
-    <row r="318" spans="1:8">
+    <row r="318" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A318">
         <v>316</v>
       </c>
@@ -7648,7 +7733,7 @@
       <c r="G318" s="1"/>
       <c r="H318" s="1"/>
     </row>
-    <row r="319" spans="1:8">
+    <row r="319" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A319">
         <v>317</v>
       </c>
@@ -7660,7 +7745,7 @@
       <c r="G319" s="1"/>
       <c r="H319" s="1"/>
     </row>
-    <row r="320" spans="1:8">
+    <row r="320" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A320">
         <v>318</v>
       </c>
@@ -7672,7 +7757,7 @@
       <c r="G320" s="1"/>
       <c r="H320" s="1"/>
     </row>
-    <row r="321" spans="1:8">
+    <row r="321" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A321">
         <v>319</v>
       </c>
@@ -7684,7 +7769,7 @@
       <c r="G321" s="1"/>
       <c r="H321" s="1"/>
     </row>
-    <row r="322" spans="1:8">
+    <row r="322" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A322">
         <v>320</v>
       </c>
@@ -7696,7 +7781,7 @@
       <c r="G322" s="1"/>
       <c r="H322" s="1"/>
     </row>
-    <row r="323" spans="1:8">
+    <row r="323" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A323">
         <v>321</v>
       </c>
@@ -7708,7 +7793,7 @@
       <c r="G323" s="1"/>
       <c r="H323" s="1"/>
     </row>
-    <row r="324" spans="1:8">
+    <row r="324" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A324">
         <v>322</v>
       </c>
@@ -7720,7 +7805,7 @@
       <c r="G324" s="1"/>
       <c r="H324" s="1"/>
     </row>
-    <row r="325" spans="1:8">
+    <row r="325" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A325">
         <v>323</v>
       </c>
@@ -7732,7 +7817,7 @@
       <c r="G325" s="1"/>
       <c r="H325" s="1"/>
     </row>
-    <row r="326" spans="1:8">
+    <row r="326" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A326">
         <v>324</v>
       </c>
@@ -7744,7 +7829,7 @@
       <c r="G326" s="1"/>
       <c r="H326" s="1"/>
     </row>
-    <row r="327" spans="1:8">
+    <row r="327" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A327">
         <v>325</v>
       </c>
@@ -7756,7 +7841,7 @@
       <c r="G327" s="1"/>
       <c r="H327" s="1"/>
     </row>
-    <row r="328" spans="1:8">
+    <row r="328" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A328">
         <v>326</v>
       </c>
@@ -7768,7 +7853,7 @@
       <c r="G328" s="1"/>
       <c r="H328" s="1"/>
     </row>
-    <row r="329" spans="1:8">
+    <row r="329" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A329">
         <v>327</v>
       </c>
@@ -7780,7 +7865,7 @@
       <c r="G329" s="1"/>
       <c r="H329" s="1"/>
     </row>
-    <row r="330" spans="1:8">
+    <row r="330" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A330">
         <v>328</v>
       </c>
@@ -7792,7 +7877,7 @@
       <c r="G330" s="1"/>
       <c r="H330" s="1"/>
     </row>
-    <row r="331" spans="1:8">
+    <row r="331" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A331">
         <v>329</v>
       </c>
@@ -7804,7 +7889,7 @@
       <c r="G331" s="1"/>
       <c r="H331" s="1"/>
     </row>
-    <row r="332" spans="1:8">
+    <row r="332" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A332">
         <v>330</v>
       </c>
@@ -7816,7 +7901,7 @@
       <c r="G332" s="1"/>
       <c r="H332" s="1"/>
     </row>
-    <row r="333" spans="1:8">
+    <row r="333" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A333">
         <v>331</v>
       </c>
@@ -7828,7 +7913,7 @@
       <c r="G333" s="1"/>
       <c r="H333" s="1"/>
     </row>
-    <row r="334" spans="1:8">
+    <row r="334" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A334">
         <v>332</v>
       </c>
@@ -7840,7 +7925,7 @@
       <c r="G334" s="1"/>
       <c r="H334" s="1"/>
     </row>
-    <row r="335" spans="1:8">
+    <row r="335" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A335">
         <v>333</v>
       </c>
@@ -7852,7 +7937,7 @@
       <c r="G335" s="1"/>
       <c r="H335" s="1"/>
     </row>
-    <row r="336" spans="1:8">
+    <row r="336" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A336">
         <v>334</v>
       </c>
@@ -7864,7 +7949,7 @@
       <c r="G336" s="1"/>
       <c r="H336" s="1"/>
     </row>
-    <row r="337" spans="1:8">
+    <row r="337" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A337">
         <v>335</v>
       </c>
@@ -7876,7 +7961,7 @@
       <c r="G337" s="1"/>
       <c r="H337" s="1"/>
     </row>
-    <row r="338" spans="1:8">
+    <row r="338" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A338">
         <v>336</v>
       </c>
@@ -7888,7 +7973,7 @@
       <c r="G338" s="1"/>
       <c r="H338" s="1"/>
     </row>
-    <row r="339" spans="1:8">
+    <row r="339" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A339">
         <v>337</v>
       </c>
@@ -7900,7 +7985,7 @@
       <c r="G339" s="1"/>
       <c r="H339" s="1"/>
     </row>
-    <row r="340" spans="1:8">
+    <row r="340" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A340">
         <v>338</v>
       </c>
@@ -7912,7 +7997,7 @@
       <c r="G340" s="1"/>
       <c r="H340" s="1"/>
     </row>
-    <row r="341" spans="1:8">
+    <row r="341" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A341">
         <v>339</v>
       </c>
@@ -7924,7 +8009,7 @@
       <c r="G341" s="1"/>
       <c r="H341" s="1"/>
     </row>
-    <row r="342" spans="1:8">
+    <row r="342" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A342">
         <v>340</v>
       </c>
@@ -7936,7 +8021,7 @@
       <c r="G342" s="1"/>
       <c r="H342" s="1"/>
     </row>
-    <row r="343" spans="1:8">
+    <row r="343" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A343">
         <v>341</v>
       </c>
@@ -7948,7 +8033,7 @@
       <c r="G343" s="1"/>
       <c r="H343" s="1"/>
     </row>
-    <row r="344" spans="1:8">
+    <row r="344" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A344">
         <v>342</v>
       </c>
@@ -7960,7 +8045,7 @@
       <c r="G344" s="1"/>
       <c r="H344" s="1"/>
     </row>
-    <row r="345" spans="1:8">
+    <row r="345" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A345">
         <v>343</v>
       </c>
@@ -7972,7 +8057,7 @@
       <c r="G345" s="1"/>
       <c r="H345" s="1"/>
     </row>
-    <row r="346" spans="1:8">
+    <row r="346" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A346">
         <v>344</v>
       </c>
@@ -7984,7 +8069,7 @@
       <c r="G346" s="1"/>
       <c r="H346" s="1"/>
     </row>
-    <row r="347" spans="1:8">
+    <row r="347" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A347">
         <v>345</v>
       </c>
@@ -7996,7 +8081,7 @@
       <c r="G347" s="1"/>
       <c r="H347" s="1"/>
     </row>
-    <row r="348" spans="1:8">
+    <row r="348" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A348">
         <v>346</v>
       </c>
@@ -8008,7 +8093,7 @@
       <c r="G348" s="1"/>
       <c r="H348" s="1"/>
     </row>
-    <row r="349" spans="1:8">
+    <row r="349" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A349">
         <v>347</v>
       </c>
@@ -8020,7 +8105,7 @@
       <c r="G349" s="1"/>
       <c r="H349" s="1"/>
     </row>
-    <row r="350" spans="1:8">
+    <row r="350" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A350">
         <v>348</v>
       </c>
@@ -8032,7 +8117,7 @@
       <c r="G350" s="1"/>
       <c r="H350" s="1"/>
     </row>
-    <row r="351" spans="1:8">
+    <row r="351" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A351">
         <v>349</v>
       </c>
@@ -8044,7 +8129,7 @@
       <c r="G351" s="1"/>
       <c r="H351" s="1"/>
     </row>
-    <row r="352" spans="1:8">
+    <row r="352" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A352">
         <v>350</v>
       </c>
@@ -8056,7 +8141,7 @@
       <c r="G352" s="1"/>
       <c r="H352" s="1"/>
     </row>
-    <row r="353" spans="1:8">
+    <row r="353" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A353">
         <v>351</v>
       </c>
@@ -8068,7 +8153,7 @@
       <c r="G353" s="1"/>
       <c r="H353" s="1"/>
     </row>
-    <row r="354" spans="1:8">
+    <row r="354" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A354">
         <v>352</v>
       </c>
@@ -8080,7 +8165,7 @@
       <c r="G354" s="1"/>
       <c r="H354" s="1"/>
     </row>
-    <row r="355" spans="1:8">
+    <row r="355" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A355">
         <v>353</v>
       </c>
@@ -8092,7 +8177,7 @@
       <c r="G355" s="1"/>
       <c r="H355" s="1"/>
     </row>
-    <row r="356" spans="1:8">
+    <row r="356" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A356">
         <v>354</v>
       </c>
@@ -8104,7 +8189,7 @@
       <c r="G356" s="1"/>
       <c r="H356" s="1"/>
     </row>
-    <row r="357" spans="1:8">
+    <row r="357" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A357">
         <v>355</v>
       </c>
@@ -8116,7 +8201,7 @@
       <c r="G357" s="1"/>
       <c r="H357" s="1"/>
     </row>
-    <row r="358" spans="1:8">
+    <row r="358" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A358">
         <v>356</v>
       </c>
@@ -8128,7 +8213,7 @@
       <c r="G358" s="1"/>
       <c r="H358" s="1"/>
     </row>
-    <row r="359" spans="1:8">
+    <row r="359" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A359">
         <v>357</v>
       </c>
@@ -8140,7 +8225,7 @@
       <c r="G359" s="1"/>
       <c r="H359" s="1"/>
     </row>
-    <row r="360" spans="1:8">
+    <row r="360" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A360">
         <v>358</v>
       </c>
@@ -8152,7 +8237,7 @@
       <c r="G360" s="1"/>
       <c r="H360" s="1"/>
     </row>
-    <row r="361" spans="1:8">
+    <row r="361" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A361">
         <v>359</v>
       </c>
@@ -8164,7 +8249,7 @@
       <c r="G361" s="1"/>
       <c r="H361" s="1"/>
     </row>
-    <row r="362" spans="1:8">
+    <row r="362" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A362">
         <v>360</v>
       </c>
@@ -8176,7 +8261,7 @@
       <c r="G362" s="1"/>
       <c r="H362" s="1"/>
     </row>
-    <row r="363" spans="1:8">
+    <row r="363" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A363">
         <v>361</v>
       </c>
@@ -8188,7 +8273,7 @@
       <c r="G363" s="1"/>
       <c r="H363" s="1"/>
     </row>
-    <row r="364" spans="1:8">
+    <row r="364" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A364">
         <v>362</v>
       </c>
@@ -8200,7 +8285,7 @@
       <c r="G364" s="1"/>
       <c r="H364" s="1"/>
     </row>
-    <row r="365" spans="1:8">
+    <row r="365" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A365">
         <v>363</v>
       </c>
@@ -8212,7 +8297,7 @@
       <c r="G365" s="1"/>
       <c r="H365" s="1"/>
     </row>
-    <row r="366" spans="1:8">
+    <row r="366" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A366">
         <v>364</v>
       </c>
@@ -8224,7 +8309,7 @@
       <c r="G366" s="1"/>
       <c r="H366" s="1"/>
     </row>
-    <row r="367" spans="1:8">
+    <row r="367" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A367">
         <v>365</v>
       </c>
@@ -8236,7 +8321,7 @@
       <c r="G367" s="1"/>
       <c r="H367" s="1"/>
     </row>
-    <row r="368" spans="1:8">
+    <row r="368" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A368">
         <v>366</v>
       </c>
@@ -8248,7 +8333,7 @@
       <c r="G368" s="1"/>
       <c r="H368" s="1"/>
     </row>
-    <row r="369" spans="1:8">
+    <row r="369" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A369">
         <v>367</v>
       </c>
@@ -8260,7 +8345,7 @@
       <c r="G369" s="1"/>
       <c r="H369" s="1"/>
     </row>
-    <row r="370" spans="1:8">
+    <row r="370" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A370">
         <v>368</v>
       </c>
@@ -8272,7 +8357,7 @@
       <c r="G370" s="1"/>
       <c r="H370" s="1"/>
     </row>
-    <row r="371" spans="1:8">
+    <row r="371" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A371">
         <v>369</v>
       </c>
@@ -8284,7 +8369,7 @@
       <c r="G371" s="1"/>
       <c r="H371" s="1"/>
     </row>
-    <row r="372" spans="1:8">
+    <row r="372" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A372">
         <v>370</v>
       </c>
@@ -8296,7 +8381,7 @@
       <c r="G372" s="1"/>
       <c r="H372" s="1"/>
     </row>
-    <row r="373" spans="1:8">
+    <row r="373" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A373">
         <v>371</v>
       </c>
@@ -8308,7 +8393,7 @@
       <c r="G373" s="1"/>
       <c r="H373" s="1"/>
     </row>
-    <row r="374" spans="1:8">
+    <row r="374" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A374">
         <v>372</v>
       </c>
@@ -8320,7 +8405,7 @@
       <c r="G374" s="1"/>
       <c r="H374" s="1"/>
     </row>
-    <row r="375" spans="1:8">
+    <row r="375" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A375">
         <v>373</v>
       </c>
@@ -8332,7 +8417,7 @@
       <c r="G375" s="1"/>
       <c r="H375" s="1"/>
     </row>
-    <row r="376" spans="1:8">
+    <row r="376" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A376">
         <v>374</v>
       </c>
@@ -8344,7 +8429,7 @@
       <c r="G376" s="1"/>
       <c r="H376" s="1"/>
     </row>
-    <row r="377" spans="1:8">
+    <row r="377" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A377">
         <v>375</v>
       </c>
@@ -8356,7 +8441,7 @@
       <c r="G377" s="1"/>
       <c r="H377" s="1"/>
     </row>
-    <row r="378" spans="1:8">
+    <row r="378" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A378">
         <v>376</v>
       </c>
@@ -8368,7 +8453,7 @@
       <c r="G378" s="1"/>
       <c r="H378" s="1"/>
     </row>
-    <row r="379" spans="1:8">
+    <row r="379" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A379">
         <v>377</v>
       </c>
@@ -8380,7 +8465,7 @@
       <c r="G379" s="1"/>
       <c r="H379" s="1"/>
     </row>
-    <row r="380" spans="1:8">
+    <row r="380" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A380">
         <v>378</v>
       </c>
@@ -8392,7 +8477,7 @@
       <c r="G380" s="1"/>
       <c r="H380" s="1"/>
     </row>
-    <row r="381" spans="1:8">
+    <row r="381" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A381">
         <v>379</v>
       </c>
@@ -8404,7 +8489,7 @@
       <c r="G381" s="1"/>
       <c r="H381" s="1"/>
     </row>
-    <row r="382" spans="1:8">
+    <row r="382" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A382">
         <v>380</v>
       </c>
@@ -8416,7 +8501,7 @@
       <c r="G382" s="1"/>
       <c r="H382" s="1"/>
     </row>
-    <row r="383" spans="1:8">
+    <row r="383" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A383">
         <v>381</v>
       </c>
@@ -8428,7 +8513,7 @@
       <c r="G383" s="1"/>
       <c r="H383" s="1"/>
     </row>
-    <row r="384" spans="1:8">
+    <row r="384" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A384">
         <v>382</v>
       </c>
@@ -8440,7 +8525,7 @@
       <c r="G384" s="1"/>
       <c r="H384" s="1"/>
     </row>
-    <row r="385" spans="1:8">
+    <row r="385" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A385">
         <v>383</v>
       </c>
@@ -8452,7 +8537,7 @@
       <c r="G385" s="1"/>
       <c r="H385" s="1"/>
     </row>
-    <row r="386" spans="1:8">
+    <row r="386" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A386">
         <v>384</v>
       </c>
@@ -8464,7 +8549,7 @@
       <c r="G386" s="1"/>
       <c r="H386" s="1"/>
     </row>
-    <row r="387" spans="1:8">
+    <row r="387" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A387">
         <v>385</v>
       </c>
@@ -8476,7 +8561,7 @@
       <c r="G387" s="1"/>
       <c r="H387" s="1"/>
     </row>
-    <row r="388" spans="1:8">
+    <row r="388" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A388">
         <v>386</v>
       </c>
@@ -8488,7 +8573,7 @@
       <c r="G388" s="1"/>
       <c r="H388" s="1"/>
     </row>
-    <row r="389" spans="1:8">
+    <row r="389" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A389">
         <v>387</v>
       </c>
@@ -8500,7 +8585,7 @@
       <c r="G389" s="1"/>
       <c r="H389" s="1"/>
     </row>
-    <row r="390" spans="1:8">
+    <row r="390" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A390">
         <v>388</v>
       </c>
@@ -8512,7 +8597,7 @@
       <c r="G390" s="1"/>
       <c r="H390" s="1"/>
     </row>
-    <row r="391" spans="1:8">
+    <row r="391" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A391">
         <v>389</v>
       </c>
@@ -8524,7 +8609,7 @@
       <c r="G391" s="1"/>
       <c r="H391" s="1"/>
     </row>
-    <row r="392" spans="1:8">
+    <row r="392" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A392">
         <v>390</v>
       </c>
@@ -8536,7 +8621,7 @@
       <c r="G392" s="1"/>
       <c r="H392" s="1"/>
     </row>
-    <row r="393" spans="1:8">
+    <row r="393" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A393">
         <v>391</v>
       </c>
@@ -8548,7 +8633,7 @@
       <c r="G393" s="1"/>
       <c r="H393" s="1"/>
     </row>
-    <row r="394" spans="1:8">
+    <row r="394" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A394">
         <v>392</v>
       </c>
@@ -8560,7 +8645,7 @@
       <c r="G394" s="1"/>
       <c r="H394" s="1"/>
     </row>
-    <row r="395" spans="1:8">
+    <row r="395" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A395">
         <v>393</v>
       </c>
@@ -8572,7 +8657,7 @@
       <c r="G395" s="1"/>
       <c r="H395" s="1"/>
     </row>
-    <row r="396" spans="1:8">
+    <row r="396" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A396">
         <v>394</v>
       </c>
@@ -8584,7 +8669,7 @@
       <c r="G396" s="1"/>
       <c r="H396" s="1"/>
     </row>
-    <row r="397" spans="1:8">
+    <row r="397" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A397">
         <v>395</v>
       </c>
@@ -8596,7 +8681,7 @@
       <c r="G397" s="1"/>
       <c r="H397" s="1"/>
     </row>
-    <row r="398" spans="1:8">
+    <row r="398" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A398">
         <v>396</v>
       </c>
@@ -8608,7 +8693,7 @@
       <c r="G398" s="1"/>
       <c r="H398" s="1"/>
     </row>
-    <row r="399" spans="1:8">
+    <row r="399" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A399">
         <v>397</v>
       </c>
@@ -8620,7 +8705,7 @@
       <c r="G399" s="1"/>
       <c r="H399" s="1"/>
     </row>
-    <row r="400" spans="1:8">
+    <row r="400" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A400">
         <v>398</v>
       </c>
@@ -8632,7 +8717,7 @@
       <c r="G400" s="1"/>
       <c r="H400" s="1"/>
     </row>
-    <row r="401" spans="1:8">
+    <row r="401" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A401">
         <v>399</v>
       </c>
@@ -8644,7 +8729,7 @@
       <c r="G401" s="1"/>
       <c r="H401" s="1"/>
     </row>
-    <row r="402" spans="1:8">
+    <row r="402" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A402">
         <v>400</v>
       </c>
@@ -8656,7 +8741,7 @@
       <c r="G402" s="1"/>
       <c r="H402" s="1"/>
     </row>
-    <row r="403" spans="1:8">
+    <row r="403" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A403">
         <v>401</v>
       </c>
@@ -8668,7 +8753,7 @@
       <c r="G403" s="1"/>
       <c r="H403" s="1"/>
     </row>
-    <row r="404" spans="1:8">
+    <row r="404" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A404">
         <v>402</v>
       </c>
@@ -8680,7 +8765,7 @@
       <c r="G404" s="1"/>
       <c r="H404" s="1"/>
     </row>
-    <row r="405" spans="1:8">
+    <row r="405" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A405">
         <v>403</v>
       </c>
@@ -8692,7 +8777,7 @@
       <c r="G405" s="1"/>
       <c r="H405" s="1"/>
     </row>
-    <row r="406" spans="1:8">
+    <row r="406" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A406">
         <v>404</v>
       </c>
@@ -8704,7 +8789,7 @@
       <c r="G406" s="1"/>
       <c r="H406" s="1"/>
     </row>
-    <row r="407" spans="1:8">
+    <row r="407" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A407">
         <v>405</v>
       </c>
@@ -8716,7 +8801,7 @@
       <c r="G407" s="1"/>
       <c r="H407" s="1"/>
     </row>
-    <row r="408" spans="1:8">
+    <row r="408" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A408">
         <v>406</v>
       </c>
@@ -8728,7 +8813,7 @@
       <c r="G408" s="1"/>
       <c r="H408" s="1"/>
     </row>
-    <row r="409" spans="1:8">
+    <row r="409" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A409">
         <v>407</v>
       </c>
@@ -8740,7 +8825,7 @@
       <c r="G409" s="1"/>
       <c r="H409" s="1"/>
     </row>
-    <row r="410" spans="1:8">
+    <row r="410" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A410">
         <v>408</v>
       </c>
@@ -8758,31 +8843,31 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="38" customWidth="1"/>
-    <col min="3" max="3" width="22.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="51" customWidth="1"/>
     <col min="5" max="5" width="50" customWidth="1"/>
-    <col min="6" max="6" width="16.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>34</v>
       </c>
@@ -8835,7 +8920,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>252</v>
       </c>
@@ -8849,7 +8934,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>254</v>
       </c>
@@ -8863,7 +8948,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>256</v>
       </c>
@@ -8871,7 +8956,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -8882,62 +8967,62 @@
         <v>261</v>
       </c>
     </row>
-    <row r="11" spans="1:17">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B11" s="44" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="12" spans="1:17">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="13" spans="1:17">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="14" spans="1:17">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="15" spans="1:17">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="16" spans="1:17">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="17" spans="2:2">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="18" spans="2:2">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="19" spans="2:2">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="20" spans="2:2">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="21" spans="2:2">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="22" spans="2:2">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>275</v>
       </c>
@@ -8952,26 +9037,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="47.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="30.33203125" customWidth="1"/>
-    <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="24.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="47.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.28515625" customWidth="1"/>
+    <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>95</v>
       </c>
@@ -8997,7 +9082,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="86.4">
+    <row r="2" spans="1:8" ht="105" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
         <v>80</v>
       </c>
@@ -9021,7 +9106,7 @@
       </c>
       <c r="H2" s="20"/>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
         <v>89</v>
       </c>
@@ -9043,7 +9128,7 @@
       </c>
       <c r="H3" s="21"/>
     </row>
-    <row r="4" spans="1:8" ht="115.2">
+    <row r="4" spans="1:8" ht="135" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
         <v>83</v>
       </c>
@@ -9067,7 +9152,7 @@
       </c>
       <c r="H4" s="21"/>
     </row>
-    <row r="5" spans="1:8" ht="15">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="17" t="s">
         <v>85</v>
       </c>
@@ -9087,7 +9172,7 @@
       <c r="G5" s="21"/>
       <c r="H5" s="21"/>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="17" t="s">
         <v>85</v>
       </c>
@@ -9111,7 +9196,7 @@
       </c>
       <c r="H6" s="21"/>
     </row>
-    <row r="7" spans="1:8" ht="43.2">
+    <row r="7" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A7" s="17" t="s">
         <v>99</v>
       </c>
@@ -9137,7 +9222,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="22" t="s">
         <v>87</v>
       </c>
@@ -9161,7 +9246,7 @@
       </c>
       <c r="H8" s="21"/>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="26" t="s">
         <v>83</v>
       </c>
@@ -9183,7 +9268,7 @@
       <c r="G9" s="27"/>
       <c r="H9" s="21"/>
     </row>
-    <row r="10" spans="1:8" ht="28.8">
+    <row r="10" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="22" t="s">
         <v>99</v>
       </c>
@@ -9207,7 +9292,7 @@
       </c>
       <c r="H10" s="27"/>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="26" t="s">
         <v>105</v>
       </c>
@@ -9231,7 +9316,7 @@
       </c>
       <c r="H11" s="27"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="26" t="s">
         <v>99</v>
       </c>
@@ -9251,7 +9336,7 @@
       <c r="G12" s="27"/>
       <c r="H12" s="27"/>
     </row>
-    <row r="13" spans="1:8" ht="28.8">
+    <row r="13" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="26" t="s">
         <v>110</v>
       </c>
@@ -9273,7 +9358,7 @@
       <c r="G13" s="27"/>
       <c r="H13" s="27"/>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="26" t="s">
         <v>113</v>
       </c>
@@ -9295,7 +9380,7 @@
       <c r="G14" s="27"/>
       <c r="H14" s="27"/>
     </row>
-    <row r="15" spans="1:8" ht="43.2">
+    <row r="15" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="22" t="s">
         <v>124</v>
       </c>
@@ -9317,7 +9402,7 @@
       <c r="G15" s="27"/>
       <c r="H15" s="27"/>
     </row>
-    <row r="16" spans="1:8" ht="28.8">
+    <row r="16" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="26" t="s">
         <v>123</v>
       </c>
@@ -9339,7 +9424,7 @@
       <c r="G16" s="27"/>
       <c r="H16" s="27"/>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="26" t="s">
         <v>120</v>
       </c>
@@ -9361,7 +9446,7 @@
       <c r="G17" s="27"/>
       <c r="H17" s="27"/>
     </row>
-    <row r="18" spans="1:8" ht="100.8">
+    <row r="18" spans="1:8" ht="135" x14ac:dyDescent="0.25">
       <c r="A18" s="26" t="s">
         <v>80</v>
       </c>
@@ -9383,7 +9468,7 @@
       <c r="G18" s="27"/>
       <c r="H18" s="27"/>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="26" t="s">
         <v>85</v>
       </c>
@@ -9407,7 +9492,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="22" t="s">
         <v>85</v>
       </c>
@@ -9429,7 +9514,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="26" t="s">
         <v>131</v>
       </c>
@@ -9449,7 +9534,7 @@
       <c r="G21" s="27"/>
       <c r="H21" s="27"/>
     </row>
-    <row r="22" spans="1:8" ht="43.2">
+    <row r="22" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A22" s="26" t="s">
         <v>83</v>
       </c>
@@ -9471,7 +9556,7 @@
       <c r="G22" s="27"/>
       <c r="H22" s="27"/>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="26" t="s">
         <v>80</v>
       </c>
@@ -9503,25 +9588,25 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G35"/>
   <sheetViews>
     <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="39.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="83.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="39.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="83.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>34</v>
       </c>
@@ -9544,7 +9629,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>12</v>
       </c>
@@ -9565,7 +9650,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>30</v>
       </c>
@@ -9586,7 +9671,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>26</v>
       </c>
@@ -9607,7 +9692,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>17</v>
       </c>
@@ -9628,7 +9713,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>32</v>
       </c>
@@ -9649,7 +9734,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="35" t="s">
         <v>20</v>
       </c>
@@ -9670,7 +9755,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="35" t="s">
         <v>21</v>
       </c>
@@ -9691,7 +9776,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>29</v>
       </c>
@@ -9712,7 +9797,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>33</v>
       </c>
@@ -9733,7 +9818,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>31</v>
       </c>
@@ -9754,7 +9839,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>28</v>
       </c>
@@ -9775,7 +9860,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>27</v>
       </c>
@@ -9796,7 +9881,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>25</v>
       </c>
@@ -9817,7 +9902,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>2</v>
       </c>
@@ -9838,7 +9923,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>19</v>
       </c>
@@ -9859,7 +9944,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="16" t="s">
         <v>0</v>
       </c>
@@ -9880,7 +9965,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>24</v>
       </c>
@@ -9901,7 +9986,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>11</v>
       </c>
@@ -9922,7 +10007,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>10</v>
       </c>
@@ -9943,7 +10028,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>9</v>
       </c>
@@ -9964,7 +10049,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="15">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>13</v>
       </c>
@@ -9985,7 +10070,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="15">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>18</v>
       </c>
@@ -10006,7 +10091,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="15">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="33" t="s">
         <v>1</v>
       </c>
@@ -10027,7 +10112,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="15">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>6</v>
       </c>
@@ -10048,7 +10133,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="15">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>5</v>
       </c>
@@ -10069,7 +10154,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="15">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>3</v>
       </c>
@@ -10090,7 +10175,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="15">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="29" t="s">
         <v>8</v>
       </c>
@@ -10111,7 +10196,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="15">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>7</v>
       </c>
@@ -10132,7 +10217,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="15">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>15</v>
       </c>
@@ -10153,7 +10238,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>16</v>
       </c>
@@ -10174,7 +10259,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>14</v>
       </c>
@@ -10195,7 +10280,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>22</v>
       </c>
@@ -10216,7 +10301,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="29" t="s">
         <v>23</v>
       </c>
@@ -10237,7 +10322,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
         <v>4</v>
       </c>
@@ -10260,8 +10345,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A24" location="'UDQ Filters'!G3" display="Custom Taxes"/>
-    <hyperlink ref="A17" location="'UDQ Filters'!G2" display="Tax Authority"/>
+    <hyperlink ref="A24" location="'UDQ Filters'!G3" display="Custom Taxes" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="A17" location="'UDQ Filters'!G2" display="Tax Authority" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -10272,35 +10357,35 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:Q14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="52.6640625" customWidth="1"/>
-    <col min="4" max="4" width="35.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="48.5546875" customWidth="1"/>
-    <col min="6" max="6" width="16.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="36.44140625" customWidth="1"/>
-    <col min="8" max="8" width="16.5546875" customWidth="1"/>
-    <col min="9" max="9" width="44.44140625" customWidth="1"/>
-    <col min="10" max="10" width="16.5546875" customWidth="1"/>
-    <col min="11" max="11" width="46.6640625" customWidth="1"/>
-    <col min="12" max="12" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="45.109375" customWidth="1"/>
-    <col min="14" max="14" width="21.109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="52.7109375" customWidth="1"/>
+    <col min="4" max="4" width="35.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="48.5703125" customWidth="1"/>
+    <col min="6" max="6" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="36.42578125" customWidth="1"/>
+    <col min="8" max="8" width="16.5703125" customWidth="1"/>
+    <col min="9" max="9" width="44.42578125" customWidth="1"/>
+    <col min="10" max="10" width="16.5703125" customWidth="1"/>
+    <col min="11" max="11" width="46.7109375" customWidth="1"/>
+    <col min="12" max="12" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="45.140625" customWidth="1"/>
+    <col min="14" max="14" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="15">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>34</v>
       </c>
@@ -10353,7 +10438,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="15">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>185</v>
       </c>
@@ -10397,7 +10482,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="15">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>186</v>
       </c>
@@ -10441,7 +10526,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="15">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>187</v>
       </c>
@@ -10485,7 +10570,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="15">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>188</v>
       </c>
@@ -10535,7 +10620,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="15">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>189</v>
       </c>
@@ -10573,32 +10658,32 @@
         <v>66</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="15">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="15">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="15">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="15">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="11" spans="1:17">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="12" spans="1:17">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>194</v>
       </c>
@@ -10615,12 +10700,12 @@
         <v>378</v>
       </c>
     </row>
-    <row r="13" spans="1:17">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="14" spans="1:17" ht="15">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>215</v>
       </c>
@@ -10651,20 +10736,20 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="62.109375" customWidth="1"/>
-    <col min="2" max="2" width="57.44140625" customWidth="1"/>
+    <col min="1" max="1" width="62.140625" customWidth="1"/>
+    <col min="2" max="2" width="57.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="46" customFormat="1">
+    <row r="1" spans="1:2" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="45" t="s">
         <v>284</v>
       </c>
@@ -10672,7 +10757,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>276</v>
       </c>
@@ -10680,7 +10765,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>277</v>
       </c>
@@ -10688,7 +10773,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>278</v>
       </c>
@@ -10696,7 +10781,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>279</v>
       </c>
@@ -10704,7 +10789,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>280</v>
       </c>
@@ -10712,7 +10797,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>281</v>
       </c>
@@ -10720,7 +10805,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>282</v>
       </c>
@@ -10728,22 +10813,22 @@
         <v>355</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>359</v>
       </c>
@@ -10755,21 +10840,21 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="55" customWidth="1"/>
-    <col min="2" max="2" width="72.44140625" customWidth="1"/>
-    <col min="3" max="3" width="48.5546875" customWidth="1"/>
+    <col min="2" max="2" width="72.42578125" customWidth="1"/>
+    <col min="3" max="3" width="48.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="47" customFormat="1">
+    <row r="1" spans="1:3" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="47" t="s">
         <v>285</v>
       </c>
@@ -10780,7 +10865,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>286</v>
       </c>
@@ -10791,7 +10876,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>287</v>
       </c>
@@ -10802,7 +10887,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>288</v>
       </c>
@@ -10813,7 +10898,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>289</v>
       </c>
@@ -10824,7 +10909,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>290</v>
       </c>
@@ -10835,7 +10920,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>291</v>
       </c>
@@ -10846,7 +10931,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>292</v>
       </c>
@@ -10857,7 +10942,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>293</v>
       </c>
@@ -10868,7 +10953,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>287</v>
       </c>
@@ -10879,7 +10964,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>304</v>
       </c>
@@ -10887,12 +10972,12 @@
         <v>322</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>308</v>
       </c>
@@ -10900,12 +10985,12 @@
         <v>323</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>298</v>
       </c>
@@ -10913,7 +10998,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="17" spans="2:3">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>309</v>
       </c>
@@ -10921,7 +11006,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="18" spans="2:3">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>310</v>
       </c>
@@ -10929,7 +11014,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="19" spans="2:3">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>311</v>
       </c>
@@ -10937,7 +11022,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="20" spans="2:3">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>312</v>
       </c>
@@ -10945,12 +11030,12 @@
         <v>349</v>
       </c>
     </row>
-    <row r="21" spans="2:3">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="22" spans="2:3">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>314</v>
       </c>
@@ -10962,20 +11047,20 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.5546875" customWidth="1"/>
+    <col min="1" max="1" width="34.5703125" customWidth="1"/>
     <col min="2" max="2" width="34" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="47" customFormat="1">
+    <row r="1" spans="1:2" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="47" t="s">
         <v>329</v>
       </c>
@@ -10983,7 +11068,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>331</v>
       </c>
@@ -10991,7 +11076,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>332</v>
       </c>
@@ -10999,7 +11084,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>333</v>
       </c>
@@ -11007,7 +11092,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>334</v>
       </c>
@@ -11015,7 +11100,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>335</v>
       </c>
@@ -11023,7 +11108,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>336</v>
       </c>
@@ -11031,7 +11116,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>337</v>
       </c>
@@ -11039,7 +11124,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>338</v>
       </c>
@@ -11047,12 +11132,12 @@
         <v>346</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>348</v>
       </c>
@@ -11064,54 +11149,54 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:A8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="191.88671875" customWidth="1"/>
+    <col min="1" max="1" width="191.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" s="46" customFormat="1">
+    <row r="1" spans="1:1" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="47" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>377</v>
       </c>
@@ -11123,76 +11208,150 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="66.88671875" customWidth="1"/>
+    <col min="1" max="1" width="66.85546875" customWidth="1"/>
     <col min="2" max="2" width="41" customWidth="1"/>
+    <col min="3" max="3" width="61.42578125" customWidth="1"/>
+    <col min="4" max="4" width="52.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="47" customFormat="1">
+    <row r="1" spans="1:4" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="47" t="s">
         <v>215</v>
       </c>
       <c r="B1" s="47" t="s">
         <v>361</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="47" t="s">
+        <v>214</v>
+      </c>
+      <c r="D1" s="47" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>175</v>
       </c>
       <c r="B2" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
+      <c r="C2" t="s">
+        <v>169</v>
+      </c>
+      <c r="D2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>364</v>
       </c>
       <c r="B3" t="s">
         <v>363</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3" t="s">
+        <v>366</v>
+      </c>
+      <c r="D3" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>365</v>
       </c>
-    </row>
-    <row r="5" spans="1:2">
+      <c r="C4" t="s">
+        <v>381</v>
+      </c>
+      <c r="D4" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>366</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5" t="s">
+        <v>382</v>
+      </c>
+      <c r="D5" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="7" spans="1:2">
+      <c r="C6" t="s">
+        <v>383</v>
+      </c>
+      <c r="D6" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>367</v>
       </c>
-    </row>
-    <row r="8" spans="1:2">
+      <c r="C7" t="s">
+        <v>384</v>
+      </c>
+      <c r="D7" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="9" spans="1:2">
+      <c r="C8" t="s">
+        <v>385</v>
+      </c>
+      <c r="D8" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>369</v>
       </c>
-    </row>
-    <row r="10" spans="1:2">
+      <c r="C9" t="s">
+        <v>386</v>
+      </c>
+      <c r="D9" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>370</v>
+      </c>
+      <c r="D10" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D11" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D12" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D13" t="s">
+        <v>395</v>
       </c>
     </row>
   </sheetData>

--- a/TF_UI_APIs.xlsx
+++ b/TF_UI_APIs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\W\tf-new-arch-artifacts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B58D8ED9-BC51-453E-AD60-6275AA287645}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70095FE7-5F8F-4AE9-939D-78BB62C325C7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Type1" sheetId="2" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="816" uniqueCount="396">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="823" uniqueCount="402">
   <si>
     <t>Tax Authority</t>
   </si>
@@ -1257,6 +1257,24 @@
   </si>
   <si>
     <t>/TaxCodeService/getRecipOvrdAutocompleteNonResTaxTypesLocal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">public ResponseEntity&lt;List&lt;OptionalRateOverride&gt;&gt; getOptionalRateOverrides(@Valid @NotNull @RequestBody(required = true) InputData input) throws Exception </t>
+  </si>
+  <si>
+    <t>public ResponseEntity&lt;FormOutput&gt; saveOptionalRateOverride(@Valid @NotNull @RequestBody(required = true) OptionalRateOverride optionalRateOverride) throws Exception</t>
+  </si>
+  <si>
+    <t>public ResponseEntity&lt;FormOutput&gt; deleteOptionalRateOverride(@Valid @NotNull @RequestBody(required = true) OptionalRateOverride optionalRateOverride) throws Exception</t>
+  </si>
+  <si>
+    <t>public ResponseEntity&lt;List&lt;Object&gt;&gt; getAuthoritiesAutocomplete(@Valid @NotNull @RequestBody(required = true) InputData input) throws Exception</t>
+  </si>
+  <si>
+    <t>public ResponseEntity&lt;List&lt;Object&gt;&gt; getTaxTypesAutocomplete(@Valid @NotNull @RequestBody(required = true) InputData input) throws Exception</t>
+  </si>
+  <si>
+    <t>public ResponseEntity&lt;List&lt;Object&gt;&gt; getFormulaAutocomplete(@Valid @NotNull @RequestBody(required = true) InputData input) throws Exception</t>
   </si>
 </sst>
 </file>
@@ -11150,10 +11168,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:A8"/>
+  <dimension ref="A1:A16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11201,6 +11219,41 @@
         <v>377</v>
       </c>
     </row>
+    <row r="10" spans="1:1" s="46" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="47" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>401</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
@@ -11211,7 +11264,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>

--- a/TF_UI_APIs.xlsx
+++ b/TF_UI_APIs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\W\tf-new-arch-artifacts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70095FE7-5F8F-4AE9-939D-78BB62C325C7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF8FEE12-31EA-4BC7-B25A-9939AB75E3FB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Type1" sheetId="2" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="823" uniqueCount="402">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="878" uniqueCount="411">
   <si>
     <t>Tax Authority</t>
   </si>
@@ -1275,6 +1275,33 @@
   </si>
   <si>
     <t>public ResponseEntity&lt;List&lt;Object&gt;&gt; getFormulaAutocomplete(@Valid @NotNull @RequestBody(required = true) InputData input) throws Exception</t>
+  </si>
+  <si>
+    <t>calculateBsiWage</t>
+  </si>
+  <si>
+    <t>/CompanyService/getOptionalRateOverrides</t>
+  </si>
+  <si>
+    <t>/CompanyService/saveOptionalRateOverride</t>
+  </si>
+  <si>
+    <t>/CompanyService/updateOptionalRateOverride</t>
+  </si>
+  <si>
+    <t>/CompanyService/deleteOptionalRateOverride</t>
+  </si>
+  <si>
+    <t>/CompanyService/getOptionalRateOvrdAutocompleteAuth</t>
+  </si>
+  <si>
+    <t>/CompanyService/getOptionalRateOvrdAutocompleteTaxTypes</t>
+  </si>
+  <si>
+    <t>/CompanyService/getOptionalRateOvrdAutocompleteFormulas</t>
+  </si>
+  <si>
+    <t>/CompanyService/calculateBsiWage</t>
   </si>
 </sst>
 </file>
@@ -11170,7 +11197,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:A16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
@@ -11262,10 +11289,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11273,10 +11300,11 @@
     <col min="1" max="1" width="66.85546875" customWidth="1"/>
     <col min="2" max="2" width="41" customWidth="1"/>
     <col min="3" max="3" width="61.42578125" customWidth="1"/>
-    <col min="4" max="4" width="52.42578125" customWidth="1"/>
+    <col min="4" max="4" width="64.42578125" customWidth="1"/>
+    <col min="5" max="5" width="56.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="47" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="47" t="s">
         <v>215</v>
       </c>
@@ -11289,8 +11317,11 @@
       <c r="D1" s="47" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" s="47" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>175</v>
       </c>
@@ -11303,8 +11334,11 @@
       <c r="D2" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>364</v>
       </c>
@@ -11317,8 +11351,11 @@
       <c r="D3" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>365</v>
       </c>
@@ -11328,8 +11365,11 @@
       <c r="D4" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>366</v>
       </c>
@@ -11339,8 +11379,11 @@
       <c r="D5" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E5" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>360</v>
       </c>
@@ -11350,8 +11393,11 @@
       <c r="D6" t="s">
         <v>388</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E6" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>367</v>
       </c>
@@ -11361,8 +11407,11 @@
       <c r="D7" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E7" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>368</v>
       </c>
@@ -11372,8 +11421,11 @@
       <c r="D8" t="s">
         <v>390</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E8" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>369</v>
       </c>
@@ -11383,26 +11435,32 @@
       <c r="D9" t="s">
         <v>391</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E9" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>370</v>
       </c>
       <c r="D10" t="s">
         <v>392</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E10" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D11" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D12" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D13" t="s">
         <v>395</v>
       </c>

--- a/TF_UI_APIs.xlsx
+++ b/TF_UI_APIs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\W\tf-new-arch-artifacts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF8FEE12-31EA-4BC7-B25A-9939AB75E3FB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BD992C5-14AE-4261-A925-039AAF431802}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Type1" sheetId="2" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="878" uniqueCount="411">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="842" uniqueCount="417">
   <si>
     <t>Tax Authority</t>
   </si>
@@ -1277,9 +1277,6 @@
     <t>public ResponseEntity&lt;List&lt;Object&gt;&gt; getFormulaAutocomplete(@Valid @NotNull @RequestBody(required = true) InputData input) throws Exception</t>
   </si>
   <si>
-    <t>calculateBsiWage</t>
-  </si>
-  <si>
     <t>/CompanyService/getOptionalRateOverrides</t>
   </si>
   <si>
@@ -1302,6 +1299,27 @@
   </si>
   <si>
     <t>/CompanyService/calculateBsiWage</t>
+  </si>
+  <si>
+    <t>/TaxCodeService/getCustomGarnishmentFormulas</t>
+  </si>
+  <si>
+    <t>/TaxCodeService/getCustomGarnishmentFormulaDetail</t>
+  </si>
+  <si>
+    <t>/TaxCodeService/deleteCustomGarnishmentFormula</t>
+  </si>
+  <si>
+    <t>/TaxCodeService/saveCustomGarnishmentFormula</t>
+  </si>
+  <si>
+    <t>/TaxCodeService/updateCustomGarnishmentFormula</t>
+  </si>
+  <si>
+    <t>/TaxCodeService/generateCustomGarnishmentFormulaPDF</t>
+  </si>
+  <si>
+    <t>/TaxCodeService/autocompleteCustomGarnishments</t>
   </si>
 </sst>
 </file>
@@ -3338,7 +3356,7 @@
   <dimension ref="A1:P16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11289,10 +11307,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11301,10 +11319,11 @@
     <col min="2" max="2" width="41" customWidth="1"/>
     <col min="3" max="3" width="61.42578125" customWidth="1"/>
     <col min="4" max="4" width="64.42578125" customWidth="1"/>
-    <col min="5" max="5" width="56.28515625" customWidth="1"/>
+    <col min="5" max="5" width="58.5703125" customWidth="1"/>
+    <col min="6" max="6" width="53" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="47" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="47" t="s">
         <v>215</v>
       </c>
@@ -11320,8 +11339,11 @@
       <c r="E1" s="47" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" s="47" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>175</v>
       </c>
@@ -11337,8 +11359,11 @@
       <c r="E2" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>364</v>
       </c>
@@ -11352,10 +11377,13 @@
         <v>248</v>
       </c>
       <c r="E3" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <v>402</v>
+      </c>
+      <c r="F3" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>365</v>
       </c>
@@ -11366,10 +11394,13 @@
         <v>251</v>
       </c>
       <c r="E4" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+        <v>403</v>
+      </c>
+      <c r="F4" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>366</v>
       </c>
@@ -11380,10 +11411,13 @@
         <v>387</v>
       </c>
       <c r="E5" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+        <v>404</v>
+      </c>
+      <c r="F5" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>360</v>
       </c>
@@ -11394,10 +11428,13 @@
         <v>388</v>
       </c>
       <c r="E6" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+        <v>405</v>
+      </c>
+      <c r="F6" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>367</v>
       </c>
@@ -11408,10 +11445,13 @@
         <v>389</v>
       </c>
       <c r="E7" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+        <v>406</v>
+      </c>
+      <c r="F7" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>368</v>
       </c>
@@ -11422,10 +11462,13 @@
         <v>390</v>
       </c>
       <c r="E8" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+        <v>407</v>
+      </c>
+      <c r="F8" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>369</v>
       </c>
@@ -11436,10 +11479,13 @@
         <v>391</v>
       </c>
       <c r="E9" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+        <v>408</v>
+      </c>
+      <c r="F9" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>370</v>
       </c>
@@ -11447,20 +11493,20 @@
         <v>392</v>
       </c>
       <c r="E10" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D11" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D12" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D13" t="s">
         <v>395</v>
       </c>

--- a/TF_UI_APIs.xlsx
+++ b/TF_UI_APIs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\W\tf-new-arch-artifacts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BD992C5-14AE-4261-A925-039AAF431802}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA8515E1-67C0-4262-A2F1-FC53ED44EF56}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="842" uniqueCount="417">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="848" uniqueCount="421">
   <si>
     <t>Tax Authority</t>
   </si>
@@ -1320,6 +1320,18 @@
   </si>
   <si>
     <t>/TaxCodeService/autocompleteCustomGarnishments</t>
+  </si>
+  <si>
+    <t>/CompanyService/getCustomNexusList</t>
+  </si>
+  <si>
+    <t>/CompanyService/deleteCustomNexusData</t>
+  </si>
+  <si>
+    <t>/CompanyService/saveCustomNexusData</t>
+  </si>
+  <si>
+    <t>/CompanyService/autocompleteCustNexusAuthorities</t>
   </si>
 </sst>
 </file>
@@ -11307,10 +11319,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11511,6 +11523,36 @@
         <v>395</v>
       </c>
     </row>
+    <row r="17" spans="1:1" s="46" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="47" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>420</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>

--- a/TF_UI_APIs.xlsx
+++ b/TF_UI_APIs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\W\tf-new-arch-artifacts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA8515E1-67C0-4262-A2F1-FC53ED44EF56}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5AF838C-FAAB-42D8-8025-ADF5234DECA6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="848" uniqueCount="421">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="856" uniqueCount="426">
   <si>
     <t>Tax Authority</t>
   </si>
@@ -1332,6 +1332,21 @@
   </si>
   <si>
     <t>/CompanyService/autocompleteCustNexusAuthorities</t>
+  </si>
+  <si>
+    <t>/PaymentsService/getCustomPaymentsForExceptions</t>
+  </si>
+  <si>
+    <t>/PaymentsService/getCustomPaymentExceptions</t>
+  </si>
+  <si>
+    <t>/PaymentsService/getCustomPaymentExceptionDetail</t>
+  </si>
+  <si>
+    <t>/PaymentsService/deleteCustomPaymentException</t>
+  </si>
+  <si>
+    <t>/PaymentsService/saveCustomPaymentException</t>
   </si>
 </sst>
 </file>
@@ -3368,7 +3383,7 @@
   <dimension ref="A1:P16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11319,16 +11334,16 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="66.85546875" customWidth="1"/>
-    <col min="2" max="2" width="41" customWidth="1"/>
+    <col min="2" max="2" width="50.42578125" customWidth="1"/>
     <col min="3" max="3" width="61.42578125" customWidth="1"/>
     <col min="4" max="4" width="64.42578125" customWidth="1"/>
     <col min="5" max="5" width="58.5703125" customWidth="1"/>
@@ -11523,34 +11538,62 @@
         <v>395</v>
       </c>
     </row>
-    <row r="17" spans="1:1" s="46" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="47" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B17" s="47" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>417</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>419</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>420</v>
+      </c>
+      <c r="B22" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>86</v>
       </c>
     </row>
   </sheetData>

--- a/TF_UI_APIs.xlsx
+++ b/TF_UI_APIs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\W\tf-new-arch-artifacts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5AF838C-FAAB-42D8-8025-ADF5234DECA6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23A9A03C-4883-46A8-A8F0-187B39FA0198}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Type1" sheetId="2" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="856" uniqueCount="426">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="863" uniqueCount="430">
   <si>
     <t>Tax Authority</t>
   </si>
@@ -1347,6 +1347,18 @@
   </si>
   <si>
     <t>/PaymentsService/saveCustomPaymentException</t>
+  </si>
+  <si>
+    <t>/TaxCodeService/getCustomTaxPaymentOverrides</t>
+  </si>
+  <si>
+    <t>/TaxCodeService/saveCustomTaxPaymentOverride</t>
+  </si>
+  <si>
+    <t>/TaxCodeService/deleteCustomTaxPaymentOverride</t>
+  </si>
+  <si>
+    <t>/UserDataQueriesService/getAutocomplete...ToolsSelectFieldIds.TaxTypesPymtOvrd</t>
   </si>
 </sst>
 </file>
@@ -1565,7 +1577,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1648,6 +1660,9 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3383,7 +3398,7 @@
   <dimension ref="A1:P16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9130,7 +9145,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -9681,7 +9696,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G35"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
@@ -10830,7 +10845,7 @@
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10934,7 +10949,7 @@
   <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11337,7 +11352,7 @@
   <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11538,60 +11553,81 @@
         <v>395</v>
       </c>
     </row>
-    <row r="17" spans="1:2" s="46" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="47" t="s">
         <v>193</v>
       </c>
       <c r="B17" s="47" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C17" s="47" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>111</v>
       </c>
       <c r="B18" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>417</v>
       </c>
       <c r="B19" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C19" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>418</v>
       </c>
       <c r="B20" t="s">
         <v>423</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>419</v>
       </c>
       <c r="B21" t="s">
         <v>424</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C21" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>420</v>
       </c>
       <c r="B22" t="s">
         <v>425</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C22" s="48" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C23" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>86</v>
       </c>

--- a/TF_UI_APIs.xlsx
+++ b/TF_UI_APIs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\W\tf-new-arch-artifacts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23A9A03C-4883-46A8-A8F0-187B39FA0198}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A11C322F-E27C-47B0-8325-8E03D4096708}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Type1" sheetId="2" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="863" uniqueCount="430">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="873" uniqueCount="438">
   <si>
     <t>Tax Authority</t>
   </si>
@@ -1359,6 +1359,30 @@
   </si>
   <si>
     <t>/UserDataQueriesService/getAutocomplete...ToolsSelectFieldIds.TaxTypesPymtOvrd</t>
+  </si>
+  <si>
+    <t>/GarnishmentService/getDisposableOverrideList</t>
+  </si>
+  <si>
+    <t>/GarnishmentService/getDisposableOverrideDetail</t>
+  </si>
+  <si>
+    <t>/GarnishmentService/saveDisposableOverride</t>
+  </si>
+  <si>
+    <t>/GarnishmentService/deleteDisposableOverride</t>
+  </si>
+  <si>
+    <t>/GarnishmentService/autocompleteDispOvrdAuthorities</t>
+  </si>
+  <si>
+    <t>/GarnishmentService/autocompleteDispOvrdGarnishments</t>
+  </si>
+  <si>
+    <t>/GarnishmentService/autocompleteDispOvrdPymntCodes</t>
+  </si>
+  <si>
+    <t>/GarnishmentService/viewAllDisposableOverrides</t>
   </si>
 </sst>
 </file>
@@ -3398,7 +3422,7 @@
   <dimension ref="A1:P16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11349,10 +11373,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11553,7 +11577,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="17" spans="1:3" s="46" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="47" t="s">
         <v>193</v>
       </c>
@@ -11563,8 +11587,11 @@
       <c r="C17" s="47" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D17" s="47" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>111</v>
       </c>
@@ -11574,8 +11601,11 @@
       <c r="C18" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D18" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>417</v>
       </c>
@@ -11585,8 +11615,11 @@
       <c r="C19" t="s">
         <v>426</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D19" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>418</v>
       </c>
@@ -11596,8 +11629,11 @@
       <c r="C20" t="s">
         <v>427</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D20" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>419</v>
       </c>
@@ -11607,8 +11643,11 @@
       <c r="C21" t="s">
         <v>428</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="D21" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>420</v>
       </c>
@@ -11618,18 +11657,37 @@
       <c r="C22" s="48" t="s">
         <v>429</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D22" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>116</v>
       </c>
       <c r="C23" t="s">
         <v>366</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D23" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>86</v>
+      </c>
+      <c r="D24" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D25" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D26" t="s">
+        <v>437</v>
       </c>
     </row>
   </sheetData>

--- a/TF_UI_APIs.xlsx
+++ b/TF_UI_APIs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\W\tf-new-arch-artifacts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A11C322F-E27C-47B0-8325-8E03D4096708}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0704B5F6-1590-467E-9023-AC443867C635}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="873" uniqueCount="438">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="908" uniqueCount="473">
   <si>
     <t>Tax Authority</t>
   </si>
@@ -1383,6 +1383,111 @@
   </si>
   <si>
     <t>/GarnishmentService/viewAllDisposableOverrides</t>
+  </si>
+  <si>
+    <t>Mapping Tools</t>
+  </si>
+  <si>
+    <t>/MappingToolsService/getCountTaxCodesMapped</t>
+  </si>
+  <si>
+    <t>/MappingToolsService/getCountTaxCodesNotMapped</t>
+  </si>
+  <si>
+    <t>/MappingToolsService/getCountTaxTypesMapped</t>
+  </si>
+  <si>
+    <t>/MappingToolsService/getCountTaxTypesNotMapped</t>
+  </si>
+  <si>
+    <t>/MappingToolsService/getCountMappedCredits</t>
+  </si>
+  <si>
+    <t>/MappingToolsService/getCountNotMappedCredits</t>
+  </si>
+  <si>
+    <t>/MappingToolsService/getCountMappedDeductions</t>
+  </si>
+  <si>
+    <t>/MappingToolsService/getCountNotMappedDeductions</t>
+  </si>
+  <si>
+    <t>/MappingToolsService/getCountMappedPlan</t>
+  </si>
+  <si>
+    <t>/MappingToolsService/getCountNotMappedPlan</t>
+  </si>
+  <si>
+    <t>/MappingToolsService/getCountMappedEarnings</t>
+  </si>
+  <si>
+    <t>/MappingToolsService/getCountNotMappedEarnings</t>
+  </si>
+  <si>
+    <t>Map Tax Codes</t>
+  </si>
+  <si>
+    <t>/MappingToolsService/mapTaxCodes</t>
+  </si>
+  <si>
+    <t>/MappingToolsService/customizeMapTaxCodesList</t>
+  </si>
+  <si>
+    <t>/MappingToolsService/createDefaultMappingForAllFedAndStateAuthorities</t>
+  </si>
+  <si>
+    <t>/MappingToolsService/createDefaultMappingForAllAuthorities</t>
+  </si>
+  <si>
+    <t>/MappingToolsService/createDefaultMappingForThisAuthority</t>
+  </si>
+  <si>
+    <t>/MappingToolsService/createDefaultMappingForThisAuthAndLocalities</t>
+  </si>
+  <si>
+    <t>/MappingToolsService/taxCodesMappedForAuthority</t>
+  </si>
+  <si>
+    <t>/MappingToolsService/createNewTaxCode</t>
+  </si>
+  <si>
+    <t>/MappingToolsService/updatePreferredStatus</t>
+  </si>
+  <si>
+    <t>/MappingToolsService/deleteTaxCodeMapping</t>
+  </si>
+  <si>
+    <t>/MappingToolsService/getReciprocalOverrideGroupList</t>
+  </si>
+  <si>
+    <t>/MappingToolsService/getPaymentOverrideGroupList</t>
+  </si>
+  <si>
+    <t>/MappingToolsService/getDisposableOverrideGroupList</t>
+  </si>
+  <si>
+    <t>/MappingToolsService/getUnempOverrideCompaniesList</t>
+  </si>
+  <si>
+    <t>/MappingToolsService/getOptlOverrideCompaniesList</t>
+  </si>
+  <si>
+    <t>/MappingToolsService/getGarnishFormulaOvrdGroupsList</t>
+  </si>
+  <si>
+    <t>/MappingToolsService/getGroupOverrideGroupsList</t>
+  </si>
+  <si>
+    <t>/MappingToolsService/getEmployeeTaxesList</t>
+  </si>
+  <si>
+    <t>/MappingToolsService/getPensionTaxesList</t>
+  </si>
+  <si>
+    <t>/MappingToolsService/getCustPaymentExceptionList</t>
+  </si>
+  <si>
+    <t>/MappingToolsService/getEmployeeGarnList</t>
   </si>
 </sst>
 </file>
@@ -11373,16 +11478,16 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="66.85546875" customWidth="1"/>
-    <col min="2" max="2" width="50.42578125" customWidth="1"/>
+    <col min="2" max="2" width="68.42578125" customWidth="1"/>
     <col min="3" max="3" width="61.42578125" customWidth="1"/>
     <col min="4" max="4" width="64.42578125" customWidth="1"/>
     <col min="5" max="5" width="58.5703125" customWidth="1"/>
@@ -11690,6 +11795,155 @@
         <v>437</v>
       </c>
     </row>
+    <row r="29" spans="1:4" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="47" t="s">
+        <v>438</v>
+      </c>
+      <c r="B29" s="47" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>439</v>
+      </c>
+      <c r="B30" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>440</v>
+      </c>
+      <c r="B31" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>441</v>
+      </c>
+      <c r="B32" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>442</v>
+      </c>
+      <c r="B33" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>443</v>
+      </c>
+      <c r="B34" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>444</v>
+      </c>
+      <c r="B35" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>445</v>
+      </c>
+      <c r="B36" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>446</v>
+      </c>
+      <c r="B37" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>447</v>
+      </c>
+      <c r="B38" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>448</v>
+      </c>
+      <c r="B39" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>449</v>
+      </c>
+      <c r="B40" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>450</v>
+      </c>
+      <c r="B41" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
+        <v>472</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>

--- a/TF_UI_APIs.xlsx
+++ b/TF_UI_APIs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\W\tf-new-arch-artifacts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0704B5F6-1590-467E-9023-AC443867C635}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E007996-6F17-478F-B29D-1678A9083F0C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="908" uniqueCount="473">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="920" uniqueCount="485">
   <si>
     <t>Tax Authority</t>
   </si>
@@ -1488,6 +1488,42 @@
   </si>
   <si>
     <t>/MappingToolsService/getEmployeeGarnList</t>
+  </si>
+  <si>
+    <t>Map Tax Types</t>
+  </si>
+  <si>
+    <t>/MappingToolsService/mapTaxTypes</t>
+  </si>
+  <si>
+    <t>/MappingToolsService/customizeMapTaxTypesList</t>
+  </si>
+  <si>
+    <t>/MappingToolsService/createDefaultMappingForAllTaxTypes</t>
+  </si>
+  <si>
+    <t>/MappingToolsService/taxTypesMappedForAuthority</t>
+  </si>
+  <si>
+    <t>/MappingToolsService/createNewTaxType</t>
+  </si>
+  <si>
+    <t>/MappingToolsService/deleteTaxTypeMapping</t>
+  </si>
+  <si>
+    <t>/MappingToolsService/updatePreferredStatusTaxType</t>
+  </si>
+  <si>
+    <t>/MappingToolsService/getDisposableOverrideGroupListTaxType</t>
+  </si>
+  <si>
+    <t>/MappingToolsService/getGarnishmentFormulaOverrideGroupList</t>
+  </si>
+  <si>
+    <t>/MappingToolsService/getEmployeeGarnishmentList</t>
+  </si>
+  <si>
+    <t>/MappingToolsService/getEmployeeTaxList</t>
   </si>
 </sst>
 </file>
@@ -11078,7 +11114,7 @@
   <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11481,7 +11517,7 @@
   <dimension ref="A1:F50"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+      <selection activeCell="C30" sqref="C30:C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11802,6 +11838,9 @@
       <c r="B29" s="47" t="s">
         <v>451</v>
       </c>
+      <c r="C29" s="47" t="s">
+        <v>473</v>
+      </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
@@ -11810,6 +11849,9 @@
       <c r="B30" t="s">
         <v>452</v>
       </c>
+      <c r="C30" t="s">
+        <v>474</v>
+      </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
@@ -11818,6 +11860,9 @@
       <c r="B31" t="s">
         <v>453</v>
       </c>
+      <c r="C31" t="s">
+        <v>475</v>
+      </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
@@ -11826,72 +11871,99 @@
       <c r="B32" t="s">
         <v>454</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C32" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>442</v>
       </c>
       <c r="B33" t="s">
         <v>455</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C33" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>443</v>
       </c>
       <c r="B34" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C34" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>444</v>
       </c>
       <c r="B35" t="s">
         <v>457</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C35" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>445</v>
       </c>
       <c r="B36" t="s">
         <v>458</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C36" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>446</v>
       </c>
       <c r="B37" t="s">
         <v>459</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C37" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>447</v>
       </c>
       <c r="B38" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C38" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>448</v>
       </c>
       <c r="B39" t="s">
         <v>461</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C39" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>449</v>
       </c>
       <c r="B40" t="s">
         <v>462</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C40" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>450</v>
       </c>
@@ -11899,37 +11971,37 @@
         <v>463</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
         <v>470</v>
       </c>

--- a/TF_UI_APIs.xlsx
+++ b/TF_UI_APIs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\W\tf-new-arch-artifacts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E007996-6F17-478F-B29D-1678A9083F0C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C77A6BF-F252-4B5F-8A3F-3F8AE9A67B57}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="920" uniqueCount="485">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="931" uniqueCount="496">
   <si>
     <t>Tax Authority</t>
   </si>
@@ -1524,6 +1524,39 @@
   </si>
   <si>
     <t>/MappingToolsService/getEmployeeTaxList</t>
+  </si>
+  <si>
+    <t>Map Payment Codes</t>
+  </si>
+  <si>
+    <t>/MappingToolsService/mapPlanCodes</t>
+  </si>
+  <si>
+    <t>/MappingToolsService/customizeMapPaymentCodesList</t>
+  </si>
+  <si>
+    <t>/MappingToolsService/createDefaultMappingForAllPaymentCodes</t>
+  </si>
+  <si>
+    <t>/MappingToolsService/createDefaultMappingForThisPaymentCode</t>
+  </si>
+  <si>
+    <t>/MappingToolsService/deletePaymentCodeMapping</t>
+  </si>
+  <si>
+    <t>/MappingToolsService/getPaymentOverrideGroupListForPayCode</t>
+  </si>
+  <si>
+    <t>/MappingToolsService/getDisposableOverrideGroupListForPayCode</t>
+  </si>
+  <si>
+    <t>/MappingToolsService/getWhatIfUsageListForPayCode</t>
+  </si>
+  <si>
+    <t>/MappingToolsService/getUserPaymentsMappedForPayCode</t>
+  </si>
+  <si>
+    <t>/MappingToolsService/createNewPaymentCode</t>
   </si>
 </sst>
 </file>
@@ -11517,7 +11550,7 @@
   <dimension ref="A1:F50"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30:C40"/>
+      <selection activeCell="D30" sqref="D30:D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11841,6 +11874,9 @@
       <c r="C29" s="47" t="s">
         <v>473</v>
       </c>
+      <c r="D29" s="47" t="s">
+        <v>485</v>
+      </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
@@ -11852,6 +11888,9 @@
       <c r="C30" t="s">
         <v>474</v>
       </c>
+      <c r="D30" t="s">
+        <v>486</v>
+      </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
@@ -11863,6 +11902,9 @@
       <c r="C31" t="s">
         <v>475</v>
       </c>
+      <c r="D31" t="s">
+        <v>487</v>
+      </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
@@ -11874,8 +11916,11 @@
       <c r="C32" t="s">
         <v>476</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D32" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>442</v>
       </c>
@@ -11885,8 +11930,11 @@
       <c r="C33" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D33" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>443</v>
       </c>
@@ -11896,8 +11944,11 @@
       <c r="C34" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D34" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>444</v>
       </c>
@@ -11907,8 +11958,11 @@
       <c r="C35" t="s">
         <v>479</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D35" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>445</v>
       </c>
@@ -11918,8 +11972,11 @@
       <c r="C36" t="s">
         <v>480</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D36" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>446</v>
       </c>
@@ -11929,8 +11986,11 @@
       <c r="C37" t="s">
         <v>481</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D37" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>447</v>
       </c>
@@ -11940,8 +12000,11 @@
       <c r="C38" t="s">
         <v>482</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D38" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>448</v>
       </c>
@@ -11951,8 +12014,11 @@
       <c r="C39" t="s">
         <v>483</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D39" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>449</v>
       </c>
@@ -11963,7 +12029,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>450</v>
       </c>
@@ -11971,37 +12037,37 @@
         <v>463</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
         <v>470</v>
       </c>

--- a/TF_UI_APIs.xlsx
+++ b/TF_UI_APIs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\W\tf-new-arch-artifacts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C77A6BF-F252-4B5F-8A3F-3F8AE9A67B57}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D8CD120-9F05-4659-ACC0-580E3B669685}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="931" uniqueCount="496">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="936" uniqueCount="501">
   <si>
     <t>Tax Authority</t>
   </si>
@@ -1557,6 +1557,21 @@
   </si>
   <si>
     <t>/MappingToolsService/createNewPaymentCode</t>
+  </si>
+  <si>
+    <t>Mapping Tools Wrapper Calls</t>
+  </si>
+  <si>
+    <t>/MappingToolsService/getCountMappingTools</t>
+  </si>
+  <si>
+    <t>/MappingToolsService/getTaxCodesUsage</t>
+  </si>
+  <si>
+    <t>/MappingToolsService/getTaxTypeUsage</t>
+  </si>
+  <si>
+    <t>/MappingToolsService/getPaymentCodeUsage</t>
   </si>
 </sst>
 </file>
@@ -11549,8 +11564,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30:D39"/>
+    <sheetView tabSelected="1" topLeftCell="C17" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11751,7 +11766,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="17" spans="1:4" s="46" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="47" t="s">
         <v>193</v>
       </c>
@@ -11765,7 +11780,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>111</v>
       </c>
@@ -11779,7 +11794,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>417</v>
       </c>
@@ -11793,7 +11808,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>418</v>
       </c>
@@ -11807,7 +11822,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>419</v>
       </c>
@@ -11821,7 +11836,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>420</v>
       </c>
@@ -11835,7 +11850,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>116</v>
       </c>
@@ -11846,7 +11861,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>86</v>
       </c>
@@ -11854,17 +11869,17 @@
         <v>435</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D25" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D26" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="29" spans="1:4" s="47" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="47" t="s">
         <v>438</v>
       </c>
@@ -11877,8 +11892,11 @@
       <c r="D29" s="47" t="s">
         <v>485</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E29" s="47" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>439</v>
       </c>
@@ -11891,8 +11909,11 @@
       <c r="D30" t="s">
         <v>486</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E30" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>440</v>
       </c>
@@ -11905,8 +11926,11 @@
       <c r="D31" t="s">
         <v>487</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E31" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>441</v>
       </c>
@@ -11919,8 +11943,11 @@
       <c r="D32" t="s">
         <v>488</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E32" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>442</v>
       </c>
@@ -11933,8 +11960,11 @@
       <c r="D33" t="s">
         <v>489</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E33" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>443</v>
       </c>
@@ -11948,7 +11978,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>444</v>
       </c>
@@ -11962,7 +11992,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>445</v>
       </c>
@@ -11976,7 +12006,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>446</v>
       </c>
@@ -11990,7 +12020,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>447</v>
       </c>
@@ -12004,7 +12034,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>448</v>
       </c>
@@ -12018,7 +12048,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>449</v>
       </c>
@@ -12029,7 +12059,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>450</v>
       </c>
@@ -12037,37 +12067,37 @@
         <v>463</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
         <v>470</v>
       </c>

--- a/TF_UI_APIs.xlsx
+++ b/TF_UI_APIs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\W\tf-new-arch-artifacts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D8CD120-9F05-4659-ACC0-580E3B669685}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83DC24F4-06ED-4139-B8A9-EF3B06585CD2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="936" uniqueCount="501">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="941" uniqueCount="506">
   <si>
     <t>Tax Authority</t>
   </si>
@@ -1572,6 +1572,21 @@
   </si>
   <si>
     <t>/MappingToolsService/getPaymentCodeUsage</t>
+  </si>
+  <si>
+    <t>Connect To Dataset</t>
+  </si>
+  <si>
+    <t>/DatasetService/getDatasetsForLogin</t>
+  </si>
+  <si>
+    <t>/DatasetService/isManageLogins</t>
+  </si>
+  <si>
+    <t>/DatasetService/isManageDatasets</t>
+  </si>
+  <si>
+    <t>/DatasetService/connectDataset</t>
   </si>
 </sst>
 </file>
@@ -11562,10 +11577,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:F50"/>
+  <dimension ref="A1:F57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C17" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="A54" sqref="A54:A57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12102,14 +12117,39 @@
         <v>470</v>
       </c>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
         <v>472</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="47" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>505</v>
       </c>
     </row>
   </sheetData>

--- a/TF_UI_APIs.xlsx
+++ b/TF_UI_APIs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\W\tf-new-arch-artifacts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83DC24F4-06ED-4139-B8A9-EF3B06585CD2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{312CA548-7B1E-4A13-A184-C4BEA3C0A6AF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="941" uniqueCount="506">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="947" uniqueCount="512">
   <si>
     <t>Tax Authority</t>
   </si>
@@ -1587,6 +1587,24 @@
   </si>
   <si>
     <t>/DatasetService/connectDataset</t>
+  </si>
+  <si>
+    <t>Audit Log Viewer</t>
+  </si>
+  <si>
+    <t>/DatasetService/getDatasets</t>
+  </si>
+  <si>
+    <t>/DatasetService/getAllDatasets</t>
+  </si>
+  <si>
+    <t>/DatasetService/getLoginList</t>
+  </si>
+  <si>
+    <t>/DatasetService/getAuditViewList</t>
+  </si>
+  <si>
+    <t>/DatasetService/deleteAllAudit</t>
   </si>
 </sst>
 </file>
@@ -3626,7 +3644,7 @@
   <dimension ref="A1:P16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11577,10 +11595,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:F57"/>
+  <dimension ref="A1:F58"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="A54" sqref="A54:A57"/>
+      <selection activeCell="B54" sqref="B54:B58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12131,25 +12149,45 @@
       <c r="A53" s="47" t="s">
         <v>501</v>
       </c>
+      <c r="B53" s="47" t="s">
+        <v>506</v>
+      </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>502</v>
       </c>
+      <c r="B54" t="s">
+        <v>507</v>
+      </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>503</v>
       </c>
+      <c r="B55" t="s">
+        <v>508</v>
+      </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>504</v>
       </c>
+      <c r="B56" t="s">
+        <v>509</v>
+      </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>505</v>
+      </c>
+      <c r="B57" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B58" t="s">
+        <v>511</v>
       </c>
     </row>
   </sheetData>

--- a/TF_UI_APIs.xlsx
+++ b/TF_UI_APIs.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\W\tf-new-arch-artifacts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{312CA548-7B1E-4A13-A184-C4BEA3C0A6AF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{739C405B-A1BA-47FA-B205-6B8C33A7DD8D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="947" uniqueCount="512">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="955" uniqueCount="519">
   <si>
     <t>Tax Authority</t>
   </si>
@@ -1605,6 +1605,27 @@
   </si>
   <si>
     <t>/DatasetService/deleteAllAudit</t>
+  </si>
+  <si>
+    <t>Custom BackUp Restore Datasets</t>
+  </si>
+  <si>
+    <t>/FileUploaderService/getCustomBackupRestoreInfo</t>
+  </si>
+  <si>
+    <t>/FileUploaderService/backupDatasets</t>
+  </si>
+  <si>
+    <t>/FileUploaderService/uploadRestoreDatasetFile</t>
+  </si>
+  <si>
+    <t>/FileUploaderService/restoreDatasets</t>
+  </si>
+  <si>
+    <t>/FileUploaderService/getBackUpRestoreStatus</t>
+  </si>
+  <si>
+    <t>/FileUploaderService/backupRestoreOutputFiles</t>
   </si>
 </sst>
 </file>
@@ -11595,10 +11616,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:F58"/>
+  <dimension ref="A1:F60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="B54" sqref="B54:B58"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C54" sqref="C54:C60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12135,59 +12156,87 @@
         <v>470</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="53" spans="1:2" s="47" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="47" t="s">
         <v>501</v>
       </c>
       <c r="B53" s="47" t="s">
         <v>506</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C53" s="47" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>502</v>
       </c>
       <c r="B54" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C54" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>503</v>
       </c>
       <c r="B55" t="s">
         <v>508</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C55" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>504</v>
       </c>
       <c r="B56" t="s">
         <v>509</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C56" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>505</v>
       </c>
       <c r="B57" t="s">
         <v>510</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C57" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
         <v>511</v>
+      </c>
+      <c r="C58" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C59" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C60" t="s">
+        <v>518</v>
       </c>
     </row>
   </sheetData>

--- a/TF_UI_APIs.xlsx
+++ b/TF_UI_APIs.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\W\tf-new-arch-artifacts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{739C405B-A1BA-47FA-B205-6B8C33A7DD8D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6974E38-8DFA-4CA4-ABBC-7604C1210253}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="955" uniqueCount="519">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="960" uniqueCount="522">
   <si>
     <t>Tax Authority</t>
   </si>
@@ -1626,6 +1626,15 @@
   </si>
   <si>
     <t>/FileUploaderService/backupRestoreOutputFiles</t>
+  </si>
+  <si>
+    <t>Custom BackUp Restore Rate Overrides</t>
+  </si>
+  <si>
+    <t>/FileUploaderService/backupRateOverrides</t>
+  </si>
+  <si>
+    <t>/FileUploaderService/restoreRateOverrides</t>
   </si>
 </sst>
 </file>
@@ -11618,8 +11627,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:F60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C54" sqref="C54:C60"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="C54" sqref="C54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12156,17 +12165,17 @@
         <v>470</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="53" spans="1:3" s="47" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="47" t="s">
         <v>501</v>
       </c>
@@ -12176,8 +12185,11 @@
       <c r="C53" s="47" t="s">
         <v>512</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D53" s="47" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>502</v>
       </c>
@@ -12185,10 +12197,13 @@
         <v>507</v>
       </c>
       <c r="C54" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+        <v>502</v>
+      </c>
+      <c r="D54" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>503</v>
       </c>
@@ -12198,8 +12213,11 @@
       <c r="C55" t="s">
         <v>513</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D55" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>504</v>
       </c>
@@ -12209,8 +12227,11 @@
       <c r="C56" t="s">
         <v>514</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D56" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>505</v>
       </c>
@@ -12220,8 +12241,11 @@
       <c r="C57" t="s">
         <v>515</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D57" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
         <v>511</v>
       </c>
@@ -12229,12 +12253,12 @@
         <v>516</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>518</v>
       </c>

--- a/TF_UI_APIs.xlsx
+++ b/TF_UI_APIs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\W\tf-new-arch-artifacts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6974E38-8DFA-4CA4-ABBC-7604C1210253}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F21CB9CF-BDF7-4C48-BC19-3FB2B8F4E18D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="960" uniqueCount="522">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="965" uniqueCount="527">
   <si>
     <t>Tax Authority</t>
   </si>
@@ -1635,6 +1635,21 @@
   </si>
   <si>
     <t>/FileUploaderService/restoreRateOverrides</t>
+  </si>
+  <si>
+    <t>Database Load</t>
+  </si>
+  <si>
+    <t>/FileUploaderService/uploadDatabaseLoadFile</t>
+  </si>
+  <si>
+    <t>/FileUploaderService/databaseLoad</t>
+  </si>
+  <si>
+    <t>/FileUploaderService/getDbLoadStatus</t>
+  </si>
+  <si>
+    <t>/FileUploaderService/databaseLoadOutputFiles</t>
   </si>
 </sst>
 </file>
@@ -11627,8 +11642,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:F60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="C54" sqref="C54"/>
+    <sheetView tabSelected="1" topLeftCell="B28" workbookViewId="0">
+      <selection activeCell="E45" sqref="E45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12165,17 +12180,17 @@
         <v>470</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="53" spans="1:4" s="47" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="47" t="s">
         <v>501</v>
       </c>
@@ -12188,8 +12203,11 @@
       <c r="D53" s="47" t="s">
         <v>519</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E53" s="47" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>502</v>
       </c>
@@ -12202,8 +12220,11 @@
       <c r="D54" t="s">
         <v>520</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E54" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>503</v>
       </c>
@@ -12216,8 +12237,11 @@
       <c r="D55" t="s">
         <v>521</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E55" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>504</v>
       </c>
@@ -12230,8 +12254,11 @@
       <c r="D56" t="s">
         <v>517</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E56" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>505</v>
       </c>
@@ -12244,8 +12271,11 @@
       <c r="D57" t="s">
         <v>518</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E57" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
         <v>511</v>
       </c>
@@ -12253,12 +12283,12 @@
         <v>516</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>518</v>
       </c>

--- a/TF_UI_APIs.xlsx
+++ b/TF_UI_APIs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\W\tf-new-arch-artifacts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F21CB9CF-BDF7-4C48-BC19-3FB2B8F4E18D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A9E76EE-D7C0-4E2D-9DDF-7FF591D3FB49}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="965" uniqueCount="527">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="972" uniqueCount="534">
   <si>
     <t>Tax Authority</t>
   </si>
@@ -1650,6 +1650,27 @@
   </si>
   <si>
     <t>/FileUploaderService/databaseLoadOutputFiles</t>
+  </si>
+  <si>
+    <t>Machine Key</t>
+  </si>
+  <si>
+    <t>/FileUploaderService/installMachineKey</t>
+  </si>
+  <si>
+    <t>Manual Update</t>
+  </si>
+  <si>
+    <t>/FileUploaderService/generateBulletinListPDF</t>
+  </si>
+  <si>
+    <t>/FileUploaderService/getManualUploadStatus</t>
+  </si>
+  <si>
+    <t>/FileUploaderService/manualUpdate</t>
+  </si>
+  <si>
+    <t>/FileUploaderService/manualUpdateOutputFiles</t>
   </si>
 </sst>
 </file>
@@ -11640,10 +11661,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:F60"/>
+  <dimension ref="A1:F66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B28" workbookViewId="0">
-      <selection activeCell="E45" sqref="E45"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="B63" sqref="B63:B66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12293,6 +12314,37 @@
         <v>518</v>
       </c>
     </row>
+    <row r="62" spans="1:5" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="47" t="s">
+        <v>527</v>
+      </c>
+      <c r="B62" s="47" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>528</v>
+      </c>
+      <c r="B63" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B64" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B65" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B66" t="s">
+        <v>533</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>

--- a/TF_UI_APIs.xlsx
+++ b/TF_UI_APIs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\W\tf-new-arch-artifacts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A9E76EE-D7C0-4E2D-9DDF-7FF591D3FB49}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5BB2633-16D6-48F7-8B50-9CF879BD131B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="972" uniqueCount="534">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="976" uniqueCount="538">
   <si>
     <t>Tax Authority</t>
   </si>
@@ -1671,6 +1671,18 @@
   </si>
   <si>
     <t>/FileUploaderService/manualUpdateOutputFiles</t>
+  </si>
+  <si>
+    <t>General Configuration</t>
+  </si>
+  <si>
+    <t>/UserProfileService/getConfigurationPermissions</t>
+  </si>
+  <si>
+    <t>/UserProfileService/getGeneralConfiguration</t>
+  </si>
+  <si>
+    <t>/UserProfileService/saveGeneralConfiguration</t>
   </si>
 </sst>
 </file>
@@ -11664,7 +11676,7 @@
   <dimension ref="A1:F66"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="B63" sqref="B63:B66"/>
+      <selection activeCell="C63" sqref="C63:C65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12321,6 +12333,9 @@
       <c r="B62" s="47" t="s">
         <v>529</v>
       </c>
+      <c r="C62" s="47" t="s">
+        <v>534</v>
+      </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
@@ -12329,18 +12344,27 @@
       <c r="B63" t="s">
         <v>530</v>
       </c>
+      <c r="C63" t="s">
+        <v>535</v>
+      </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
         <v>531</v>
       </c>
-    </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C64" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="65" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
         <v>532</v>
       </c>
-    </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C65" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="66" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
         <v>533</v>
       </c>

--- a/TF_UI_APIs.xlsx
+++ b/TF_UI_APIs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\W\tf-new-arch-artifacts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5BB2633-16D6-48F7-8B50-9CF879BD131B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DD53B0B-5E46-41A6-BD89-FD6566F584FE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="976" uniqueCount="538">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="979" uniqueCount="541">
   <si>
     <t>Tax Authority</t>
   </si>
@@ -1683,6 +1683,15 @@
   </si>
   <si>
     <t>/UserProfileService/saveGeneralConfiguration</t>
+  </si>
+  <si>
+    <t>Home and About</t>
+  </si>
+  <si>
+    <t>/DatasetService/getHomePageInfo</t>
+  </si>
+  <si>
+    <t>/DatasetService/getAboutPageInfo</t>
   </si>
 </sst>
 </file>
@@ -11676,7 +11685,7 @@
   <dimension ref="A1:F66"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="C63" sqref="C63:C65"/>
+      <selection activeCell="D63" sqref="D63:D64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12336,6 +12345,9 @@
       <c r="C62" s="47" t="s">
         <v>534</v>
       </c>
+      <c r="D62" s="47" t="s">
+        <v>538</v>
+      </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
@@ -12347,6 +12359,9 @@
       <c r="C63" t="s">
         <v>535</v>
       </c>
+      <c r="D63" t="s">
+        <v>539</v>
+      </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
@@ -12354,6 +12369,9 @@
       </c>
       <c r="C64" t="s">
         <v>536</v>
+      </c>
+      <c r="D64" t="s">
+        <v>540</v>
       </c>
     </row>
     <row r="65" spans="2:3" x14ac:dyDescent="0.25">

--- a/TF_UI_APIs.xlsx
+++ b/TF_UI_APIs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\W\tf-new-arch-artifacts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DD53B0B-5E46-41A6-BD89-FD6566F584FE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F376706-FE43-43B6-9D35-CCE2EAE64598}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="979" uniqueCount="541">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="983" uniqueCount="545">
   <si>
     <t>Tax Authority</t>
   </si>
@@ -1692,6 +1692,18 @@
   </si>
   <si>
     <t>/DatasetService/getAboutPageInfo</t>
+  </si>
+  <si>
+    <t>Messages To Suppress</t>
+  </si>
+  <si>
+    <t>/MessageService/getMessagesToSuppress</t>
+  </si>
+  <si>
+    <t>/MessageService/resetMessagesToSuppress</t>
+  </si>
+  <si>
+    <t>/MessageService/saveMessagesToSuppress</t>
   </si>
 </sst>
 </file>
@@ -11684,8 +11696,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:F66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="D63" sqref="D63:D64"/>
+    <sheetView tabSelected="1" topLeftCell="C45" workbookViewId="0">
+      <selection activeCell="E63" sqref="E63:E65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12348,6 +12360,9 @@
       <c r="D62" s="47" t="s">
         <v>538</v>
       </c>
+      <c r="E62" s="47" t="s">
+        <v>541</v>
+      </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
@@ -12362,6 +12377,9 @@
       <c r="D63" t="s">
         <v>539</v>
       </c>
+      <c r="E63" t="s">
+        <v>542</v>
+      </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
@@ -12373,16 +12391,22 @@
       <c r="D64" t="s">
         <v>540</v>
       </c>
-    </row>
-    <row r="65" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="E64" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="65" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
         <v>532</v>
       </c>
       <c r="C65" t="s">
         <v>537</v>
       </c>
-    </row>
-    <row r="66" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="E65" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="66" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
         <v>533</v>
       </c>
